--- a/legendre_out/DATA/p1/a2/p1_a2Fit.xlsx
+++ b/legendre_out/DATA/p1/a2/p1_a2Fit.xlsx
@@ -405,7 +405,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.99602</v>
       </c>
       <c r="B2" t="n">
         <v>7.14040337721277e-07</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.00097</v>
       </c>
       <c r="B3" t="n">
         <v>2.827115953287261e-06</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
         <v>3.4213588250238e-06</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.00697</v>
       </c>
       <c r="B5" t="n">
         <v>4.302293460782835e-06</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.00909</v>
       </c>
       <c r="B6" t="n">
         <v>4.72371258566283e-06</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.01003</v>
       </c>
       <c r="B7" t="n">
         <v>4.938608436949749e-06</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
         <v>4.577877086514617e-06</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.01911</v>
       </c>
       <c r="B9" t="n">
         <v>4.994118324490685e-06</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.01992</v>
       </c>
       <c r="B10" t="n">
         <v>3.794760041170811e-06</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.02504</v>
       </c>
       <c r="B11" t="n">
         <v>4.825880955831833e-06</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.02998</v>
       </c>
       <c r="B12" t="n">
         <v>3.808776045900322e-06</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.03514</v>
       </c>
       <c r="B13" t="n">
         <v>3.428950367798614e-06</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.26996</v>
       </c>
       <c r="B14" t="n">
         <v>6.57928572499041e-06</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.29005</v>
       </c>
       <c r="B15" t="n">
         <v>5.235013599883263e-06</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="B16" t="n">
         <v>5.510874447693858e-06</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.29319</v>
       </c>
       <c r="B17" t="n">
         <v>4.682209438370808e-06</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.2942</v>
       </c>
       <c r="B18" t="n">
         <v>4.94827486227033e-06</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.29515</v>
       </c>
       <c r="B19" t="n">
         <v>6.128646590682525e-06</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.29615</v>
       </c>
       <c r="B20" t="n">
         <v>5.303626762810257e-06</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
         <v>6.225550660560588e-06</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="B22" t="n">
         <v>1.044319074975857e-05</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="B23" t="n">
         <v>1.320397889510945e-05</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.30105</v>
       </c>
       <c r="B24" t="n">
         <v>1.759392680189717e-05</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.3031</v>
       </c>
       <c r="B25" t="n">
         <v>1.916363732944548e-05</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.30523</v>
       </c>
       <c r="B26" t="n">
         <v>1.657556299021311e-05</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
         <v>2.039751560695078e-05</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.3093</v>
       </c>
       <c r="B28" t="n">
         <v>1.861164529040426e-05</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.30996</v>
       </c>
       <c r="B29" t="n">
         <v>1.980750928938622e-05</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.31117</v>
       </c>
       <c r="B30" t="n">
         <v>1.923445422529689e-05</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.31311</v>
       </c>
       <c r="B31" t="n">
         <v>1.853457748012501e-05</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.31513</v>
       </c>
       <c r="B32" t="n">
         <v>1.801869540316572e-05</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.3172</v>
       </c>
       <c r="B33" t="n">
         <v>1.692666572646929e-05</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.31917</v>
       </c>
       <c r="B34" t="n">
         <v>1.913808216352462e-05</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
         <v>1.796568073511493e-05</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
         <v>1.699596870880257e-05</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.32521</v>
       </c>
       <c r="B37" t="n">
         <v>1.170970307728833e-05</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.32711</v>
       </c>
       <c r="B38" t="n">
         <v>1.163137105963701e-05</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.32908</v>
       </c>
       <c r="B39" t="n">
         <v>9.634840673248265e-06</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.33012</v>
       </c>
       <c r="B40" t="n">
         <v>1.176793683124876e-05</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.33119</v>
       </c>
       <c r="B41" t="n">
         <v>1.73752545986708e-05</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.33324</v>
       </c>
       <c r="B42" t="n">
         <v>1.771937861172105e-05</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.33515</v>
       </c>
       <c r="B43" t="n">
         <v>1.648726795066369e-05</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.34004</v>
       </c>
       <c r="B44" t="n">
         <v>1.48707753431954e-05</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.34488</v>
       </c>
       <c r="B45" t="n">
         <v>1.57230254748367e-05</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.34998</v>
       </c>
       <c r="B46" t="n">
         <v>1.525368385041286e-05</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.37005</v>
       </c>
       <c r="B47" t="n">
         <v>1.019486152345244e-05</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.39015</v>
       </c>
       <c r="B48" t="n">
         <v>1.379476943330958e-05</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.41003</v>
       </c>
       <c r="B49" t="n">
         <v>2.062406776604624e-05</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.42024</v>
       </c>
       <c r="B50" t="n">
         <v>3.01816503224958e-05</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.43018</v>
       </c>
       <c r="B51" t="n">
         <v>4.096298626718871e-05</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.44004</v>
       </c>
       <c r="B52" t="n">
         <v>8.661471636220722e-05</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.44994</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001458498615322326</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.45499</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004035708767424998</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.46012</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006532596304860081</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007194658432518824</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005811147721672745</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.48613</v>
       </c>
       <c r="B58" t="n">
         <v>0.000301104852338902</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.48819</v>
       </c>
       <c r="B59" t="n">
         <v>0.0002310343318333634</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002938585242383925</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.49222</v>
       </c>
       <c r="B61" t="n">
         <v>0.0001293563669258997</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.49499</v>
       </c>
       <c r="B62" t="n">
         <v>9.320598170771725e-05</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="B63" t="n">
         <v>5.382130063833359e-05</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.51021</v>
       </c>
       <c r="B64" t="n">
         <v>2.857849186299172e-05</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.51218</v>
       </c>
       <c r="B65" t="n">
         <v>2.192425996615941e-05</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.51508</v>
       </c>
       <c r="B66" t="n">
         <v>2.254044044122116e-05</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.52007</v>
       </c>
       <c r="B67" t="n">
         <v>2.627419760366878e-05</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.52524</v>
       </c>
       <c r="B68" t="n">
         <v>3.477559819448385e-05</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="B69" t="n">
         <v>3.330342863356846e-05</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.53506</v>
       </c>
       <c r="B70" t="n">
         <v>6.849711710817737e-05</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.54024</v>
       </c>
       <c r="B71" t="n">
         <v>0.0001072387487595831</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.5498</v>
       </c>
       <c r="B72" t="n">
         <v>0.0002572842324402023</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.56018</v>
       </c>
       <c r="B73" t="n">
         <v>0.00065209201293089</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="B74" t="n">
         <v>0.0006457032091558429</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="B75" t="n">
         <v>0.0003485103420738014</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.59008</v>
       </c>
       <c r="B76" t="n">
         <v>0.0001840923791191634</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.60027</v>
       </c>
       <c r="B77" t="n">
         <v>9.195122646114368e-05</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.60999</v>
       </c>
       <c r="B78" t="n">
         <v>9.561374310933467e-05</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.62023</v>
       </c>
       <c r="B79" t="n">
         <v>6.572936384372893e-05</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.62994</v>
       </c>
       <c r="B80" t="n">
         <v>5.951471736734937e-05</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.63517</v>
       </c>
       <c r="B81" t="n">
         <v>3.860732017503461e-05</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
         <v>4.353080131843061e-05</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.64996</v>
       </c>
       <c r="B83" t="n">
         <v>9.383189785656604e-05</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.67012</v>
       </c>
       <c r="B84" t="n">
         <v>6.287800547708218e-05</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.68015</v>
       </c>
       <c r="B85" t="n">
         <v>2.842028928182821e-05</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.68993</v>
       </c>
       <c r="B86" t="n">
         <v>2.433864586934729e-05</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
         <v>2.2676094476138e-05</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.73</v>
       </c>
       <c r="B88" t="n">
         <v>2.85918460748808e-05</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.75</v>
       </c>
       <c r="B89" t="n">
         <v>5.214959987888892e-05</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.75518</v>
       </c>
       <c r="B90" t="n">
         <v>0.0001207699871548392</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.75888</v>
       </c>
       <c r="B91" t="n">
         <v>0.0001354981552985159</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.77004</v>
       </c>
       <c r="B92" t="n">
         <v>0.0001589383810023154</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.77502</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001639826010181513</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="B94" t="n">
         <v>0.0001454841582494727</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.79012</v>
       </c>
       <c r="B95" t="n">
         <v>0.0001292321378095957</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="B96" t="n">
         <v>9.67957537123889e-05</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.81003</v>
       </c>
       <c r="B97" t="n">
         <v>8.840361635729555e-05</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
         <v>8.329967232527869e-05</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
         <v>8.297148046202108e-05</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.82006</v>
       </c>
       <c r="B100" t="n">
         <v>8.181804930165916e-05</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.82989</v>
       </c>
       <c r="B101" t="n">
         <v>8.216215520840822e-05</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
         <v>9.640153049033563e-05</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.86629</v>
       </c>
       <c r="B103" t="n">
         <v>0.0001292211475341312</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.88989</v>
       </c>
       <c r="B104" t="n">
         <v>0.0002118524861775227</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.89991</v>
       </c>
       <c r="B105" t="n">
         <v>0.0003234558367595674</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
         <v>0.0004277036849597809</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.91996</v>
       </c>
       <c r="B107" t="n">
         <v>0.0005690858907346963</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.92615</v>
       </c>
       <c r="B108" t="n">
         <v>0.0007100000392652016</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="B109" t="n">
         <v>0.0007671105773540415</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.93692</v>
       </c>
       <c r="B110" t="n">
         <v>0.000954855703540484</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.94675</v>
       </c>
       <c r="B111" t="n">
         <v>0.001172254206314272</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.95027</v>
       </c>
       <c r="B112" t="n">
         <v>0.001186175999740505</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.95676</v>
       </c>
       <c r="B113" t="n">
         <v>0.001330862269176396</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="B114" t="n">
         <v>0.001358884422925159</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.96475</v>
       </c>
       <c r="B115" t="n">
         <v>0.001351449079372242</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.96787</v>
       </c>
       <c r="B116" t="n">
         <v>0.001327881138998005</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.97004</v>
       </c>
       <c r="B117" t="n">
         <v>0.001333676158338903</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
         <v>0.001264427532957934</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.97463</v>
       </c>
       <c r="B119" t="n">
         <v>0.00123019590669632</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.98471</v>
       </c>
       <c r="B120" t="n">
         <v>0.001012749084015163</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="B121" t="n">
         <v>0.0009422679515061922</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="B122" t="n">
         <v>0.0007908836935178625</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.00464</v>
       </c>
       <c r="B123" t="n">
         <v>0.0006139788579407552</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
         <v>0.0005625835153641634</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.01484</v>
       </c>
       <c r="B125" t="n">
         <v>0.0004836488963082738</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.01774</v>
       </c>
       <c r="B126" t="n">
         <v>0.000459166023777435</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.01786</v>
       </c>
       <c r="B127" t="n">
         <v>0.0004606810328444042</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="B128" t="n">
         <v>0.0004541791169512236</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.0248</v>
       </c>
       <c r="B129" t="n">
         <v>0.0004404234926457666</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="B130" t="n">
         <v>0.0004456044884461266</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.0301</v>
       </c>
       <c r="B131" t="n">
         <v>0.0004529323165655061</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="B132" t="n">
         <v>0.0005031824344002154</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.0359</v>
       </c>
       <c r="B133" t="n">
         <v>0.0005473771155996552</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.03871</v>
       </c>
       <c r="B134" t="n">
         <v>0.0005755297099739215</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="B135" t="n">
         <v>0.0005825859397154281</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.04479</v>
       </c>
       <c r="B136" t="n">
         <v>0.0005679445542916203</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.04997</v>
       </c>
       <c r="B137" t="n">
         <v>0.0005444429552038764</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.05484</v>
       </c>
       <c r="B138" t="n">
         <v>0.0004648879220136948</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.06488</v>
       </c>
       <c r="B139" t="n">
         <v>0.000291266773339438</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.06991</v>
       </c>
       <c r="B140" t="n">
         <v>0.0002468341544998704</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.07448</v>
       </c>
       <c r="B141" t="n">
         <v>0.0001965380567372892</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.08419</v>
       </c>
       <c r="B142" t="n">
         <v>0.0001524858214171933</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.08999</v>
       </c>
       <c r="B143" t="n">
         <v>0.0001435870635641344</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="B144" t="n">
         <v>0.0001396884878070247</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
         <v>0.000143980429182417</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.09889</v>
       </c>
       <c r="B146" t="n">
         <v>0.0001381018561308602</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.09999</v>
       </c>
       <c r="B147" t="n">
         <v>0.0001371237620479568</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.10043</v>
       </c>
       <c r="B148" t="n">
         <v>0.0001376331049188781</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="B149" t="n">
         <v>0.0001377566667437495</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.10288</v>
       </c>
       <c r="B150" t="n">
         <v>0.0001338615821179786</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.10486</v>
       </c>
       <c r="B151" t="n">
         <v>0.0001318239688692179</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.1069</v>
       </c>
       <c r="B152" t="n">
         <v>0.0001316260271248417</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.10878</v>
       </c>
       <c r="B153" t="n">
         <v>0.0001200402465573764</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="B154" t="n">
         <v>0.0001214443759489481</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
         <v>0.0001217692262174442</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.11384</v>
       </c>
       <c r="B156" t="n">
         <v>0.0001212017005152993</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.1188</v>
       </c>
       <c r="B157" t="n">
         <v>0.0001078236219349305</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="B158" t="n">
         <v>9.363952625848905e-05</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.12852</v>
       </c>
       <c r="B159" t="n">
         <v>8.796984676257676e-05</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.12994</v>
       </c>
       <c r="B160" t="n">
         <v>8.656839373004628e-05</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.13381</v>
       </c>
       <c r="B161" t="n">
         <v>0.0001060858779515832</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.13888</v>
       </c>
       <c r="B162" t="n">
         <v>0.0001857554815625494</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.14165</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002271295250539216</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="B164" t="n">
         <v>0.0002423850363386799</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.14799</v>
       </c>
       <c r="B165" t="n">
         <v>0.0002472489228129682</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.15001</v>
       </c>
       <c r="B166" t="n">
         <v>0.0002532271695083308</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="B167" t="n">
         <v>0.0002542563006911356</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
         <v>0.0002456886276199866</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.15937</v>
       </c>
       <c r="B169" t="n">
         <v>0.000225928496035768</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.17005</v>
       </c>
       <c r="B170" t="n">
         <v>0.0001426589665982318</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.18984</v>
       </c>
       <c r="B171" t="n">
         <v>9.319108574471289e-05</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="B172" t="n">
         <v>8.489039580389198e-05</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.23003</v>
       </c>
       <c r="B173" t="n">
         <v>9.835579787925823e-05</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.2395</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001370853313771415</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.24306</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001536264649185891</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.25013</v>
       </c>
       <c r="B176" t="n">
         <v>0.0002327602872135754</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
         <v>0.00031330384407329</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003231805160028283</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.26998</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003123368361775996</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
         <v>0.000282208378232745</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.27502</v>
       </c>
       <c r="B181" t="n">
         <v>0.0002789165350370565</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279809999999999</v>
       </c>
       <c r="B182" t="n">
         <v>0.0002508565393513808</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.28495</v>
       </c>
       <c r="B183" t="n">
         <v>0.0002142985517924306</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.29016</v>
       </c>
       <c r="B184" t="n">
         <v>0.0001969013282940679</v>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.29294</v>
       </c>
       <c r="B185" t="n">
         <v>0.0001942394261816187</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.29767</v>
       </c>
       <c r="B186" t="n">
         <v>0.000192292960319392</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.29972</v>
       </c>
       <c r="B187" t="n">
         <v>0.0001879287838018449</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.30238</v>
       </c>
       <c r="B188" t="n">
         <v>0.0001805722021638861</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.30823</v>
       </c>
       <c r="B189" t="n">
         <v>0.0002003417151262566</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312880000000001</v>
       </c>
       <c r="B190" t="n">
         <v>0.0002323193084568684</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.31752</v>
       </c>
       <c r="B191" t="n">
         <v>0.0002632918480535111</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.32281</v>
       </c>
       <c r="B192" t="n">
         <v>0.0002976243236549727</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.32768</v>
       </c>
       <c r="B193" t="n">
         <v>0.0003461968780731135</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
         <v>0.0003901898660483963</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.33291</v>
       </c>
       <c r="B195" t="n">
         <v>0.0003747897979068573</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.33747</v>
       </c>
       <c r="B196" t="n">
         <v>0.0003768496009755671</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.34274</v>
       </c>
       <c r="B197" t="n">
         <v>0.0003378704500440053</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.34293</v>
       </c>
       <c r="B198" t="n">
         <v>0.0003340553487927641</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.34694</v>
       </c>
       <c r="B199" t="n">
         <v>0.0002947581773900507</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.34826</v>
       </c>
       <c r="B200" t="n">
         <v>0.000284343284434682</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.34858</v>
       </c>
       <c r="B201" t="n">
         <v>0.0002762025800194134</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.35205</v>
       </c>
       <c r="B202" t="n">
         <v>0.0003527105401187479</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.3536</v>
       </c>
       <c r="B203" t="n">
         <v>0.0003092128772428525</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.3579</v>
       </c>
       <c r="B204" t="n">
         <v>0.0003257694628109489</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359830000000001</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002966534912566576</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.36189</v>
       </c>
       <c r="B206" t="n">
         <v>0.0002792376486705193</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.36386</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002649699879018213</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.36605</v>
       </c>
       <c r="B208" t="n">
         <v>0.000248766851873757</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368040000000001</v>
       </c>
       <c r="B209" t="n">
         <v>0.0002295999521260622</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.36965</v>
       </c>
       <c r="B210" t="n">
         <v>0.0002334066735465483</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.3748</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001202676524807527</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.38009</v>
       </c>
       <c r="B212" t="n">
         <v>4.999730323222052e-05</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382919999999999</v>
       </c>
       <c r="B213" t="n">
         <v>3.10685884608055e-05</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.38334</v>
       </c>
       <c r="B214" t="n">
         <v>4.413380581619173e-05</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383859999999999</v>
       </c>
       <c r="B215" t="n">
         <v>2.725097350184076e-05</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.38596</v>
       </c>
       <c r="B216" t="n">
         <v>2.218804852879497e-05</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.38986</v>
       </c>
       <c r="B217" t="n">
         <v>1.885578203647702e-05</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.39308</v>
       </c>
       <c r="B218" t="n">
         <v>1.924354369423247e-05</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.40341</v>
       </c>
       <c r="B219" t="n">
         <v>2.774658316021075e-05</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.41408</v>
       </c>
       <c r="B220" t="n">
         <v>5.175507427089846e-05</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.42436</v>
       </c>
       <c r="B221" t="n">
         <v>5.804622474835929e-05</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.43541</v>
       </c>
       <c r="B222" t="n">
         <v>5.091039311935226e-05</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.43926</v>
       </c>
       <c r="B223" t="n">
         <v>4.536026952786826e-05</v>

--- a/legendre_out/DATA/p1/a2/p1_a2Fit.xlsx
+++ b/legendre_out/DATA/p1/a2/p1_a2Fit.xlsx
@@ -405,7 +405,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.99602</v>
+        <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
         <v>7.14040337721277e-07</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.00097</v>
+        <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
         <v>2.827115953287261e-06</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
         <v>3.4213588250238e-06</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.00697</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
         <v>4.302293460782835e-06</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.00909</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
         <v>4.72371258566283e-06</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.01003</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
         <v>4.938608436949749e-06</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
         <v>4.577877086514617e-06</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.01911</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
         <v>4.994118324490685e-06</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.01992</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
         <v>3.794760041170811e-06</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.02504</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
         <v>4.825880955831833e-06</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.02998</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
         <v>3.808776045900322e-06</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.03514</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
         <v>3.428950367798614e-06</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.26996</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
         <v>6.57928572499041e-06</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.29005</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
         <v>5.235013599883263e-06</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291119999999999</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
         <v>5.510874447693858e-06</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.29319</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
         <v>4.682209438370808e-06</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.2942</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
         <v>4.94827486227033e-06</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.29515</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
         <v>6.128646590682525e-06</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.29615</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
         <v>5.303626762810257e-06</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
         <v>6.225550660560588e-06</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298080000000001</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
         <v>1.044319074975857e-05</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299090000000001</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
         <v>1.320397889510945e-05</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.30105</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
         <v>1.759392680189717e-05</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.3031</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
         <v>1.916363732944548e-05</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.30523</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
         <v>1.657556299021311e-05</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
         <v>2.039751560695078e-05</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.3093</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
         <v>1.861164529040426e-05</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.30996</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
         <v>1.980750928938622e-05</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.31117</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
         <v>1.923445422529689e-05</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.31311</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
         <v>1.853457748012501e-05</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.31513</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
         <v>1.801869540316572e-05</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.3172</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
         <v>1.692666572646929e-05</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.31917</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
         <v>1.913808216352462e-05</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
         <v>1.796568073511493e-05</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
         <v>1.699596870880257e-05</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.32521</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
         <v>1.170970307728833e-05</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.32711</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
         <v>1.163137105963701e-05</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.32908</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
         <v>9.634840673248265e-06</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.33012</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
         <v>1.176793683124876e-05</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.33119</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
         <v>1.73752545986708e-05</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.33324</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
         <v>1.771937861172105e-05</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.33515</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
         <v>1.648726795066369e-05</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.34004</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
         <v>1.48707753431954e-05</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.34488</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
         <v>1.57230254748367e-05</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.34998</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
         <v>1.525368385041286e-05</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.37005</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
         <v>1.019486152345244e-05</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.39015</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
         <v>1.379476943330958e-05</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.41003</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
         <v>2.062406776604624e-05</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.42024</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
         <v>3.01816503224958e-05</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.43018</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
         <v>4.096298626718871e-05</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.44004</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
         <v>8.661471636220722e-05</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.44994</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001458498615322326</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.45499</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004035708767424998</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.46012</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006532596304860081</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469959999999999</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007194658432518824</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477980000000001</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005811147721672745</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.48613</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
         <v>0.000301104852338902</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.48819</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
         <v>0.0002310343318333634</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490069999999999</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002938585242383925</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.49222</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
         <v>0.0001293563669258997</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.49499</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
         <v>9.320598170771725e-05</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499969999999999</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
         <v>5.382130063833359e-05</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.51021</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
         <v>2.857849186299172e-05</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.51218</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
         <v>2.192425996615941e-05</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.51508</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
         <v>2.254044044122116e-05</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.52007</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
         <v>2.627419760366878e-05</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.52524</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
         <v>3.477559819448385e-05</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529409999999999</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
         <v>3.330342863356846e-05</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.53506</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
         <v>6.849711710817737e-05</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.54024</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
         <v>0.0001072387487595831</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.5498</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
         <v>0.0002572842324402023</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.56018</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
         <v>0.00065209201293089</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570130000000001</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
         <v>0.0006457032091558429</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580030000000001</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
         <v>0.0003485103420738014</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.59008</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
         <v>0.0001840923791191634</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.60027</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
         <v>9.195122646114368e-05</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.60999</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
         <v>9.561374310933467e-05</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.62023</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
         <v>6.572936384372893e-05</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.62994</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
         <v>5.951471736734937e-05</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.63517</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
         <v>3.860732017503461e-05</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
         <v>4.353080131843061e-05</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.64996</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
         <v>9.383189785656604e-05</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.67012</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
         <v>6.287800547708218e-05</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.68015</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
         <v>2.842028928182821e-05</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.68993</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
         <v>2.433864586934729e-05</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
         <v>2.2676094476138e-05</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.73</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
         <v>2.85918460748808e-05</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.75</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
         <v>5.214959987888892e-05</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.75518</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
         <v>0.0001207699871548392</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.75888</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
         <v>0.0001354981552985159</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.77004</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
         <v>0.0001589383810023154</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.77502</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001639826010181513</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780180000000001</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
         <v>0.0001454841582494727</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.79012</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
         <v>0.0001292321378095957</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799919999999999</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
         <v>9.67957537123889e-05</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.81003</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
         <v>8.840361635729555e-05</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
         <v>8.329967232527869e-05</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
         <v>8.297148046202108e-05</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.82006</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
         <v>8.181804930165916e-05</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.82989</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
         <v>8.216215520840822e-05</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
         <v>9.640153049033563e-05</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.86629</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
         <v>0.0001292211475341312</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.88989</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
         <v>0.0002118524861775227</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.89991</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
         <v>0.0003234558367595674</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
         <v>0.0004277036849597809</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.91996</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
         <v>0.0005690858907346963</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.92615</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
         <v>0.0007100000392652016</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930190000000001</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
         <v>0.0007671105773540415</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.93692</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
         <v>0.000954855703540484</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.94675</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
         <v>0.001172254206314272</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.95027</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
         <v>0.001186175999740505</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.95676</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
         <v>0.001330862269176396</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
         <v>0.001358884422925159</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.96475</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
         <v>0.001351449079372242</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.96787</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
         <v>0.001327881138998005</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.97004</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
         <v>0.001333676158338903</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
         <v>0.001264427532957934</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.97463</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
         <v>0.00123019590669632</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.98471</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
         <v>0.001012749084015163</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990069999999999</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
         <v>0.0009422679515061922</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669999999999</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
         <v>0.0007908836935178625</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.00464</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
         <v>0.0006139788579407552</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
         <v>0.0005625835153641634</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.01484</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
         <v>0.0004836488963082738</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.01774</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
         <v>0.000459166023777435</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.01786</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
         <v>0.0004606810328444042</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019819999999999</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
         <v>0.0004541791169512236</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.0248</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
         <v>0.0004404234926457666</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027830000000001</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
         <v>0.0004456044884461266</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.0301</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
         <v>0.0004529323165655061</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032780000000001</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
         <v>0.0005031824344002154</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.0359</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
         <v>0.0005473771155996552</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.03871</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
         <v>0.0005755297099739215</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041980000000001</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
         <v>0.0005825859397154281</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.04479</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
         <v>0.0005679445542916203</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.04997</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
         <v>0.0005444429552038764</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.05484</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
         <v>0.0004648879220136948</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.06488</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
         <v>0.000291266773339438</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.06991</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
         <v>0.0002468341544998704</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.07448</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
         <v>0.0001965380567372892</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.08419</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
         <v>0.0001524858214171933</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.08999</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
         <v>0.0001435870635641344</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093719999999999</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
         <v>0.0001396884878070247</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
         <v>0.000143980429182417</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.09889</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
         <v>0.0001381018561308602</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.09999</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
         <v>0.0001371237620479568</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.10043</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
         <v>0.0001376331049188781</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100709999999999</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
         <v>0.0001377566667437495</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.10288</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
         <v>0.0001338615821179786</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.10486</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
         <v>0.0001318239688692179</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.1069</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
         <v>0.0001316260271248417</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.10878</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
         <v>0.0001200402465573764</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110040000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
         <v>0.0001214443759489481</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
         <v>0.0001217692262174442</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.11384</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
         <v>0.0001212017005152993</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.1188</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
         <v>0.0001078236219349305</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123769999999999</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
         <v>9.363952625848905e-05</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.12852</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
         <v>8.796984676257676e-05</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.12994</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
         <v>8.656839373004628e-05</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.13381</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
         <v>0.0001060858779515832</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.13888</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
         <v>0.0001857554815625494</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.14165</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002271295250539216</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144740000000001</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
         <v>0.0002423850363386799</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.14799</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
         <v>0.0002472489228129682</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.15001</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
         <v>0.0002532271695083308</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150980000000001</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
         <v>0.0002542563006911356</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
         <v>0.0002456886276199866</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.15937</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
         <v>0.000225928496035768</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.17005</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
         <v>0.0001426589665982318</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.18984</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
         <v>9.319108574471289e-05</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210030000000001</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
         <v>8.489039580389198e-05</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.23003</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
         <v>9.835579787925823e-05</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.2395</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001370853313771415</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.24306</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001536264649185891</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.25013</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
         <v>0.0002327602872135754</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
         <v>0.00031330384407329</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003231805160028283</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.26998</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003123368361775996</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
         <v>0.000282208378232745</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.27502</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
         <v>0.0002789165350370565</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279809999999999</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
         <v>0.0002508565393513808</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.28495</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
         <v>0.0002142985517924306</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.29016</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
         <v>0.0001969013282940679</v>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.29294</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
         <v>0.0001942394261816187</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.29767</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
         <v>0.000192292960319392</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.29972</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
         <v>0.0001879287838018449</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.30238</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
         <v>0.0001805722021638861</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.30823</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
         <v>0.0002003417151262566</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312880000000001</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
         <v>0.0002323193084568684</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.31752</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
         <v>0.0002632918480535111</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.32281</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
         <v>0.0002976243236549727</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.32768</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
         <v>0.0003461968780731135</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
         <v>0.0003901898660483963</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.33291</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
         <v>0.0003747897979068573</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.33747</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
         <v>0.0003768496009755671</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.34274</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
         <v>0.0003378704500440053</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.34293</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
         <v>0.0003340553487927641</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.34694</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
         <v>0.0002947581773900507</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.34826</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
         <v>0.000284343284434682</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.34858</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
         <v>0.0002762025800194134</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.35205</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
         <v>0.0003527105401187479</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.3536</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
         <v>0.0003092128772428525</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.3579</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
         <v>0.0003257694628109489</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359830000000001</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002966534912566576</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.36189</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
         <v>0.0002792376486705193</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.36386</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002649699879018213</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.36605</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
         <v>0.000248766851873757</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368040000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
         <v>0.0002295999521260622</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.36965</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
         <v>0.0002334066735465483</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.3748</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001202676524807527</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.38009</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
         <v>4.999730323222052e-05</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382919999999999</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
         <v>3.10685884608055e-05</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.38334</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
         <v>4.413380581619173e-05</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383859999999999</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
         <v>2.725097350184076e-05</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.38596</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
         <v>2.218804852879497e-05</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.38986</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
         <v>1.885578203647702e-05</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.39308</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
         <v>1.924354369423247e-05</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.40341</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
         <v>2.774658316021075e-05</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.41408</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
         <v>5.175507427089846e-05</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.42436</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
         <v>5.804622474835929e-05</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>5.43541</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
         <v>5.091039311935226e-05</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>5.43926</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
         <v>4.536026952786826e-05</v>

--- a/legendre_out/DATA/p1/a2/p1_a2Fit.xlsx
+++ b/legendre_out/DATA/p1/a2/p1_a2Fit.xlsx
@@ -405,5774 +405,5774 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.996021</v>
       </c>
       <c r="B2" t="n">
-        <v>7.14040337721277e-07</v>
+        <v>972776578326.9004</v>
       </c>
       <c r="C2" t="n">
-        <v>1.227071567492691e-06</v>
+        <v>1328692022126.752</v>
       </c>
       <c r="D2" t="n">
-        <v>4.229310836493852e-08</v>
+        <v>40703869273.59605</v>
       </c>
       <c r="E2" t="n">
-        <v>1.010928179302423e-07</v>
+        <v>71437952297.94281</v>
       </c>
       <c r="F2" t="n">
-        <v>517.2348760110076</v>
+        <v>321.4408134898156</v>
       </c>
       <c r="G2" t="n">
-        <v>1.519640129185322e-109</v>
+        <v>2.45206214931646e-67</v>
       </c>
       <c r="H2" t="n">
-        <v>103.4469752022015</v>
+        <v>64.28816269796312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.000967</v>
       </c>
       <c r="B3" t="n">
-        <v>2.827115953287261e-06</v>
+        <v>2513431910803.924</v>
       </c>
       <c r="C3" t="n">
-        <v>2.378101642522317e-07</v>
+        <v>769675614817.2766</v>
       </c>
       <c r="D3" t="n">
-        <v>1.136902054132711e-07</v>
+        <v>99109875523.63893</v>
       </c>
       <c r="E3" t="n">
-        <v>1.859112271420633e-07</v>
+        <v>155250290121.8494</v>
       </c>
       <c r="F3" t="n">
-        <v>135.6451126951833</v>
+        <v>114.6040127910004</v>
       </c>
       <c r="G3" t="n">
-        <v>1.506718948018326e-27</v>
+        <v>4.355033653672492e-23</v>
       </c>
       <c r="H3" t="n">
-        <v>27.12902253903666</v>
+        <v>22.92080255820007</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>3.4213588250238e-06</v>
+        <v>3212551036837.338</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.106127763971881e-06</v>
+        <v>-1948720758060.051</v>
       </c>
       <c r="D4" t="n">
-        <v>1.32346524464134e-07</v>
+        <v>125562732602.8905</v>
       </c>
       <c r="E4" t="n">
-        <v>1.507156600807917e-07</v>
+        <v>145003876636.428</v>
       </c>
       <c r="F4" t="n">
-        <v>170.9979939561357</v>
+        <v>175.9560643728114</v>
       </c>
       <c r="G4" t="n">
-        <v>4.468476678186343e-35</v>
+        <v>3.9078202837316e-36</v>
       </c>
       <c r="H4" t="n">
-        <v>34.19959879122714</v>
+        <v>35.19121287456228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.006972</v>
       </c>
       <c r="B5" t="n">
-        <v>4.302293460782835e-06</v>
+        <v>3845106485930.794</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.92786321471912e-07</v>
+        <v>-184423078589.3086</v>
       </c>
       <c r="D5" t="n">
-        <v>1.650261073397879e-07</v>
+        <v>150610230875.9601</v>
       </c>
       <c r="E5" t="n">
-        <v>2.665172342727817e-07</v>
+        <v>243346487676.858</v>
       </c>
       <c r="F5" t="n">
-        <v>127.7795050087858</v>
+        <v>133.4921838695238</v>
       </c>
       <c r="G5" t="n">
-        <v>7.042056359970124e-26</v>
+        <v>4.317835259447095e-27</v>
       </c>
       <c r="H5" t="n">
-        <v>25.55590100175717</v>
+        <v>26.69843677390476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.009086</v>
       </c>
       <c r="B6" t="n">
-        <v>4.72371258566283e-06</v>
+        <v>4215445440355.881</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.811013537280159e-08</v>
+        <v>604813682792.4971</v>
       </c>
       <c r="D6" t="n">
-        <v>1.817454908023021e-07</v>
+        <v>162422267733.2489</v>
       </c>
       <c r="E6" t="n">
-        <v>2.774299079510915e-07</v>
+        <v>240554500578.8684</v>
       </c>
       <c r="F6" t="n">
-        <v>96.36680505806876</v>
+        <v>89.97694107196358</v>
       </c>
       <c r="G6" t="n">
-        <v>3.0787377481523e-19</v>
+        <v>6.794683094403606e-18</v>
       </c>
       <c r="H6" t="n">
-        <v>19.27336101161375</v>
+        <v>17.99538821439272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.010032</v>
       </c>
       <c r="B7" t="n">
-        <v>4.938608436949749e-06</v>
+        <v>4559775458093.467</v>
       </c>
       <c r="C7" t="n">
-        <v>3.315817168911927e-07</v>
+        <v>344428801202.2188</v>
       </c>
       <c r="D7" t="n">
-        <v>1.843665592379445e-07</v>
+        <v>175707062272.3054</v>
       </c>
       <c r="E7" t="n">
-        <v>2.844764961886608e-07</v>
+        <v>277118023600.2263</v>
       </c>
       <c r="F7" t="n">
-        <v>41.87222068755857</v>
+        <v>41.81747357947938</v>
       </c>
       <c r="G7" t="n">
-        <v>6.251720828332374e-08</v>
+        <v>6.413205575522267e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>8.374444137511713</v>
+        <v>8.363494715895877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
-        <v>4.577877086514617e-06</v>
+        <v>4194122358843.761</v>
       </c>
       <c r="C8" t="n">
-        <v>7.756664971706102e-07</v>
+        <v>1046888716286.663</v>
       </c>
       <c r="D8" t="n">
-        <v>1.555151721371181e-07</v>
+        <v>144734287704.949</v>
       </c>
       <c r="E8" t="n">
-        <v>2.502815540742392e-07</v>
+        <v>231634153970.1179</v>
       </c>
       <c r="F8" t="n">
-        <v>70.01162684915762</v>
+        <v>58.14435094563049</v>
       </c>
       <c r="G8" t="n">
-        <v>1.019097248783966e-13</v>
+        <v>2.936999315691453e-11</v>
       </c>
       <c r="H8" t="n">
-        <v>14.00232536983152</v>
+        <v>11.6288701891261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.019108</v>
       </c>
       <c r="B9" t="n">
-        <v>4.994118324490685e-06</v>
+        <v>4539757554065.426</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.248342776791771e-07</v>
+        <v>235541399427.2969</v>
       </c>
       <c r="D9" t="n">
-        <v>1.601869043084732e-07</v>
+        <v>147004204294.9181</v>
       </c>
       <c r="E9" t="n">
-        <v>2.440978220144544e-07</v>
+        <v>219657657332.9364</v>
       </c>
       <c r="F9" t="n">
-        <v>44.28156757322643</v>
+        <v>43.0564361238215</v>
       </c>
       <c r="G9" t="n">
-        <v>2.030535605624648e-08</v>
+        <v>3.599018720521807e-08</v>
       </c>
       <c r="H9" t="n">
-        <v>8.856313514645285</v>
+        <v>8.6112872247643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.019916</v>
       </c>
       <c r="B10" t="n">
-        <v>3.794760041170811e-06</v>
+        <v>3374416118386.351</v>
       </c>
       <c r="C10" t="n">
-        <v>2.102964996948851e-07</v>
+        <v>874481263308.9165</v>
       </c>
       <c r="D10" t="n">
-        <v>1.555605860136857e-07</v>
+        <v>137996684640.1256</v>
       </c>
       <c r="E10" t="n">
-        <v>2.644967572926806e-07</v>
+        <v>224234127488.3907</v>
       </c>
       <c r="F10" t="n">
-        <v>142.5153480498058</v>
+        <v>129.0121976088133</v>
       </c>
       <c r="G10" t="n">
-        <v>5.222833665288192e-29</v>
+        <v>3.856394083069321e-26</v>
       </c>
       <c r="H10" t="n">
-        <v>28.50306960996116</v>
+        <v>25.80243952176265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.025044</v>
       </c>
       <c r="B11" t="n">
-        <v>4.825880955831833e-06</v>
+        <v>4399723760184.513</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.068617969581523e-09</v>
+        <v>285149528031.3633</v>
       </c>
       <c r="D11" t="n">
-        <v>1.800102797175426e-07</v>
+        <v>166971130726.562</v>
       </c>
       <c r="E11" t="n">
-        <v>2.825212876464726e-07</v>
+        <v>261609478854.7018</v>
       </c>
       <c r="F11" t="n">
-        <v>52.66633355292493</v>
+        <v>51.39730431327501</v>
       </c>
       <c r="G11" t="n">
-        <v>3.937904084845244e-10</v>
+        <v>7.170355870633689e-10</v>
       </c>
       <c r="H11" t="n">
-        <v>10.53326671058499</v>
+        <v>10.279460862655</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.029979</v>
       </c>
       <c r="B12" t="n">
-        <v>3.808776045900322e-06</v>
+        <v>3478621345742.644</v>
       </c>
       <c r="C12" t="n">
-        <v>7.342843393129625e-07</v>
+        <v>1516841493957.149</v>
       </c>
       <c r="D12" t="n">
-        <v>1.497629542132556e-07</v>
+        <v>130043840780.2768</v>
       </c>
       <c r="E12" t="n">
-        <v>2.433656112085471e-07</v>
+        <v>197397304343.0663</v>
       </c>
       <c r="F12" t="n">
-        <v>290.1891348419454</v>
+        <v>243.7203913803047</v>
       </c>
       <c r="G12" t="n">
-        <v>1.28692289888749e-60</v>
+        <v>1.222589925481542e-50</v>
       </c>
       <c r="H12" t="n">
-        <v>58.03782696838907</v>
+        <v>48.74407827606095</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.035141</v>
       </c>
       <c r="B13" t="n">
-        <v>3.428950367798614e-06</v>
+        <v>3132683762611.462</v>
       </c>
       <c r="C13" t="n">
-        <v>5.555668511000693e-07</v>
+        <v>817517941401.27</v>
       </c>
       <c r="D13" t="n">
-        <v>1.282410689330316e-07</v>
+        <v>117164878699.0658</v>
       </c>
       <c r="E13" t="n">
-        <v>2.099813416452283e-07</v>
+        <v>190290243418.8064</v>
       </c>
       <c r="F13" t="n">
-        <v>50.52174893105476</v>
+        <v>38.70727468177648</v>
       </c>
       <c r="G13" t="n">
-        <v>1.083683494891098e-09</v>
+        <v>2.719793554662251e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>10.10434978621095</v>
+        <v>7.741454936355295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.269958</v>
       </c>
       <c r="B14" t="n">
-        <v>6.57928572499041e-06</v>
+        <v>6105808401269.011</v>
       </c>
       <c r="C14" t="n">
-        <v>5.252976234780436e-07</v>
+        <v>457520697337.5557</v>
       </c>
       <c r="D14" t="n">
-        <v>1.819357365083217e-07</v>
+        <v>172334744152.2489</v>
       </c>
       <c r="E14" t="n">
-        <v>2.862773001237083e-07</v>
+        <v>277609218572.2591</v>
       </c>
       <c r="F14" t="n">
-        <v>6.914622869609799</v>
+        <v>7.753918534594869</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2270677493952538</v>
+        <v>0.1703292992182579</v>
       </c>
       <c r="H14" t="n">
-        <v>1.38292457392196</v>
+        <v>1.550783706918974</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.290051</v>
       </c>
       <c r="B15" t="n">
-        <v>5.235013599883263e-06</v>
+        <v>4860937347128.201</v>
       </c>
       <c r="C15" t="n">
-        <v>8.601396143431546e-07</v>
+        <v>677172607667.5005</v>
       </c>
       <c r="D15" t="n">
-        <v>1.558801999704727e-07</v>
+        <v>149270409882.4422</v>
       </c>
       <c r="E15" t="n">
-        <v>2.48249121454125e-07</v>
+        <v>247570633352.5352</v>
       </c>
       <c r="F15" t="n">
-        <v>2.92250354070331</v>
+        <v>7.312100464926159</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7119322463908631</v>
+        <v>0.1984443605490384</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5845007081406621</v>
+        <v>1.462420092985232</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>5.510874447693858e-06</v>
+        <v>5230160768161.649</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.239811454474807e-07</v>
+        <v>-839434359326.4082</v>
       </c>
       <c r="D16" t="n">
-        <v>1.847503905282874e-07</v>
+        <v>180845377796.4158</v>
       </c>
       <c r="E16" t="n">
-        <v>2.768381889520426e-07</v>
+        <v>279058660084.9869</v>
       </c>
       <c r="F16" t="n">
-        <v>28.74115561185009</v>
+        <v>24.66551307342734</v>
       </c>
       <c r="G16" t="n">
-        <v>2.606224018281791e-05</v>
+        <v>0.0001616554787061228</v>
       </c>
       <c r="H16" t="n">
-        <v>5.748231122370019</v>
+        <v>4.933102614685469</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.293189</v>
       </c>
       <c r="B17" t="n">
-        <v>4.682209438370808e-06</v>
+        <v>4315921067749.809</v>
       </c>
       <c r="C17" t="n">
-        <v>6.922884106311952e-07</v>
+        <v>781265224040.7236</v>
       </c>
       <c r="D17" t="n">
-        <v>1.603686261254236e-07</v>
+        <v>150568312410.3329</v>
       </c>
       <c r="E17" t="n">
-        <v>2.526930492608811e-07</v>
+        <v>240056351935.2058</v>
       </c>
       <c r="F17" t="n">
-        <v>17.67319720594755</v>
+        <v>14.61513069802645</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003385136857723599</v>
+        <v>0.01213985281059855</v>
       </c>
       <c r="H17" t="n">
-        <v>3.53463944118951</v>
+        <v>2.92302613960529</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.294196</v>
       </c>
       <c r="B18" t="n">
-        <v>4.94827486227033e-06</v>
+        <v>4536155610869.508</v>
       </c>
       <c r="C18" t="n">
-        <v>1.169355479953968e-06</v>
+        <v>1329107864026.851</v>
       </c>
       <c r="D18" t="n">
-        <v>1.734891944839178e-07</v>
+        <v>163096997438.7333</v>
       </c>
       <c r="E18" t="n">
-        <v>2.867701976921916e-07</v>
+        <v>272294191209.4224</v>
       </c>
       <c r="F18" t="n">
-        <v>23.45860258923445</v>
+        <v>16.66787059892192</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002757912251459155</v>
+        <v>0.005174726454033492</v>
       </c>
       <c r="H18" t="n">
-        <v>4.69172051784689</v>
+        <v>3.333574119784385</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.295147</v>
       </c>
       <c r="B19" t="n">
-        <v>6.128646590682525e-06</v>
+        <v>5660123871167.072</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.381354039865352e-07</v>
+        <v>-9998543866.418945</v>
       </c>
       <c r="D19" t="n">
-        <v>2.1219624174246e-07</v>
+        <v>200016256366.357</v>
       </c>
       <c r="E19" t="n">
-        <v>3.164234080549386e-07</v>
+        <v>302214933241.8234</v>
       </c>
       <c r="F19" t="n">
-        <v>15.98983060830742</v>
+        <v>16.26255516227885</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006873168045639572</v>
+        <v>0.006133106775296123</v>
       </c>
       <c r="H19" t="n">
-        <v>3.197966121661484</v>
+        <v>3.25251103245577</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>5.303626762810257e-06</v>
+        <v>4824698686850.835</v>
       </c>
       <c r="C20" t="n">
-        <v>6.854770167422347e-07</v>
+        <v>1172364919589.924</v>
       </c>
       <c r="D20" t="n">
-        <v>2.088347281244351e-07</v>
+        <v>191360576882.8886</v>
       </c>
       <c r="E20" t="n">
-        <v>3.471587819398036e-07</v>
+        <v>313416178471.3975</v>
       </c>
       <c r="F20" t="n">
-        <v>44.9186687140067</v>
+        <v>34.49392399570009</v>
       </c>
       <c r="G20" t="n">
-        <v>1.50717696601424e-08</v>
+        <v>1.898322079196924e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>8.98373374280134</v>
+        <v>6.898784799140017</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>6.225550660560588e-06</v>
+        <v>5717197151557.289</v>
       </c>
       <c r="C21" t="n">
-        <v>2.2997598861806e-06</v>
+        <v>2607389715597.022</v>
       </c>
       <c r="D21" t="n">
-        <v>2.426694784826417e-07</v>
+        <v>225201904340.5882</v>
       </c>
       <c r="E21" t="n">
-        <v>4.165755036972632e-07</v>
+        <v>387895118246.583</v>
       </c>
       <c r="F21" t="n">
-        <v>32.49701830063466</v>
+        <v>17.50669628579033</v>
       </c>
       <c r="G21" t="n">
-        <v>4.735770987521872e-06</v>
+        <v>0.003632638268344053</v>
       </c>
       <c r="H21" t="n">
-        <v>6.499403660126933</v>
+        <v>3.501339257158065</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1.044319074975857e-05</v>
+        <v>9708190839209.801</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.316639487836651e-06</v>
+        <v>-1179859751957.631</v>
       </c>
       <c r="D22" t="n">
-        <v>5.021165542599879e-07</v>
+        <v>477770216339.7142</v>
       </c>
       <c r="E22" t="n">
-        <v>6.967754208995161e-07</v>
+        <v>672688975881.7168</v>
       </c>
       <c r="F22" t="n">
-        <v>24.20925001688197</v>
+        <v>24.84012318150134</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001979040717890818</v>
+        <v>0.0001495941772917261</v>
       </c>
       <c r="H22" t="n">
-        <v>4.841850003376394</v>
+        <v>4.968024636300268</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299093</v>
       </c>
       <c r="B23" t="n">
-        <v>1.320397889510945e-05</v>
+        <v>12256202290989.1</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.302569832337291e-07</v>
+        <v>-154673283911.2754</v>
       </c>
       <c r="D23" t="n">
-        <v>6.768726143376953e-07</v>
+        <v>648518076730.4589</v>
       </c>
       <c r="E23" t="n">
-        <v>1.027424739195031e-06</v>
+        <v>1005420274303.556</v>
       </c>
       <c r="F23" t="n">
-        <v>22.84461761019202</v>
+        <v>22.89931846102206</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000361452049869372</v>
+        <v>0.0003528586800037407</v>
       </c>
       <c r="H23" t="n">
-        <v>4.568923522038404</v>
+        <v>4.579863692204412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1.759392680189717e-05</v>
+        <v>15880539018464.53</v>
       </c>
       <c r="C24" t="n">
-        <v>1.510314473215102e-06</v>
+        <v>3329204724356.137</v>
       </c>
       <c r="D24" t="n">
-        <v>9.097004041418256e-07</v>
+        <v>834192744547.1219</v>
       </c>
       <c r="E24" t="n">
-        <v>1.414843089876231e-06</v>
+        <v>1282984709625.349</v>
       </c>
       <c r="F24" t="n">
-        <v>30.1343880976643</v>
+        <v>24.51482275777046</v>
       </c>
       <c r="G24" t="n">
-        <v>1.387692246790506e-05</v>
+        <v>0.0001728345942752339</v>
       </c>
       <c r="H24" t="n">
-        <v>6.02687761953286</v>
+        <v>4.902964551554093</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.303098</v>
       </c>
       <c r="B25" t="n">
-        <v>1.916363732944548e-05</v>
+        <v>17402489479399.41</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.288661536217939e-07</v>
+        <v>944719556975.8223</v>
       </c>
       <c r="D25" t="n">
-        <v>9.018290686560911e-07</v>
+        <v>838178200006.1797</v>
       </c>
       <c r="E25" t="n">
-        <v>1.3659820777735e-06</v>
+        <v>1271236405986.132</v>
       </c>
       <c r="F25" t="n">
-        <v>27.19571971972094</v>
+        <v>26.68357212082391</v>
       </c>
       <c r="G25" t="n">
-        <v>5.224803749862528e-05</v>
+        <v>6.573234945123184e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>5.439143943944189</v>
+        <v>5.336714424164781</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.305231</v>
       </c>
       <c r="B26" t="n">
-        <v>1.657556299021311e-05</v>
+        <v>14567029020372.64</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.162113664313236e-06</v>
+        <v>-850351129583.5801</v>
       </c>
       <c r="D26" t="n">
-        <v>8.696334844553086e-07</v>
+        <v>784243100550.9403</v>
       </c>
       <c r="E26" t="n">
-        <v>1.224735521346064e-06</v>
+        <v>1089066171706.862</v>
       </c>
       <c r="F26" t="n">
-        <v>54.90249921731967</v>
+        <v>60.9151131588604</v>
       </c>
       <c r="G26" t="n">
-        <v>1.367062945922281e-10</v>
+        <v>7.862586083736328e-12</v>
       </c>
       <c r="H26" t="n">
-        <v>10.98049984346394</v>
+        <v>12.18302263177208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
-        <v>2.039751560695078e-05</v>
+        <v>18832202104092.97</v>
       </c>
       <c r="C27" t="n">
-        <v>5.323719005315338e-07</v>
+        <v>835721400655.5234</v>
       </c>
       <c r="D27" t="n">
-        <v>9.833296999096397e-07</v>
+        <v>937480273858.8439</v>
       </c>
       <c r="E27" t="n">
-        <v>1.49546788767102e-06</v>
+        <v>1452663819612.581</v>
       </c>
       <c r="F27" t="n">
-        <v>2.193854510634856</v>
+        <v>1.994401561761022</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8217231495685484</v>
+        <v>0.8499191439437486</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4387709021269712</v>
+        <v>0.3988803123522044</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.309297</v>
       </c>
       <c r="B28" t="n">
-        <v>1.861164529040426e-05</v>
+        <v>16827792202995</v>
       </c>
       <c r="C28" t="n">
-        <v>1.246486085869418e-06</v>
+        <v>2965174221067.982</v>
       </c>
       <c r="D28" t="n">
-        <v>9.31947104560159e-07</v>
+        <v>858409123026.0159</v>
       </c>
       <c r="E28" t="n">
-        <v>1.41960643037973e-06</v>
+        <v>1297573896529.259</v>
       </c>
       <c r="F28" t="n">
-        <v>33.51734345226971</v>
+        <v>29.01735013781684</v>
       </c>
       <c r="G28" t="n">
-        <v>2.970216453146816e-06</v>
+        <v>2.300656399007175e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>6.703468690453943</v>
+        <v>5.803470027563367</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.309961</v>
       </c>
       <c r="B29" t="n">
-        <v>1.980750928938622e-05</v>
+        <v>18053807749920.17</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.714570178065415e-07</v>
+        <v>972740620014.7695</v>
       </c>
       <c r="D29" t="n">
-        <v>9.350595907860705e-07</v>
+        <v>873132284689.0627</v>
       </c>
       <c r="E29" t="n">
-        <v>1.454664848882258e-06</v>
+        <v>1362989732880.732</v>
       </c>
       <c r="F29" t="n">
-        <v>55.26352240713651</v>
+        <v>54.8196737092984</v>
       </c>
       <c r="G29" t="n">
-        <v>1.152155008108153e-10</v>
+        <v>1.421757443235326e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>11.0527044814273</v>
+        <v>10.96393474185968</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.311172</v>
       </c>
       <c r="B30" t="n">
-        <v>1.923445422529689e-05</v>
+        <v>17509835901388.97</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.954755485049559e-07</v>
+        <v>919526207057.209</v>
       </c>
       <c r="D30" t="n">
-        <v>9.118132625263204e-07</v>
+        <v>850821937233.2495</v>
       </c>
       <c r="E30" t="n">
-        <v>1.383810604938201e-06</v>
+        <v>1295697675148.204</v>
       </c>
       <c r="F30" t="n">
-        <v>22.58835767901011</v>
+        <v>22.04922664904139</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0004045422975945961</v>
+        <v>0.0005124354542387806</v>
       </c>
       <c r="H30" t="n">
-        <v>4.517671535802021</v>
+        <v>4.409845329808278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1.853457748012501e-05</v>
+        <v>16556944222435.75</v>
       </c>
       <c r="C31" t="n">
-        <v>-5.479712240613634e-06</v>
+        <v>-3659228126718.436</v>
       </c>
       <c r="D31" t="n">
-        <v>9.388949357269747e-07</v>
+        <v>865903298297.5731</v>
       </c>
       <c r="E31" t="n">
-        <v>1.265906012639057e-06</v>
+        <v>1165719874157.893</v>
       </c>
       <c r="F31" t="n">
-        <v>47.79018412590696</v>
+        <v>56.5989872302496</v>
       </c>
       <c r="G31" t="n">
-        <v>3.920010019998721e-09</v>
+        <v>6.116847915703661e-11</v>
       </c>
       <c r="H31" t="n">
-        <v>9.558036825181393</v>
+        <v>11.31979744604992</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.315126</v>
       </c>
       <c r="B32" t="n">
-        <v>1.801869540316572e-05</v>
+        <v>16465933523926.43</v>
       </c>
       <c r="C32" t="n">
-        <v>3.556129886023824e-06</v>
+        <v>4428291723772.904</v>
       </c>
       <c r="D32" t="n">
-        <v>8.850975929598233e-07</v>
+        <v>826577959763.3494</v>
       </c>
       <c r="E32" t="n">
-        <v>1.39485460332906e-06</v>
+        <v>1308709250770</v>
       </c>
       <c r="F32" t="n">
-        <v>11.61720908405142</v>
+        <v>6.645866836380733</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04042652790920929</v>
+        <v>0.2483375066970245</v>
       </c>
       <c r="H32" t="n">
-        <v>2.323441816810284</v>
+        <v>1.329173367276147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.317204</v>
       </c>
       <c r="B33" t="n">
-        <v>1.692666572646929e-05</v>
+        <v>15468337298720.43</v>
       </c>
       <c r="C33" t="n">
-        <v>4.540803681706748e-06</v>
+        <v>5578227430946.404</v>
       </c>
       <c r="D33" t="n">
-        <v>8.028215531045876e-07</v>
+        <v>745148948529.7864</v>
       </c>
       <c r="E33" t="n">
-        <v>1.299154545597887e-06</v>
+        <v>1206115482936.622</v>
       </c>
       <c r="F33" t="n">
-        <v>18.86365854715784</v>
+        <v>9.742139232632857</v>
       </c>
       <c r="G33" t="n">
-        <v>0.002037819742901423</v>
+        <v>0.08288015087465186</v>
       </c>
       <c r="H33" t="n">
-        <v>3.772731709431567</v>
+        <v>1.948427846526571</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.319168</v>
       </c>
       <c r="B34" t="n">
-        <v>1.913808216352462e-05</v>
+        <v>17632689696629.2</v>
       </c>
       <c r="C34" t="n">
-        <v>-8.370312326262678e-07</v>
+        <v>-297764189395.1387</v>
       </c>
       <c r="D34" t="n">
-        <v>9.353830507150241e-07</v>
+        <v>885846746669.9307</v>
       </c>
       <c r="E34" t="n">
-        <v>1.352841274442208e-06</v>
+        <v>1298143426997.601</v>
       </c>
       <c r="F34" t="n">
-        <v>9.582046709584295</v>
+        <v>9.896877406144464</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08798188141017831</v>
+        <v>0.07821046945281038</v>
       </c>
       <c r="H34" t="n">
-        <v>1.916409341916859</v>
+        <v>1.979375481228893</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
-        <v>1.796568073511493e-05</v>
+        <v>16427953398707.14</v>
       </c>
       <c r="C35" t="n">
-        <v>2.587523744982485e-06</v>
+        <v>3382479808640.553</v>
       </c>
       <c r="D35" t="n">
-        <v>8.338442008404457e-07</v>
+        <v>782364423631.4916</v>
       </c>
       <c r="E35" t="n">
-        <v>1.333463823038268e-06</v>
+        <v>1260523019809.311</v>
       </c>
       <c r="F35" t="n">
-        <v>12.04343033251094</v>
+        <v>8.612307484719192</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03419750632455465</v>
+        <v>0.125563495693731</v>
       </c>
       <c r="H35" t="n">
-        <v>2.408686066502188</v>
+        <v>1.722461496943839</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
-        <v>1.699596870880257e-05</v>
+        <v>15602584357334.59</v>
       </c>
       <c r="C36" t="n">
-        <v>2.983191097474855e-06</v>
+        <v>3281739927321.582</v>
       </c>
       <c r="D36" t="n">
-        <v>7.623547210604133e-07</v>
+        <v>720559974259.6045</v>
       </c>
       <c r="E36" t="n">
-        <v>1.199351856876202e-06</v>
+        <v>1154548253271.698</v>
       </c>
       <c r="F36" t="n">
-        <v>2.744497007618317</v>
+        <v>0.8575756449279743</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7393048574907165</v>
+        <v>0.9732165770996686</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5488994015236635</v>
+        <v>0.1715151289855949</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.325205</v>
       </c>
       <c r="B37" t="n">
-        <v>1.170970307728833e-05</v>
+        <v>10822508583993.48</v>
       </c>
       <c r="C37" t="n">
-        <v>-8.882581184945558e-07</v>
+        <v>-610827616138.1621</v>
       </c>
       <c r="D37" t="n">
-        <v>5.766035517144039e-07</v>
+        <v>549400497988.9174</v>
       </c>
       <c r="E37" t="n">
-        <v>9.100362392261091e-07</v>
+        <v>881946045221.1274</v>
       </c>
       <c r="F37" t="n">
-        <v>66.6407931625231</v>
+        <v>67.06641406326504</v>
       </c>
       <c r="G37" t="n">
-        <v>5.116404101946548e-13</v>
+        <v>4.17414643903139e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>13.32815863250462</v>
+        <v>13.41328281265301</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>1.163137105963701e-05</v>
+        <v>10694819161226.04</v>
       </c>
       <c r="C38" t="n">
-        <v>1.613838043715284e-06</v>
+        <v>1773501786582.199</v>
       </c>
       <c r="D38" t="n">
-        <v>4.988723115387233e-07</v>
+        <v>473913994054.7977</v>
       </c>
       <c r="E38" t="n">
-        <v>8.002402330642708e-07</v>
+        <v>777096464512.9163</v>
       </c>
       <c r="F38" t="n">
-        <v>30.39464941123301</v>
+        <v>29.16827862899461</v>
       </c>
       <c r="G38" t="n">
-        <v>1.233170718381938e-05</v>
+        <v>2.148987535835427e-05</v>
       </c>
       <c r="H38" t="n">
-        <v>6.078929882246602</v>
+        <v>5.833655725798922</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.329078</v>
       </c>
       <c r="B39" t="n">
-        <v>9.634840673248265e-06</v>
+        <v>8859448571910.59</v>
       </c>
       <c r="C39" t="n">
-        <v>2.765136430355206e-06</v>
+        <v>4256136434432.675</v>
       </c>
       <c r="D39" t="n">
-        <v>4.010329090217235e-07</v>
+        <v>359322293753.0603</v>
       </c>
       <c r="E39" t="n">
-        <v>6.801483625087153e-07</v>
+        <v>579622971693.3707</v>
       </c>
       <c r="F39" t="n">
-        <v>100.1184187637979</v>
+        <v>63.93986965934444</v>
       </c>
       <c r="G39" t="n">
-        <v>4.989977598206061e-20</v>
+        <v>1.859186706804666e-12</v>
       </c>
       <c r="H39" t="n">
-        <v>20.02368375275957</v>
+        <v>12.78797393186889</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.330119</v>
       </c>
       <c r="B40" t="n">
-        <v>1.176793683124876e-05</v>
+        <v>10729616800159.84</v>
       </c>
       <c r="C40" t="n">
-        <v>1.084646113149902e-06</v>
+        <v>1776857088411.045</v>
       </c>
       <c r="D40" t="n">
-        <v>5.279861790163355e-07</v>
+        <v>491270632636.2908</v>
       </c>
       <c r="E40" t="n">
-        <v>8.390424930162675e-07</v>
+        <v>783049758544.5328</v>
       </c>
       <c r="F40" t="n">
-        <v>15.9915645997172</v>
+        <v>12.52162168637836</v>
       </c>
       <c r="G40" t="n">
-        <v>0.006868198679326824</v>
+        <v>0.02829882547554026</v>
       </c>
       <c r="H40" t="n">
-        <v>3.19831291994344</v>
+        <v>2.504324337275672</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.331189</v>
       </c>
       <c r="B41" t="n">
-        <v>1.73752545986708e-05</v>
+        <v>16021409055576.12</v>
       </c>
       <c r="C41" t="n">
-        <v>7.467453038730433e-07</v>
+        <v>1100602299087.707</v>
       </c>
       <c r="D41" t="n">
-        <v>5.51957012385715e-07</v>
+        <v>520313410232.3291</v>
       </c>
       <c r="E41" t="n">
-        <v>8.696601110546594e-07</v>
+        <v>828101591977.9803</v>
       </c>
       <c r="F41" t="n">
-        <v>8.615729368204637</v>
+        <v>7.601584264002065</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1254084883025716</v>
+        <v>0.1796032170719367</v>
       </c>
       <c r="H41" t="n">
-        <v>1.723145873640927</v>
+        <v>1.520316852800413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.333242</v>
       </c>
       <c r="B42" t="n">
-        <v>1.771937861172105e-05</v>
+        <v>16303853599891</v>
       </c>
       <c r="C42" t="n">
-        <v>1.682101267221519e-06</v>
+        <v>2249247348411.699</v>
       </c>
       <c r="D42" t="n">
-        <v>5.025947124574047e-07</v>
+        <v>467694264421.7071</v>
       </c>
       <c r="E42" t="n">
-        <v>8.085224712047397e-07</v>
+        <v>754143938661.6251</v>
       </c>
       <c r="F42" t="n">
-        <v>15.07049216626802</v>
+        <v>10.47453185387439</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01006534432157583</v>
+        <v>0.06285336340889872</v>
       </c>
       <c r="H42" t="n">
-        <v>3.014098433253605</v>
+        <v>2.094906370774878</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>1.648726795066369e-05</v>
+        <v>15251223223170.48</v>
       </c>
       <c r="C43" t="n">
-        <v>1.703805570246615e-06</v>
+        <v>1732722539618.256</v>
       </c>
       <c r="D43" t="n">
-        <v>4.459649099077239e-07</v>
+        <v>420318254109.4628</v>
       </c>
       <c r="E43" t="n">
-        <v>7.228994580141351e-07</v>
+        <v>691430176680.7164</v>
       </c>
       <c r="F43" t="n">
-        <v>4.470851204990142</v>
+        <v>3.739661597311204</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4837928946099532</v>
+        <v>0.5874729488419295</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8941702409980283</v>
+        <v>0.7479323194622407</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.340042</v>
       </c>
       <c r="B44" t="n">
-        <v>1.48707753431954e-05</v>
+        <v>13731086895256.87</v>
       </c>
       <c r="C44" t="n">
-        <v>1.253492995593521e-06</v>
+        <v>1462707592197.844</v>
       </c>
       <c r="D44" t="n">
-        <v>3.968453515711447e-07</v>
+        <v>371070236425.5356</v>
       </c>
       <c r="E44" t="n">
-        <v>6.363058366822657e-07</v>
+        <v>600752609305.7003</v>
       </c>
       <c r="F44" t="n">
-        <v>7.443137959887866</v>
+        <v>5.388791978017748</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1897136844779337</v>
+        <v>0.3702943712808958</v>
       </c>
       <c r="H44" t="n">
-        <v>1.488627591977573</v>
+        <v>1.07775839560355</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1.57230254748367e-05</v>
+        <v>14578333543936.68</v>
       </c>
       <c r="C45" t="n">
-        <v>1.27556534911876e-06</v>
+        <v>1215447686133.85</v>
       </c>
       <c r="D45" t="n">
-        <v>4.114453736887889e-07</v>
+        <v>389353112211.725</v>
       </c>
       <c r="E45" t="n">
-        <v>6.648207827098153e-07</v>
+        <v>638255009285.7031</v>
       </c>
       <c r="F45" t="n">
-        <v>4.752978007078559</v>
+        <v>4.799456926059717</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4467646722296253</v>
+        <v>0.4408418690008347</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9505956014157118</v>
+        <v>0.9598913852119434</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.349976</v>
       </c>
       <c r="B46" t="n">
-        <v>1.525368385041286e-05</v>
+        <v>14089110867013.02</v>
       </c>
       <c r="C46" t="n">
-        <v>3.865335410555976e-07</v>
+        <v>671712361739.8223</v>
       </c>
       <c r="D46" t="n">
-        <v>3.929805843717634e-07</v>
+        <v>366301397911.6981</v>
       </c>
       <c r="E46" t="n">
-        <v>6.223732768081736e-07</v>
+        <v>583322141150.6028</v>
       </c>
       <c r="F46" t="n">
-        <v>3.771602445777137</v>
+        <v>2.865795825358226</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5827454339945384</v>
+        <v>0.7206668947268121</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7543204891554274</v>
+        <v>0.5731591650716451</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.370053</v>
       </c>
       <c r="B47" t="n">
-        <v>1.019486152345244e-05</v>
+        <v>9419646821134.744</v>
       </c>
       <c r="C47" t="n">
-        <v>1.447016711050002e-06</v>
+        <v>1452293937448.862</v>
       </c>
       <c r="D47" t="n">
-        <v>2.793562038553631e-07</v>
+        <v>263085897391.9988</v>
       </c>
       <c r="E47" t="n">
-        <v>4.532610819317175e-07</v>
+        <v>433224998547.4496</v>
       </c>
       <c r="F47" t="n">
-        <v>4.811974999745191</v>
+        <v>3.885013388325412</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4392554590822264</v>
+        <v>0.5660872957333524</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9623949999490382</v>
+        <v>0.7770026776650825</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.390148</v>
       </c>
       <c r="B48" t="n">
-        <v>1.379476943330958e-05</v>
+        <v>12737854235373.46</v>
       </c>
       <c r="C48" t="n">
-        <v>1.510190550768948e-06</v>
+        <v>1671759328933.787</v>
       </c>
       <c r="D48" t="n">
-        <v>3.676550387818531e-07</v>
+        <v>344513518306.5712</v>
       </c>
       <c r="E48" t="n">
-        <v>6.066991416763553e-07</v>
+        <v>574205105437.3062</v>
       </c>
       <c r="F48" t="n">
-        <v>15.86238721630542</v>
+        <v>13.61025265925476</v>
       </c>
       <c r="G48" t="n">
-        <v>0.007248146840024803</v>
+        <v>0.01828418761734314</v>
       </c>
       <c r="H48" t="n">
-        <v>3.172477443261084</v>
+        <v>2.722050531850951</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.410025</v>
       </c>
       <c r="B49" t="n">
-        <v>2.062406776604624e-05</v>
+        <v>19145233375707.2</v>
       </c>
       <c r="C49" t="n">
-        <v>1.196057357278595e-06</v>
+        <v>1082932525909.801</v>
       </c>
       <c r="D49" t="n">
-        <v>5.286622857008254e-07</v>
+        <v>498509009681.5587</v>
       </c>
       <c r="E49" t="n">
-        <v>8.538078270012681e-07</v>
+        <v>817788739311.1984</v>
       </c>
       <c r="F49" t="n">
-        <v>8.713417628196096</v>
+        <v>8.945054555748724</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1210555877815622</v>
+        <v>0.1112759188284988</v>
       </c>
       <c r="H49" t="n">
-        <v>1.742683525639219</v>
+        <v>1.789010911149745</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.420244</v>
       </c>
       <c r="B50" t="n">
-        <v>3.01816503224958e-05</v>
+        <v>27831157861873.91</v>
       </c>
       <c r="C50" t="n">
-        <v>2.579579885327341e-06</v>
+        <v>3319015088153.074</v>
       </c>
       <c r="D50" t="n">
-        <v>7.666113496378798e-07</v>
+        <v>711804360949.6619</v>
       </c>
       <c r="E50" t="n">
-        <v>1.271126877410268e-06</v>
+        <v>1180622676846.734</v>
       </c>
       <c r="F50" t="n">
-        <v>10.26958185038621</v>
+        <v>6.514095194805607</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06794732817061355</v>
+        <v>0.2593563338420402</v>
       </c>
       <c r="H50" t="n">
-        <v>2.053916370077242</v>
+        <v>1.302819038961121</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.430182</v>
       </c>
       <c r="B51" t="n">
-        <v>4.096298626718871e-05</v>
+        <v>37840709749831.13</v>
       </c>
       <c r="C51" t="n">
-        <v>-9.253871718879698e-08</v>
+        <v>719525288571.125</v>
       </c>
       <c r="D51" t="n">
-        <v>9.968014809819714e-07</v>
+        <v>927025251048.8751</v>
       </c>
       <c r="E51" t="n">
-        <v>1.576662295178966e-06</v>
+        <v>1468996657923.418</v>
       </c>
       <c r="F51" t="n">
-        <v>4.156812355533968</v>
+        <v>3.911306647077957</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5270669666623291</v>
+        <v>0.5622551063883138</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8313624711067936</v>
+        <v>0.7822613294155915</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.440043</v>
       </c>
       <c r="B52" t="n">
-        <v>8.661471636220722e-05</v>
+        <v>80230145502064.97</v>
       </c>
       <c r="C52" t="n">
-        <v>6.772197544168966e-06</v>
+        <v>6970872995075.852</v>
       </c>
       <c r="D52" t="n">
-        <v>2.130809706960547e-06</v>
+        <v>1999893824676.692</v>
       </c>
       <c r="E52" t="n">
-        <v>3.470753130315363e-06</v>
+        <v>3288985526889.92</v>
       </c>
       <c r="F52" t="n">
-        <v>2.667249572320877</v>
+        <v>1.977040703525624</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7511227311092803</v>
+        <v>0.8523126900861473</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5334499144641753</v>
+        <v>0.3954081407051248</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.449945</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001458498615322326</v>
+        <v>135123089607900.2</v>
       </c>
       <c r="C53" t="n">
-        <v>4.1865845262811e-06</v>
+        <v>5224947408620.594</v>
       </c>
       <c r="D53" t="n">
-        <v>3.486663606503925e-06</v>
+        <v>3260683749932.957</v>
       </c>
       <c r="E53" t="n">
-        <v>5.551166998124831e-06</v>
+        <v>5221676145166.071</v>
       </c>
       <c r="F53" t="n">
-        <v>2.342356808991009</v>
+        <v>1.909449000328524</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8000262318022875</v>
+        <v>0.8615272904412126</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4684713617982018</v>
+        <v>0.3818898000657047</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.454988</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004035708767424998</v>
+        <v>373371290940016.9</v>
       </c>
       <c r="C54" t="n">
-        <v>3.016727638154178e-05</v>
+        <v>34455748116170.41</v>
       </c>
       <c r="D54" t="n">
-        <v>9.573220011320219e-06</v>
+        <v>8920911407601.941</v>
       </c>
       <c r="E54" t="n">
-        <v>1.568961208793425e-05</v>
+        <v>14665920568861.5</v>
       </c>
       <c r="F54" t="n">
-        <v>4.066277101767922</v>
+        <v>2.240640367712194</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5399137091166173</v>
+        <v>0.8149444774392036</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8132554203535844</v>
+        <v>0.4481280735424387</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.460121</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006532596304860081</v>
+        <v>604651132668554.5</v>
       </c>
       <c r="C55" t="n">
-        <v>3.38477595164469e-05</v>
+        <v>40710673878391.81</v>
       </c>
       <c r="D55" t="n">
-        <v>1.512256579832101e-05</v>
+        <v>14073207429902.57</v>
       </c>
       <c r="E55" t="n">
-        <v>2.469767563927934e-05</v>
+        <v>23023118715842.25</v>
       </c>
       <c r="F55" t="n">
-        <v>3.284936378037203</v>
+        <v>2.036653221788252</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6561486933523906</v>
+        <v>0.8440504774335964</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6569872756074406</v>
+        <v>0.4073306443576503</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469957</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007194658432518824</v>
+        <v>666589521672078.9</v>
       </c>
       <c r="C56" t="n">
-        <v>2.261148626912714e-05</v>
+        <v>28102691954240.25</v>
       </c>
       <c r="D56" t="n">
-        <v>1.633798485902336e-05</v>
+        <v>15214722855090.02</v>
       </c>
       <c r="E56" t="n">
-        <v>2.655900692914809e-05</v>
+        <v>24790196947488.04</v>
       </c>
       <c r="F56" t="n">
-        <v>3.303460234016856</v>
+        <v>2.743472973913779</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6533119640359975</v>
+        <v>0.7394618311873269</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6606920468033711</v>
+        <v>0.5486945947827557</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477981</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005811147721672745</v>
+        <v>538246075635743.2</v>
       </c>
       <c r="C57" t="n">
-        <v>4.70817457493487e-05</v>
+        <v>50385905458379.88</v>
       </c>
       <c r="D57" t="n">
-        <v>1.324816442430612e-05</v>
+        <v>12343707877183.4</v>
       </c>
       <c r="E57" t="n">
-        <v>2.192737087471124e-05</v>
+        <v>20496834265140.57</v>
       </c>
       <c r="F57" t="n">
-        <v>3.657488257103619</v>
+        <v>2.224292650752665</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5997028721420457</v>
+        <v>0.8173193925678858</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7314976514207239</v>
+        <v>0.4448585301505331</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.486129</v>
       </c>
       <c r="B58" t="n">
-        <v>0.000301104852338902</v>
+        <v>278547528377753.1</v>
       </c>
       <c r="C58" t="n">
-        <v>1.301297324948425e-05</v>
+        <v>17161073650702.19</v>
       </c>
       <c r="D58" t="n">
-        <v>6.902982426411419e-06</v>
+        <v>6409454672063.192</v>
       </c>
       <c r="E58" t="n">
-        <v>1.123502780729245e-05</v>
+        <v>10424894686924.19</v>
       </c>
       <c r="F58" t="n">
-        <v>4.610390441352962</v>
+        <v>3.238066308590079</v>
       </c>
       <c r="G58" t="n">
-        <v>0.465250781488773</v>
+        <v>0.6633362154164658</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9220780882705923</v>
+        <v>0.6476132617180157</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.488189</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0002310343318333634</v>
+        <v>213563935113182.3</v>
       </c>
       <c r="C59" t="n">
-        <v>1.144457293596288e-05</v>
+        <v>15378492202713.56</v>
       </c>
       <c r="D59" t="n">
-        <v>5.314830743332595e-06</v>
+        <v>4927723222358.635</v>
       </c>
       <c r="E59" t="n">
-        <v>8.688410345894439e-06</v>
+        <v>8038727663291.684</v>
       </c>
       <c r="F59" t="n">
-        <v>4.275704546031882</v>
+        <v>2.352029594117865</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5104417305082132</v>
+        <v>0.7985957687215008</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8551409092063764</v>
+        <v>0.4704059188235729</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002938585242383925</v>
+        <v>271846914827517.7</v>
       </c>
       <c r="C60" t="n">
-        <v>1.623893705790386e-05</v>
+        <v>20316961414735.31</v>
       </c>
       <c r="D60" t="n">
-        <v>6.672744438818619e-06</v>
+        <v>6189348230698.91</v>
       </c>
       <c r="E60" t="n">
-        <v>1.105419849898993e-05</v>
+        <v>10237138900822.62</v>
       </c>
       <c r="F60" t="n">
-        <v>7.828107690469076</v>
+        <v>6.046079556322974</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1659668528923335</v>
+        <v>0.3017609697991304</v>
       </c>
       <c r="H60" t="n">
-        <v>1.565621538093815</v>
+        <v>1.209215911264595</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.492223</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0001293563669258997</v>
+        <v>119828902479925.7</v>
       </c>
       <c r="C61" t="n">
-        <v>1.071696223207768e-05</v>
+        <v>11331940464650.91</v>
       </c>
       <c r="D61" t="n">
-        <v>2.955349707932431e-06</v>
+        <v>2754640115588.575</v>
       </c>
       <c r="E61" t="n">
-        <v>4.889905301175663e-06</v>
+        <v>4574762377324.288</v>
       </c>
       <c r="F61" t="n">
-        <v>3.826596613487857</v>
+        <v>2.487996386069838</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5746422184995924</v>
+        <v>0.7783017443268665</v>
       </c>
       <c r="H61" t="n">
-        <v>0.7653193226975714</v>
+        <v>0.4975992772139676</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.494992</v>
       </c>
       <c r="B62" t="n">
-        <v>9.320598170771725e-05</v>
+        <v>86497160474818.12</v>
       </c>
       <c r="C62" t="n">
-        <v>4.100380643116464e-06</v>
+        <v>4063498802119.312</v>
       </c>
       <c r="D62" t="n">
-        <v>2.098564014947858e-06</v>
+        <v>1961861717398.383</v>
       </c>
       <c r="E62" t="n">
-        <v>3.409302892607601e-06</v>
+        <v>3206589810705.732</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8100677403578082</v>
+        <v>0.647498112283365</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9763867517569861</v>
+        <v>0.9857253915194167</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1620135480715616</v>
+        <v>0.129499622456673</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>5.382130063833359e-05</v>
+        <v>50013065604388.07</v>
       </c>
       <c r="C63" t="n">
-        <v>2.491769169922498e-06</v>
+        <v>2123340105201.742</v>
       </c>
       <c r="D63" t="n">
-        <v>1.24039679308828e-06</v>
+        <v>1165967030685.942</v>
       </c>
       <c r="E63" t="n">
-        <v>2.004640554899043e-06</v>
+        <v>1904692532745.754</v>
       </c>
       <c r="F63" t="n">
-        <v>3.678146492942112</v>
+        <v>3.970572215729022</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5966194259289834</v>
+        <v>0.5536605879032774</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7356292985884224</v>
+        <v>0.7941144431458044</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.510205</v>
       </c>
       <c r="B64" t="n">
-        <v>2.857849186299172e-05</v>
+        <v>26437778561517.97</v>
       </c>
       <c r="C64" t="n">
-        <v>1.161014657924557e-06</v>
+        <v>1533965319587.469</v>
       </c>
       <c r="D64" t="n">
-        <v>6.862182052167724e-07</v>
+        <v>639150408866.3031</v>
       </c>
       <c r="E64" t="n">
-        <v>1.121140267700959e-06</v>
+        <v>1047169634830.998</v>
       </c>
       <c r="F64" t="n">
-        <v>8.390542649030994</v>
+        <v>7.291384545190003</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1359850568163694</v>
+        <v>0.1998558577372498</v>
       </c>
       <c r="H64" t="n">
-        <v>1.678108529806199</v>
+        <v>1.458276909038001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.512183</v>
       </c>
       <c r="B65" t="n">
-        <v>2.192425996615941e-05</v>
+        <v>20247100808696.03</v>
       </c>
       <c r="C65" t="n">
-        <v>1.302090153303204e-06</v>
+        <v>1605609053215.848</v>
       </c>
       <c r="D65" t="n">
-        <v>6.482074442162385e-07</v>
+        <v>609329025890.5078</v>
       </c>
       <c r="E65" t="n">
-        <v>1.030140124133768e-06</v>
+        <v>979555113117.3838</v>
       </c>
       <c r="F65" t="n">
-        <v>6.536435671890143</v>
+        <v>5.441307494180644</v>
       </c>
       <c r="G65" t="n">
-        <v>0.2574603462813097</v>
+        <v>0.3644246572497918</v>
       </c>
       <c r="H65" t="n">
-        <v>1.307287134378029</v>
+        <v>1.088261498836129</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>2.254044044122116e-05</v>
+        <v>20809857901458.48</v>
       </c>
       <c r="C66" t="n">
-        <v>1.043738601120189e-06</v>
+        <v>1357857189834.285</v>
       </c>
       <c r="D66" t="n">
-        <v>8.9482164724498e-07</v>
+        <v>850707950208.1897</v>
       </c>
       <c r="E66" t="n">
-        <v>1.404005824088774e-06</v>
+        <v>1356875010708.697</v>
       </c>
       <c r="F66" t="n">
-        <v>7.238344831177574</v>
+        <v>6.786147291583218</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2035091876742411</v>
+        <v>0.2370367974856466</v>
       </c>
       <c r="H66" t="n">
-        <v>1.447668966235515</v>
+        <v>1.357229458316644</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.520067</v>
       </c>
       <c r="B67" t="n">
-        <v>2.627419760366878e-05</v>
+        <v>24205916649322.86</v>
       </c>
       <c r="C67" t="n">
-        <v>2.704808134312937e-06</v>
+        <v>3048969960960.219</v>
       </c>
       <c r="D67" t="n">
-        <v>1.100185055485905e-06</v>
+        <v>1043543204442.397</v>
       </c>
       <c r="E67" t="n">
-        <v>1.700076517889051e-06</v>
+        <v>1642810083158.985</v>
       </c>
       <c r="F67" t="n">
-        <v>3.076094668273799</v>
+        <v>2.153403751836326</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6882553980626691</v>
+        <v>0.8275373199377054</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6152189336547599</v>
+        <v>0.4306807503672653</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.525238</v>
       </c>
       <c r="B68" t="n">
-        <v>3.477559819448385e-05</v>
+        <v>31736222257889.79</v>
       </c>
       <c r="C68" t="n">
-        <v>4.986671701373755e-06</v>
+        <v>6865367309105.184</v>
       </c>
       <c r="D68" t="n">
-        <v>1.659213711544787e-06</v>
+        <v>1549110831184.178</v>
       </c>
       <c r="E68" t="n">
-        <v>2.648059215076765e-06</v>
+        <v>2485891548841.965</v>
       </c>
       <c r="F68" t="n">
-        <v>11.60457593141099</v>
+        <v>7.519979678200549</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04062666429523598</v>
+        <v>0.1847502660749538</v>
       </c>
       <c r="H68" t="n">
-        <v>2.320915186282198</v>
+        <v>1.50399593564011</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529406</v>
       </c>
       <c r="B69" t="n">
-        <v>3.330342863356846e-05</v>
+        <v>30318419828360.02</v>
       </c>
       <c r="C69" t="n">
-        <v>2.117055057254996e-06</v>
+        <v>4277860529913.203</v>
       </c>
       <c r="D69" t="n">
-        <v>1.441639791474338e-06</v>
+        <v>1341046339334.698</v>
       </c>
       <c r="E69" t="n">
-        <v>2.249043038791302e-06</v>
+        <v>2093787303089.413</v>
       </c>
       <c r="F69" t="n">
-        <v>14.5192173874882</v>
+        <v>11.21757099029185</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0126268585368089</v>
+        <v>0.04723281928804772</v>
       </c>
       <c r="H69" t="n">
-        <v>2.903843477497639</v>
+        <v>2.243514198058371</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.535056</v>
       </c>
       <c r="B70" t="n">
-        <v>6.849711710817737e-05</v>
+        <v>63231021930800.66</v>
       </c>
       <c r="C70" t="n">
-        <v>1.222594826036606e-05</v>
+        <v>11181375018829.64</v>
       </c>
       <c r="D70" t="n">
-        <v>2.817723843899357e-06</v>
+        <v>2698347289940.562</v>
       </c>
       <c r="E70" t="n">
-        <v>4.429437515956447e-06</v>
+        <v>4374944031883.988</v>
       </c>
       <c r="F70" t="n">
-        <v>6.987164723948815</v>
+        <v>8.08265051001742</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2215966353449122</v>
+        <v>0.1517390356360175</v>
       </c>
       <c r="H70" t="n">
-        <v>1.397432944789763</v>
+        <v>1.616530102003484</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.540236</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0001072387487595831</v>
+        <v>98271961563098</v>
       </c>
       <c r="C71" t="n">
-        <v>1.035866245296394e-05</v>
+        <v>14412530691060.44</v>
       </c>
       <c r="D71" t="n">
-        <v>4.289936887480179e-06</v>
+        <v>4027031913938.2</v>
       </c>
       <c r="E71" t="n">
-        <v>6.715329891008808e-06</v>
+        <v>6362656288048.142</v>
       </c>
       <c r="F71" t="n">
-        <v>8.005654942187139</v>
+        <v>5.252544789319709</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1559242478750424</v>
+        <v>0.3858431170928121</v>
       </c>
       <c r="H71" t="n">
-        <v>1.601130988437428</v>
+        <v>1.050508957863942</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.549804</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0002572842324402023</v>
+        <v>237973846481162.9</v>
       </c>
       <c r="C72" t="n">
-        <v>1.069779252811133e-05</v>
+        <v>13865760607774.72</v>
       </c>
       <c r="D72" t="n">
-        <v>6.374754335449002e-06</v>
+        <v>5957839643186.749</v>
       </c>
       <c r="E72" t="n">
-        <v>1.022344093663269e-05</v>
+        <v>9605442089417.314</v>
       </c>
       <c r="F72" t="n">
-        <v>4.685654244306622</v>
+        <v>3.697945916261916</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4554340218618602</v>
+        <v>0.5936696698566035</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9371308488613245</v>
+        <v>0.7395891832523832</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.560183</v>
       </c>
       <c r="B73" t="n">
-        <v>0.00065209201293089</v>
+        <v>603391385353994.4</v>
       </c>
       <c r="C73" t="n">
-        <v>3.670992447807705e-05</v>
+        <v>43325505561568.38</v>
       </c>
       <c r="D73" t="n">
-        <v>1.579696096685917e-05</v>
+        <v>14753488853438.47</v>
       </c>
       <c r="E73" t="n">
-        <v>2.565221320054181e-05</v>
+        <v>24081169939760.91</v>
       </c>
       <c r="F73" t="n">
-        <v>5.482821754305085</v>
+        <v>4.294009801501514</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3598332150903695</v>
+        <v>0.5079076298684068</v>
       </c>
       <c r="H73" t="n">
-        <v>1.096564350861017</v>
+        <v>0.8588019603003028</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570129</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0006457032091558429</v>
+        <v>596883295332389.5</v>
       </c>
       <c r="C74" t="n">
-        <v>2.670687456932683e-05</v>
+        <v>36549263741470.25</v>
       </c>
       <c r="D74" t="n">
-        <v>1.579292098568927e-05</v>
+        <v>14720179975518.78</v>
       </c>
       <c r="E74" t="n">
-        <v>2.562081255888406e-05</v>
+        <v>23954186324360.37</v>
       </c>
       <c r="F74" t="n">
-        <v>4.833930452044954</v>
+        <v>3.593165989966717</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4364820778113081</v>
+        <v>0.6093396796578575</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9667860904089908</v>
+        <v>0.7186331979933435</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580025</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0003485103420738014</v>
+        <v>322230944045115.4</v>
       </c>
       <c r="C75" t="n">
-        <v>1.12255735666188e-05</v>
+        <v>15772618233758.5</v>
       </c>
       <c r="D75" t="n">
-        <v>9.367697001683905e-06</v>
+        <v>8791043392213.99</v>
       </c>
       <c r="E75" t="n">
-        <v>1.470379032928067e-05</v>
+        <v>13915953421554.3</v>
       </c>
       <c r="F75" t="n">
-        <v>2.529613446898051</v>
+        <v>1.827093537480429</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7720287727476125</v>
+        <v>0.8725150637221282</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5059226893796103</v>
+        <v>0.3654187074960858</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.590082</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0001840923791191634</v>
+        <v>169681650226092.5</v>
       </c>
       <c r="C76" t="n">
-        <v>1.060913661839793e-05</v>
+        <v>15175760852998.25</v>
       </c>
       <c r="D76" t="n">
-        <v>4.91242630213111e-06</v>
+        <v>4579662117965.02</v>
       </c>
       <c r="E76" t="n">
-        <v>7.877981803323089e-06</v>
+        <v>7366960758809.863</v>
       </c>
       <c r="F76" t="n">
-        <v>6.207528437579924</v>
+        <v>3.771343050400959</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2865461046284836</v>
+        <v>0.5827837652108792</v>
       </c>
       <c r="H76" t="n">
-        <v>1.241505687515985</v>
+        <v>0.7542686100801917</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.600268</v>
       </c>
       <c r="B77" t="n">
-        <v>9.195122646114368e-05</v>
+        <v>84876167663790.91</v>
       </c>
       <c r="C77" t="n">
-        <v>8.493032676857966e-06</v>
+        <v>9536091858552.273</v>
       </c>
       <c r="D77" t="n">
-        <v>2.840309425784612e-06</v>
+        <v>2679343592907.999</v>
       </c>
       <c r="E77" t="n">
-        <v>4.493526165972134e-06</v>
+        <v>4297072437013.536</v>
       </c>
       <c r="F77" t="n">
-        <v>4.859392749977684</v>
+        <v>3.496329089806331</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4332801544295042</v>
+        <v>0.6239431559546387</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9718785499955368</v>
+        <v>0.6992658179612661</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.609989</v>
       </c>
       <c r="B78" t="n">
-        <v>9.561374310933467e-05</v>
+        <v>88294363922848.25</v>
       </c>
       <c r="C78" t="n">
-        <v>-9.687094059040413e-06</v>
+        <v>-7120239218029.094</v>
       </c>
       <c r="D78" t="n">
-        <v>3.436403540584322e-06</v>
+        <v>3249713238864.205</v>
       </c>
       <c r="E78" t="n">
-        <v>5.090151439101076e-06</v>
+        <v>4859406400800.851</v>
       </c>
       <c r="F78" t="n">
-        <v>2.376878537104135</v>
+        <v>3.853256032002772</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7949123119281494</v>
+        <v>0.5707311694731887</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4753757074208271</v>
+        <v>0.7706512064005545</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.620227</v>
       </c>
       <c r="B79" t="n">
-        <v>6.572936384372893e-05</v>
+        <v>59908855611370.97</v>
       </c>
       <c r="C79" t="n">
-        <v>-9.974199905579635e-06</v>
+        <v>-6073326800890.195</v>
       </c>
       <c r="D79" t="n">
-        <v>3.102874852731187e-06</v>
+        <v>2903965424128.173</v>
       </c>
       <c r="E79" t="n">
-        <v>4.382802306760541e-06</v>
+        <v>4115708078218.731</v>
       </c>
       <c r="F79" t="n">
-        <v>18.09089282295291</v>
+        <v>21.11224416298848</v>
       </c>
       <c r="G79" t="n">
-        <v>0.002834621464607979</v>
+        <v>0.0007714422666292122</v>
       </c>
       <c r="H79" t="n">
-        <v>3.618178564590583</v>
+        <v>4.222448832597696</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.629939</v>
       </c>
       <c r="B80" t="n">
-        <v>5.951471736734937e-05</v>
+        <v>54992146874016.39</v>
       </c>
       <c r="C80" t="n">
-        <v>-5.762747344120959e-07</v>
+        <v>441279065544.8984</v>
       </c>
       <c r="D80" t="n">
-        <v>2.371623330861334e-06</v>
+        <v>2256193383671.67</v>
       </c>
       <c r="E80" t="n">
-        <v>3.554805359625013e-06</v>
+        <v>3435749975556.2</v>
       </c>
       <c r="F80" t="n">
-        <v>7.492281099326587</v>
+        <v>7.499028936584359</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1865262369198762</v>
+        <v>0.1860922196186101</v>
       </c>
       <c r="H80" t="n">
-        <v>1.498456219865318</v>
+        <v>1.499805787316872</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.635173</v>
       </c>
       <c r="B81" t="n">
-        <v>3.860732017503461e-05</v>
+        <v>35560176399041.06</v>
       </c>
       <c r="C81" t="n">
-        <v>5.467308286649833e-06</v>
+        <v>5762493910399.438</v>
       </c>
       <c r="D81" t="n">
-        <v>1.565785563214249e-06</v>
+        <v>1487803308908.97</v>
       </c>
       <c r="E81" t="n">
-        <v>2.464637223559393e-06</v>
+        <v>2392626662896.523</v>
       </c>
       <c r="F81" t="n">
-        <v>4.101541952309646</v>
+        <v>3.228510427681993</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5348910498899927</v>
+        <v>0.6648032025887181</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8203083904619293</v>
+        <v>0.6457020855363986</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>4.353080131843061e-05</v>
+        <v>40221684274827.2</v>
       </c>
       <c r="C82" t="n">
-        <v>1.414511438434853e-06</v>
+        <v>1978366521772.297</v>
       </c>
       <c r="D82" t="n">
-        <v>1.489346446979985e-06</v>
+        <v>1410645032815.747</v>
       </c>
       <c r="E82" t="n">
-        <v>2.287387865902035e-06</v>
+        <v>2200106839551.598</v>
       </c>
       <c r="F82" t="n">
-        <v>2.9469301733664</v>
+        <v>2.52754257335319</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7081675134429242</v>
+        <v>0.7723415125593318</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5893860346732799</v>
+        <v>0.505508514670638</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.649962</v>
       </c>
       <c r="B83" t="n">
-        <v>9.383189785656604e-05</v>
+        <v>87017789322047.94</v>
       </c>
       <c r="C83" t="n">
-        <v>1.488241858879058e-06</v>
+        <v>1852021242783.891</v>
       </c>
       <c r="D83" t="n">
-        <v>2.509423756234807e-06</v>
+        <v>2365480677526.973</v>
       </c>
       <c r="E83" t="n">
-        <v>3.951159067299719e-06</v>
+        <v>3769148434138.88</v>
       </c>
       <c r="F83" t="n">
-        <v>4.942339625961162</v>
+        <v>4.849527362615078</v>
       </c>
       <c r="G83" t="n">
-        <v>0.42295764120561</v>
+        <v>0.4345188988063635</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9884679251922325</v>
+        <v>0.9699054725230155</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>6.287800547708218e-05</v>
+        <v>58225651873147.22</v>
       </c>
       <c r="C84" t="n">
-        <v>2.006432482851337e-06</v>
+        <v>2501374117509.445</v>
       </c>
       <c r="D84" t="n">
-        <v>1.601066021829793e-06</v>
+        <v>1502426883393.873</v>
       </c>
       <c r="E84" t="n">
-        <v>2.521834914913712e-06</v>
+        <v>2387470538446.772</v>
       </c>
       <c r="F84" t="n">
-        <v>2.894007039130369</v>
+        <v>2.428567832470384</v>
       </c>
       <c r="G84" t="n">
-        <v>0.716322675133543</v>
+        <v>0.7872123512736453</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5788014078260738</v>
+        <v>0.4857135664940768</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.680153</v>
       </c>
       <c r="B85" t="n">
-        <v>2.842028928182821e-05</v>
+        <v>26384317260270.41</v>
       </c>
       <c r="C85" t="n">
-        <v>2.059148194600107e-06</v>
+        <v>1800649422248.848</v>
       </c>
       <c r="D85" t="n">
-        <v>7.795821032062936e-07</v>
+        <v>738778598536.855</v>
       </c>
       <c r="E85" t="n">
-        <v>1.246901997484109e-06</v>
+        <v>1205958502509.84</v>
       </c>
       <c r="F85" t="n">
-        <v>3.928335978555339</v>
+        <v>4.442368298255388</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5597793552240111</v>
+        <v>0.4876311935849001</v>
       </c>
       <c r="H85" t="n">
-        <v>0.7856671957110677</v>
+        <v>0.8884736596510775</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.689928</v>
       </c>
       <c r="B86" t="n">
-        <v>2.433864586934729e-05</v>
+        <v>22542272602798.07</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.030755898602963e-06</v>
+        <v>-692748741689.8008</v>
       </c>
       <c r="D86" t="n">
-        <v>6.681820999787473e-07</v>
+        <v>628536151193.724</v>
       </c>
       <c r="E86" t="n">
-        <v>1.01829830399449e-06</v>
+        <v>966591806877.8571</v>
       </c>
       <c r="F86" t="n">
-        <v>4.533264642739471</v>
+        <v>5.027829644379057</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4754451179556032</v>
+        <v>0.4124932754499263</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9066529285478943</v>
+        <v>1.005565928875811</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
-        <v>2.2676094476138e-05</v>
+        <v>20967676103254.9</v>
       </c>
       <c r="C87" t="n">
-        <v>1.787958127524919e-06</v>
+        <v>2027478155468.516</v>
       </c>
       <c r="D87" t="n">
-        <v>5.636051298156627e-07</v>
+        <v>527190718960.6321</v>
       </c>
       <c r="E87" t="n">
-        <v>9.314547192405125e-07</v>
+        <v>876803646848.2316</v>
       </c>
       <c r="F87" t="n">
-        <v>6.096216700463507</v>
+        <v>4.44973200271757</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2969689054551287</v>
+        <v>0.4866371644241083</v>
       </c>
       <c r="H87" t="n">
-        <v>1.219243340092701</v>
+        <v>0.889946400543514</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.730004</v>
       </c>
       <c r="B88" t="n">
-        <v>2.85918460748808e-05</v>
+        <v>26529767062351.8</v>
       </c>
       <c r="C88" t="n">
-        <v>2.565191716211564e-06</v>
+        <v>2318798889872.973</v>
       </c>
       <c r="D88" t="n">
-        <v>7.145915558295224e-07</v>
+        <v>674374562886.8184</v>
       </c>
       <c r="E88" t="n">
-        <v>1.152621803513194e-06</v>
+        <v>1104423115937.718</v>
       </c>
       <c r="F88" t="n">
-        <v>2.469492775947968</v>
+        <v>2.988043026320254</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7810823471284609</v>
+        <v>0.7018293586880917</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4938985551895936</v>
+        <v>0.5976086052640508</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.749999</v>
       </c>
       <c r="B89" t="n">
-        <v>5.214959987888892e-05</v>
+        <v>48281932484857.16</v>
       </c>
       <c r="C89" t="n">
-        <v>1.447634573386251e-06</v>
+        <v>1965857681934.461</v>
       </c>
       <c r="D89" t="n">
-        <v>1.252233367368967e-06</v>
+        <v>1168869453232.939</v>
       </c>
       <c r="E89" t="n">
-        <v>2.016226995954524e-06</v>
+        <v>1891112865593.924</v>
       </c>
       <c r="F89" t="n">
-        <v>7.410422440409653</v>
+        <v>6.840818091625648</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1918617120521473</v>
+        <v>0.2327506067199703</v>
       </c>
       <c r="H89" t="n">
-        <v>1.482084488081931</v>
+        <v>1.36816361832513</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.755179</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001207699871548392</v>
+        <v>111943829803266.4</v>
       </c>
       <c r="C90" t="n">
-        <v>5.950894982593186e-06</v>
+        <v>6424083037903.562</v>
       </c>
       <c r="D90" t="n">
-        <v>2.792615304885844e-06</v>
+        <v>2607671013991.769</v>
       </c>
       <c r="E90" t="n">
-        <v>4.54545017522593e-06</v>
+        <v>4267222729421.84</v>
       </c>
       <c r="F90" t="n">
-        <v>2.840412242687742</v>
+        <v>2.286168141186401</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7245732553350382</v>
+        <v>0.8082962413057853</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5680824485375483</v>
+        <v>0.4572336282372801</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.758876</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001354981552985159</v>
+        <v>125769000962252.9</v>
       </c>
       <c r="C91" t="n">
-        <v>1.433260917252727e-06</v>
+        <v>1685934139532.031</v>
       </c>
       <c r="D91" t="n">
-        <v>3.122053653030917e-06</v>
+        <v>2923070046778.481</v>
       </c>
       <c r="E91" t="n">
-        <v>4.997251674033839e-06</v>
+        <v>4708547390087.985</v>
       </c>
       <c r="F91" t="n">
-        <v>1.808743391394226</v>
+        <v>1.761826871481547</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8749251458261275</v>
+        <v>0.8810204040226063</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3617486782788452</v>
+        <v>0.3523653742963093</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.770038</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001589383810023154</v>
+        <v>147056565262404.4</v>
       </c>
       <c r="C92" t="n">
-        <v>9.145025374943691e-06</v>
+        <v>11145699793584.78</v>
       </c>
       <c r="D92" t="n">
-        <v>3.640769758193036e-06</v>
+        <v>3381521172508.25</v>
       </c>
       <c r="E92" t="n">
-        <v>5.980459024155317e-06</v>
+        <v>5552484238544.226</v>
       </c>
       <c r="F92" t="n">
-        <v>7.16212767334256</v>
+        <v>5.472239325391063</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2088592167906217</v>
+        <v>0.3609995431949314</v>
       </c>
       <c r="H92" t="n">
-        <v>1.432425534668512</v>
+        <v>1.094447865078213</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.775016</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001639826010181513</v>
+        <v>151998462759507.1</v>
       </c>
       <c r="C93" t="n">
-        <v>9.440678686129477e-06</v>
+        <v>9858361826439.688</v>
       </c>
       <c r="D93" t="n">
-        <v>3.878599585438204e-06</v>
+        <v>3630537343926.591</v>
       </c>
       <c r="E93" t="n">
-        <v>6.272422201077491e-06</v>
+        <v>5915798604599.23</v>
       </c>
       <c r="F93" t="n">
-        <v>1.558230836788804</v>
+        <v>1.048918902267662</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9062537470880208</v>
+        <v>0.9585244136162482</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3116461673577607</v>
+        <v>0.2097837804535325</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780179</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001454841582494727</v>
+        <v>134922599121958.2</v>
       </c>
       <c r="C94" t="n">
-        <v>3.855740332124784e-06</v>
+        <v>4183838000866.016</v>
       </c>
       <c r="D94" t="n">
-        <v>3.993953914379935e-06</v>
+        <v>3774489676043.809</v>
       </c>
       <c r="E94" t="n">
-        <v>6.228936566460681e-06</v>
+        <v>5967056827759.758</v>
       </c>
       <c r="F94" t="n">
-        <v>1.794954557553764</v>
+        <v>1.685365568250996</v>
       </c>
       <c r="G94" t="n">
-        <v>0.8767266123122214</v>
+        <v>0.890738266091524</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3589909115107527</v>
+        <v>0.3370731136501993</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.790118</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001292321378095957</v>
+        <v>119510607613692.2</v>
       </c>
       <c r="C95" t="n">
-        <v>6.90933376371084e-06</v>
+        <v>8206752667592.969</v>
       </c>
       <c r="D95" t="n">
-        <v>3.554696203576434e-06</v>
+        <v>3343002782464.762</v>
       </c>
       <c r="E95" t="n">
-        <v>5.671000124608267e-06</v>
+        <v>5390471340587.706</v>
       </c>
       <c r="F95" t="n">
-        <v>3.188760148979886</v>
+        <v>2.352532182804233</v>
       </c>
       <c r="G95" t="n">
-        <v>0.6709106408660889</v>
+        <v>0.7985213908093332</v>
       </c>
       <c r="H95" t="n">
-        <v>0.6377520297959773</v>
+        <v>0.4705064365608466</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799915</v>
       </c>
       <c r="B96" t="n">
-        <v>9.67957537123889e-05</v>
+        <v>89709611374644.97</v>
       </c>
       <c r="C96" t="n">
-        <v>2.291786126344355e-06</v>
+        <v>2778443245814.234</v>
       </c>
       <c r="D96" t="n">
-        <v>2.628676441179363e-06</v>
+        <v>2478872761766.393</v>
       </c>
       <c r="E96" t="n">
-        <v>4.142149667647764e-06</v>
+        <v>3954317057603.658</v>
       </c>
       <c r="F96" t="n">
-        <v>1.405185433517537</v>
+        <v>1.21743438490512</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9237452027437282</v>
+        <v>0.9431938760932862</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2810370867035074</v>
+        <v>0.2434868769810239</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.810027</v>
       </c>
       <c r="B97" t="n">
-        <v>8.840361635729555e-05</v>
+        <v>81709456248965.59</v>
       </c>
       <c r="C97" t="n">
-        <v>3.256624968163467e-06</v>
+        <v>4540749026782.32</v>
       </c>
       <c r="D97" t="n">
-        <v>2.325461246056264e-06</v>
+        <v>2177849262907.627</v>
       </c>
       <c r="E97" t="n">
-        <v>3.689102266206267e-06</v>
+        <v>3479369317501.654</v>
       </c>
       <c r="F97" t="n">
-        <v>2.141505882323854</v>
+        <v>1.218244279711334</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8292388101070469</v>
+        <v>0.9431151439701934</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4283011764647708</v>
+        <v>0.2436488559422668</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
-        <v>8.329967232527869e-05</v>
+        <v>77038840368631.08</v>
       </c>
       <c r="C98" t="n">
-        <v>7.057449611575899e-06</v>
+        <v>8004164853104.445</v>
       </c>
       <c r="D98" t="n">
-        <v>2.015437727324552e-06</v>
+        <v>1877739653161.161</v>
       </c>
       <c r="E98" t="n">
-        <v>3.300909526127207e-06</v>
+        <v>3085186395721.154</v>
       </c>
       <c r="F98" t="n">
-        <v>4.930509571223252</v>
+        <v>2.782731164755728</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4244196947792962</v>
+        <v>0.7334388838459885</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9861019142446503</v>
+        <v>0.5565462329511457</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
-        <v>8.297148046202108e-05</v>
+        <v>77139897601325.81</v>
       </c>
       <c r="C99" t="n">
-        <v>3.38293555199601e-06</v>
+        <v>2713618239910.734</v>
       </c>
       <c r="D99" t="n">
-        <v>1.913325958586729e-06</v>
+        <v>1800875856244.413</v>
       </c>
       <c r="E99" t="n">
-        <v>3.053776768020261e-06</v>
+        <v>2906311414988.446</v>
       </c>
       <c r="F99" t="n">
-        <v>1.588625652835997</v>
+        <v>1.94271957016537</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9026214074685497</v>
+        <v>0.8570127707516022</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3177251305671994</v>
+        <v>0.3885439140330741</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.820058</v>
       </c>
       <c r="B100" t="n">
-        <v>8.181804930165916e-05</v>
+        <v>75746105410887.48</v>
       </c>
       <c r="C100" t="n">
-        <v>7.521235218833118e-06</v>
+        <v>8346666661059.031</v>
       </c>
       <c r="D100" t="n">
-        <v>1.818918950365188e-06</v>
+        <v>1687116962869.408</v>
       </c>
       <c r="E100" t="n">
-        <v>3.039755116755413e-06</v>
+        <v>2813782496569.162</v>
       </c>
       <c r="F100" t="n">
-        <v>5.427584542799194</v>
+        <v>2.745509752854954</v>
       </c>
       <c r="G100" t="n">
-        <v>0.36595185154615</v>
+        <v>0.7391496068391274</v>
       </c>
       <c r="H100" t="n">
-        <v>1.085516908559839</v>
+        <v>0.5491019505709909</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.829886</v>
       </c>
       <c r="B101" t="n">
-        <v>8.216215520840822e-05</v>
+        <v>76199341718912.22</v>
       </c>
       <c r="C101" t="n">
-        <v>3.967267979192972e-06</v>
+        <v>4240347757860.336</v>
       </c>
       <c r="D101" t="n">
-        <v>1.772775411892971e-06</v>
+        <v>1647586705160.643</v>
       </c>
       <c r="E101" t="n">
-        <v>2.908977795227097e-06</v>
+        <v>2705671828637.691</v>
       </c>
       <c r="F101" t="n">
-        <v>3.172177350761257</v>
+        <v>2.575211968612922</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6734607136637092</v>
+        <v>0.7651278340322057</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6344354701522514</v>
+        <v>0.5150423937225843</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
-        <v>9.640153049033563e-05</v>
+        <v>89354616537543.53</v>
       </c>
       <c r="C102" t="n">
-        <v>5.596194161719477e-06</v>
+        <v>6225573989106.664</v>
       </c>
       <c r="D102" t="n">
-        <v>2.050872633701821e-06</v>
+        <v>1900603112841.356</v>
       </c>
       <c r="E102" t="n">
-        <v>3.413693275363417e-06</v>
+        <v>3153621630154.744</v>
       </c>
       <c r="F102" t="n">
-        <v>4.453628482395423</v>
+        <v>3.246209952418331</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4861116591562002</v>
+        <v>0.6620864360980405</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8907256964790846</v>
+        <v>0.6492419904836662</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.866293</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001292211475341312</v>
+        <v>119752354146633.6</v>
       </c>
       <c r="C103" t="n">
-        <v>1.043360556998757e-05</v>
+        <v>11455053200867.19</v>
       </c>
       <c r="D103" t="n">
-        <v>2.72968404845481e-06</v>
+        <v>2523422469770.046</v>
       </c>
       <c r="E103" t="n">
-        <v>4.586686310741533e-06</v>
+        <v>4216556585476.438</v>
       </c>
       <c r="F103" t="n">
-        <v>3.888604868378758</v>
+        <v>1.693652406551244</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5655631619027996</v>
+        <v>0.889698475809945</v>
       </c>
       <c r="H103" t="n">
-        <v>0.7777209736757517</v>
+        <v>0.3387304813102489</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.889892</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0002118524861775227</v>
+        <v>196386225354936.5</v>
       </c>
       <c r="C104" t="n">
-        <v>1.262100168477747e-05</v>
+        <v>14110972685896.06</v>
       </c>
       <c r="D104" t="n">
-        <v>4.412455291075505e-06</v>
+        <v>4078000962583.485</v>
       </c>
       <c r="E104" t="n">
-        <v>7.381757840222714e-06</v>
+        <v>6783992092048.071</v>
       </c>
       <c r="F104" t="n">
-        <v>4.135627132935745</v>
+        <v>2.730574221814945</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5300589528513658</v>
+        <v>0.7414384212214051</v>
       </c>
       <c r="H104" t="n">
-        <v>0.827125426587149</v>
+        <v>0.546114844362989</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.899914</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003234558367595674</v>
+        <v>299933410540518.4</v>
       </c>
       <c r="C105" t="n">
-        <v>1.469041966661863e-05</v>
+        <v>16316224563002.03</v>
       </c>
       <c r="D105" t="n">
-        <v>6.808013889421713e-06</v>
+        <v>6307327934112.745</v>
       </c>
       <c r="E105" t="n">
-        <v>1.123641666333489e-05</v>
+        <v>10382029692484.37</v>
       </c>
       <c r="F105" t="n">
-        <v>2.593673158354047</v>
+        <v>1.833392955523837</v>
       </c>
       <c r="G105" t="n">
-        <v>0.7623263193224118</v>
+        <v>0.8716844101420527</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5187346316708095</v>
+        <v>0.3666785911047674</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004277036849597809</v>
+        <v>396554425618416.8</v>
       </c>
       <c r="C106" t="n">
-        <v>2.733476087122454e-05</v>
+        <v>29828108155267.75</v>
       </c>
       <c r="D106" t="n">
-        <v>8.913645902284561e-06</v>
+        <v>8244194152905.425</v>
       </c>
       <c r="E106" t="n">
-        <v>1.48814986740074e-05</v>
+        <v>13695673732908.39</v>
       </c>
       <c r="F106" t="n">
-        <v>3.520391967436408</v>
+        <v>2.151999684745702</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6203043351670889</v>
+        <v>0.8277383213961538</v>
       </c>
       <c r="H106" t="n">
-        <v>0.7040783934872816</v>
+        <v>0.4303999369491405</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.919957</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0005690858907346963</v>
+        <v>527657938912581.4</v>
       </c>
       <c r="C107" t="n">
-        <v>1.716512446235159e-05</v>
+        <v>20604059100686.25</v>
       </c>
       <c r="D107" t="n">
-        <v>1.19385274968428e-05</v>
+        <v>11054012857401.02</v>
       </c>
       <c r="E107" t="n">
-        <v>1.960963579866036e-05</v>
+        <v>18097941763852.02</v>
       </c>
       <c r="F107" t="n">
-        <v>1.664822592476521</v>
+        <v>1.135444887595137</v>
       </c>
       <c r="G107" t="n">
-        <v>0.8933013688912035</v>
+        <v>0.9509185849943778</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3329645184953042</v>
+        <v>0.2270889775190274</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.926154</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0007100000392652016</v>
+        <v>658330499879616.5</v>
       </c>
       <c r="C108" t="n">
-        <v>4.392344038729723e-05</v>
+        <v>48204805248970.44</v>
       </c>
       <c r="D108" t="n">
-        <v>1.46737027373152e-05</v>
+        <v>13559362339775.79</v>
       </c>
       <c r="E108" t="n">
-        <v>2.456079968209195e-05</v>
+        <v>22562087799965.86</v>
       </c>
       <c r="F108" t="n">
-        <v>3.787923201867805</v>
+        <v>2.421201020298107</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5803357483753347</v>
+        <v>0.7883127441622484</v>
       </c>
       <c r="H108" t="n">
-        <v>0.7575846403735611</v>
+        <v>0.4842402040596214</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0007671105773540415</v>
+        <v>711663842889783.5</v>
       </c>
       <c r="C109" t="n">
-        <v>6.149796576368971e-05</v>
+        <v>63336035845590.81</v>
       </c>
       <c r="D109" t="n">
-        <v>1.586893348502158e-05</v>
+        <v>14692479287756.09</v>
       </c>
       <c r="E109" t="n">
-        <v>2.666079977455766e-05</v>
+        <v>24585123248248.74</v>
       </c>
       <c r="F109" t="n">
-        <v>2.698019971549086</v>
+        <v>1.381157108931971</v>
       </c>
       <c r="G109" t="n">
-        <v>0.7464212573551277</v>
+        <v>0.9263633325136594</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5396039943098171</v>
+        <v>0.2762314217863943</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.936923</v>
       </c>
       <c r="B110" t="n">
-        <v>0.000954855703540484</v>
+        <v>885255077932394</v>
       </c>
       <c r="C110" t="n">
-        <v>6.611955567460454e-05</v>
+        <v>72894997914614.69</v>
       </c>
       <c r="D110" t="n">
-        <v>1.96753524586028e-05</v>
+        <v>18163026021682.08</v>
       </c>
       <c r="E110" t="n">
-        <v>3.3029598737292e-05</v>
+        <v>30270170940118.78</v>
       </c>
       <c r="F110" t="n">
-        <v>3.445078067142901</v>
+        <v>1.652052580188198</v>
       </c>
       <c r="G110" t="n">
-        <v>0.6317138216536069</v>
+        <v>0.8948840832827422</v>
       </c>
       <c r="H110" t="n">
-        <v>0.6890156134285801</v>
+        <v>0.3304105160376395</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.946745</v>
       </c>
       <c r="B111" t="n">
-        <v>0.001172254206314272</v>
+        <v>1086728938427875</v>
       </c>
       <c r="C111" t="n">
-        <v>5.140877662677371e-05</v>
+        <v>59752095474278.88</v>
       </c>
       <c r="D111" t="n">
-        <v>2.421954266432706e-05</v>
+        <v>22372552058608.41</v>
       </c>
       <c r="E111" t="n">
-        <v>4.016656929153426e-05</v>
+        <v>36886582280804.3</v>
       </c>
       <c r="F111" t="n">
-        <v>2.749452673671263</v>
+        <v>1.763379592361252</v>
       </c>
       <c r="G111" t="n">
-        <v>0.7385451003830662</v>
+        <v>0.8808202475665056</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5498905347342526</v>
+        <v>0.3526759184722503</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.950269</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001186175999740505</v>
+        <v>1099660474441974</v>
       </c>
       <c r="C112" t="n">
-        <v>6.018850776344465e-05</v>
+        <v>68349423604553.88</v>
       </c>
       <c r="D112" t="n">
-        <v>2.456424545962583e-05</v>
+        <v>22695493799932.4</v>
       </c>
       <c r="E112" t="n">
-        <v>4.092234183128689e-05</v>
+        <v>37589376049612.59</v>
       </c>
       <c r="F112" t="n">
-        <v>3.73378775882771</v>
+        <v>2.59047478519298</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5883439684798117</v>
+        <v>0.7628119736675835</v>
       </c>
       <c r="H112" t="n">
-        <v>0.7467575517655419</v>
+        <v>0.518094957038596</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.956763</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001330862269176396</v>
+        <v>1233613998532632</v>
       </c>
       <c r="C113" t="n">
-        <v>3.815500707385453e-05</v>
+        <v>48500104134122.38</v>
       </c>
       <c r="D113" t="n">
-        <v>2.757247534662906e-05</v>
+        <v>25469745086535.22</v>
       </c>
       <c r="E113" t="n">
-        <v>4.550965510107029e-05</v>
+        <v>41808786973832.27</v>
       </c>
       <c r="F113" t="n">
-        <v>2.694144763520274</v>
+        <v>2.051381073810875</v>
       </c>
       <c r="G113" t="n">
-        <v>0.7470138232660795</v>
+        <v>0.8419907908184812</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5388289527040548</v>
+        <v>0.4102762147621751</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001358884422925159</v>
+        <v>1259808194601264</v>
       </c>
       <c r="C114" t="n">
-        <v>4.575756489331702e-05</v>
+        <v>55152097776050</v>
       </c>
       <c r="D114" t="n">
-        <v>2.810916046214918e-05</v>
+        <v>25976554794019.35</v>
       </c>
       <c r="E114" t="n">
-        <v>4.637667040206821e-05</v>
+        <v>42632950303675.16</v>
       </c>
       <c r="F114" t="n">
-        <v>2.278464126320559</v>
+        <v>1.578488571854245</v>
       </c>
       <c r="G114" t="n">
-        <v>0.809424661083924</v>
+        <v>0.9038383961122295</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4556928252641117</v>
+        <v>0.315697714370849</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.964748</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001351449079372242</v>
+        <v>1252391100254556</v>
       </c>
       <c r="C115" t="n">
-        <v>4.636109563077042e-05</v>
+        <v>58374936636621.25</v>
       </c>
       <c r="D115" t="n">
-        <v>2.799041919502756e-05</v>
+        <v>25836310328678.31</v>
       </c>
       <c r="E115" t="n">
-        <v>4.63493348446936e-05</v>
+        <v>42509278238315.7</v>
       </c>
       <c r="F115" t="n">
-        <v>3.2201172449303</v>
+        <v>2.334788176928213</v>
       </c>
       <c r="G115" t="n">
-        <v>0.6660921061245182</v>
+        <v>0.8011441695786815</v>
       </c>
       <c r="H115" t="n">
-        <v>0.6440234489860599</v>
+        <v>0.4669576353856426</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.967875</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001327881138998005</v>
+        <v>1230669907001726</v>
       </c>
       <c r="C116" t="n">
-        <v>5.186184231578098e-05</v>
+        <v>63082539612336.12</v>
       </c>
       <c r="D116" t="n">
-        <v>2.748352655468636e-05</v>
+        <v>25373794711431.13</v>
       </c>
       <c r="E116" t="n">
-        <v>4.551317082238414e-05</v>
+        <v>41751220906131.1</v>
       </c>
       <c r="F116" t="n">
-        <v>3.024240985595022</v>
+        <v>2.039829585491364</v>
       </c>
       <c r="G116" t="n">
-        <v>0.6962484134853079</v>
+        <v>0.843606864793967</v>
       </c>
       <c r="H116" t="n">
-        <v>0.6048481971190044</v>
+        <v>0.4079659170982728</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.970043</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001333676158338903</v>
+        <v>1236897163908100</v>
       </c>
       <c r="C117" t="n">
-        <v>5.737116460840456e-05</v>
+        <v>63818592164305.38</v>
       </c>
       <c r="D117" t="n">
-        <v>2.767781430285806e-05</v>
+        <v>25609059453641.13</v>
       </c>
       <c r="E117" t="n">
-        <v>4.611075270173585e-05</v>
+        <v>42492147589857.67</v>
       </c>
       <c r="F117" t="n">
-        <v>4.663943536862215</v>
+        <v>3.95585682389239</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4582523216752973</v>
+        <v>0.5557888768907249</v>
       </c>
       <c r="H117" t="n">
-        <v>0.932788707372443</v>
+        <v>0.791171364778478</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001264427532957934</v>
+        <v>1172336383682282</v>
       </c>
       <c r="C118" t="n">
-        <v>5.239356724839341e-05</v>
+        <v>60543384173893.12</v>
       </c>
       <c r="D118" t="n">
-        <v>2.611932786560644e-05</v>
+        <v>24136581850639.61</v>
       </c>
       <c r="E118" t="n">
-        <v>4.332141805662141e-05</v>
+        <v>39816123477759.77</v>
       </c>
       <c r="F118" t="n">
-        <v>2.920941475603534</v>
+        <v>2.071540696571442</v>
       </c>
       <c r="G118" t="n">
-        <v>0.712172960973333</v>
+        <v>0.8391601086963405</v>
       </c>
       <c r="H118" t="n">
-        <v>0.5841882951207069</v>
+        <v>0.4143081393142884</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.974629</v>
       </c>
       <c r="B119" t="n">
-        <v>0.00123019590669632</v>
+        <v>1140392607162705</v>
       </c>
       <c r="C119" t="n">
-        <v>4.220398576485743e-05</v>
+        <v>51223457010140</v>
       </c>
       <c r="D119" t="n">
-        <v>2.548276149341409e-05</v>
+        <v>23546319426589.78</v>
       </c>
       <c r="E119" t="n">
-        <v>4.200985419520167e-05</v>
+        <v>38608256546018.51</v>
       </c>
       <c r="F119" t="n">
-        <v>2.272876285468811</v>
+        <v>1.521826194095014</v>
       </c>
       <c r="G119" t="n">
-        <v>0.8102422616227083</v>
+        <v>0.91053741707131</v>
       </c>
       <c r="H119" t="n">
-        <v>0.4545752570937623</v>
+        <v>0.3043652388190027</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.984706</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001012749084015163</v>
+        <v>938624907139226.5</v>
       </c>
       <c r="C120" t="n">
-        <v>2.351286632926066e-05</v>
+        <v>32010220387916.5</v>
       </c>
       <c r="D120" t="n">
-        <v>2.101646759486815e-05</v>
+        <v>19412967234486.19</v>
       </c>
       <c r="E120" t="n">
-        <v>3.451863528141703e-05</v>
+        <v>31711696297911.44</v>
       </c>
       <c r="F120" t="n">
-        <v>2.30339542163355</v>
+        <v>1.748488381562598</v>
       </c>
       <c r="G120" t="n">
-        <v>0.8057680455992525</v>
+        <v>0.8827353121771181</v>
       </c>
       <c r="H120" t="n">
-        <v>0.4606790843267101</v>
+        <v>0.3496976763125196</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990074</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0009422679515061922</v>
+        <v>873570674563587.5</v>
       </c>
       <c r="C121" t="n">
-        <v>4.836542485346759e-05</v>
+        <v>54600792657736.25</v>
       </c>
       <c r="D121" t="n">
-        <v>1.957144994927691e-05</v>
+        <v>18088310574647.57</v>
       </c>
       <c r="E121" t="n">
-        <v>3.272647777355286e-05</v>
+        <v>30081695559549.6</v>
       </c>
       <c r="F121" t="n">
-        <v>5.244087732856406</v>
+        <v>4.132724151187227</v>
       </c>
       <c r="G121" t="n">
-        <v>0.3868234659134722</v>
+        <v>0.5304696216024513</v>
       </c>
       <c r="H121" t="n">
-        <v>1.048817546571281</v>
+        <v>0.8265448302374454</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0007908836935178625</v>
+        <v>733046118848943.5</v>
       </c>
       <c r="C122" t="n">
-        <v>4.281960780920947e-05</v>
+        <v>49269100413262</v>
       </c>
       <c r="D122" t="n">
-        <v>1.634564196774073e-05</v>
+        <v>15087408127626.47</v>
       </c>
       <c r="E122" t="n">
-        <v>2.724193105275227e-05</v>
+        <v>24970591184684.21</v>
       </c>
       <c r="F122" t="n">
-        <v>3.456336175857852</v>
+        <v>2.033390775621434</v>
       </c>
       <c r="G122" t="n">
-        <v>0.6300045755853987</v>
+        <v>0.8445057655937426</v>
       </c>
       <c r="H122" t="n">
-        <v>0.6912672351715704</v>
+        <v>0.4066781551242869</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.004642</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0006139788579407552</v>
+        <v>569317941731657.1</v>
       </c>
       <c r="C123" t="n">
-        <v>2.146718548432251e-05</v>
+        <v>25141756169200.69</v>
       </c>
       <c r="D123" t="n">
-        <v>1.270796510425735e-05</v>
+        <v>11751523323402.84</v>
       </c>
       <c r="E123" t="n">
-        <v>2.091344785474838e-05</v>
+        <v>19250895066182.29</v>
       </c>
       <c r="F123" t="n">
-        <v>1.799873492506594</v>
+        <v>1.147541145505055</v>
       </c>
       <c r="G123" t="n">
-        <v>0.8760849176463981</v>
+        <v>0.9498099811378897</v>
       </c>
       <c r="H123" t="n">
-        <v>0.3599746985013189</v>
+        <v>0.2295082291010109</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0005625835153641634</v>
+        <v>521427990148743.3</v>
       </c>
       <c r="C124" t="n">
-        <v>1.93166600611318e-05</v>
+        <v>23732360489639.19</v>
       </c>
       <c r="D124" t="n">
-        <v>1.17689390698541e-05</v>
+        <v>10879416598833.45</v>
       </c>
       <c r="E124" t="n">
-        <v>1.9450269159433e-05</v>
+        <v>17894822738831.34</v>
       </c>
       <c r="F124" t="n">
-        <v>3.921968369483612</v>
+        <v>3.14991545189119</v>
       </c>
       <c r="G124" t="n">
-        <v>0.5607045089996678</v>
+        <v>0.6768858942834082</v>
       </c>
       <c r="H124" t="n">
-        <v>0.7843936738967224</v>
+        <v>0.6299830903782381</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.014843</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0004836488963082738</v>
+        <v>448294131874019.4</v>
       </c>
       <c r="C125" t="n">
-        <v>2.952668092343172e-05</v>
+        <v>33353847529116.44</v>
       </c>
       <c r="D125" t="n">
-        <v>1.002843043579857e-05</v>
+        <v>9259892739138.373</v>
       </c>
       <c r="E125" t="n">
-        <v>1.67510246399089e-05</v>
+        <v>15362991202212.67</v>
       </c>
       <c r="F125" t="n">
-        <v>3.492651056450382</v>
+        <v>1.884899169342781</v>
       </c>
       <c r="G125" t="n">
-        <v>0.6244999073119993</v>
+        <v>0.8648312015267214</v>
       </c>
       <c r="H125" t="n">
-        <v>0.6985302112900764</v>
+        <v>0.3769798338685561</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.017737</v>
       </c>
       <c r="B126" t="n">
-        <v>0.000459166023777435</v>
+        <v>425695435146299.4</v>
       </c>
       <c r="C126" t="n">
-        <v>1.551053162482456e-05</v>
+        <v>18514259101534.31</v>
       </c>
       <c r="D126" t="n">
-        <v>9.595371205652905e-06</v>
+        <v>8878981195564.318</v>
       </c>
       <c r="E126" t="n">
-        <v>1.572992790616691e-05</v>
+        <v>14497787376854.88</v>
       </c>
       <c r="F126" t="n">
-        <v>1.979013623402323</v>
+        <v>1.320738501532275</v>
       </c>
       <c r="G126" t="n">
-        <v>0.8520412190672717</v>
+        <v>0.932783304079181</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3958027246804646</v>
+        <v>0.2641477003064549</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.017861</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0004606810328444042</v>
+        <v>426837704812661.4</v>
       </c>
       <c r="C127" t="n">
-        <v>1.323161641833158e-05</v>
+        <v>17583145282293.69</v>
       </c>
       <c r="D127" t="n">
-        <v>9.628481269456514e-06</v>
+        <v>8894397691356.834</v>
       </c>
       <c r="E127" t="n">
-        <v>1.57796645079271e-05</v>
+        <v>14495888387420.96</v>
       </c>
       <c r="F127" t="n">
-        <v>1.887606277521923</v>
+        <v>1.119789989489104</v>
       </c>
       <c r="G127" t="n">
-        <v>0.8644680401758561</v>
+        <v>0.9523370562558385</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3775212555043846</v>
+        <v>0.2239579978978208</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019822</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0004541791169512236</v>
+        <v>420830517102102.1</v>
       </c>
       <c r="C128" t="n">
-        <v>1.679783634613718e-05</v>
+        <v>20876208235125.75</v>
       </c>
       <c r="D128" t="n">
-        <v>9.565295182077548e-06</v>
+        <v>8843067626699.676</v>
       </c>
       <c r="E128" t="n">
-        <v>1.557635456706399e-05</v>
+        <v>14332754518876.6</v>
       </c>
       <c r="F128" t="n">
-        <v>2.98788698320335</v>
+        <v>2.029844447540404</v>
       </c>
       <c r="G128" t="n">
-        <v>0.7018534171761466</v>
+        <v>0.8450002703199446</v>
       </c>
       <c r="H128" t="n">
-        <v>0.5975773966406701</v>
+        <v>0.4059688895080808</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0004404234926457666</v>
+        <v>408276443716560.2</v>
       </c>
       <c r="C129" t="n">
-        <v>1.370776634498184e-05</v>
+        <v>16468326335489.69</v>
       </c>
       <c r="D129" t="n">
-        <v>9.502839163835923e-06</v>
+        <v>8820838711569.275</v>
       </c>
       <c r="E129" t="n">
-        <v>1.533636365849028e-05</v>
+        <v>14225154169812.12</v>
       </c>
       <c r="F129" t="n">
-        <v>2.40952826109446</v>
+        <v>1.868147450392034</v>
       </c>
       <c r="G129" t="n">
-        <v>0.7900543345882353</v>
+        <v>0.8670719626816445</v>
       </c>
       <c r="H129" t="n">
-        <v>0.4819056522188919</v>
+        <v>0.3736294900784068</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027826</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0004456044884461266</v>
+        <v>412562801292963.2</v>
       </c>
       <c r="C130" t="n">
-        <v>9.447374639819648e-06</v>
+        <v>14748643869032</v>
       </c>
       <c r="D130" t="n">
-        <v>9.711248104408927e-06</v>
+        <v>8992033550579.311</v>
       </c>
       <c r="E130" t="n">
-        <v>1.570415992458551e-05</v>
+        <v>14495789839154.74</v>
       </c>
       <c r="F130" t="n">
-        <v>2.645035271970988</v>
+        <v>1.971014984556458</v>
       </c>
       <c r="G130" t="n">
-        <v>0.7545113492237298</v>
+        <v>0.8531409615268433</v>
       </c>
       <c r="H130" t="n">
-        <v>0.5290070543941976</v>
+        <v>0.3942029969112916</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.030101</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0004529323165655061</v>
+        <v>419799079548893.6</v>
       </c>
       <c r="C131" t="n">
-        <v>1.086987476763235e-05</v>
+        <v>14034949243407.75</v>
       </c>
       <c r="D131" t="n">
-        <v>1.001690775284228e-05</v>
+        <v>9314909165362.783</v>
       </c>
       <c r="E131" t="n">
-        <v>1.635398601546824e-05</v>
+        <v>15221562473137.79</v>
       </c>
       <c r="F131" t="n">
-        <v>4.815780675592472</v>
+        <v>4.406399107043509</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4387739074002394</v>
+        <v>0.4925037262382026</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9631561351184944</v>
+        <v>0.8812798214087018</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032781</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0005031824344002154</v>
+        <v>466380926659887.6</v>
       </c>
       <c r="C132" t="n">
-        <v>1.760690148933406e-05</v>
+        <v>20995523972248.88</v>
       </c>
       <c r="D132" t="n">
-        <v>1.088874186074633e-05</v>
+        <v>10106261063585.98</v>
       </c>
       <c r="E132" t="n">
-        <v>1.768391596507623e-05</v>
+        <v>16398056178736.67</v>
       </c>
       <c r="F132" t="n">
-        <v>1.476286822477402</v>
+        <v>0.8278054538871641</v>
       </c>
       <c r="G132" t="n">
-        <v>0.9157899794922268</v>
+        <v>0.9752260265750036</v>
       </c>
       <c r="H132" t="n">
-        <v>0.2952573644954803</v>
+        <v>0.1655610907774328</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.035899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0005473771155996552</v>
+        <v>507526910392144.2</v>
       </c>
       <c r="C133" t="n">
-        <v>2.764476492450032e-06</v>
+        <v>6425564390686.062</v>
       </c>
       <c r="D133" t="n">
-        <v>1.184435831887906e-05</v>
+        <v>11000985583491.21</v>
       </c>
       <c r="E133" t="n">
-        <v>1.894352947344872e-05</v>
+        <v>17593298873579.85</v>
       </c>
       <c r="F133" t="n">
-        <v>1.269331020289134</v>
+        <v>1.157386130027429</v>
       </c>
       <c r="G133" t="n">
-        <v>0.9380556269903378</v>
+        <v>0.9488996706571702</v>
       </c>
       <c r="H133" t="n">
-        <v>0.2538662040578267</v>
+        <v>0.2314772260054859</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0005755297099739215</v>
+        <v>533630566149277.1</v>
       </c>
       <c r="C134" t="n">
-        <v>2.269297893802021e-06</v>
+        <v>6155878825613.75</v>
       </c>
       <c r="D134" t="n">
-        <v>1.245685988560728e-05</v>
+        <v>11570557292800.25</v>
       </c>
       <c r="E134" t="n">
-        <v>1.990617829629677e-05</v>
+        <v>18487780151929.96</v>
       </c>
       <c r="F134" t="n">
-        <v>1.801391635459105</v>
+        <v>1.703425734952089</v>
       </c>
       <c r="G134" t="n">
-        <v>0.8758866569072252</v>
+        <v>0.8884678928497557</v>
       </c>
       <c r="H134" t="n">
-        <v>0.3602783270918209</v>
+        <v>0.3406851469904179</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041981</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0005825859397154281</v>
+        <v>539653107093484.9</v>
       </c>
       <c r="C135" t="n">
-        <v>1.795808023043503e-05</v>
+        <v>23515957872269.44</v>
       </c>
       <c r="D135" t="n">
-        <v>1.267982384426002e-05</v>
+        <v>11753178579520.08</v>
       </c>
       <c r="E135" t="n">
-        <v>2.057050706443069e-05</v>
+        <v>19026597055354.61</v>
       </c>
       <c r="F135" t="n">
-        <v>2.543167476320476</v>
+        <v>1.77742192692109</v>
       </c>
       <c r="G135" t="n">
-        <v>0.769980393043695</v>
+        <v>0.8790051641442851</v>
       </c>
       <c r="H135" t="n">
-        <v>0.5086334952640953</v>
+        <v>0.3554843853842181</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.044789</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0005679445542916203</v>
+        <v>526778635909303.5</v>
       </c>
       <c r="C136" t="n">
-        <v>1.033404704031476e-05</v>
+        <v>12949944139276.88</v>
       </c>
       <c r="D136" t="n">
-        <v>1.228387273073279e-05</v>
+        <v>11420831616499.2</v>
       </c>
       <c r="E136" t="n">
-        <v>1.965847957156827e-05</v>
+        <v>18290422194477.32</v>
       </c>
       <c r="F136" t="n">
-        <v>2.254790481207851</v>
+        <v>2.03031238892757</v>
       </c>
       <c r="G136" t="n">
-        <v>0.8128834937914566</v>
+        <v>0.8449350438970371</v>
       </c>
       <c r="H136" t="n">
-        <v>0.4509580962415702</v>
+        <v>0.4060624777855139</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.049971</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0005444429552038764</v>
+        <v>504780837068407.2</v>
       </c>
       <c r="C137" t="n">
-        <v>2.660437626609066e-05</v>
+        <v>29095964057365</v>
       </c>
       <c r="D137" t="n">
-        <v>1.180261133939737e-05</v>
+        <v>10965324657551.73</v>
       </c>
       <c r="E137" t="n">
-        <v>1.938291063595655e-05</v>
+        <v>18011419804330.64</v>
       </c>
       <c r="F137" t="n">
-        <v>2.668179350322331</v>
+        <v>1.942078763222765</v>
       </c>
       <c r="G137" t="n">
-        <v>0.7509807958635228</v>
+        <v>0.8571001155650836</v>
       </c>
       <c r="H137" t="n">
-        <v>0.5336358700644661</v>
+        <v>0.3884157526445531</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.054843</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0004648879220136948</v>
+        <v>430865425879191.2</v>
       </c>
       <c r="C138" t="n">
-        <v>1.183991509022515e-05</v>
+        <v>15347086104162.88</v>
       </c>
       <c r="D138" t="n">
-        <v>9.989943868242266e-06</v>
+        <v>9263191527149.285</v>
       </c>
       <c r="E138" t="n">
-        <v>1.613560639599362e-05</v>
+        <v>14935317977123.36</v>
       </c>
       <c r="F138" t="n">
-        <v>2.345076889238686</v>
+        <v>1.827451020054886</v>
       </c>
       <c r="G138" t="n">
-        <v>0.7996241665331437</v>
+        <v>0.8724679701697111</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4690153778477372</v>
+        <v>0.3654902040109772</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.064876</v>
       </c>
       <c r="B139" t="n">
-        <v>0.000291266773339438</v>
+        <v>270091577058591.2</v>
       </c>
       <c r="C139" t="n">
-        <v>5.649103078847093e-06</v>
+        <v>7272918578896.062</v>
       </c>
       <c r="D139" t="n">
-        <v>6.26910576892593e-06</v>
+        <v>5821458825911.978</v>
       </c>
       <c r="E139" t="n">
-        <v>1.010528402365466e-05</v>
+        <v>9380590298547.041</v>
       </c>
       <c r="F139" t="n">
-        <v>1.370080901385156</v>
+        <v>1.081933265608852</v>
       </c>
       <c r="G139" t="n">
-        <v>0.9275579099010919</v>
+        <v>0.9556903304848006</v>
       </c>
       <c r="H139" t="n">
-        <v>0.2740161802770311</v>
+        <v>0.2163866531217703</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.069912</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002468341544998704</v>
+        <v>229310957640911.6</v>
       </c>
       <c r="C140" t="n">
-        <v>8.489982124830687e-06</v>
+        <v>7633735049973.312</v>
       </c>
       <c r="D140" t="n">
-        <v>5.381971305474044e-06</v>
+        <v>5029653657908.979</v>
       </c>
       <c r="E140" t="n">
-        <v>8.779585815454133e-06</v>
+        <v>8250312548839.013</v>
       </c>
       <c r="F140" t="n">
-        <v>4.499947775725152</v>
+        <v>4.575234010542672</v>
       </c>
       <c r="G140" t="n">
-        <v>0.4798904255728349</v>
+        <v>0.4698809223403719</v>
       </c>
       <c r="H140" t="n">
-        <v>0.8999895551450304</v>
+        <v>0.9150468021085343</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.074481</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0001965380567372892</v>
+        <v>182091331472060.5</v>
       </c>
       <c r="C141" t="n">
-        <v>5.965034627417038e-06</v>
+        <v>7735167354664.094</v>
       </c>
       <c r="D141" t="n">
-        <v>4.208278524467714e-06</v>
+        <v>3897505630061.055</v>
       </c>
       <c r="E141" t="n">
-        <v>6.82372738597274e-06</v>
+        <v>6301436926265.388</v>
       </c>
       <c r="F141" t="n">
-        <v>2.069285642201731</v>
+        <v>1.325992968038595</v>
       </c>
       <c r="G141" t="n">
-        <v>0.8394773917126486</v>
+        <v>0.9322344311369886</v>
       </c>
       <c r="H141" t="n">
-        <v>0.4138571284403462</v>
+        <v>0.265198593607719</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.084189</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001524858214171933</v>
+        <v>141269755311212</v>
       </c>
       <c r="C142" t="n">
-        <v>1.028657395254264e-05</v>
+        <v>11491678940951.62</v>
       </c>
       <c r="D142" t="n">
-        <v>3.312635768995683e-06</v>
+        <v>3071696228614.425</v>
       </c>
       <c r="E142" t="n">
-        <v>5.469805528189709e-06</v>
+        <v>5060009065904.997</v>
       </c>
       <c r="F142" t="n">
-        <v>3.257036068374411</v>
+        <v>1.635749728954679</v>
       </c>
       <c r="G142" t="n">
-        <v>0.6604255857386925</v>
+        <v>0.8968926926139569</v>
       </c>
       <c r="H142" t="n">
-        <v>0.6514072136748822</v>
+        <v>0.3271499457909358</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.089986</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0001435870635641344</v>
+        <v>133242439971076.5</v>
       </c>
       <c r="C143" t="n">
-        <v>4.461672114672454e-06</v>
+        <v>4665739612225.484</v>
       </c>
       <c r="D143" t="n">
-        <v>3.18926998022241e-06</v>
+        <v>2976073422856.771</v>
       </c>
       <c r="E143" t="n">
-        <v>5.185301858441015e-06</v>
+        <v>4857895031959.296</v>
       </c>
       <c r="F143" t="n">
-        <v>3.326517300743486</v>
+        <v>3.146104288429509</v>
       </c>
       <c r="G143" t="n">
-        <v>0.6497844073350189</v>
+        <v>0.6774724628930204</v>
       </c>
       <c r="H143" t="n">
-        <v>0.6653034601486972</v>
+        <v>0.6292208576859019</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093717</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0001396884878070247</v>
+        <v>129903669153037</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.585843624042103e-06</v>
+        <v>-1875058113145.859</v>
       </c>
       <c r="D144" t="n">
-        <v>3.485478808701158e-06</v>
+        <v>3288463567598.781</v>
       </c>
       <c r="E144" t="n">
-        <v>5.400314793660857e-06</v>
+        <v>5155259406363.04</v>
       </c>
       <c r="F144" t="n">
-        <v>3.114339006709901</v>
+        <v>3.067570290562379</v>
       </c>
       <c r="G144" t="n">
-        <v>0.6823632907433583</v>
+        <v>0.6895691326428095</v>
       </c>
       <c r="H144" t="n">
-        <v>0.6228678013419803</v>
+        <v>0.6135140581124758</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
-        <v>0.000143980429182417</v>
+        <v>133402192994475.4</v>
       </c>
       <c r="C145" t="n">
-        <v>7.46586770266975e-06</v>
+        <v>8151769854620.438</v>
       </c>
       <c r="D145" t="n">
-        <v>3.448482493239945e-06</v>
+        <v>3227764092001.472</v>
       </c>
       <c r="E145" t="n">
-        <v>5.555395505665328e-06</v>
+        <v>5235151866799.146</v>
       </c>
       <c r="F145" t="n">
-        <v>1.281778765229707</v>
+        <v>0.6634133919777956</v>
       </c>
       <c r="G145" t="n">
-        <v>0.9367954147546282</v>
+        <v>0.9849161346304909</v>
       </c>
       <c r="H145" t="n">
-        <v>0.2563557530459414</v>
+        <v>0.1326826783955591</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.098893</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0001381018561308602</v>
+        <v>127999059567452.2</v>
       </c>
       <c r="C146" t="n">
-        <v>6.13706237427515e-06</v>
+        <v>6550759352574.469</v>
       </c>
       <c r="D146" t="n">
-        <v>3.536262268116318e-06</v>
+        <v>3326405912760.396</v>
       </c>
       <c r="E146" t="n">
-        <v>5.696540619559856e-06</v>
+        <v>5418522383222.581</v>
       </c>
       <c r="F146" t="n">
-        <v>5.05208077579494</v>
+        <v>4.752987195753686</v>
       </c>
       <c r="G146" t="n">
-        <v>0.409557328050092</v>
+        <v>0.4467634962657341</v>
       </c>
       <c r="H146" t="n">
-        <v>1.010416155158988</v>
+        <v>0.9505974391507372</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.099991</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0001371237620479568</v>
+        <v>126587858656826.3</v>
       </c>
       <c r="C147" t="n">
-        <v>1.847134133776375e-05</v>
+        <v>20359332990751.55</v>
       </c>
       <c r="D147" t="n">
-        <v>3.593377696568585e-06</v>
+        <v>3358117542799.66</v>
       </c>
       <c r="E147" t="n">
-        <v>5.906161220223538e-06</v>
+        <v>5558317419448.8</v>
       </c>
       <c r="F147" t="n">
-        <v>5.945642381043129</v>
+        <v>2.307355707103731</v>
       </c>
       <c r="G147" t="n">
-        <v>0.3115441429829844</v>
+        <v>0.8051859131411043</v>
       </c>
       <c r="H147" t="n">
-        <v>1.189128476208626</v>
+        <v>0.4614711414207461</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0001376331049188781</v>
+        <v>127271618758638.6</v>
       </c>
       <c r="C148" t="n">
-        <v>4.320300886898566e-06</v>
+        <v>6119448495029.609</v>
       </c>
       <c r="D148" t="n">
-        <v>3.628729436454758e-06</v>
+        <v>3400525099248.108</v>
       </c>
       <c r="E148" t="n">
-        <v>5.761576519054392e-06</v>
+        <v>5440762175293.448</v>
       </c>
       <c r="F148" t="n">
-        <v>2.519000838414653</v>
+        <v>1.814508295017699</v>
       </c>
       <c r="G148" t="n">
-        <v>0.7736308278703803</v>
+        <v>0.8741695425022242</v>
       </c>
       <c r="H148" t="n">
-        <v>0.5038001676829307</v>
+        <v>0.3629016590035398</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100713</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0001377566667437495</v>
+        <v>127730177780344.5</v>
       </c>
       <c r="C149" t="n">
-        <v>4.730684009995349e-06</v>
+        <v>5069621203145.031</v>
       </c>
       <c r="D149" t="n">
-        <v>3.62069771671476e-06</v>
+        <v>3414255887783.109</v>
       </c>
       <c r="E149" t="n">
-        <v>5.804682882790247e-06</v>
+        <v>5542222029721.501</v>
       </c>
       <c r="F149" t="n">
-        <v>4.1416508483131</v>
+        <v>3.968723802593469</v>
       </c>
       <c r="G149" t="n">
-        <v>0.5292073335644552</v>
+        <v>0.5539277148736063</v>
       </c>
       <c r="H149" t="n">
-        <v>0.82833016966262</v>
+        <v>0.7937447605186938</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.102879</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0001338615821179786</v>
+        <v>123981268531876.6</v>
       </c>
       <c r="C150" t="n">
-        <v>-2.111221374396361e-07</v>
+        <v>1126197486463.156</v>
       </c>
       <c r="D150" t="n">
-        <v>3.556116612336552e-06</v>
+        <v>3342988648079.234</v>
       </c>
       <c r="E150" t="n">
-        <v>5.517176190778264e-06</v>
+        <v>5234306383166.084</v>
       </c>
       <c r="F150" t="n">
-        <v>1.933951762751756</v>
+        <v>1.889773740871047</v>
       </c>
       <c r="G150" t="n">
-        <v>0.8582065350889286</v>
+        <v>0.864177063790099</v>
       </c>
       <c r="H150" t="n">
-        <v>0.3867903525503512</v>
+        <v>0.3779547481742094</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.104856</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0001318239688692179</v>
+        <v>122250790120516.4</v>
       </c>
       <c r="C151" t="n">
-        <v>9.187213115280826e-06</v>
+        <v>8726004549577.688</v>
       </c>
       <c r="D151" t="n">
-        <v>3.432025061761546e-06</v>
+        <v>3241060828609.941</v>
       </c>
       <c r="E151" t="n">
-        <v>5.499987752077075e-06</v>
+        <v>5272743152527.771</v>
       </c>
       <c r="F151" t="n">
-        <v>7.988901658593393</v>
+        <v>8.043554188776699</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1568483405422016</v>
+        <v>0.1538515497739703</v>
       </c>
       <c r="H151" t="n">
-        <v>1.597780331718679</v>
+        <v>1.60871083775534</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.106897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001316260271248417</v>
+        <v>122760037856188.6</v>
       </c>
       <c r="C152" t="n">
-        <v>-1.537168687812995e-06</v>
+        <v>-2932116960627.125</v>
       </c>
       <c r="D152" t="n">
-        <v>3.519436019132457e-06</v>
+        <v>3351653387055.791</v>
       </c>
       <c r="E152" t="n">
-        <v>5.442018228085841e-06</v>
+        <v>5275115428487.854</v>
       </c>
       <c r="F152" t="n">
-        <v>2.670895896341156</v>
+        <v>2.442755445247596</v>
       </c>
       <c r="G152" t="n">
-        <v>0.7505660546544163</v>
+        <v>0.7850904484281555</v>
       </c>
       <c r="H152" t="n">
-        <v>0.5341791792682312</v>
+        <v>0.4885510890495192</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.108781</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001200402465573764</v>
+        <v>110825398310744.8</v>
       </c>
       <c r="C153" t="n">
-        <v>1.484580485763922e-05</v>
+        <v>16476982128325.47</v>
       </c>
       <c r="D153" t="n">
-        <v>3.179817211616889e-06</v>
+        <v>2974660219703.016</v>
       </c>
       <c r="E153" t="n">
-        <v>5.241905244398627e-06</v>
+        <v>4940537675307.102</v>
       </c>
       <c r="F153" t="n">
-        <v>7.279746439608443</v>
+        <v>4.180913266083746</v>
       </c>
       <c r="G153" t="n">
-        <v>0.2006526143948535</v>
+        <v>0.5236739115843614</v>
       </c>
       <c r="H153" t="n">
-        <v>1.455949287921689</v>
+        <v>0.8361826532167491</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110037</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001214443759489481</v>
+        <v>112755510617532.6</v>
       </c>
       <c r="C154" t="n">
-        <v>4.990670746518228e-06</v>
+        <v>4518161083317.25</v>
       </c>
       <c r="D154" t="n">
-        <v>3.298260741982466e-06</v>
+        <v>3124568564838.836</v>
       </c>
       <c r="E154" t="n">
-        <v>5.257250512149386e-06</v>
+        <v>5062399777771.273</v>
       </c>
       <c r="F154" t="n">
-        <v>9.574166851010654</v>
+        <v>9.687880930389532</v>
       </c>
       <c r="G154" t="n">
-        <v>0.08824032597240264</v>
+        <v>0.08457776029331075</v>
       </c>
       <c r="H154" t="n">
-        <v>1.914833370202131</v>
+        <v>1.937576186077906</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001217692262174442</v>
+        <v>112541471481515.5</v>
       </c>
       <c r="C155" t="n">
-        <v>-2.85876290244981e-06</v>
+        <v>-586451126624.6875</v>
       </c>
       <c r="D155" t="n">
-        <v>3.32371329193433e-06</v>
+        <v>3116991143797.164</v>
       </c>
       <c r="E155" t="n">
-        <v>5.149450295296655e-06</v>
+        <v>4861344026412.212</v>
       </c>
       <c r="F155" t="n">
-        <v>4.116384085703163</v>
+        <v>4.409668876236149</v>
       </c>
       <c r="G155" t="n">
-        <v>0.5327842017837401</v>
+        <v>0.4920596261272434</v>
       </c>
       <c r="H155" t="n">
-        <v>0.8232768171406326</v>
+        <v>0.8819337752472298</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.113839</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001212017005152993</v>
+        <v>112396980980567.8</v>
       </c>
       <c r="C156" t="n">
-        <v>-3.649811745291744e-06</v>
+        <v>-2578280779470.703</v>
       </c>
       <c r="D156" t="n">
-        <v>3.231240650533932e-06</v>
+        <v>3043348450749.763</v>
       </c>
       <c r="E156" t="n">
-        <v>4.998979222603522e-06</v>
+        <v>4755076584160.508</v>
       </c>
       <c r="F156" t="n">
-        <v>2.548532787319276</v>
+        <v>2.786623383795945</v>
       </c>
       <c r="G156" t="n">
-        <v>0.7691688556894614</v>
+        <v>0.7328412112407228</v>
       </c>
       <c r="H156" t="n">
-        <v>0.5097065574638552</v>
+        <v>0.5573246767591891</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.118804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001078236219349305</v>
+        <v>99787710721899.7</v>
       </c>
       <c r="C157" t="n">
-        <v>7.376769406275364e-06</v>
+        <v>8118429645739.703</v>
       </c>
       <c r="D157" t="n">
-        <v>2.755425023643969e-06</v>
+        <v>2584178868709.248</v>
       </c>
       <c r="E157" t="n">
-        <v>4.469390303702538e-06</v>
+        <v>4228809781724.047</v>
       </c>
       <c r="F157" t="n">
-        <v>6.989172425920522</v>
+        <v>6.022375774230257</v>
       </c>
       <c r="G157" t="n">
-        <v>0.2214468147234281</v>
+        <v>0.3040477442408995</v>
       </c>
       <c r="H157" t="n">
-        <v>1.397834485184104</v>
+        <v>1.204475154846051</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123773</v>
       </c>
       <c r="B158" t="n">
-        <v>9.363952625848905e-05</v>
+        <v>86266894156659.31</v>
       </c>
       <c r="C158" t="n">
-        <v>1.2077637684023e-06</v>
+        <v>3796739860744.484</v>
       </c>
       <c r="D158" t="n">
-        <v>2.577192697207588e-06</v>
+        <v>2403145988503.659</v>
       </c>
       <c r="E158" t="n">
-        <v>4.061723829566492e-06</v>
+        <v>3798705813794.717</v>
       </c>
       <c r="F158" t="n">
-        <v>7.709022741965194</v>
+        <v>6.797115848724236</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1730178769853695</v>
+        <v>0.2361715994342879</v>
       </c>
       <c r="H158" t="n">
-        <v>1.541804548393039</v>
+        <v>1.359423169744847</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.128523</v>
       </c>
       <c r="B159" t="n">
-        <v>8.796984676257676e-05</v>
+        <v>81489863918100.52</v>
       </c>
       <c r="C159" t="n">
-        <v>8.811885117311619e-07</v>
+        <v>1633315316692.867</v>
       </c>
       <c r="D159" t="n">
-        <v>2.252634364549122e-06</v>
+        <v>2115193389591.522</v>
       </c>
       <c r="E159" t="n">
-        <v>3.519302676743285e-06</v>
+        <v>3333840414721.433</v>
       </c>
       <c r="F159" t="n">
-        <v>1.357203170479335</v>
+        <v>1.182147774708274</v>
       </c>
       <c r="G159" t="n">
-        <v>0.9289369162999238</v>
+        <v>0.9465785362915834</v>
       </c>
       <c r="H159" t="n">
-        <v>0.271440634095867</v>
+        <v>0.2364295549416549</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.129939</v>
       </c>
       <c r="B160" t="n">
-        <v>8.656839373004628e-05</v>
+        <v>80139309052464.39</v>
       </c>
       <c r="C160" t="n">
-        <v>6.36261469393716e-06</v>
+        <v>6619199867643.289</v>
       </c>
       <c r="D160" t="n">
-        <v>2.363243297232996e-06</v>
+        <v>2229782072915.645</v>
       </c>
       <c r="E160" t="n">
-        <v>3.78346692610224e-06</v>
+        <v>3620706903091.799</v>
       </c>
       <c r="F160" t="n">
-        <v>2.028085409940926</v>
+        <v>1.508595324431302</v>
       </c>
       <c r="G160" t="n">
-        <v>0.8452453975685321</v>
+        <v>0.9120757899885448</v>
       </c>
       <c r="H160" t="n">
-        <v>0.4056170819881852</v>
+        <v>0.3017190648862604</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.133811</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001060858779515832</v>
+        <v>98371726159897.39</v>
       </c>
       <c r="C161" t="n">
-        <v>1.248239529834795e-08</v>
+        <v>665965724704.5</v>
       </c>
       <c r="D161" t="n">
-        <v>2.615813655970105e-06</v>
+        <v>2454305854711.416</v>
       </c>
       <c r="E161" t="n">
-        <v>4.080395298318196e-06</v>
+        <v>3858948083629.96</v>
       </c>
       <c r="F161" t="n">
-        <v>2.136845019496613</v>
+        <v>2.104743048797113</v>
       </c>
       <c r="G161" t="n">
-        <v>0.8299042496145341</v>
+        <v>0.8344702742843328</v>
       </c>
       <c r="H161" t="n">
-        <v>0.4273690038993226</v>
+        <v>0.4209486097594225</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.138881</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001857554815625494</v>
+        <v>171472793477780.2</v>
       </c>
       <c r="C162" t="n">
-        <v>3.129350717608536e-06</v>
+        <v>7375524767757.469</v>
       </c>
       <c r="D162" t="n">
-        <v>4.341249792070772e-06</v>
+        <v>4016546736409.28</v>
       </c>
       <c r="E162" t="n">
-        <v>6.948751095570367e-06</v>
+        <v>6407023523277.695</v>
       </c>
       <c r="F162" t="n">
-        <v>5.607003356137515</v>
+        <v>4.483070590244824</v>
       </c>
       <c r="G162" t="n">
-        <v>0.346355175179437</v>
+        <v>0.4821517256855514</v>
       </c>
       <c r="H162" t="n">
-        <v>1.121400671227503</v>
+        <v>0.8966141180489648</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.141653</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002271295250539216</v>
+        <v>210751720791306.7</v>
       </c>
       <c r="C163" t="n">
-        <v>4.844548976899092e-06</v>
+        <v>5368303625547.469</v>
       </c>
       <c r="D163" t="n">
-        <v>5.120016037141392e-06</v>
+        <v>4782799913211.852</v>
       </c>
       <c r="E163" t="n">
-        <v>8.190139678553799e-06</v>
+        <v>7687020111091.591</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8903274153524758</v>
+        <v>0.7526289828892782</v>
       </c>
       <c r="G163" t="n">
-        <v>0.9709179472218379</v>
+        <v>0.9799559192620524</v>
       </c>
       <c r="H163" t="n">
-        <v>0.1780654830704952</v>
+        <v>0.1505257965778556</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0002423850363386799</v>
+        <v>224667584092456.3</v>
       </c>
       <c r="C164" t="n">
-        <v>8.722294383362104e-06</v>
+        <v>10120654392319.81</v>
       </c>
       <c r="D164" t="n">
-        <v>5.423524612839271e-06</v>
+        <v>5049492559969.068</v>
       </c>
       <c r="E164" t="n">
-        <v>8.777749270024976e-06</v>
+        <v>8190625219152.196</v>
       </c>
       <c r="F164" t="n">
-        <v>1.13605043609839</v>
+        <v>0.5974872598104888</v>
       </c>
       <c r="G164" t="n">
-        <v>0.9508633472356461</v>
+        <v>0.9881180005931095</v>
       </c>
       <c r="H164" t="n">
-        <v>0.2272100872196781</v>
+        <v>0.1194974519620978</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.147988</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0002472489228129682</v>
+        <v>229511532868687.1</v>
       </c>
       <c r="C165" t="n">
-        <v>3.480927340781327e-06</v>
+        <v>3837953786509.312</v>
       </c>
       <c r="D165" t="n">
-        <v>5.570117029559905e-06</v>
+        <v>5206741162244.677</v>
       </c>
       <c r="E165" t="n">
-        <v>8.902830251969489e-06</v>
+        <v>8366466149176.023</v>
       </c>
       <c r="F165" t="n">
-        <v>0.8198876808423821</v>
+        <v>0.7620154300132049</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9757475392011766</v>
+        <v>0.9793925930180856</v>
       </c>
       <c r="H165" t="n">
-        <v>0.1639775361684764</v>
+        <v>0.152403086002641</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002532271695083308</v>
+        <v>234832383636764.5</v>
       </c>
       <c r="C166" t="n">
-        <v>1.652001366886602e-05</v>
+        <v>16661234866826.28</v>
       </c>
       <c r="D166" t="n">
-        <v>5.781970387953346e-06</v>
+        <v>5404430161918.751</v>
       </c>
       <c r="E166" t="n">
-        <v>9.473206351034642e-06</v>
+        <v>8909094216554.484</v>
       </c>
       <c r="F166" t="n">
-        <v>4.277635851035408</v>
+        <v>3.819499486076352</v>
       </c>
       <c r="G166" t="n">
-        <v>0.5101740411052322</v>
+        <v>0.5756853081318311</v>
       </c>
       <c r="H166" t="n">
-        <v>0.8555271702070817</v>
+        <v>0.7638998972152703</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150983</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002542563006911356</v>
+        <v>235610925701845.9</v>
       </c>
       <c r="C167" t="n">
-        <v>6.041944370707101e-06</v>
+        <v>8023589334753.375</v>
       </c>
       <c r="D167" t="n">
-        <v>5.610974780307423e-06</v>
+        <v>5214051587177.271</v>
       </c>
       <c r="E167" t="n">
-        <v>9.061581648109787e-06</v>
+        <v>8423379620139.331</v>
       </c>
       <c r="F167" t="n">
-        <v>1.180933515245829</v>
+        <v>0.7180720614882609</v>
       </c>
       <c r="G167" t="n">
-        <v>0.9466934058634875</v>
+        <v>0.9819621340302629</v>
       </c>
       <c r="H167" t="n">
-        <v>0.2361867030491658</v>
+        <v>0.1436144122976522</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002456886276199866</v>
+        <v>227898881345898.1</v>
       </c>
       <c r="C168" t="n">
-        <v>7.997977013574466e-06</v>
+        <v>8775035946070.25</v>
       </c>
       <c r="D168" t="n">
-        <v>5.378839434332204e-06</v>
+        <v>5008478878753.779</v>
       </c>
       <c r="E168" t="n">
-        <v>8.710569902379579e-06</v>
+        <v>8127504372826.749</v>
       </c>
       <c r="F168" t="n">
-        <v>1.499359325833832</v>
+        <v>1.174657837655836</v>
       </c>
       <c r="G168" t="n">
-        <v>0.9131437363339943</v>
+        <v>0.9472853748341354</v>
       </c>
       <c r="H168" t="n">
-        <v>0.2998718651667664</v>
+        <v>0.2349315675311671</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.159375</v>
       </c>
       <c r="B169" t="n">
-        <v>0.000225928496035768</v>
+        <v>209319403881854.1</v>
       </c>
       <c r="C169" t="n">
-        <v>1.207044524403016e-05</v>
+        <v>13900583690750.81</v>
       </c>
       <c r="D169" t="n">
-        <v>4.895890867481981e-06</v>
+        <v>4538680515119.617</v>
       </c>
       <c r="E169" t="n">
-        <v>8.032673148676245e-06</v>
+        <v>7428718834280.707</v>
       </c>
       <c r="F169" t="n">
-        <v>2.950669582085645</v>
+        <v>1.707336438673151</v>
       </c>
       <c r="G169" t="n">
-        <v>0.7075910976171669</v>
+        <v>0.8879741998282391</v>
       </c>
       <c r="H169" t="n">
-        <v>0.590133916417129</v>
+        <v>0.3414672877346303</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.170048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001426589665982318</v>
+        <v>132181291553520.4</v>
       </c>
       <c r="C170" t="n">
-        <v>6.017210663846617e-06</v>
+        <v>6944629710640.672</v>
       </c>
       <c r="D170" t="n">
-        <v>3.26751956271904e-06</v>
+        <v>3046800709245.828</v>
       </c>
       <c r="E170" t="n">
-        <v>5.340736169119343e-06</v>
+        <v>4997814040371.439</v>
       </c>
       <c r="F170" t="n">
-        <v>7.959757297875281</v>
+        <v>7.298734531569182</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1584674719452655</v>
+        <v>0.1993540739647625</v>
       </c>
       <c r="H170" t="n">
-        <v>1.591951459575056</v>
+        <v>1.459746906313836</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.189844</v>
       </c>
       <c r="B171" t="n">
-        <v>9.319108574471289e-05</v>
+        <v>86411377636725.75</v>
       </c>
       <c r="C171" t="n">
-        <v>4.631161633057297e-06</v>
+        <v>4937408235827.922</v>
       </c>
       <c r="D171" t="n">
-        <v>2.084643230515759e-06</v>
+        <v>1943396468761.93</v>
       </c>
       <c r="E171" t="n">
-        <v>3.444360502853435e-06</v>
+        <v>3221816658985.715</v>
       </c>
       <c r="F171" t="n">
-        <v>8.369230973043287</v>
+        <v>7.830715667402795</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1370264027260314</v>
+        <v>0.1658153045761452</v>
       </c>
       <c r="H171" t="n">
-        <v>1.673846194608657</v>
+        <v>1.566143133480559</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210028</v>
       </c>
       <c r="B172" t="n">
-        <v>8.489039580389198e-05</v>
+        <v>78606607655648.69</v>
       </c>
       <c r="C172" t="n">
-        <v>5.135360569864511e-06</v>
+        <v>5846791379017.672</v>
       </c>
       <c r="D172" t="n">
-        <v>1.947015215600873e-06</v>
+        <v>1812745848395.794</v>
       </c>
       <c r="E172" t="n">
-        <v>3.202103387347169e-06</v>
+        <v>2988108485208.44</v>
       </c>
       <c r="F172" t="n">
-        <v>6.391284409084045</v>
+        <v>5.131343806090578</v>
       </c>
       <c r="G172" t="n">
-        <v>0.2699845998932568</v>
+        <v>0.4000621697567778</v>
       </c>
       <c r="H172" t="n">
-        <v>1.278256881816809</v>
+        <v>1.026268761218116</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.230028</v>
       </c>
       <c r="B173" t="n">
-        <v>9.835579787925823e-05</v>
+        <v>91015292803685.16</v>
       </c>
       <c r="C173" t="n">
-        <v>7.756765310838626e-06</v>
+        <v>8538170642647.367</v>
       </c>
       <c r="D173" t="n">
-        <v>2.391943552506806e-06</v>
+        <v>2235558325000.546</v>
       </c>
       <c r="E173" t="n">
-        <v>3.918248945680761e-06</v>
+        <v>3684718936672.303</v>
       </c>
       <c r="F173" t="n">
-        <v>3.246144119980389</v>
+        <v>1.800396457457194</v>
       </c>
       <c r="G173" t="n">
-        <v>0.6620965376630755</v>
+        <v>0.8760166327500859</v>
       </c>
       <c r="H173" t="n">
-        <v>0.6492288239960777</v>
+        <v>0.3600792914914388</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001370853313771415</v>
+        <v>126883963232677.6</v>
       </c>
       <c r="C174" t="n">
-        <v>4.908209173645176e-06</v>
+        <v>6559134522258.453</v>
       </c>
       <c r="D174" t="n">
-        <v>3.077557691171997e-06</v>
+        <v>2855845898929.722</v>
       </c>
       <c r="E174" t="n">
-        <v>4.967469458389448e-06</v>
+        <v>4605953977783.096</v>
       </c>
       <c r="F174" t="n">
-        <v>2.929668786007444</v>
+        <v>1.880195733564814</v>
       </c>
       <c r="G174" t="n">
-        <v>0.7108280181751323</v>
+        <v>0.8654614804842842</v>
       </c>
       <c r="H174" t="n">
-        <v>0.5859337572014889</v>
+        <v>0.3760391467129628</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.243064</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001536264649185891</v>
+        <v>142678213974950.7</v>
       </c>
       <c r="C175" t="n">
-        <v>5.242745248995871e-06</v>
+        <v>4744541231641.328</v>
       </c>
       <c r="D175" t="n">
-        <v>3.682629534218835e-06</v>
+        <v>3464439529869.809</v>
       </c>
       <c r="E175" t="n">
-        <v>5.91569768197081e-06</v>
+        <v>5628948807128.614</v>
       </c>
       <c r="F175" t="n">
-        <v>4.202339146970147</v>
+        <v>4.275951027357663</v>
       </c>
       <c r="G175" t="n">
-        <v>0.5206671381083054</v>
+        <v>0.5104075625573755</v>
       </c>
       <c r="H175" t="n">
-        <v>0.8404678293940295</v>
+        <v>0.8551902054715326</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.250129</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002327602872135754</v>
+        <v>216071754510913.8</v>
       </c>
       <c r="C176" t="n">
-        <v>7.97764905584227e-06</v>
+        <v>7641990499258.469</v>
       </c>
       <c r="D176" t="n">
-        <v>5.604630996009792e-06</v>
+        <v>5269563634470.609</v>
       </c>
       <c r="E176" t="n">
-        <v>8.94806928287183e-06</v>
+        <v>8502348833326.958</v>
       </c>
       <c r="F176" t="n">
-        <v>1.67741421507795</v>
+        <v>1.664831388436111</v>
       </c>
       <c r="G176" t="n">
-        <v>0.8917328075597467</v>
+        <v>0.8933002759089483</v>
       </c>
       <c r="H176" t="n">
-        <v>0.3354828430155901</v>
+        <v>0.3329662776872222</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
-        <v>0.00031330384407329</v>
+        <v>289526434943788.4</v>
       </c>
       <c r="C177" t="n">
-        <v>2.749791127978844e-05</v>
+        <v>33280754686716.22</v>
       </c>
       <c r="D177" t="n">
-        <v>7.313961680394393e-06</v>
+        <v>6778154387226.392</v>
       </c>
       <c r="E177" t="n">
-        <v>1.215587282232538e-05</v>
+        <v>11236298037201.94</v>
       </c>
       <c r="F177" t="n">
-        <v>10.49312462260454</v>
+        <v>6.8313522254052</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0624093674074301</v>
+        <v>0.233488041156376</v>
       </c>
       <c r="H177" t="n">
-        <v>2.098624924520908</v>
+        <v>1.36627044508104</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003231805160028283</v>
+        <v>299575266274749.9</v>
       </c>
       <c r="C178" t="n">
-        <v>-5.433538457890797e-07</v>
+        <v>1882980067097.562</v>
       </c>
       <c r="D178" t="n">
-        <v>7.931909381221036e-06</v>
+        <v>7435966451045.857</v>
       </c>
       <c r="E178" t="n">
-        <v>1.24664278839925e-05</v>
+        <v>11770833375365.96</v>
       </c>
       <c r="F178" t="n">
-        <v>2.130570379697544</v>
+        <v>2.107439472872736</v>
       </c>
       <c r="G178" t="n">
-        <v>0.8307991012830048</v>
+        <v>0.8340879245072764</v>
       </c>
       <c r="H178" t="n">
-        <v>0.4261140759395087</v>
+        <v>0.4214878945745473</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.269983</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003123368361775996</v>
+        <v>289331324287486.8</v>
       </c>
       <c r="C179" t="n">
-        <v>1.382927366102969e-05</v>
+        <v>15659351109921.12</v>
       </c>
       <c r="D179" t="n">
-        <v>7.695100824735693e-06</v>
+        <v>7212042628787.427</v>
       </c>
       <c r="E179" t="n">
-        <v>1.234118029667842e-05</v>
+        <v>11658284094951.52</v>
       </c>
       <c r="F179" t="n">
-        <v>3.589591063992151</v>
+        <v>3.040552516826613</v>
       </c>
       <c r="G179" t="n">
-        <v>0.6098768223521835</v>
+        <v>0.6937337191477546</v>
       </c>
       <c r="H179" t="n">
-        <v>0.7179182127984302</v>
+        <v>0.6081105033653227</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
-        <v>0.000282208378232745</v>
+        <v>262190410536115.6</v>
       </c>
       <c r="C180" t="n">
-        <v>6.553033095069372e-06</v>
+        <v>5601709880740.344</v>
       </c>
       <c r="D180" t="n">
-        <v>7.172075548409455e-06</v>
+        <v>6774084597052.892</v>
       </c>
       <c r="E180" t="n">
-        <v>1.136387371079661e-05</v>
+        <v>10879137574963.47</v>
       </c>
       <c r="F180" t="n">
-        <v>1.614732824519756</v>
+        <v>1.682311644594481</v>
       </c>
       <c r="G180" t="n">
-        <v>0.899461991080662</v>
+        <v>0.8911206122315329</v>
       </c>
       <c r="H180" t="n">
-        <v>0.3229465649039512</v>
+        <v>0.3364623289188963</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.275024</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0002789165350370565</v>
+        <v>258335438355310.9</v>
       </c>
       <c r="C181" t="n">
-        <v>2.825535901154779e-05</v>
+        <v>29223246127442.25</v>
       </c>
       <c r="D181" t="n">
-        <v>6.459138550680702e-06</v>
+        <v>6025907849721.972</v>
       </c>
       <c r="E181" t="n">
-        <v>1.062431802949331e-05</v>
+        <v>9959781849359.471</v>
       </c>
       <c r="F181" t="n">
-        <v>3.347628057513262</v>
+        <v>1.815950516808101</v>
       </c>
       <c r="G181" t="n">
-        <v>0.6465581134845383</v>
+        <v>0.8739802880647523</v>
       </c>
       <c r="H181" t="n">
-        <v>0.6695256115026524</v>
+        <v>0.3631901033616202</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279812000000001</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0002508565393513808</v>
+        <v>232530631101276.2</v>
       </c>
       <c r="C182" t="n">
-        <v>-3.097058531919736e-06</v>
+        <v>-992868043692.125</v>
       </c>
       <c r="D182" t="n">
-        <v>6.899969674421242e-06</v>
+        <v>6505640994584.692</v>
       </c>
       <c r="E182" t="n">
-        <v>1.072093435440679e-05</v>
+        <v>10217102638127.19</v>
       </c>
       <c r="F182" t="n">
-        <v>4.293690377478995</v>
+        <v>4.367886387708339</v>
       </c>
       <c r="G182" t="n">
-        <v>0.5079517898620629</v>
+        <v>0.4977519008974958</v>
       </c>
       <c r="H182" t="n">
-        <v>0.8587380754957989</v>
+        <v>0.8735772775416677</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.284953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0002142985517924306</v>
+        <v>198961793756322.5</v>
       </c>
       <c r="C183" t="n">
-        <v>7.531990161160765e-06</v>
+        <v>6826814324479.344</v>
       </c>
       <c r="D183" t="n">
-        <v>6.356474352290378e-06</v>
+        <v>6043468718237.031</v>
       </c>
       <c r="E183" t="n">
-        <v>9.991014906158586e-06</v>
+        <v>9678931468041.066</v>
       </c>
       <c r="F183" t="n">
-        <v>6.571364837348528</v>
+        <v>6.644076456203709</v>
       </c>
       <c r="G183" t="n">
-        <v>0.2545188638696393</v>
+        <v>0.2484845809033031</v>
       </c>
       <c r="H183" t="n">
-        <v>1.314272967469706</v>
+        <v>1.328815291240742</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.290161</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0001969013282940679</v>
+        <v>181797779551108.5</v>
       </c>
       <c r="C184" t="n">
-        <v>-1.306153104016245e-06</v>
+        <v>2779475618957.656</v>
       </c>
       <c r="D184" t="n">
-        <v>5.402570235170699e-06</v>
+        <v>5061272416772.34</v>
       </c>
       <c r="E184" t="n">
-        <v>8.465750706031597e-06</v>
+        <v>7982341371477.058</v>
       </c>
       <c r="F184" t="n">
-        <v>6.742168490968696</v>
+        <v>6.645153710194924</v>
       </c>
       <c r="G184" t="n">
-        <v>0.2405325134325252</v>
+        <v>0.2483960791585027</v>
       </c>
       <c r="H184" t="n">
-        <v>1.348433698193739</v>
+        <v>1.329030742038985</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.292942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0001942394261816187</v>
+        <v>179044269008831.7</v>
       </c>
       <c r="C185" t="n">
-        <v>2.088683680797579e-05</v>
+        <v>25101972164137.59</v>
       </c>
       <c r="D185" t="n">
-        <v>5.346737628114314e-06</v>
+        <v>4993355137648.13</v>
       </c>
       <c r="E185" t="n">
-        <v>8.687310931653956e-06</v>
+        <v>8157481700191.916</v>
       </c>
       <c r="F185" t="n">
-        <v>7.265883819112396</v>
+        <v>3.578769386622628</v>
       </c>
       <c r="G185" t="n">
-        <v>0.2016052272321175</v>
+        <v>0.6115037681025465</v>
       </c>
       <c r="H185" t="n">
-        <v>1.453176763822479</v>
+        <v>0.7157538773245256</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.297674</v>
       </c>
       <c r="B186" t="n">
-        <v>0.000192292960319392</v>
+        <v>177717165883053.5</v>
       </c>
       <c r="C186" t="n">
-        <v>1.166757555199043e-05</v>
+        <v>14454827935435.27</v>
       </c>
       <c r="D186" t="n">
-        <v>4.822126053836066e-06</v>
+        <v>4502947340934.064</v>
       </c>
       <c r="E186" t="n">
-        <v>7.841538796242885e-06</v>
+        <v>7358494138887.817</v>
       </c>
       <c r="F186" t="n">
-        <v>8.442810155094632</v>
+        <v>6.794134838422977</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1334611254102409</v>
+        <v>0.2364064789497468</v>
       </c>
       <c r="H186" t="n">
-        <v>1.688562031018926</v>
+        <v>1.358826967684595</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.299721</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0001879287838018449</v>
+        <v>173681597381905.2</v>
       </c>
       <c r="C187" t="n">
-        <v>9.057694536298379e-06</v>
+        <v>11699075911008.89</v>
       </c>
       <c r="D187" t="n">
-        <v>4.911661141398661e-06</v>
+        <v>4597841001248.874</v>
       </c>
       <c r="E187" t="n">
-        <v>7.758253036635006e-06</v>
+        <v>7313177562833.599</v>
       </c>
       <c r="F187" t="n">
-        <v>5.47902231725674</v>
+        <v>4.28165457170631</v>
       </c>
       <c r="G187" t="n">
-        <v>0.3602516437308699</v>
+        <v>0.5096172720175355</v>
       </c>
       <c r="H187" t="n">
-        <v>1.095804463451348</v>
+        <v>0.8563309143412621</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.302376000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0001805722021638861</v>
+        <v>167094335237337.8</v>
       </c>
       <c r="C188" t="n">
-        <v>4.219313127791052e-06</v>
+        <v>6245873199851.25</v>
       </c>
       <c r="D188" t="n">
-        <v>4.845668009684692e-06</v>
+        <v>4555074444844.087</v>
       </c>
       <c r="E188" t="n">
-        <v>7.886332170559208e-06</v>
+        <v>7488046848736.239</v>
       </c>
       <c r="F188" t="n">
-        <v>23.60833499736874</v>
+        <v>23.1938346273293</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0002581519053592756</v>
+        <v>0.0003099446313795095</v>
       </c>
       <c r="H188" t="n">
-        <v>4.721666999473748</v>
+        <v>4.638766925465861</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.308233</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002003417151262566</v>
+        <v>185276790166980.1</v>
       </c>
       <c r="C189" t="n">
-        <v>4.356819195042134e-06</v>
+        <v>7376703158327.312</v>
       </c>
       <c r="D189" t="n">
-        <v>4.76507050966861e-06</v>
+        <v>4434387018435.131</v>
       </c>
       <c r="E189" t="n">
-        <v>7.67569137415972e-06</v>
+        <v>7153491909331.4</v>
       </c>
       <c r="F189" t="n">
-        <v>9.893584094464934</v>
+        <v>9.148230571775681</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0783072612379024</v>
+        <v>0.1032958129181953</v>
       </c>
       <c r="H189" t="n">
-        <v>1.978716818892987</v>
+        <v>1.829646114355136</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312876</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002323193084568684</v>
+        <v>214721790689886.5</v>
       </c>
       <c r="C190" t="n">
-        <v>1.172141385608335e-05</v>
+        <v>15574553726707.72</v>
       </c>
       <c r="D190" t="n">
-        <v>5.537819547176365e-06</v>
+        <v>5145223984253.592</v>
       </c>
       <c r="E190" t="n">
-        <v>9.059979826900477e-06</v>
+        <v>8421508254920.591</v>
       </c>
       <c r="F190" t="n">
-        <v>5.88993245241892</v>
+        <v>4.143185209272181</v>
       </c>
       <c r="G190" t="n">
-        <v>0.3170767554467667</v>
+        <v>0.5289905219282943</v>
       </c>
       <c r="H190" t="n">
-        <v>1.177986490483784</v>
+        <v>0.8286370418544362</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.317521</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0002632918480535111</v>
+        <v>243688371069478</v>
       </c>
       <c r="C191" t="n">
-        <v>-1.358665422818432e-07</v>
+        <v>3342648635731.656</v>
       </c>
       <c r="D191" t="n">
-        <v>6.185586697116528e-06</v>
+        <v>5759907080507.825</v>
       </c>
       <c r="E191" t="n">
-        <v>9.944953818263214e-06</v>
+        <v>9279104266919.26</v>
       </c>
       <c r="F191" t="n">
-        <v>10.14997599946241</v>
+        <v>10.0188575217829</v>
       </c>
       <c r="G191" t="n">
-        <v>0.07109557638467495</v>
+        <v>0.07470268654101525</v>
       </c>
       <c r="H191" t="n">
-        <v>2.029995199892483</v>
+        <v>2.00377150435658</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.322808999999999</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0002976243236549727</v>
+        <v>276151009174053.2</v>
       </c>
       <c r="C192" t="n">
-        <v>1.476353830825447e-05</v>
+        <v>14684982120978.75</v>
       </c>
       <c r="D192" t="n">
-        <v>6.7677913853922e-06</v>
+        <v>6328846017813.722</v>
       </c>
       <c r="E192" t="n">
-        <v>1.104263459896085e-05</v>
+        <v>10394291819697.12</v>
       </c>
       <c r="F192" t="n">
-        <v>7.305463046054947</v>
+        <v>7.096323920608969</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1988956693279093</v>
+        <v>0.2135745846044178</v>
       </c>
       <c r="H192" t="n">
-        <v>1.461092609210989</v>
+        <v>1.419264784121794</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.327683</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0003461968780731135</v>
+        <v>320965594627656</v>
       </c>
       <c r="C193" t="n">
-        <v>2.684001942467376e-05</v>
+        <v>27308137479930.62</v>
       </c>
       <c r="D193" t="n">
-        <v>7.77695412428254e-06</v>
+        <v>7254663959622.54</v>
       </c>
       <c r="E193" t="n">
-        <v>1.28733543812252e-05</v>
+        <v>12063349011325.67</v>
       </c>
       <c r="F193" t="n">
-        <v>5.326831414208406</v>
+        <v>4.551349755933004</v>
       </c>
       <c r="G193" t="n">
-        <v>0.3773081336387195</v>
+        <v>0.4730425534284902</v>
       </c>
       <c r="H193" t="n">
-        <v>1.065366282841681</v>
+        <v>0.9102699511866008</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003901898660483963</v>
+        <v>361487307332753.8</v>
       </c>
       <c r="C194" t="n">
-        <v>2.809543079383833e-05</v>
+        <v>30365546035415.75</v>
       </c>
       <c r="D194" t="n">
-        <v>8.774085124397104e-06</v>
+        <v>8165448992391.9</v>
       </c>
       <c r="E194" t="n">
-        <v>1.438688215724048e-05</v>
+        <v>13415591952017.03</v>
       </c>
       <c r="F194" t="n">
-        <v>2.392380681094662</v>
+        <v>1.083396630312168</v>
       </c>
       <c r="G194" t="n">
-        <v>0.7926082446259038</v>
+        <v>0.9555627498450031</v>
       </c>
       <c r="H194" t="n">
-        <v>0.4784761362189324</v>
+        <v>0.2166793260624336</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.332912</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003747897979068573</v>
+        <v>347187584632371.2</v>
       </c>
       <c r="C195" t="n">
-        <v>2.691859781227387e-05</v>
+        <v>29696897655905.97</v>
       </c>
       <c r="D195" t="n">
-        <v>8.271798339616238e-06</v>
+        <v>7681297815364.916</v>
       </c>
       <c r="E195" t="n">
-        <v>1.383112295462116e-05</v>
+        <v>12836956775033.13</v>
       </c>
       <c r="F195" t="n">
-        <v>7.020165198212042</v>
+        <v>5.454822467634203</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2191449116726325</v>
+        <v>0.3629251963443846</v>
       </c>
       <c r="H195" t="n">
-        <v>1.404033039642408</v>
+        <v>1.090964493526841</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.337469</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003768496009755671</v>
+        <v>349877351295285.5</v>
       </c>
       <c r="C196" t="n">
-        <v>1.951962074258463e-05</v>
+        <v>18612072003711.12</v>
       </c>
       <c r="D196" t="n">
-        <v>8.198514567185634e-06</v>
+        <v>7649590739344.468</v>
       </c>
       <c r="E196" t="n">
-        <v>1.349920410202792e-05</v>
+        <v>12651742858372.35</v>
       </c>
       <c r="F196" t="n">
-        <v>4.633713434365705</v>
+        <v>4.562821274254333</v>
       </c>
       <c r="G196" t="n">
-        <v>0.4621947409469345</v>
+        <v>0.4715224195683598</v>
       </c>
       <c r="H196" t="n">
-        <v>0.9267426868731411</v>
+        <v>0.9125642548508666</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.342735</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003378704500440053</v>
+        <v>313193160914548.9</v>
       </c>
       <c r="C197" t="n">
-        <v>2.194853344383163e-05</v>
+        <v>23500856289245.5</v>
       </c>
       <c r="D197" t="n">
-        <v>7.368262568170489e-06</v>
+        <v>6847001959139.839</v>
       </c>
       <c r="E197" t="n">
-        <v>1.208230881359297e-05</v>
+        <v>11231423693245.09</v>
       </c>
       <c r="F197" t="n">
-        <v>1.739240302814036</v>
+        <v>0.6594122879520943</v>
       </c>
       <c r="G197" t="n">
-        <v>0.88391953515442</v>
+        <v>0.9851217490297032</v>
       </c>
       <c r="H197" t="n">
-        <v>0.3478480605628071</v>
+        <v>0.1318824575904189</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.342928</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003340553487927641</v>
+        <v>309632936013103</v>
       </c>
       <c r="C198" t="n">
-        <v>2.306147541914714e-05</v>
+        <v>24872014457813.34</v>
       </c>
       <c r="D198" t="n">
-        <v>7.215531743416741e-06</v>
+        <v>6694216751150.377</v>
       </c>
       <c r="E198" t="n">
-        <v>1.202558999031939e-05</v>
+        <v>11143804469398.79</v>
       </c>
       <c r="F198" t="n">
-        <v>4.74378741803449</v>
+        <v>3.437702152986585</v>
       </c>
       <c r="G198" t="n">
-        <v>0.4479418782544164</v>
+        <v>0.632834335005874</v>
       </c>
       <c r="H198" t="n">
-        <v>0.9487574836068979</v>
+        <v>0.687540430597317</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.346943</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002947581773900507</v>
+        <v>273132115207794.2</v>
       </c>
       <c r="C199" t="n">
-        <v>1.771169936056201e-05</v>
+        <v>19811834564259.72</v>
       </c>
       <c r="D199" t="n">
-        <v>6.385382828527262e-06</v>
+        <v>5921133368590.018</v>
       </c>
       <c r="E199" t="n">
-        <v>1.045743887525918e-05</v>
+        <v>9678335671450.322</v>
       </c>
       <c r="F199" t="n">
-        <v>3.65412407656454</v>
+        <v>2.333610725338821</v>
       </c>
       <c r="G199" t="n">
-        <v>0.600205555610552</v>
+        <v>0.8013179792099512</v>
       </c>
       <c r="H199" t="n">
-        <v>0.7308248153129079</v>
+        <v>0.4667221450677642</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.348261</v>
       </c>
       <c r="B200" t="n">
-        <v>0.000284343284434682</v>
+        <v>263404393393684.4</v>
       </c>
       <c r="C200" t="n">
-        <v>1.700719657263706e-05</v>
+        <v>19621373827516.47</v>
       </c>
       <c r="D200" t="n">
-        <v>6.108917174287238e-06</v>
+        <v>5654383544967.763</v>
       </c>
       <c r="E200" t="n">
-        <v>1.013662198004102e-05</v>
+        <v>9346439624261.279</v>
       </c>
       <c r="F200" t="n">
-        <v>4.460099948248566</v>
+        <v>2.869763635017425</v>
       </c>
       <c r="G200" t="n">
-        <v>0.4852396123923879</v>
+        <v>0.7200560542327885</v>
       </c>
       <c r="H200" t="n">
-        <v>0.8920199896497133</v>
+        <v>0.573952727003485</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.348582</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002762025800194134</v>
+        <v>255868196953370.1</v>
       </c>
       <c r="C201" t="n">
-        <v>1.276597223582657e-05</v>
+        <v>15296448065775.56</v>
       </c>
       <c r="D201" t="n">
-        <v>5.930279280230887e-06</v>
+        <v>5490587866281</v>
       </c>
       <c r="E201" t="n">
-        <v>9.720750701751339e-06</v>
+        <v>8970790916669.674</v>
       </c>
       <c r="F201" t="n">
-        <v>2.565355966192504</v>
+        <v>1.383988906068722</v>
       </c>
       <c r="G201" t="n">
-        <v>0.7666217659795058</v>
+        <v>0.9260566697241922</v>
       </c>
       <c r="H201" t="n">
-        <v>0.5130711932385008</v>
+        <v>0.2767977812137444</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.352053</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003527105401187479</v>
+        <v>326828012275266.5</v>
       </c>
       <c r="C202" t="n">
-        <v>1.758392636051108e-05</v>
+        <v>19930594677878.72</v>
       </c>
       <c r="D202" t="n">
-        <v>7.802160665136141e-06</v>
+        <v>7252445580396.005</v>
       </c>
       <c r="E202" t="n">
-        <v>1.276549415630222e-05</v>
+        <v>11871458878111.85</v>
       </c>
       <c r="F202" t="n">
-        <v>1.968838892524674</v>
+        <v>1.048306174020317</v>
       </c>
       <c r="G202" t="n">
-        <v>0.8534397590696592</v>
+        <v>0.9585762071997083</v>
       </c>
       <c r="H202" t="n">
-        <v>0.3937677785049348</v>
+        <v>0.2096612348040633</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.353596</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003092128772428525</v>
+        <v>286745268847423.6</v>
       </c>
       <c r="C203" t="n">
-        <v>1.844491560099989e-05</v>
+        <v>19657586925347.41</v>
       </c>
       <c r="D203" t="n">
-        <v>6.563568277297663e-06</v>
+        <v>6086367278796.856</v>
       </c>
       <c r="E203" t="n">
-        <v>1.092603682344013e-05</v>
+        <v>10113456196969.09</v>
       </c>
       <c r="F203" t="n">
-        <v>4.436783259454812</v>
+        <v>3.512295015395013</v>
       </c>
       <c r="G203" t="n">
-        <v>0.4883859130588916</v>
+        <v>0.6215280575153648</v>
       </c>
       <c r="H203" t="n">
-        <v>0.8873566518909625</v>
+        <v>0.7024590030790027</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.357905000000001</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003257694628109489</v>
+        <v>302368660192748.4</v>
       </c>
       <c r="C204" t="n">
-        <v>1.095624190599565e-05</v>
+        <v>10950638859676.78</v>
       </c>
       <c r="D204" t="n">
-        <v>7.326447091542129e-06</v>
+        <v>6847989303012.667</v>
       </c>
       <c r="E204" t="n">
-        <v>1.180711223474639e-05</v>
+        <v>11099405732888.17</v>
       </c>
       <c r="F204" t="n">
-        <v>2.130830896243661</v>
+        <v>2.018460701338452</v>
       </c>
       <c r="G204" t="n">
-        <v>0.8307619706792087</v>
+        <v>0.8465847950237249</v>
       </c>
       <c r="H204" t="n">
-        <v>0.4261661792487321</v>
+        <v>0.4036921402676905</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359834999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002966534912566576</v>
+        <v>274810267713574.4</v>
       </c>
       <c r="C205" t="n">
-        <v>1.44845011274214e-05</v>
+        <v>16682171122412.41</v>
       </c>
       <c r="D205" t="n">
-        <v>6.690646306684597e-06</v>
+        <v>6226025893061.57</v>
       </c>
       <c r="E205" t="n">
-        <v>1.089146478055581e-05</v>
+        <v>10152110495072.89</v>
       </c>
       <c r="F205" t="n">
-        <v>1.669028294780381</v>
+        <v>0.7354930523280521</v>
       </c>
       <c r="G205" t="n">
-        <v>0.8927783309179836</v>
+        <v>0.9809640952517209</v>
       </c>
       <c r="H205" t="n">
-        <v>0.3338056589560762</v>
+        <v>0.1470986104656104</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.361894</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002792376486705193</v>
+        <v>258618122757903.2</v>
       </c>
       <c r="C206" t="n">
-        <v>1.469818678561605e-05</v>
+        <v>16952179494902.03</v>
       </c>
       <c r="D206" t="n">
-        <v>6.338193809743784e-06</v>
+        <v>5898023221051.326</v>
       </c>
       <c r="E206" t="n">
-        <v>1.037020792790508e-05</v>
+        <v>9667548185547.381</v>
       </c>
       <c r="F206" t="n">
-        <v>2.789956705301957</v>
+        <v>1.72533425424443</v>
       </c>
       <c r="G206" t="n">
-        <v>0.7323292896944681</v>
+        <v>0.8856927434049885</v>
       </c>
       <c r="H206" t="n">
-        <v>0.5579913410603915</v>
+        <v>0.3450668508488859</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.363857</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002649699879018213</v>
+        <v>245538437318283.8</v>
       </c>
       <c r="C207" t="n">
-        <v>1.562612726763881e-05</v>
+        <v>16967829007989.09</v>
       </c>
       <c r="D207" t="n">
-        <v>6.022230532953013e-06</v>
+        <v>5612505422311.983</v>
       </c>
       <c r="E207" t="n">
-        <v>9.850166412067761e-06</v>
+        <v>9209523346411.301</v>
       </c>
       <c r="F207" t="n">
-        <v>3.540573261368168</v>
+        <v>2.664114903771545</v>
       </c>
       <c r="G207" t="n">
-        <v>0.6172574679336491</v>
+        <v>0.7516011930801689</v>
       </c>
       <c r="H207" t="n">
-        <v>0.7081146522736337</v>
+        <v>0.532822980754309</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.366045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.000248766851873757</v>
+        <v>230808551576963.4</v>
       </c>
       <c r="C208" t="n">
-        <v>1.051324042076107e-05</v>
+        <v>10609130799325.16</v>
       </c>
       <c r="D208" t="n">
-        <v>5.73099970930361e-06</v>
+        <v>5365429102117.18</v>
       </c>
       <c r="E208" t="n">
-        <v>9.254315016356775e-06</v>
+        <v>8726112531333.537</v>
       </c>
       <c r="F208" t="n">
-        <v>1.149253424675534</v>
+        <v>0.9616542693956178</v>
       </c>
       <c r="G208" t="n">
-        <v>0.9496521726739542</v>
+        <v>0.9655989473163663</v>
       </c>
       <c r="H208" t="n">
-        <v>0.2298506849351068</v>
+        <v>0.1923308538791236</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368041000000001</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002295999521260622</v>
+        <v>212867081013560.4</v>
       </c>
       <c r="C209" t="n">
-        <v>1.025848288828168e-05</v>
+        <v>11296015339214.59</v>
       </c>
       <c r="D209" t="n">
-        <v>5.048210515263011e-06</v>
+        <v>4697323367727.807</v>
       </c>
       <c r="E209" t="n">
-        <v>8.189401332491402e-06</v>
+        <v>7631949059075.848</v>
       </c>
       <c r="F209" t="n">
-        <v>1.897070095932073</v>
+        <v>1.274999489864702</v>
       </c>
       <c r="G209" t="n">
-        <v>0.8631961875720404</v>
+        <v>0.9374830650442828</v>
       </c>
       <c r="H209" t="n">
-        <v>0.3794140191864147</v>
+        <v>0.2549998979729404</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.369651</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002334066735465483</v>
+        <v>215948240739179.9</v>
       </c>
       <c r="C210" t="n">
-        <v>3.360603902729007e-06</v>
+        <v>6649053137104.25</v>
       </c>
       <c r="D210" t="n">
-        <v>5.33327105799066e-06</v>
+        <v>4953222342866.618</v>
       </c>
       <c r="E210" t="n">
-        <v>8.54080756995546e-06</v>
+        <v>7927735343780.328</v>
       </c>
       <c r="F210" t="n">
-        <v>2.5718809309388</v>
+        <v>2.022953019645426</v>
       </c>
       <c r="G210" t="n">
-        <v>0.7656328764057705</v>
+        <v>0.8459600205551903</v>
       </c>
       <c r="H210" t="n">
-        <v>0.51437618618776</v>
+        <v>0.4045906039290852</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.374804</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0001202676524807527</v>
+        <v>111322835988733.2</v>
       </c>
       <c r="C211" t="n">
-        <v>5.684033995692039e-06</v>
+        <v>7115898929717.531</v>
       </c>
       <c r="D211" t="n">
-        <v>2.676473655807249e-06</v>
+        <v>2481701495352.275</v>
       </c>
       <c r="E211" t="n">
-        <v>4.361159838358815e-06</v>
+        <v>4036986351032.56</v>
       </c>
       <c r="F211" t="n">
-        <v>6.206376884330222</v>
+        <v>4.797396455441494</v>
       </c>
       <c r="G211" t="n">
-        <v>0.286652413092089</v>
+        <v>0.4411033489634351</v>
       </c>
       <c r="H211" t="n">
-        <v>1.241275376866044</v>
+        <v>0.9594792910882989</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.380088</v>
       </c>
       <c r="B212" t="n">
-        <v>4.999730323222052e-05</v>
+        <v>46352850624770.13</v>
       </c>
       <c r="C212" t="n">
-        <v>2.559084624824157e-06</v>
+        <v>2673926573739.617</v>
       </c>
       <c r="D212" t="n">
-        <v>1.196471221767991e-06</v>
+        <v>1120502748401.101</v>
       </c>
       <c r="E212" t="n">
-        <v>1.939444531493805e-06</v>
+        <v>1831886009274.002</v>
       </c>
       <c r="F212" t="n">
-        <v>5.102242630367241</v>
+        <v>4.711739643667888</v>
       </c>
       <c r="G212" t="n">
-        <v>0.4035303239191357</v>
+        <v>0.4520623683206553</v>
       </c>
       <c r="H212" t="n">
-        <v>1.020448526073448</v>
+        <v>0.9423479287335776</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382924</v>
       </c>
       <c r="B213" t="n">
-        <v>3.10685884608055e-05</v>
+        <v>28847737624472.24</v>
       </c>
       <c r="C213" t="n">
-        <v>1.047997517062975e-06</v>
+        <v>966830544254.1602</v>
       </c>
       <c r="D213" t="n">
-        <v>7.659711476644534e-07</v>
+        <v>722323311733.2937</v>
       </c>
       <c r="E213" t="n">
-        <v>1.230699894365154e-06</v>
+        <v>1174874037570.861</v>
       </c>
       <c r="F213" t="n">
-        <v>4.18694478880278</v>
+        <v>4.219912021755146</v>
       </c>
       <c r="G213" t="n">
-        <v>0.5228265601779225</v>
+        <v>0.5182079358086409</v>
       </c>
       <c r="H213" t="n">
-        <v>0.837388957760556</v>
+        <v>0.8439824043510292</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.383343</v>
       </c>
       <c r="B214" t="n">
-        <v>4.413380581619173e-05</v>
+        <v>40882687056169.05</v>
       </c>
       <c r="C214" t="n">
-        <v>3.141972767989372e-06</v>
+        <v>3356759874069.203</v>
       </c>
       <c r="D214" t="n">
-        <v>1.021210939551187e-06</v>
+        <v>952543404683.9988</v>
       </c>
       <c r="E214" t="n">
-        <v>1.702788147577478e-06</v>
+        <v>1597097937854.25</v>
       </c>
       <c r="F214" t="n">
-        <v>6.726680544812432</v>
+        <v>5.70616917892593</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2417737994469451</v>
+        <v>0.3358676788611112</v>
       </c>
       <c r="H214" t="n">
-        <v>1.345336108962486</v>
+        <v>1.141233835785186</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383858999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>2.725097350184076e-05</v>
+        <v>25245603470275.03</v>
       </c>
       <c r="C215" t="n">
-        <v>1.306799022645957e-06</v>
+        <v>1462313432642</v>
       </c>
       <c r="D215" t="n">
-        <v>6.570862963423158e-07</v>
+        <v>614334566606.3798</v>
       </c>
       <c r="E215" t="n">
-        <v>1.062880408524224e-06</v>
+        <v>1000348364140.503</v>
       </c>
       <c r="F215" t="n">
-        <v>1.73499251074792</v>
+        <v>1.119472518081413</v>
       </c>
       <c r="G215" t="n">
-        <v>0.8844621420263351</v>
+        <v>0.9523656309183515</v>
       </c>
       <c r="H215" t="n">
-        <v>0.3469985021495839</v>
+        <v>0.2238945036162826</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.385955</v>
       </c>
       <c r="B216" t="n">
-        <v>2.218804852879497e-05</v>
+        <v>20576214178428.93</v>
       </c>
       <c r="C216" t="n">
-        <v>1.702934565017817e-06</v>
+        <v>1632530519777.191</v>
       </c>
       <c r="D216" t="n">
-        <v>5.363039178952818e-07</v>
+        <v>504673495604.0317</v>
       </c>
       <c r="E216" t="n">
-        <v>8.755321985894954e-07</v>
+        <v>834196253387.0543</v>
       </c>
       <c r="F216" t="n">
-        <v>4.639212011098183</v>
+        <v>4.564409569924078</v>
       </c>
       <c r="G216" t="n">
-        <v>0.4614760798258726</v>
+        <v>0.4713121835020295</v>
       </c>
       <c r="H216" t="n">
-        <v>0.9278424022196367</v>
+        <v>0.9128819139848157</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.389858</v>
       </c>
       <c r="B217" t="n">
-        <v>1.885578203647702e-05</v>
+        <v>17522906636911.18</v>
       </c>
       <c r="C217" t="n">
-        <v>2.009410405469219e-06</v>
+        <v>1650413707296.729</v>
       </c>
       <c r="D217" t="n">
-        <v>4.401440057158024e-07</v>
+        <v>416001914640.6283</v>
       </c>
       <c r="E217" t="n">
-        <v>7.221756670570753e-07</v>
+        <v>695693702500.2323</v>
       </c>
       <c r="F217" t="n">
-        <v>1.992083545700266</v>
+        <v>4.10824113527677</v>
       </c>
       <c r="G217" t="n">
-        <v>0.8502393417305391</v>
+        <v>0.5339395751779568</v>
       </c>
       <c r="H217" t="n">
-        <v>0.3984167091400532</v>
+        <v>0.821648227055354</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.393084</v>
       </c>
       <c r="B218" t="n">
-        <v>1.924354369423247e-05</v>
+        <v>17901848409931.45</v>
       </c>
       <c r="C218" t="n">
-        <v>2.562109219018939e-06</v>
+        <v>1894822388964.348</v>
       </c>
       <c r="D218" t="n">
-        <v>4.565760468598391e-07</v>
+        <v>434449587130.2624</v>
       </c>
       <c r="E218" t="n">
-        <v>7.449540417550732e-07</v>
+        <v>730538843859.4749</v>
       </c>
       <c r="F218" t="n">
-        <v>14.05229565325482</v>
+        <v>19.23315369626523</v>
       </c>
       <c r="G218" t="n">
-        <v>0.015280617479041</v>
+        <v>0.001739071902471644</v>
       </c>
       <c r="H218" t="n">
-        <v>2.810459130650965</v>
+        <v>3.846630739253046</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.403415</v>
       </c>
       <c r="B219" t="n">
-        <v>2.774658316021075e-05</v>
+        <v>25682684616828.03</v>
       </c>
       <c r="C219" t="n">
-        <v>3.571879904543169e-06</v>
+        <v>3799666517407.711</v>
       </c>
       <c r="D219" t="n">
-        <v>6.323583994855384e-07</v>
+        <v>588773404194.9762</v>
       </c>
       <c r="E219" t="n">
-        <v>1.077040061819879e-06</v>
+        <v>1003028481286.286</v>
       </c>
       <c r="F219" t="n">
-        <v>10.30334356198285</v>
+        <v>6.991935995345346</v>
       </c>
       <c r="G219" t="n">
-        <v>0.067082484423495</v>
+        <v>0.2212407294068982</v>
       </c>
       <c r="H219" t="n">
-        <v>2.06066871239657</v>
+        <v>1.398387199069069</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.414078</v>
       </c>
       <c r="B220" t="n">
-        <v>5.175507427089846e-05</v>
+        <v>48024039614402.98</v>
       </c>
       <c r="C220" t="n">
-        <v>3.997675663599535e-06</v>
+        <v>3874250567859.059</v>
       </c>
       <c r="D220" t="n">
-        <v>1.139968059797998e-06</v>
+        <v>1064313066121.355</v>
       </c>
       <c r="E220" t="n">
-        <v>1.897981201049692e-06</v>
+        <v>1781034614522.904</v>
       </c>
       <c r="F220" t="n">
-        <v>2.8603761173174</v>
+        <v>2.56664969874623</v>
       </c>
       <c r="G220" t="n">
-        <v>0.7215011615443434</v>
+        <v>0.7664257377702905</v>
       </c>
       <c r="H220" t="n">
-        <v>0.5720752234634799</v>
+        <v>0.513329939749246</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.424364</v>
       </c>
       <c r="B221" t="n">
-        <v>5.804622474835929e-05</v>
+        <v>53848837834262.18</v>
       </c>
       <c r="C221" t="n">
-        <v>4.396539728956599e-06</v>
+        <v>4336024677172.406</v>
       </c>
       <c r="D221" t="n">
-        <v>1.278777630185033e-06</v>
+        <v>1193270937980.079</v>
       </c>
       <c r="E221" t="n">
-        <v>2.136960321935351e-06</v>
+        <v>2002379988007.745</v>
       </c>
       <c r="F221" t="n">
-        <v>5.750497999538667</v>
+        <v>5.295827547123217</v>
       </c>
       <c r="G221" t="n">
-        <v>0.3312584741547532</v>
+        <v>0.3808535634999392</v>
       </c>
       <c r="H221" t="n">
-        <v>1.150099599907733</v>
+        <v>1.059165509424643</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.435405</v>
       </c>
       <c r="B222" t="n">
-        <v>5.091039311935226e-05</v>
+        <v>47218919694754.19</v>
       </c>
       <c r="C222" t="n">
-        <v>4.33094597611557e-06</v>
+        <v>4344679199790.438</v>
       </c>
       <c r="D222" t="n">
-        <v>1.104055809776642e-06</v>
+        <v>1027452835487.73</v>
       </c>
       <c r="E222" t="n">
-        <v>1.848757992160666e-06</v>
+        <v>1723778615514.24</v>
       </c>
       <c r="F222" t="n">
-        <v>5.694528025368403</v>
+        <v>4.837274425781154</v>
       </c>
       <c r="G222" t="n">
-        <v>0.3370861689623365</v>
+        <v>0.4360606823853986</v>
       </c>
       <c r="H222" t="n">
-        <v>1.138905605073681</v>
+        <v>0.9674548851562308</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.439261</v>
       </c>
       <c r="B223" t="n">
-        <v>4.536026952786826e-05</v>
+        <v>42078003043984.05</v>
       </c>
       <c r="C223" t="n">
-        <v>4.252733775958376e-06</v>
+        <v>4122349817251.812</v>
       </c>
       <c r="D223" t="n">
-        <v>1.005937485458142e-06</v>
+        <v>939082845445.2832</v>
       </c>
       <c r="E223" t="n">
-        <v>1.673171840843518e-06</v>
+        <v>1570960657609.562</v>
       </c>
       <c r="F223" t="n">
-        <v>2.120305555909136</v>
+        <v>1.707422692384878</v>
       </c>
       <c r="G223" t="n">
-        <v>0.8322605359937769</v>
+        <v>0.8879633027777993</v>
       </c>
       <c r="H223" t="n">
-        <v>0.4240611111818272</v>
+        <v>0.3414845384769755</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/a2/p1_a2Fit.xlsx
+++ b/legendre_out/DATA/p1/a2/p1_a2Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,5774 +405,5722 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.996021</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>972776578326.9004</v>
+        <v>3.177537737076758e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>1328692022126.752</v>
+        <v>-5.465195381230528e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>40703869273.59605</v>
+        <v>1.635526716954721e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>71437952297.94281</v>
+        <v>2.502421936305506e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>321.4408134898156</v>
+        <v>37.92758419015591</v>
       </c>
       <c r="G2" t="n">
-        <v>2.45206214931646e-67</v>
+        <v>3.901757120362532e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>64.28816269796312</v>
+        <v>7.585516838031182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.000967</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>2513431910803.924</v>
+        <v>4.086652328341328e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>769675614817.2766</v>
+        <v>1.350849278111631e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>99109875523.63893</v>
+        <v>1.926856440717898e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>155250290121.8494</v>
+        <v>3.051337391498105e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>114.6040127910004</v>
+        <v>62.65586129868567</v>
       </c>
       <c r="G3" t="n">
-        <v>4.355033653672492e-23</v>
+        <v>3.430342827867061e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>22.92080255820007</v>
+        <v>12.53117225973713</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>3212551036837.338</v>
+        <v>5.057113525241184e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>-1948720758060.051</v>
+        <v>-3.332856040050711e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>125562732602.8905</v>
+        <v>2.724084327201627e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>145003876636.428</v>
+        <v>3.538574921809752e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>175.9560643728114</v>
+        <v>81.09987725815697</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9078202837316e-36</v>
+        <v>4.939675156215646e-16</v>
       </c>
       <c r="H4" t="n">
-        <v>35.19121287456228</v>
+        <v>16.21997545163139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.006972</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>3845106485930.794</v>
+        <v>5.687180102642371e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>-184423078589.3086</v>
+        <v>-2.665912864612019e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>150610230875.9601</v>
+        <v>2.760671318295484e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>243346487676.858</v>
+        <v>4.185622410420184e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>133.4921838695238</v>
+        <v>37.09093097814159</v>
       </c>
       <c r="G5" t="n">
-        <v>4.317835259447095e-27</v>
+        <v>5.743265545717633e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>26.69843677390476</v>
+        <v>7.418186195628318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.009086</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>4215445440355.881</v>
+        <v>6.936464012605375e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>604813682792.4971</v>
+        <v>1.478187308172231e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>162422267733.2489</v>
+        <v>3.358571873455102e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>240554500578.8684</v>
+        <v>5.442880663989535e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>89.97694107196358</v>
+        <v>39.97128035496069</v>
       </c>
       <c r="G6" t="n">
-        <v>6.794683094403606e-18</v>
+        <v>1.513415191101664e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>17.99538821439272</v>
+        <v>7.994256070992138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.010032</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>4559775458093.467</v>
+        <v>5.745376323688465e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>344428801202.2188</v>
+        <v>3.040719814708369e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>175707062272.3054</v>
+        <v>3.000542153856422e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>277118023600.2263</v>
+        <v>4.573494716537888e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>41.81747357947938</v>
+        <v>33.34906165989081</v>
       </c>
       <c r="G7" t="n">
-        <v>6.413205575522267e-08</v>
+        <v>3.20804866608041e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>8.363494715895877</v>
+        <v>6.669812331978162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>4194122358843.761</v>
+        <v>5.424141148776783e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>1046888716286.663</v>
+        <v>1.097290991179804e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>144734287704.949</v>
+        <v>2.626854559381527e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>231634153970.1179</v>
+        <v>4.109409639493653e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>58.14435094563049</v>
+        <v>34.21792044500734</v>
       </c>
       <c r="G8" t="n">
-        <v>2.936999315691453e-11</v>
+        <v>2.154591890381575e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>11.6288701891261</v>
+        <v>6.843584089001469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.019108</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>4539757554065.426</v>
+        <v>6.273626443413819e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>235541399427.2969</v>
+        <v>-7.472915076619036e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>147004204294.9181</v>
+        <v>2.521560000228895e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>219657657332.9364</v>
+        <v>3.785425670594252e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>43.0564361238215</v>
+        <v>95.84377731209035</v>
       </c>
       <c r="G9" t="n">
-        <v>3.599018720521807e-08</v>
+        <v>3.967111529718153e-19</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6112872247643</v>
+        <v>19.16875546241807</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.019916</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>3374416118386.351</v>
+        <v>5.571409209604622e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>874481263308.9165</v>
+        <v>-3.355165958302276e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>137996684640.1256</v>
+        <v>2.949613983573253e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>224234127488.3907</v>
+        <v>4.700690361103591e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>129.0121976088133</v>
+        <v>48.68402890855265</v>
       </c>
       <c r="G10" t="n">
-        <v>3.856394083069321e-26</v>
+        <v>2.574976867871238e-09</v>
       </c>
       <c r="H10" t="n">
-        <v>25.80243952176265</v>
+        <v>9.73680578171053</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.025044</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>4399723760184.513</v>
+        <v>5.450425172344745e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>285149528031.3633</v>
+        <v>-3.15624725105906e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>166971130726.562</v>
+        <v>2.83672736910595e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>261609478854.7018</v>
+        <v>4.059597681964407e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>51.39730431327501</v>
+        <v>46.56971486351822</v>
       </c>
       <c r="G11" t="n">
-        <v>7.170355870633689e-10</v>
+        <v>6.952717071335127e-09</v>
       </c>
       <c r="H11" t="n">
-        <v>10.279460862655</v>
+        <v>9.313942972703645</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.029979</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>3478621345742.644</v>
+        <v>5.756287471489706e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>1516841493957.149</v>
+        <v>9.987311225566297e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>130043840780.2768</v>
+        <v>2.384196525930386e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>197397304343.0663</v>
+        <v>3.659779602391754e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>243.7203913803047</v>
+        <v>53.65543196839839</v>
       </c>
       <c r="G12" t="n">
-        <v>1.222589925481542e-50</v>
+        <v>2.46694241303933e-10</v>
       </c>
       <c r="H12" t="n">
-        <v>48.74407827606095</v>
+        <v>10.73108639367968</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.035141</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>3132683762611.462</v>
+        <v>4.484965212739771e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>817517941401.27</v>
+        <v>2.108182591982979e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>117164878699.0658</v>
+        <v>2.18230206190067e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>190290243418.8064</v>
+        <v>3.815371934297293e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>38.70727468177648</v>
+        <v>29.9652676882941</v>
       </c>
       <c r="G13" t="n">
-        <v>2.719793554662251e-07</v>
+        <v>1.498256459629514e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>7.741454936355295</v>
+        <v>5.99305353765882</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.269958</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>6105808401269.011</v>
+        <v>7.524794500830174e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>457520697337.5557</v>
+        <v>8.260014173755437e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>172334744152.2489</v>
+        <v>2.820426938746444e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>277609218572.2591</v>
+        <v>4.423864135276334e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>7.753918534594869</v>
+        <v>2.004223689356683</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1703292992182579</v>
+        <v>0.8485602996990276</v>
       </c>
       <c r="H14" t="n">
-        <v>1.550783706918974</v>
+        <v>0.4008447378713367</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.290051</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>4860937347128.201</v>
+        <v>7.492300260253148e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>677172607667.5005</v>
+        <v>4.097411487060209e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>149270409882.4422</v>
+        <v>3.006641462663641e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>247570633352.5352</v>
+        <v>4.790686874158703e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>7.312100464926159</v>
+        <v>34.92352844186595</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1984443605490384</v>
+        <v>1.558459064874928e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>1.462420092985232</v>
+        <v>6.98470568837319</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291116000000001</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>5230160768161.649</v>
+        <v>6.46845851582539e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>-839434359326.4082</v>
+        <v>1.736531827168096e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>180845377796.4158</v>
+        <v>3.469167037719537e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>279058660084.9869</v>
+        <v>5.361510330861907e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>24.66551307342734</v>
+        <v>13.84191606968657</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001616554787061228</v>
+        <v>0.0166453896530106</v>
       </c>
       <c r="H16" t="n">
-        <v>4.933102614685469</v>
+        <v>2.768383213937314</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.293189</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>4315921067749.809</v>
+        <v>5.329764971548386e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>781265224040.7236</v>
+        <v>8.445581260053429e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>150568312410.3329</v>
+        <v>2.992295566362187e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>240056351935.2058</v>
+        <v>5.543296408604375e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>14.61513069802645</v>
+        <v>15.3799840875194</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01213985281059855</v>
+        <v>0.008856323061103843</v>
       </c>
       <c r="H17" t="n">
-        <v>2.92302613960529</v>
+        <v>3.07599681750388</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.294196</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>4536155610869.508</v>
+        <v>5.732084407679209e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1329107864026.851</v>
+        <v>2.032861064503444e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>163096997438.7333</v>
+        <v>3.380346375878408e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>272294191209.4224</v>
+        <v>5.417498683206387e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>16.66787059892192</v>
+        <v>18.97132365901278</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005174726454033492</v>
+        <v>0.001945919986005404</v>
       </c>
       <c r="H18" t="n">
-        <v>3.333574119784385</v>
+        <v>3.794264731802556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.295147</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>5660123871167.072</v>
+        <v>6.290539510149996e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>-9998543866.418945</v>
+        <v>7.938878529876308e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>200016256366.357</v>
+        <v>3.485953804703187e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>302214933241.8234</v>
+        <v>5.54875934368595e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>16.26255516227885</v>
+        <v>2.641487330758896</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006133106775296123</v>
+        <v>0.7550521015871622</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25251103245577</v>
+        <v>0.5282974661517791</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.296155000000001</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>4824698686850.835</v>
+        <v>6.360452299649951e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1172364919589.924</v>
+        <v>6.758952822331935e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>191360576882.8886</v>
+        <v>3.919122095021331e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>313416178471.3975</v>
+        <v>6.130935321256509e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>34.49392399570009</v>
+        <v>6.241484531224692</v>
       </c>
       <c r="G20" t="n">
-        <v>1.898322079196924e-06</v>
+        <v>0.2834255621276424</v>
       </c>
       <c r="H20" t="n">
-        <v>6.898784799140017</v>
+        <v>1.248296906244938</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>5717197151557.289</v>
+        <v>7.385339041534512e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>2607389715597.022</v>
+        <v>7.171393671237749e-07</v>
       </c>
       <c r="D21" t="n">
-        <v>225201904340.5882</v>
+        <v>4.632705930537646e-07</v>
       </c>
       <c r="E21" t="n">
-        <v>387895118246.583</v>
+        <v>7.66861459453921e-07</v>
       </c>
       <c r="F21" t="n">
-        <v>17.50669628579033</v>
+        <v>19.42284656534617</v>
       </c>
       <c r="G21" t="n">
-        <v>0.003632638268344053</v>
+        <v>0.001602861007437641</v>
       </c>
       <c r="H21" t="n">
-        <v>3.501339257158065</v>
+        <v>3.884569313069234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298083999999999</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>9708190839209.801</v>
+        <v>1.176137789086252e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>-1179859751957.631</v>
+        <v>-5.074526536288287e-07</v>
       </c>
       <c r="D22" t="n">
-        <v>477770216339.7142</v>
+        <v>9.754615372605521e-07</v>
       </c>
       <c r="E22" t="n">
-        <v>672688975881.7168</v>
+        <v>1.467313618024282e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>24.84012318150134</v>
+        <v>8.485594634550518</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001495941772917261</v>
+        <v>0.1314265270802455</v>
       </c>
       <c r="H22" t="n">
-        <v>4.968024636300268</v>
+        <v>1.697118926910103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299093</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>12256202290989.1</v>
+        <v>1.458256087558589e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>-154673283911.2754</v>
+        <v>1.212026521423469e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>648518076730.4589</v>
+        <v>1.351565991789715e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>1005420274303.556</v>
+        <v>2.274754264580862e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>22.89931846102206</v>
+        <v>5.69366728743787</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0003528586800037407</v>
+        <v>0.337176396586927</v>
       </c>
       <c r="H23" t="n">
-        <v>4.579863692204412</v>
+        <v>1.138733457487574</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.301051999999999</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>15880539018464.53</v>
+        <v>2.24143482477571e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>3329204724356.137</v>
+        <v>2.075795617478807e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>834192744547.1219</v>
+        <v>2.024852165509423e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>1282984709625.349</v>
+        <v>2.911123396634232e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>24.51482275777046</v>
+        <v>4.691070385714468</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001728345942752339</v>
+        <v>0.4547326544305901</v>
       </c>
       <c r="H24" t="n">
-        <v>4.902964551554093</v>
+        <v>0.9382140771428936</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.303098</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>17402489479399.41</v>
+        <v>2.14140938554574e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>944719556975.8223</v>
+        <v>-1.39529384068447e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>838178200006.1797</v>
+        <v>1.763550950145553e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>1271236405986.132</v>
+        <v>2.702847423080929e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>26.68357212082391</v>
+        <v>3.949670534090648</v>
       </c>
       <c r="G25" t="n">
-        <v>6.573234945123184e-05</v>
+        <v>0.5566847336278578</v>
       </c>
       <c r="H25" t="n">
-        <v>5.336714424164781</v>
+        <v>0.7899341068181297</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.305231</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>14567029020372.64</v>
+        <v>1.979056263244733e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>-850351129583.5801</v>
+        <v>-3.964279454765589e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>784243100550.9403</v>
+        <v>1.717834572766727e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>1089066171706.862</v>
+        <v>2.497935423607244e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>60.9151131588604</v>
+        <v>11.91108846905089</v>
       </c>
       <c r="G26" t="n">
-        <v>7.862586083736328e-12</v>
+        <v>0.03602659433855211</v>
       </c>
       <c r="H26" t="n">
-        <v>12.18302263177208</v>
+        <v>2.382217693810178</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>18832202104092.97</v>
+        <v>2.26062267535961e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>835721400655.5234</v>
+        <v>7.042101798325416e-08</v>
       </c>
       <c r="D27" t="n">
-        <v>937480273858.8439</v>
+        <v>1.819228484219135e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>1452663819612.581</v>
+        <v>3.049703516801626e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>1.994401561761022</v>
+        <v>2.181252979687415</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8499191439437486</v>
+        <v>0.8235392010567222</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3988803123522044</v>
+        <v>0.436250595937483</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.309297</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>16827792202995</v>
+        <v>2.082438061077571e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>2965174221067.982</v>
+        <v>4.456125571239504e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>858409123026.0159</v>
+        <v>1.820936598636307e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>1297573896529.259</v>
+        <v>2.972073532918069e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>29.01735013781684</v>
+        <v>3.465391035650387</v>
       </c>
       <c r="G28" t="n">
-        <v>2.300656399007175e-05</v>
+        <v>0.6286307547317216</v>
       </c>
       <c r="H28" t="n">
-        <v>5.803470027563367</v>
+        <v>0.6930782071300773</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.309961</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>18053807749920.17</v>
+        <v>2.285629456503213e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>972740620014.7695</v>
+        <v>3.636359880021847e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>873132284689.0627</v>
+        <v>1.945750995712117e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>1362989732880.732</v>
+        <v>3.248054151570825e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>54.8196737092984</v>
+        <v>12.15298295774144</v>
       </c>
       <c r="G29" t="n">
-        <v>1.421757443235326e-10</v>
+        <v>0.03275063675016435</v>
       </c>
       <c r="H29" t="n">
-        <v>10.96393474185968</v>
+        <v>2.430596591548288</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.311172</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>17509835901388.97</v>
+        <v>2.082221146404516e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>919526207057.209</v>
+        <v>4.417780976251478e-07</v>
       </c>
       <c r="D30" t="n">
-        <v>850821937233.2495</v>
+        <v>1.77964133729005e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>1295697675148.204</v>
+        <v>2.703809686409742e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>22.04922664904139</v>
+        <v>8.598390944543686</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0005124354542387806</v>
+        <v>0.1261956823123007</v>
       </c>
       <c r="H30" t="n">
-        <v>4.409845329808278</v>
+        <v>1.719678188908737</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.313105999999999</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>16556944222435.75</v>
+        <v>2.075108862374785e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>-3659228126718.436</v>
+        <v>-1.381826140319358e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>865903298297.5731</v>
+        <v>1.677291251784671e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>1165719874157.893</v>
+        <v>2.452884944939988e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>56.5989872302496</v>
+        <v>7.196897740722342</v>
       </c>
       <c r="G31" t="n">
-        <v>6.116847915703661e-11</v>
+        <v>0.2064037919944331</v>
       </c>
       <c r="H31" t="n">
-        <v>11.31979744604992</v>
+        <v>1.439379548144468</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.315126</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>16465933523926.43</v>
+        <v>1.949152246786613e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>4428291723772.904</v>
+        <v>3.741701254563837e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>826577959763.3494</v>
+        <v>1.730833680060775e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>1308709250770</v>
+        <v>2.672110971457697e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>6.645866836380733</v>
+        <v>3.216068564693786</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2483375066970245</v>
+        <v>0.6667139768565429</v>
       </c>
       <c r="H32" t="n">
-        <v>1.329173367276147</v>
+        <v>0.6432137129387573</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.317204</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>15468337298720.43</v>
+        <v>2.084918605684775e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>5578227430946.404</v>
+        <v>1.324340728179022e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>745148948529.7864</v>
+        <v>1.689278211507252e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>1206115482936.622</v>
+        <v>2.55979049314356e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>9.742139232632857</v>
+        <v>2.545755969926277</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08288015087465186</v>
+        <v>0.7695889154404886</v>
       </c>
       <c r="H33" t="n">
-        <v>1.948427846526571</v>
+        <v>0.5091511939852554</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.319168</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>17632689696629.2</v>
+        <v>2.082809716905188e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>-297764189395.1387</v>
+        <v>-4.368874863497235e-07</v>
       </c>
       <c r="D34" t="n">
-        <v>885846746669.9307</v>
+        <v>1.737528663631698e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>1298143426997.601</v>
+        <v>2.52326710284265e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>9.896877406144464</v>
+        <v>2.847418350002979</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07821046945281038</v>
+        <v>0.7234953216145936</v>
       </c>
       <c r="H34" t="n">
-        <v>1.979375481228893</v>
+        <v>0.5694836700005959</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>16427953398707.14</v>
+        <v>2.017426536954648e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>3382479808640.553</v>
+        <v>6.423127881006307e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>782364423631.4916</v>
+        <v>1.506356550666292e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>1260523019809.311</v>
+        <v>2.497252253454436e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>8.612307484719192</v>
+        <v>4.618327311942052</v>
       </c>
       <c r="G35" t="n">
-        <v>0.125563495693731</v>
+        <v>0.4642094000841797</v>
       </c>
       <c r="H35" t="n">
-        <v>1.722461496943839</v>
+        <v>0.9236654623884103</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>15602584357334.59</v>
+        <v>1.902944241985904e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>3281739927321.582</v>
+        <v>1.616722335587243e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>720559974259.6045</v>
+        <v>1.461835513535531e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>1154548253271.698</v>
+        <v>2.358497522293048e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8575756449279743</v>
+        <v>5.959485021355659</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9732165770996686</v>
+        <v>0.3101811892761007</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1715151289855949</v>
+        <v>1.191897004271132</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.325205</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>10822508583993.48</v>
+        <v>1.505616449959521e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>-610827616138.1621</v>
+        <v>1.884183469889603e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>549400497988.9174</v>
+        <v>1.09245189989874e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>881946045221.1274</v>
+        <v>1.819689640356186e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>67.06641406326504</v>
+        <v>5.936590594713204</v>
       </c>
       <c r="G37" t="n">
-        <v>4.17414643903139e-13</v>
+        <v>0.3124379179376831</v>
       </c>
       <c r="H37" t="n">
-        <v>13.41328281265301</v>
+        <v>1.187318118942641</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.327112000000001</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>10694819161226.04</v>
+        <v>1.50779787914965e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1773501786582.199</v>
+        <v>2.60107138334821e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>473913994054.7977</v>
+        <v>1.022970204490315e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>777096464512.9163</v>
+        <v>1.546066173830476e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>29.16827862899461</v>
+        <v>4.243915690384171</v>
       </c>
       <c r="G38" t="n">
-        <v>2.148987535835427e-05</v>
+        <v>0.5148588784036926</v>
       </c>
       <c r="H38" t="n">
-        <v>5.833655725798922</v>
+        <v>0.8487831380768343</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.329078</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>8859448571910.59</v>
+        <v>1.308002582154385e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>4256136434432.675</v>
+        <v>2.408274091151908e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>359322293753.0603</v>
+        <v>7.466946241144993e-07</v>
       </c>
       <c r="E39" t="n">
-        <v>579622971693.3707</v>
+        <v>1.142303114436633e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>63.93986965934444</v>
+        <v>13.06205467863906</v>
       </c>
       <c r="G39" t="n">
-        <v>1.859186706804666e-12</v>
+        <v>0.02280413664298931</v>
       </c>
       <c r="H39" t="n">
-        <v>12.78797393186889</v>
+        <v>2.612410935727812</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.330119</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>10729616800159.84</v>
+        <v>1.210494570838873e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>1776857088411.045</v>
+        <v>2.127530380359913e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>491270632636.2908</v>
+        <v>9.086068031718264e-07</v>
       </c>
       <c r="E40" t="n">
-        <v>783049758544.5328</v>
+        <v>1.398240000241268e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>12.52162168637836</v>
+        <v>8.789558442926493</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02829882547554026</v>
+        <v>0.1177581472066808</v>
       </c>
       <c r="H40" t="n">
-        <v>2.504324337275672</v>
+        <v>1.757911688585299</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.331189</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>16021409055576.12</v>
+        <v>1.959006457699651e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1100602299087.707</v>
+        <v>7.321177258082879e-07</v>
       </c>
       <c r="D41" t="n">
-        <v>520313410232.3291</v>
+        <v>8.049106618050738e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>828101591977.9803</v>
+        <v>1.26564559382054e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>7.601584264002065</v>
+        <v>5.851360648672992</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1796032170719367</v>
+        <v>0.3209519489815286</v>
       </c>
       <c r="H41" t="n">
-        <v>1.520316852800413</v>
+        <v>1.170272129734598</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.333242</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>16303853599891</v>
+        <v>1.892101561084357e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>2249247348411.699</v>
+        <v>3.453252062181561e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>467694264421.7071</v>
+        <v>6.868398547616646e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>754143938661.6251</v>
+        <v>1.080356222752198e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>10.47453185387439</v>
+        <v>11.45429900630437</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06285336340889872</v>
+        <v>0.04308057668301122</v>
       </c>
       <c r="H42" t="n">
-        <v>2.094906370774878</v>
+        <v>2.290859801260874</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.335151000000001</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>15251223223170.48</v>
+        <v>1.865011493967537e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1732722539618.256</v>
+        <v>3.068832989552549e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>420318254109.4628</v>
+        <v>6.029255463608045e-07</v>
       </c>
       <c r="E43" t="n">
-        <v>691430176680.7164</v>
+        <v>9.943138046099584e-07</v>
       </c>
       <c r="F43" t="n">
-        <v>3.739661597311204</v>
+        <v>3.445441692712202</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5874729488419295</v>
+        <v>0.6316585951526634</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7479323194622407</v>
+        <v>0.6890883385424404</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.340042</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>13731086895256.87</v>
+        <v>1.726949069886227e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>1462707592197.844</v>
+        <v>1.559816761878166e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>371070236425.5356</v>
+        <v>5.519982670973528e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>600752609305.7003</v>
+        <v>8.874784850588881e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>5.388791978017748</v>
+        <v>1.140128712860591</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3702943712808958</v>
+        <v>0.9504906149477221</v>
       </c>
       <c r="H44" t="n">
-        <v>1.07775839560355</v>
+        <v>0.2280257425721182</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.344876999999999</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>14578333543936.68</v>
+        <v>1.781439576225285e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>1215447686133.85</v>
+        <v>1.287269551394836e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>389353112211.725</v>
+        <v>5.804341485496566e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>638255009285.7031</v>
+        <v>9.349820744972946e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>4.799456926059717</v>
+        <v>3.926470709590119</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4408418690008347</v>
+        <v>0.5600502893609399</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9598913852119434</v>
+        <v>0.7852941419180237</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.349976</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>14089110867013.02</v>
+        <v>1.66330528067149e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>671712361739.8223</v>
+        <v>8.150006394898918e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>366301397911.6981</v>
+        <v>5.162710667902072e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>583322141150.6028</v>
+        <v>8.174280384641804e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>2.865795825358226</v>
+        <v>1.43295088496631</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7206668947268121</v>
+        <v>0.9206751514227943</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5731591650716451</v>
+        <v>0.286590176993262</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.370053</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>9419646821134.744</v>
+        <v>1.17124942400392e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>1452293937448.862</v>
+        <v>1.840321171727081e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>263085897391.9988</v>
+        <v>4.250740912816362e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>433224998547.4496</v>
+        <v>7.066749055502673e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>3.885013388325412</v>
+        <v>0.470997101808063</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5660872957333524</v>
+        <v>0.9931468045721357</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7770026776650825</v>
+        <v>0.09419942036161259</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.390148</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>12737854235373.46</v>
+        <v>1.514442192132711e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>1671759328933.787</v>
+        <v>2.011191152101148e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>344513518306.5712</v>
+        <v>4.970323993024989e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>574205105437.3062</v>
+        <v>8.381287936922587e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>13.61025265925476</v>
+        <v>5.014687673526443</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01828418761734314</v>
+        <v>0.4140903150242786</v>
       </c>
       <c r="H48" t="n">
-        <v>2.722050531850951</v>
+        <v>1.002937534705289</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.410025</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>19145233375707.2</v>
+        <v>2.262532689375689e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>1082932525909.801</v>
+        <v>1.250105892092437e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>498509009681.5587</v>
+        <v>7.014371820161348e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>817788739311.1984</v>
+        <v>1.130298107784538e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>8.945054555748724</v>
+        <v>6.687617449195876</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1112759188284988</v>
+        <v>0.2449282569996923</v>
       </c>
       <c r="H49" t="n">
-        <v>1.789010911149745</v>
+        <v>1.337523489839175</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.420244</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>27831157861873.91</v>
+        <v>3.340065805501652e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>3319015088153.074</v>
+        <v>3.976137268795157e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>711804360949.6619</v>
+        <v>9.584951206630026e-07</v>
       </c>
       <c r="E50" t="n">
-        <v>1180622676846.734</v>
+        <v>1.585065009697806e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>6.514095194805607</v>
+        <v>6.872136833994159</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2593563338420402</v>
+        <v>0.2303246649159539</v>
       </c>
       <c r="H50" t="n">
-        <v>1.302819038961121</v>
+        <v>1.374427366798832</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.430182</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>37840709749831.13</v>
+        <v>4.547173250813102e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>719525288571.125</v>
+        <v>1.015251914844307e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>927025251048.8751</v>
+        <v>1.214942094828335e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>1468996657923.418</v>
+        <v>1.939261858323544e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>3.911306647077957</v>
+        <v>1.075492151057303</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5622551063883138</v>
+        <v>0.9562499188369064</v>
       </c>
       <c r="H51" t="n">
-        <v>0.7822613294155915</v>
+        <v>0.2150984302114606</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.440043</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>80230145502064.97</v>
+        <v>9.361333110162844e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>6970872995075.852</v>
+        <v>8.492306496835628e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>1999893824676.692</v>
+        <v>2.551561496272055e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>3288985526889.92</v>
+        <v>4.152501724155848e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>1.977040703525624</v>
+        <v>2.694262377289409</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8523126900861473</v>
+        <v>0.7469958406149828</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3954081407051248</v>
+        <v>0.5388524754578817</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.449945</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>135123089607900.2</v>
+        <v>0.0001581287032801616</v>
       </c>
       <c r="C53" t="n">
-        <v>5224947408620.594</v>
+        <v>3.74650316451884e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>3260683749932.957</v>
+        <v>4.08399948112515e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>5221676145166.071</v>
+        <v>6.489460122055041e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>1.909449000328524</v>
+        <v>0.9993393239792052</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8615272904412126</v>
+        <v>0.9626190437274197</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3818898000657047</v>
+        <v>0.199867864795841</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.454988</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>373371290940016.9</v>
+        <v>0.0004272179422904253</v>
       </c>
       <c r="C54" t="n">
-        <v>34455748116170.41</v>
+        <v>3.88002628991435e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>8920911407601.941</v>
+        <v>1.072934052778356e-05</v>
       </c>
       <c r="E54" t="n">
-        <v>14665920568861.5</v>
+        <v>1.749705451501437e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>2.240640367712194</v>
+        <v>2.943787339500343</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8149444774392036</v>
+        <v>0.7086519545396466</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4481280735424387</v>
+        <v>0.5887574679000687</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.460121</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>604651132668554.5</v>
+        <v>0.0006913753125220038</v>
       </c>
       <c r="C55" t="n">
-        <v>40710673878391.81</v>
+        <v>4.763184249989018e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>14073207429902.57</v>
+        <v>1.679560193448126e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>23023118715842.25</v>
+        <v>2.732448964059582e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>2.036653221788252</v>
+        <v>1.524667428478037</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8440504774335964</v>
+        <v>0.9102057652499133</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4073306443576503</v>
+        <v>0.3049334856956075</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469957</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>666589521672078.9</v>
+        <v>0.000767351050692764</v>
       </c>
       <c r="C56" t="n">
-        <v>28102691954240.25</v>
+        <v>3.203805018615576e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>15214722855090.02</v>
+        <v>1.81689829858025e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>24790196947488.04</v>
+        <v>2.945636496943225e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>2.743472973913779</v>
+        <v>2.195251442103544</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7394618311873269</v>
+        <v>0.8215215721487586</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5486945947827557</v>
+        <v>0.4390502884207088</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477981</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>538246075635743.2</v>
+        <v>0.0006175843293701239</v>
       </c>
       <c r="C57" t="n">
-        <v>50385905458379.88</v>
+        <v>5.788021443603789e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>12343707877183.4</v>
+        <v>1.4717354550708e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>20496834265140.57</v>
+        <v>2.431789798799642e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>2.224292650752665</v>
+        <v>2.171161556361973</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8173193925678858</v>
+        <v>0.8249904225399322</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4448585301505331</v>
+        <v>0.4342323112723946</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.486129</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>278547528377753.1</v>
+        <v>0.0003181751939462293</v>
       </c>
       <c r="C58" t="n">
-        <v>17161073650702.19</v>
+        <v>2.17941876189844e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>6409454672063.192</v>
+        <v>7.588321873614544e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>10424894686924.19</v>
+        <v>1.232567327789047e-05</v>
       </c>
       <c r="F58" t="n">
-        <v>3.238066308590079</v>
+        <v>3.107550525611415</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6633362154164658</v>
+        <v>0.6834088933882279</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6476132617180157</v>
+        <v>0.621510105122283</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.488189</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>213563935113182.3</v>
+        <v>0.0002461895419286007</v>
       </c>
       <c r="C59" t="n">
-        <v>15378492202713.56</v>
+        <v>1.717589787789483e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>4927723222358.635</v>
+        <v>5.903798083752104e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>8038727663291.684</v>
+        <v>9.609543550289626e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>2.352029594117865</v>
+        <v>1.955262833460198</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7985957687215008</v>
+        <v>0.8553000159715307</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4704059188235729</v>
+        <v>0.3910525666920396</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490073000000001</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>271846914827517.7</v>
+        <v>0.0003130726172463961</v>
       </c>
       <c r="C60" t="n">
-        <v>20316961414735.31</v>
+        <v>2.130330944875953e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>6189348230698.91</v>
+        <v>7.407370391601618e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>10237138900822.62</v>
+        <v>1.218366230456925e-05</v>
       </c>
       <c r="F60" t="n">
-        <v>6.046079556322974</v>
+        <v>6.596862926382191</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3017609697991304</v>
+        <v>0.2523891525152661</v>
       </c>
       <c r="H60" t="n">
-        <v>1.209215911264595</v>
+        <v>1.319372585276438</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.492223</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>119828902479925.7</v>
+        <v>0.000139998271296228</v>
       </c>
       <c r="C61" t="n">
-        <v>11331940464650.91</v>
+        <v>1.121153433286372e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>2754640115588.575</v>
+        <v>3.360900630176302e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>4574762377324.288</v>
+        <v>5.541957170474072e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>2.487996386069838</v>
+        <v>2.754364342385998</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7783017443268665</v>
+        <v>0.7377919192395006</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4975992772139676</v>
+        <v>0.5508728684771995</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.494992</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>86497160474818.12</v>
+        <v>9.913917682767162e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>4063498802119.312</v>
+        <v>6.384858417290821e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>1961861717398.383</v>
+        <v>2.366002448356977e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>3206589810705.732</v>
+        <v>3.852530972753164e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>0.647498112283365</v>
+        <v>1.103557631150576</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9857253915194167</v>
+        <v>0.9537882895900125</v>
       </c>
       <c r="H62" t="n">
-        <v>0.129499622456673</v>
+        <v>0.2207115262301153</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499972000000001</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>50013065604388.07</v>
+        <v>5.837883176038202e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>2123340105201.742</v>
+        <v>3.243245813386955e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>1165967030685.942</v>
+        <v>1.442123264167725e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>1904692532745.754</v>
+        <v>2.366385532544868e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>3.970572215729022</v>
+        <v>3.977255681123122</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5536605879032774</v>
+        <v>0.5526952181479979</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7941144431458044</v>
+        <v>0.7954511362246245</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.510205</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>26437778561517.97</v>
+        <v>3.199415096110318e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>1533965319587.469</v>
+        <v>-1.716175511774272e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>639150408866.3031</v>
+        <v>8.600591013667672e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>1047169634830.998</v>
+        <v>1.382973719374929e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>7.291384545190003</v>
+        <v>5.496230508218059</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1998558577372498</v>
+        <v>0.3583593963707098</v>
       </c>
       <c r="H64" t="n">
-        <v>1.458276909038001</v>
+        <v>1.099246101643612</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.512183</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>20247100808696.03</v>
+        <v>2.433235456798411e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1605609053215.848</v>
+        <v>2.063666019674575e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>609329025890.5078</v>
+        <v>9.381557382908705e-07</v>
       </c>
       <c r="E65" t="n">
-        <v>979555113117.3838</v>
+        <v>1.488979507105878e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>5.441307494180644</v>
+        <v>4.434823835269965</v>
       </c>
       <c r="G65" t="n">
-        <v>0.3644246572497918</v>
+        <v>0.4886508565324864</v>
       </c>
       <c r="H65" t="n">
-        <v>1.088261498836129</v>
+        <v>0.886964767053993</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.515076000000001</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>20809857901458.48</v>
+        <v>2.446376629709947e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>1357857189834.285</v>
+        <v>1.605804842959893e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>850707950208.1897</v>
+        <v>1.410553130668995e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>1356875010708.697</v>
+        <v>2.272647180567413e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>6.786147291583218</v>
+        <v>1.051643381772546</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2370367974856466</v>
+        <v>0.9582937574927723</v>
       </c>
       <c r="H66" t="n">
-        <v>1.357229458316644</v>
+        <v>0.2103286763545092</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.520067</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>24205916649322.86</v>
+        <v>2.976022979156664e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>3048969960960.219</v>
+        <v>-8.159704801905112e-07</v>
       </c>
       <c r="D67" t="n">
-        <v>1043543204442.397</v>
+        <v>2.08249751025099e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>1642810083158.985</v>
+        <v>3.044715984377271e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>2.153403751836326</v>
+        <v>1.235694691972933</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8275373199377054</v>
+        <v>0.9414074521683575</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4306807503672653</v>
+        <v>0.2471389383945866</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.525238</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>31736222257889.79</v>
+        <v>3.81166188205675e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>6865367309105.184</v>
+        <v>6.649217933223592e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>1549110831184.178</v>
+        <v>3.086784288281921e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>2485891548841.965</v>
+        <v>5.081189029159887e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>7.519979678200549</v>
+        <v>4.131642523719122</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1847502660749538</v>
+        <v>0.5306226752484593</v>
       </c>
       <c r="H68" t="n">
-        <v>1.50399593564011</v>
+        <v>0.8263285047438244</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529406</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>30318419828360.02</v>
+        <v>3.619382009575469e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>4277860529913.203</v>
+        <v>8.421169019477802e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>1341046339334.698</v>
+        <v>2.780015780355608e-06</v>
       </c>
       <c r="E69" t="n">
-        <v>2093787303089.413</v>
+        <v>4.217951932158437e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>11.21757099029185</v>
+        <v>1.749043749815826</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04723281928804772</v>
+        <v>0.8826640715540421</v>
       </c>
       <c r="H69" t="n">
-        <v>2.243514198058371</v>
+        <v>0.3498087499631652</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.535056</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>63231021930800.66</v>
+        <v>7.543749255097207e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>11181375018829.64</v>
+        <v>1.29894273286619e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>2698347289940.562</v>
+        <v>5.552730780303054e-06</v>
       </c>
       <c r="E70" t="n">
-        <v>4374944031883.988</v>
+        <v>8.892311543795516e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>8.08265051001742</v>
+        <v>1.294911120506455</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1517390356360175</v>
+        <v>0.935454449030239</v>
       </c>
       <c r="H70" t="n">
-        <v>1.616530102003484</v>
+        <v>0.2589822241012909</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.540236</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>98271961563098</v>
+        <v>0.0001176055596030266</v>
       </c>
       <c r="C71" t="n">
-        <v>14412530691060.44</v>
+        <v>9.484373528250518e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>4027031913938.2</v>
+        <v>7.495180669451109e-06</v>
       </c>
       <c r="E71" t="n">
-        <v>6362656288048.142</v>
+        <v>1.108413910023259e-05</v>
       </c>
       <c r="F71" t="n">
-        <v>5.252544789319709</v>
+        <v>3.125935905741334</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3858431170928121</v>
+        <v>0.6805773721300128</v>
       </c>
       <c r="H71" t="n">
-        <v>1.050508957863942</v>
+        <v>0.6251871811482668</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.549804</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>237973846481162.9</v>
+        <v>0.0002743847682601192</v>
       </c>
       <c r="C72" t="n">
-        <v>13865760607774.72</v>
+        <v>1.703486018181971e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>5957839643186.749</v>
+        <v>8.123608755578459e-06</v>
       </c>
       <c r="E72" t="n">
-        <v>9605442089417.314</v>
+        <v>1.304464891220642e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>3.697945916261916</v>
+        <v>2.734231966040953</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5936696698566035</v>
+        <v>0.7408780375708309</v>
       </c>
       <c r="H72" t="n">
-        <v>0.7395891832523832</v>
+        <v>0.5468463932081906</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.560183</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>603391385353994.4</v>
+        <v>0.0007010223201968353</v>
       </c>
       <c r="C73" t="n">
-        <v>43325505561568.38</v>
+        <v>4.468175144618856e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>14753488853438.47</v>
+        <v>1.908466528723224e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>24081169939760.91</v>
+        <v>3.077242582744047e-05</v>
       </c>
       <c r="F73" t="n">
-        <v>4.294009801501514</v>
+        <v>3.0238508771763</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5079076298684068</v>
+        <v>0.6963085576472466</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8588019603003028</v>
+        <v>0.6047701754352601</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570129</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>596883295332389.5</v>
+        <v>0.0006951436298440706</v>
       </c>
       <c r="C74" t="n">
-        <v>36549263741470.25</v>
+        <v>3.371436288490215e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>14720179975518.78</v>
+        <v>1.908829087927524e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>23954186324360.37</v>
+        <v>3.06119482250736e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>3.593165989966717</v>
+        <v>2.599749173224339</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6093396796578575</v>
+        <v>0.7614033775609187</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7186331979933435</v>
+        <v>0.5199498346448677</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580025</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>322230944045115.4</v>
+        <v>0.0003689608239047183</v>
       </c>
       <c r="C75" t="n">
-        <v>15772618233758.5</v>
+        <v>1.508567805885073e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>8791043392213.99</v>
+        <v>1.160093745595447e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>13915953421554.3</v>
+        <v>1.817706627185597e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>1.827093537480429</v>
+        <v>1.577550374345701</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8725150637221282</v>
+        <v>0.9039507502425939</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3654187074960858</v>
+        <v>0.3155100748691402</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.590082</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>169681650226092.5</v>
+        <v>0.0001971341609276278</v>
       </c>
       <c r="C76" t="n">
-        <v>15175760852998.25</v>
+        <v>1.491496402863365e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>4579662117965.02</v>
+        <v>6.236150711650533e-06</v>
       </c>
       <c r="E76" t="n">
-        <v>7366960758809.863</v>
+        <v>9.796320314762078e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>3.771343050400959</v>
+        <v>2.90981621942022</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5827837652108792</v>
+        <v>0.7138872121697597</v>
       </c>
       <c r="H76" t="n">
-        <v>0.7542686100801917</v>
+        <v>0.5819632438840439</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.600268</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>84876167663790.91</v>
+        <v>9.869139269365036e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>9536091858552.273</v>
+        <v>8.0407711239922e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>2679343592907.999</v>
+        <v>3.952684057466804e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>4297072437013.536</v>
+        <v>6.197880602772485e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>3.496329089806331</v>
+        <v>2.446974481235388</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6239431559546387</v>
+        <v>0.7844587808325695</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6992658179612661</v>
+        <v>0.4893948962470777</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.609989</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>88294363922848.25</v>
+        <v>0.0001021914435008412</v>
       </c>
       <c r="C78" t="n">
-        <v>-7120239218029.094</v>
+        <v>-1.206113425639419e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>3249713238864.205</v>
+        <v>5.717345315894957e-06</v>
       </c>
       <c r="E78" t="n">
-        <v>4859406400800.851</v>
+        <v>8.245273890433674e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>3.853256032002772</v>
+        <v>1.627193965469974</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5707311694731887</v>
+        <v>0.8979413819064392</v>
       </c>
       <c r="H78" t="n">
-        <v>0.7706512064005545</v>
+        <v>0.3254387930939948</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.620227</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>59908855611370.97</v>
+        <v>6.896229655302492e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>-6073326800890.195</v>
+        <v>4.079283912607162e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>2903965424128.173</v>
+        <v>5.686611375211894e-06</v>
       </c>
       <c r="E79" t="n">
-        <v>4115708078218.731</v>
+        <v>9.289866256912987e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>21.11224416298848</v>
+        <v>3.893270015402283</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0007714422666292122</v>
+        <v>0.564882660296439</v>
       </c>
       <c r="H79" t="n">
-        <v>4.222448832597696</v>
+        <v>0.7786540030804566</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.629939</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>54992146874016.39</v>
+        <v>6.578723237767296e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>441279065544.8984</v>
+        <v>-7.692707285039449e-07</v>
       </c>
       <c r="D80" t="n">
-        <v>2256193383671.67</v>
+        <v>4.415579284294522e-06</v>
       </c>
       <c r="E80" t="n">
-        <v>3435749975556.2</v>
+        <v>6.931074311369502e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>7.499028936584359</v>
+        <v>1.416083593086857</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1860922196186101</v>
+        <v>0.9225458487075813</v>
       </c>
       <c r="H80" t="n">
-        <v>1.499805787316872</v>
+        <v>0.2832167186173715</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.635173</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>35560176399041.06</v>
+        <v>3.966954047036456e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>5762493910399.438</v>
+        <v>8.435850151568125e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>1487803308908.97</v>
+        <v>2.53996297400135e-06</v>
       </c>
       <c r="E81" t="n">
-        <v>2392626662896.523</v>
+        <v>3.919710896402061e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>3.228510427681993</v>
+        <v>2.336281709263078</v>
       </c>
       <c r="G81" t="n">
-        <v>0.6648032025887181</v>
+        <v>0.8009236597177709</v>
       </c>
       <c r="H81" t="n">
-        <v>0.6457020855363986</v>
+        <v>0.4672563418526156</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>40221684274827.2</v>
+        <v>4.814828798579417e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>1978366521772.297</v>
+        <v>3.552817718360298e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>1410645032815.747</v>
+        <v>2.47549571979519e-06</v>
       </c>
       <c r="E82" t="n">
-        <v>2200106839551.598</v>
+        <v>3.924982015452646e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>2.52754257335319</v>
+        <v>1.968165810650825</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7723415125593318</v>
+        <v>0.8535321449828733</v>
       </c>
       <c r="H82" t="n">
-        <v>0.505508514670638</v>
+        <v>0.393633162130165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.649962</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>87017789322047.94</v>
+        <v>0.0001032758257205198</v>
       </c>
       <c r="C83" t="n">
-        <v>1852021242783.891</v>
+        <v>8.826988820455882e-07</v>
       </c>
       <c r="D83" t="n">
-        <v>2365480677526.973</v>
+        <v>3.337604136271387e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>3769148434138.88</v>
+        <v>5.266701402948182e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>4.849527362615078</v>
+        <v>4.881372802257467</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4345188988063635</v>
+        <v>0.4305286402083892</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9699054725230155</v>
+        <v>0.9762745604514933</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.670119000000001</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>58225651873147.22</v>
+        <v>6.884774177193118e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>2501374117509.445</v>
+        <v>3.159659499015519e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>1502426883393.873</v>
+        <v>2.076461116253849e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>2387470538446.772</v>
+        <v>3.302397949489104e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>2.428567832470384</v>
+        <v>2.279100374135161</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7872123512736453</v>
+        <v>0.8093315206887004</v>
       </c>
       <c r="H84" t="n">
-        <v>0.4857135664940768</v>
+        <v>0.4558200748270321</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.680153</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>26384317260270.41</v>
+        <v>3.130181624216683e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>1800649422248.848</v>
+        <v>2.838813707899112e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>738778598536.855</v>
+        <v>1.139913579482366e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>1205958502509.84</v>
+        <v>1.809678302520263e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>4.442368298255388</v>
+        <v>2.832477651942287</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4876311935849001</v>
+        <v>0.7257937853803199</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8884736596510775</v>
+        <v>0.5664955303884573</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.689928</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>22542272602798.07</v>
+        <v>2.791123468057774e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>-692748741689.8008</v>
+        <v>-1.120467927823048e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>628536151193.724</v>
+        <v>9.618503778389918e-07</v>
       </c>
       <c r="E86" t="n">
-        <v>966591806877.8571</v>
+        <v>1.462470714982173e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>5.027829644379057</v>
+        <v>3.104848231423339</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4124932754499263</v>
+        <v>0.6838251515726004</v>
       </c>
       <c r="H86" t="n">
-        <v>1.005565928875811</v>
+        <v>0.6209696462846678</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>20967676103254.9</v>
+        <v>2.538637188882379e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>2027478155468.516</v>
+        <v>2.48903797338509e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>527190718960.6321</v>
+        <v>7.663029052046408e-07</v>
       </c>
       <c r="E87" t="n">
-        <v>876803646848.2316</v>
+        <v>1.261983474640407e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>4.44973200271757</v>
+        <v>2.702233153670232</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4866371644241083</v>
+        <v>0.7457768653743279</v>
       </c>
       <c r="H87" t="n">
-        <v>0.889946400543514</v>
+        <v>0.5404466307340463</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.730004</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>26529767062351.8</v>
+        <v>3.099979777729475e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>2318798889872.973</v>
+        <v>2.775789662028339e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>674374562886.8184</v>
+        <v>9.1189599214255e-07</v>
       </c>
       <c r="E88" t="n">
-        <v>1104423115937.718</v>
+        <v>1.4915219124231e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>2.988043026320254</v>
+        <v>1.865727089329654</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7018293586880917</v>
+        <v>0.8673947847710972</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5976086052640508</v>
+        <v>0.3731454178659307</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.749999</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>48281932484857.16</v>
+        <v>5.792680867392211e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1965857681934.461</v>
+        <v>2.443985503670596e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>1168869453232.939</v>
+        <v>1.607644097764771e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>1891112865593.924</v>
+        <v>2.566210596925706e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>6.840818091625648</v>
+        <v>6.754104191423103</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2327506067199703</v>
+        <v>0.2395795561773779</v>
       </c>
       <c r="H89" t="n">
-        <v>1.36816361832513</v>
+        <v>1.350820838284621</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.755179</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>111943829803266.4</v>
+        <v>0.0001312489298042764</v>
       </c>
       <c r="C90" t="n">
-        <v>6424083037903.562</v>
+        <v>7.67554752459879e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>2607671013991.769</v>
+        <v>3.327666115671847e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>4267222729421.84</v>
+        <v>5.405460633487462e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>2.286168141186401</v>
+        <v>1.895707020653167</v>
       </c>
       <c r="G90" t="n">
-        <v>0.8082962413057853</v>
+        <v>0.8633795895806238</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4572336282372801</v>
+        <v>0.3791414041306335</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.758876</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>125769000962252.9</v>
+        <v>0.0001477268983810188</v>
       </c>
       <c r="C91" t="n">
-        <v>1685934139532.031</v>
+        <v>3.266523348615399e-07</v>
       </c>
       <c r="D91" t="n">
-        <v>2923070046778.481</v>
+        <v>3.650189489020278e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>4708547390087.985</v>
+        <v>5.813001359310624e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>1.761826871481547</v>
+        <v>1.760353258403718</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8810204040226063</v>
+        <v>0.8812102619632934</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3523653742963093</v>
+        <v>0.3520706516807437</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.770038</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>147056565262404.4</v>
+        <v>0.0001726272506565172</v>
       </c>
       <c r="C92" t="n">
-        <v>11145699793584.78</v>
+        <v>1.112766931994131e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>3381521172508.25</v>
+        <v>4.250497875480685e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>5552484238544.226</v>
+        <v>6.906443580808725e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>5.472239325391063</v>
+        <v>4.425653311699727</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3609995431949314</v>
+        <v>0.4898919641868212</v>
       </c>
       <c r="H92" t="n">
-        <v>1.094447865078213</v>
+        <v>0.8851306623399454</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.775016</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>151998462759507.1</v>
+        <v>0.0001771469344718427</v>
       </c>
       <c r="C93" t="n">
-        <v>9858361826439.688</v>
+        <v>9.087217038190903e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>3630537343926.591</v>
+        <v>4.607772274457628e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>5915798604599.23</v>
+        <v>7.406248165311452e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>1.048918902267662</v>
+        <v>1.138818951449057</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9585244136162482</v>
+        <v>0.9506104555332654</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2097837804535325</v>
+        <v>0.2277637902898115</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780179</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>134922599121958.2</v>
+        <v>0.0001562768079998509</v>
       </c>
       <c r="C94" t="n">
-        <v>4183838000866.016</v>
+        <v>7.873044193001266e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>3774489676043.809</v>
+        <v>5.085434374362792e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>5967056827759.758</v>
+        <v>8.050119072592482e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>1.685365568250996</v>
+        <v>1.220609228283402</v>
       </c>
       <c r="G94" t="n">
-        <v>0.890738266091524</v>
+        <v>0.9428849738801931</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3370731136501993</v>
+        <v>0.2441218456566804</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.790118</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>119510607613692.2</v>
+        <v>0.0001402729923928114</v>
       </c>
       <c r="C95" t="n">
-        <v>8206752667592.969</v>
+        <v>8.105479261970148e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>3343002782464.762</v>
+        <v>4.895948453608251e-06</v>
       </c>
       <c r="E95" t="n">
-        <v>5390471340587.706</v>
+        <v>7.846184238231973e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>2.352532182804233</v>
+        <v>0.7760191879213306</v>
       </c>
       <c r="G95" t="n">
-        <v>0.7985213908093332</v>
+        <v>0.9785376325055697</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4705064365608466</v>
+        <v>0.1552038375842661</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799915</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>89709611374644.97</v>
+        <v>0.0001063437859297791</v>
       </c>
       <c r="C96" t="n">
-        <v>2778443245814.234</v>
+        <v>2.219647999009933e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>2478872761766.393</v>
+        <v>3.739749415332167e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>3954317057603.658</v>
+        <v>5.850556089393626e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>1.21743438490512</v>
+        <v>0.7800419148647423</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9431938760932862</v>
+        <v>0.9782888286959844</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2434868769810239</v>
+        <v>0.1560083829729484</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.810027</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>81709456248965.59</v>
+        <v>9.845608445866628e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>4540749026782.32</v>
+        <v>2.389146067119697e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>2177849262907.627</v>
+        <v>3.172276035295672e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>3479369317501.654</v>
+        <v>5.128633462904689e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>1.218244279711334</v>
+        <v>0.4377777641623656</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9431151439701934</v>
+        <v>0.9942249116225669</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2436488559422668</v>
+        <v>0.08755555283247313</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>77038840368631.08</v>
+        <v>9.144689275894814e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>8004164853104.445</v>
+        <v>8.802368837205828e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>1877739653161.161</v>
+        <v>2.561058066025469e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>3085186395721.154</v>
+        <v>4.169008893878902e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>2.782731164755728</v>
+        <v>1.943024065998444</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7334388838459885</v>
+        <v>0.8569712612869131</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5565462329511457</v>
+        <v>0.3886048131996888</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>77139897601325.81</v>
+        <v>9.166628645315461e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>2713618239910.734</v>
+        <v>2.112385505762589e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>1800875856244.413</v>
+        <v>2.317572182080704e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>2906311414988.446</v>
+        <v>3.73948937577811e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>1.94271957016537</v>
+        <v>1.201597330796032</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8570127707516022</v>
+        <v>0.9447240308728</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3885439140330741</v>
+        <v>0.2403194661592065</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.820058</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>75746105410887.48</v>
+        <v>8.965116794552268e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>8346666661059.031</v>
+        <v>9.092436140943023e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>1687116962869.408</v>
+        <v>2.106999343362467e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>2813782496569.162</v>
+        <v>3.492050684703355e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>2.745509752854954</v>
+        <v>2.351137763721627</v>
       </c>
       <c r="G100" t="n">
-        <v>0.7391496068391274</v>
+        <v>0.7987277376911746</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5491019505709909</v>
+        <v>0.4702275527443255</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.829886</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>76199341718912.22</v>
+        <v>8.992953226798282e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>4240347757860.336</v>
+        <v>5.229764356911139e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>1647586705160.643</v>
+        <v>2.000879751391456e-06</v>
       </c>
       <c r="E101" t="n">
-        <v>2705671828637.691</v>
+        <v>3.29076788958112e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>2.575211968612922</v>
+        <v>2.454295594696386</v>
       </c>
       <c r="G101" t="n">
-        <v>0.7651278340322057</v>
+        <v>0.7833619616450799</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5150423937225843</v>
+        <v>0.4908591189392773</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>89354616537543.53</v>
+        <v>0.0001052409185845982</v>
       </c>
       <c r="C102" t="n">
-        <v>6225573989106.664</v>
+        <v>7.179630185294065e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>1900603112841.356</v>
+        <v>2.285730502800596e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>3153621630154.744</v>
+        <v>3.784829166213422e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>3.246209952418331</v>
+        <v>3.002781759188756</v>
       </c>
       <c r="G102" t="n">
-        <v>0.6620864360980405</v>
+        <v>0.6995569434216179</v>
       </c>
       <c r="H102" t="n">
-        <v>0.6492419904836662</v>
+        <v>0.6005563518377512</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.866293</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>119752354146633.6</v>
+        <v>0.0001414496941432173</v>
       </c>
       <c r="C103" t="n">
-        <v>11455053200867.19</v>
+        <v>1.154466650021787e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>2523422469770.046</v>
+        <v>3.039140303225341e-06</v>
       </c>
       <c r="E103" t="n">
-        <v>4216556585476.438</v>
+        <v>5.058846082156059e-06</v>
       </c>
       <c r="F103" t="n">
-        <v>1.693652406551244</v>
+        <v>1.432696571256496</v>
       </c>
       <c r="G103" t="n">
-        <v>0.889698475809945</v>
+        <v>0.9207034858222307</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3387304813102489</v>
+        <v>0.2865393142512992</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.889892</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>196386225354936.5</v>
+        <v>0.0002304310084154655</v>
       </c>
       <c r="C104" t="n">
-        <v>14110972685896.06</v>
+        <v>1.418508162183077e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>4078000962583.485</v>
+        <v>4.823659763900664e-06</v>
       </c>
       <c r="E104" t="n">
-        <v>6783992092048.071</v>
+        <v>8.011946034756534e-06</v>
       </c>
       <c r="F104" t="n">
-        <v>2.730574221814945</v>
+        <v>2.866058824525298</v>
       </c>
       <c r="G104" t="n">
-        <v>0.7414384212214051</v>
+        <v>0.720626407993925</v>
       </c>
       <c r="H104" t="n">
-        <v>0.546114844362989</v>
+        <v>0.5732117649050595</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.899914</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>299933410540518.4</v>
+        <v>0.0003452994941894157</v>
       </c>
       <c r="C105" t="n">
-        <v>16316224563002.03</v>
+        <v>2.19686597481764e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>6307327934112.745</v>
+        <v>7.309430945243065e-06</v>
       </c>
       <c r="E105" t="n">
-        <v>10382029692484.37</v>
+        <v>1.203188229906075e-05</v>
       </c>
       <c r="F105" t="n">
-        <v>1.833392955523837</v>
+        <v>1.810593009712768</v>
       </c>
       <c r="G105" t="n">
-        <v>0.8716844101420527</v>
+        <v>0.8746828729008075</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3666785911047674</v>
+        <v>0.3621186019425536</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>396554425618416.8</v>
+        <v>0.0004586658772327083</v>
       </c>
       <c r="C106" t="n">
-        <v>29828108155267.75</v>
+        <v>3.505570191405399e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>8244194152905.425</v>
+        <v>9.588052911462071e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>13695673732908.39</v>
+        <v>1.592061935741277e-05</v>
       </c>
       <c r="F106" t="n">
-        <v>2.151999684745702</v>
+        <v>2.083859520699678</v>
       </c>
       <c r="G106" t="n">
-        <v>0.8277383213961538</v>
+        <v>0.8374240488401243</v>
       </c>
       <c r="H106" t="n">
-        <v>0.4303999369491405</v>
+        <v>0.4167719041399355</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.919957</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>527657938912581.4</v>
+        <v>0.000608617253608369</v>
       </c>
       <c r="C107" t="n">
-        <v>20604059100686.25</v>
+        <v>2.404913175123568e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>11054012857401.02</v>
+        <v>1.280624068039921e-05</v>
       </c>
       <c r="E107" t="n">
-        <v>18097941763852.02</v>
+        <v>2.096085004817073e-05</v>
       </c>
       <c r="F107" t="n">
-        <v>1.135444887595137</v>
+        <v>1.151566834052625</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9509185849943778</v>
+        <v>0.9494386166062094</v>
       </c>
       <c r="H107" t="n">
-        <v>0.2270889775190274</v>
+        <v>0.2303133668105251</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.926154</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>658330499879616.5</v>
+        <v>0.0007578812488395411</v>
       </c>
       <c r="C108" t="n">
-        <v>48204805248970.44</v>
+        <v>5.618837059479984e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>13559362339775.79</v>
+        <v>1.564014285687076e-05</v>
       </c>
       <c r="E108" t="n">
-        <v>22562087799965.86</v>
+        <v>2.602836963125442e-05</v>
       </c>
       <c r="F108" t="n">
-        <v>2.421201020298107</v>
+        <v>2.316510431044196</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7883127441622484</v>
+        <v>0.8038389160118902</v>
       </c>
       <c r="H108" t="n">
-        <v>0.4842402040596214</v>
+        <v>0.4633020862088392</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930194999999999</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>711663842889783.5</v>
+        <v>0.0008175717120288745</v>
       </c>
       <c r="C109" t="n">
-        <v>63336035845590.81</v>
+        <v>7.492775930881593e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>14692479287756.09</v>
+        <v>1.692163431323303e-05</v>
       </c>
       <c r="E109" t="n">
-        <v>24585123248248.74</v>
+        <v>2.830244643031168e-05</v>
       </c>
       <c r="F109" t="n">
-        <v>1.381157108931971</v>
+        <v>1.340590255115574</v>
       </c>
       <c r="G109" t="n">
-        <v>0.9263633325136594</v>
+        <v>0.9307000744219845</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2762314217863943</v>
+        <v>0.2681180510231148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.936923</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>885255077932394</v>
+        <v>0.001018516371014274</v>
       </c>
       <c r="C110" t="n">
-        <v>72894997914614.69</v>
+        <v>8.22415921644049e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>18163026021682.08</v>
+        <v>2.092916868961035e-05</v>
       </c>
       <c r="E110" t="n">
-        <v>30270170940118.78</v>
+        <v>3.485800355826531e-05</v>
       </c>
       <c r="F110" t="n">
-        <v>1.652052580188198</v>
+        <v>1.697292555349854</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8948840832827422</v>
+        <v>0.8892406747386901</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3304105160376395</v>
+        <v>0.3394585110699708</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.946745</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>1086728938427875</v>
+        <v>0.001246629364634174</v>
       </c>
       <c r="C111" t="n">
-        <v>59752095474278.88</v>
+        <v>6.835974947429636e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>22372552058608.41</v>
+        <v>2.569280743313992e-05</v>
       </c>
       <c r="E111" t="n">
-        <v>36886582280804.3</v>
+        <v>4.233825412040103e-05</v>
       </c>
       <c r="F111" t="n">
-        <v>1.763379592361252</v>
+        <v>1.960713822583104</v>
       </c>
       <c r="G111" t="n">
-        <v>0.8808202475665056</v>
+        <v>0.8545538982783809</v>
       </c>
       <c r="H111" t="n">
-        <v>0.3526759184722503</v>
+        <v>0.3921427645166208</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.950269</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>1099660474441974</v>
+        <v>0.001264342265715598</v>
       </c>
       <c r="C112" t="n">
-        <v>68349423604553.88</v>
+        <v>7.562274748080221e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>22695493799932.4</v>
+        <v>2.614390969547209e-05</v>
       </c>
       <c r="E112" t="n">
-        <v>37589376049612.59</v>
+        <v>4.327079835419764e-05</v>
       </c>
       <c r="F112" t="n">
-        <v>2.59047478519298</v>
+        <v>2.849990690533768</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7628119736675835</v>
+        <v>0.723099499522463</v>
       </c>
       <c r="H112" t="n">
-        <v>0.518094957038596</v>
+        <v>0.5699981381067537</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.956763</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>1233613998532632</v>
+        <v>0.001414970985570081</v>
       </c>
       <c r="C113" t="n">
-        <v>48500104134122.38</v>
+        <v>5.602816447673221e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>25469745086535.22</v>
+        <v>2.924419761780366e-05</v>
       </c>
       <c r="E113" t="n">
-        <v>41808786973832.27</v>
+        <v>4.80170201450063e-05</v>
       </c>
       <c r="F113" t="n">
-        <v>2.051381073810875</v>
+        <v>2.364753572985781</v>
       </c>
       <c r="G113" t="n">
-        <v>0.8419907908184812</v>
+        <v>0.7967111796716624</v>
       </c>
       <c r="H113" t="n">
-        <v>0.4102762147621751</v>
+        <v>0.4729507145971562</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>1259808194601264</v>
+        <v>0.001446015268400338</v>
       </c>
       <c r="C114" t="n">
-        <v>55152097776050</v>
+        <v>6.209546392288716e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>25976554794019.35</v>
+        <v>2.984786840384687e-05</v>
       </c>
       <c r="E114" t="n">
-        <v>42632950303675.16</v>
+        <v>4.897219317986375e-05</v>
       </c>
       <c r="F114" t="n">
-        <v>1.578488571854245</v>
+        <v>1.716859355517637</v>
       </c>
       <c r="G114" t="n">
-        <v>0.9038383961122295</v>
+        <v>0.8867689592318244</v>
       </c>
       <c r="H114" t="n">
-        <v>0.315697714370849</v>
+        <v>0.3433718711035274</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.964748</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>1252391100254556</v>
+        <v>0.001439008046959806</v>
       </c>
       <c r="C115" t="n">
-        <v>58374936636621.25</v>
+        <v>6.166315006448015e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>25836310328678.31</v>
+        <v>2.973722428989679e-05</v>
       </c>
       <c r="E115" t="n">
-        <v>42509278238315.7</v>
+        <v>4.888541296615259e-05</v>
       </c>
       <c r="F115" t="n">
-        <v>2.334788176928213</v>
+        <v>2.413388128925734</v>
       </c>
       <c r="G115" t="n">
-        <v>0.8011441695786815</v>
+        <v>0.7894787100596454</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4669576353856426</v>
+        <v>0.4826776257851469</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.967875</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>1230669907001726</v>
+        <v>0.001413002488891537</v>
       </c>
       <c r="C116" t="n">
-        <v>63082539612336.12</v>
+        <v>7.214670414099208e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>25373794711431.13</v>
+        <v>2.917343522319618e-05</v>
       </c>
       <c r="E116" t="n">
-        <v>41751220906131.1</v>
+        <v>4.799844010065118e-05</v>
       </c>
       <c r="F116" t="n">
-        <v>2.039829585491364</v>
+        <v>2.126709790073643</v>
       </c>
       <c r="G116" t="n">
-        <v>0.843606864793967</v>
+        <v>0.8313491072549491</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4079659170982728</v>
+        <v>0.4253419580147287</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.970043</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>1236897163908100</v>
+        <v>0.00141763545867094</v>
       </c>
       <c r="C117" t="n">
-        <v>63818592164305.38</v>
+        <v>7.533391958805969e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>25609059453641.13</v>
+        <v>2.938902992102372e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>42492147589857.67</v>
+        <v>4.875691413039731e-05</v>
       </c>
       <c r="F117" t="n">
-        <v>3.95585682389239</v>
+        <v>4.268464756839721</v>
       </c>
       <c r="G117" t="n">
-        <v>0.5557888768907249</v>
+        <v>0.5114458908239005</v>
       </c>
       <c r="H117" t="n">
-        <v>0.791171364778478</v>
+        <v>0.8536929513679443</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>1172336383682282</v>
+        <v>0.001342995890678363</v>
       </c>
       <c r="C118" t="n">
-        <v>60543384173893.12</v>
+        <v>7.21976146312313e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>24136581850639.61</v>
+        <v>2.766379119169025e-05</v>
       </c>
       <c r="E118" t="n">
-        <v>39816123477759.77</v>
+        <v>4.565077103421471e-05</v>
       </c>
       <c r="F118" t="n">
-        <v>2.071540696571442</v>
+        <v>2.245156658729446</v>
       </c>
       <c r="G118" t="n">
-        <v>0.8391601086963405</v>
+        <v>0.8142872043653502</v>
       </c>
       <c r="H118" t="n">
-        <v>0.4143081393142884</v>
+        <v>0.4490313317458893</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.974629</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>1140392607162705</v>
+        <v>0.001309635345879587</v>
       </c>
       <c r="C119" t="n">
-        <v>51223457010140</v>
+        <v>5.694609071401398e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>23546319426589.78</v>
+        <v>2.708438106966547e-05</v>
       </c>
       <c r="E119" t="n">
-        <v>38608256546018.51</v>
+        <v>4.440117764033751e-05</v>
       </c>
       <c r="F119" t="n">
-        <v>1.521826194095014</v>
+        <v>1.630346929568728</v>
       </c>
       <c r="G119" t="n">
-        <v>0.91053741707131</v>
+        <v>0.8975553576639366</v>
       </c>
       <c r="H119" t="n">
-        <v>0.3043652388190027</v>
+        <v>0.3260693859137455</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.984706</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>938624907139226.5</v>
+        <v>0.001078941715976119</v>
       </c>
       <c r="C120" t="n">
-        <v>32010220387916.5</v>
+        <v>3.551733092231862e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>19412967234486.19</v>
+        <v>2.235156263130824e-05</v>
       </c>
       <c r="E120" t="n">
-        <v>31711696297911.44</v>
+        <v>3.650762550638149e-05</v>
       </c>
       <c r="F120" t="n">
-        <v>1.748488381562598</v>
+        <v>1.835721789862417</v>
       </c>
       <c r="G120" t="n">
-        <v>0.8827353121771181</v>
+        <v>0.8713769029704383</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3496976763125196</v>
+        <v>0.3671443579724835</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990074</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>873570674563587.5</v>
+        <v>0.001005448153998003</v>
       </c>
       <c r="C121" t="n">
-        <v>54600792657736.25</v>
+        <v>6.170384509839445e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>18088310574647.57</v>
+        <v>2.087075301129484e-05</v>
       </c>
       <c r="E121" t="n">
-        <v>30081695559549.6</v>
+        <v>3.470171940473344e-05</v>
       </c>
       <c r="F121" t="n">
-        <v>4.132724151187227</v>
+        <v>4.490608920591106</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5304696216024513</v>
+        <v>0.4811409148392072</v>
       </c>
       <c r="H121" t="n">
-        <v>0.8265448302374454</v>
+        <v>0.8981217841182213</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>733046118848943.5</v>
+        <v>0.0008428311155447613</v>
       </c>
       <c r="C122" t="n">
-        <v>49269100413262</v>
+        <v>5.736582223956775e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>15087408127626.47</v>
+        <v>1.737505358114602e-05</v>
       </c>
       <c r="E122" t="n">
-        <v>24970591184684.21</v>
+        <v>2.876269157675542e-05</v>
       </c>
       <c r="F122" t="n">
-        <v>2.033390775621434</v>
+        <v>2.109269475260121</v>
       </c>
       <c r="G122" t="n">
-        <v>0.8445057655937426</v>
+        <v>0.8338283078597593</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4066781551242869</v>
+        <v>0.4218538950520243</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.004642</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>569317941731657.1</v>
+        <v>0.0006541260285636291</v>
       </c>
       <c r="C123" t="n">
-        <v>25141756169200.69</v>
+        <v>3.199157179840722e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>11751523323402.84</v>
+        <v>1.351474990465858e-05</v>
       </c>
       <c r="E123" t="n">
-        <v>19250895066182.29</v>
+        <v>2.215675700670031e-05</v>
       </c>
       <c r="F123" t="n">
-        <v>1.147541145505055</v>
+        <v>1.265436753746134</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9498099811378897</v>
+        <v>0.938447700693207</v>
       </c>
       <c r="H123" t="n">
-        <v>0.2295082291010109</v>
+        <v>0.2530873507492268</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>521427990148743.3</v>
+        <v>0.0006007714611011588</v>
       </c>
       <c r="C124" t="n">
-        <v>23732360489639.19</v>
+        <v>2.806638689208422e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>10879416598833.45</v>
+        <v>1.259002331773193e-05</v>
       </c>
       <c r="E124" t="n">
-        <v>17894822738831.34</v>
+        <v>2.070565884229697e-05</v>
       </c>
       <c r="F124" t="n">
-        <v>3.14991545189119</v>
+        <v>3.38853499181444</v>
       </c>
       <c r="G124" t="n">
-        <v>0.6768858942834082</v>
+        <v>0.6403166546136289</v>
       </c>
       <c r="H124" t="n">
-        <v>0.6299830903782381</v>
+        <v>0.6777069983628879</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.014843</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>448294131874019.4</v>
+        <v>0.0005174344581737637</v>
       </c>
       <c r="C125" t="n">
-        <v>33353847529116.44</v>
+        <v>3.906019978591329e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>9259892739138.373</v>
+        <v>1.07398627019711e-05</v>
       </c>
       <c r="E125" t="n">
-        <v>15362991202212.67</v>
+        <v>1.782383539224576e-05</v>
       </c>
       <c r="F125" t="n">
-        <v>1.884899169342781</v>
+        <v>2.095561923765342</v>
       </c>
       <c r="G125" t="n">
-        <v>0.8648312015267214</v>
+        <v>0.8357704983180434</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3769798338685561</v>
+        <v>0.4191123847530684</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.017737</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>425695435146299.4</v>
+        <v>0.0004909802323675153</v>
       </c>
       <c r="C126" t="n">
-        <v>18514259101534.31</v>
+        <v>2.236730137158613e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>8878981195564.318</v>
+        <v>1.029737323540322e-05</v>
       </c>
       <c r="E126" t="n">
-        <v>14497787376854.88</v>
+        <v>1.68098262465533e-05</v>
       </c>
       <c r="F126" t="n">
-        <v>1.320738501532275</v>
+        <v>1.456279024608142</v>
       </c>
       <c r="G126" t="n">
-        <v>0.932783304079181</v>
+        <v>0.9180593865630626</v>
       </c>
       <c r="H126" t="n">
-        <v>0.2641477003064549</v>
+        <v>0.2912558049216284</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.017861</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>426837704812661.4</v>
+        <v>0.0004933911752232976</v>
       </c>
       <c r="C127" t="n">
-        <v>17583145282293.69</v>
+        <v>2.038885672784566e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>8894397691356.834</v>
+        <v>1.033867309212039e-05</v>
       </c>
       <c r="E127" t="n">
-        <v>14495888387420.96</v>
+        <v>1.684559964008774e-05</v>
       </c>
       <c r="F127" t="n">
-        <v>1.119789989489104</v>
+        <v>1.096345188981824</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9523370562558385</v>
+        <v>0.9544266699649252</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2239579978978208</v>
+        <v>0.2192690377963649</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019822</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>420830517102102.1</v>
+        <v>0.0004858905681672529</v>
       </c>
       <c r="C128" t="n">
-        <v>20876208235125.75</v>
+        <v>2.541971021371308e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>8843067626699.676</v>
+        <v>1.030837663911291e-05</v>
       </c>
       <c r="E128" t="n">
-        <v>14332754518876.6</v>
+        <v>1.669077478357539e-05</v>
       </c>
       <c r="F128" t="n">
-        <v>2.029844447540404</v>
+        <v>2.289769591652791</v>
       </c>
       <c r="G128" t="n">
-        <v>0.8450002703199446</v>
+        <v>0.8077682640255569</v>
       </c>
       <c r="H128" t="n">
-        <v>0.4059688895080808</v>
+        <v>0.4579539183305583</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.024805000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>408276443716560.2</v>
+        <v>0.0004716068443970297</v>
       </c>
       <c r="C129" t="n">
-        <v>16468326335489.69</v>
+        <v>1.782390003010023e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>8820838711569.275</v>
+        <v>1.045054224177607e-05</v>
       </c>
       <c r="E129" t="n">
-        <v>14225154169812.12</v>
+        <v>1.682169241272497e-05</v>
       </c>
       <c r="F129" t="n">
-        <v>1.868147450392034</v>
+        <v>1.508424435798973</v>
       </c>
       <c r="G129" t="n">
-        <v>0.8670719626816445</v>
+        <v>0.9120955941047016</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3736294900784068</v>
+        <v>0.3016848871597945</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027826</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>412562801292963.2</v>
+        <v>0.0004765404214570711</v>
       </c>
       <c r="C130" t="n">
-        <v>14748643869032</v>
+        <v>1.583093863951002e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>8992033550579.311</v>
+        <v>1.070097076834476e-05</v>
       </c>
       <c r="E130" t="n">
-        <v>14495789839154.74</v>
+        <v>1.718287615350781e-05</v>
       </c>
       <c r="F130" t="n">
-        <v>1.971014984556458</v>
+        <v>1.668242830190678</v>
       </c>
       <c r="G130" t="n">
-        <v>0.8531409615268433</v>
+        <v>0.8928760812074255</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3942029969112916</v>
+        <v>0.3336485660381355</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.030101</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>419799079548893.6</v>
+        <v>0.0004866330839291203</v>
       </c>
       <c r="C131" t="n">
-        <v>14034949243407.75</v>
+        <v>1.654575713691938e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>9314909165362.783</v>
+        <v>1.115889017338142e-05</v>
       </c>
       <c r="E131" t="n">
-        <v>15221562473137.79</v>
+        <v>1.818064865137087e-05</v>
       </c>
       <c r="F131" t="n">
-        <v>4.406399107043509</v>
+        <v>4.698547678008272</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4925037262382026</v>
+        <v>0.4537655013885135</v>
       </c>
       <c r="H131" t="n">
-        <v>0.8812798214087018</v>
+        <v>0.9397095356016545</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032781</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>466380926659887.6</v>
+        <v>0.0005361592236288238</v>
       </c>
       <c r="C132" t="n">
-        <v>20995523972248.88</v>
+        <v>2.601882555490259e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>10106261063585.98</v>
+        <v>1.193505479317288e-05</v>
       </c>
       <c r="E132" t="n">
-        <v>16398056178736.67</v>
+        <v>1.93419418841929e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8278054538871641</v>
+        <v>0.9244767855037406</v>
       </c>
       <c r="G132" t="n">
-        <v>0.9752260265750036</v>
+        <v>0.9684243808583644</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1655610907774328</v>
+        <v>0.1848953571007481</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.035899</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>507526910392144.2</v>
+        <v>0.000585774281874676</v>
       </c>
       <c r="C133" t="n">
-        <v>6425564390686.062</v>
+        <v>8.273049034831256e-06</v>
       </c>
       <c r="D133" t="n">
-        <v>11000985583491.21</v>
+        <v>1.300795061399956e-05</v>
       </c>
       <c r="E133" t="n">
-        <v>17593298873579.85</v>
+        <v>2.078069353119985e-05</v>
       </c>
       <c r="F133" t="n">
-        <v>1.157386130027429</v>
+        <v>1.194047672282838</v>
       </c>
       <c r="G133" t="n">
-        <v>0.9488996706571702</v>
+        <v>0.9454471343900297</v>
       </c>
       <c r="H133" t="n">
-        <v>0.2314772260054859</v>
+        <v>0.2388095344565677</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.038705999999999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>533630566149277.1</v>
+        <v>0.0006151606518712827</v>
       </c>
       <c r="C134" t="n">
-        <v>6155878825613.75</v>
+        <v>7.815531762867293e-06</v>
       </c>
       <c r="D134" t="n">
-        <v>11570557292800.25</v>
+        <v>1.362753545979558e-05</v>
       </c>
       <c r="E134" t="n">
-        <v>18487780151929.96</v>
+        <v>2.174389718402621e-05</v>
       </c>
       <c r="F134" t="n">
-        <v>1.703425734952089</v>
+        <v>1.779857652609949</v>
       </c>
       <c r="G134" t="n">
-        <v>0.8884678928497557</v>
+        <v>0.8786894293589865</v>
       </c>
       <c r="H134" t="n">
-        <v>0.3406851469904179</v>
+        <v>0.3559715305219897</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041981</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>539653107093484.9</v>
+        <v>0.0006231663360301027</v>
       </c>
       <c r="C135" t="n">
-        <v>23515957872269.44</v>
+        <v>2.534876785492213e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>11753178579520.08</v>
+        <v>1.391827491587379e-05</v>
       </c>
       <c r="E135" t="n">
-        <v>19026597055354.61</v>
+        <v>2.246321898994124e-05</v>
       </c>
       <c r="F135" t="n">
-        <v>1.77742192692109</v>
+        <v>2.002061148678447</v>
       </c>
       <c r="G135" t="n">
-        <v>0.8790051641442851</v>
+        <v>0.8488597632446612</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3554843853842181</v>
+        <v>0.4004122297356894</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.044789</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>526778635909303.5</v>
+        <v>0.0006064136930527521</v>
       </c>
       <c r="C136" t="n">
-        <v>12949944139276.88</v>
+        <v>1.563224452632032e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>11420831616499.2</v>
+        <v>1.34071397972239e-05</v>
       </c>
       <c r="E136" t="n">
-        <v>18290422194477.32</v>
+        <v>2.144538614200103e-05</v>
       </c>
       <c r="F136" t="n">
-        <v>2.03031238892757</v>
+        <v>1.958854943550013</v>
       </c>
       <c r="G136" t="n">
-        <v>0.8449350438970371</v>
+        <v>0.8548084585274399</v>
       </c>
       <c r="H136" t="n">
-        <v>0.4060624777855139</v>
+        <v>0.3917709887100027</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.049971</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>504780837068407.2</v>
+        <v>0.0005809233637688084</v>
       </c>
       <c r="C137" t="n">
-        <v>29095964057365</v>
+        <v>3.459908564561659e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>10965324657551.73</v>
+        <v>1.287083949921624e-05</v>
       </c>
       <c r="E137" t="n">
-        <v>18011419804330.64</v>
+        <v>2.112763244213375e-05</v>
       </c>
       <c r="F137" t="n">
-        <v>1.942078763222765</v>
+        <v>2.349341920936066</v>
       </c>
       <c r="G137" t="n">
-        <v>0.8571001155650836</v>
+        <v>0.7989934289643205</v>
       </c>
       <c r="H137" t="n">
-        <v>0.3884157526445531</v>
+        <v>0.4698683841872133</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.054843</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>430865425879191.2</v>
+        <v>0.0004971436103394033</v>
       </c>
       <c r="C138" t="n">
-        <v>15347086104162.88</v>
+        <v>1.76420053838642e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>9263191527149.285</v>
+        <v>1.087395602319971e-05</v>
       </c>
       <c r="E138" t="n">
-        <v>14935317977123.36</v>
+        <v>1.749122938007461e-05</v>
       </c>
       <c r="F138" t="n">
-        <v>1.827451020054886</v>
+        <v>1.677405470882708</v>
       </c>
       <c r="G138" t="n">
-        <v>0.8724679701697111</v>
+        <v>0.8917338995594453</v>
       </c>
       <c r="H138" t="n">
-        <v>0.3654902040109772</v>
+        <v>0.3354810941765416</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.064876</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>270091577058591.2</v>
+        <v>0.0003132331991588573</v>
       </c>
       <c r="C139" t="n">
-        <v>7272918578896.062</v>
+        <v>8.012748650204767e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>5821458825911.978</v>
+        <v>6.937350472743052e-06</v>
       </c>
       <c r="E139" t="n">
-        <v>9380590298547.041</v>
+        <v>1.116415769375004e-05</v>
       </c>
       <c r="F139" t="n">
-        <v>1.081933265608852</v>
+        <v>0.9111627782724211</v>
       </c>
       <c r="G139" t="n">
-        <v>0.9556903304848006</v>
+        <v>0.9694082336053261</v>
       </c>
       <c r="H139" t="n">
-        <v>0.2163866531217703</v>
+        <v>0.1822325556544842</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.069912</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>229310957640911.6</v>
+        <v>0.0002658136341954502</v>
       </c>
       <c r="C140" t="n">
-        <v>7633735049973.312</v>
+        <v>1.078113093296991e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>5029653657908.979</v>
+        <v>6.050922461032496e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>8250312548839.013</v>
+        <v>9.909469558121436e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>4.575234010542672</v>
+        <v>3.6858814612148</v>
       </c>
       <c r="G140" t="n">
-        <v>0.4698809223403719</v>
+        <v>0.595466407602613</v>
       </c>
       <c r="H140" t="n">
-        <v>0.9150468021085343</v>
+        <v>0.7371762922429601</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.074481</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>182091331472060.5</v>
+        <v>0.0002131242434901576</v>
       </c>
       <c r="C141" t="n">
-        <v>7735167354664.094</v>
+        <v>7.883894449117182e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>3897505630061.055</v>
+        <v>4.705630350899677e-06</v>
       </c>
       <c r="E141" t="n">
-        <v>6301436926265.388</v>
+        <v>7.580960013054868e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>1.325992968038595</v>
+        <v>1.160791007995284</v>
       </c>
       <c r="G141" t="n">
-        <v>0.9322344311369886</v>
+        <v>0.9485831716807158</v>
       </c>
       <c r="H141" t="n">
-        <v>0.265198593607719</v>
+        <v>0.2321582015990567</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.084189</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>141269755311212</v>
+        <v>0.0001656976543765294</v>
       </c>
       <c r="C142" t="n">
-        <v>11491678940951.62</v>
+        <v>1.390968574491167e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>3071696228614.425</v>
+        <v>3.783512706670128e-06</v>
       </c>
       <c r="E142" t="n">
-        <v>5060009065904.997</v>
+        <v>6.220400309770993e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>1.635749728954679</v>
+        <v>1.279450492629929</v>
       </c>
       <c r="G142" t="n">
-        <v>0.8968926926139569</v>
+        <v>0.9370319350144056</v>
       </c>
       <c r="H142" t="n">
-        <v>0.3271499457909358</v>
+        <v>0.2558900985259858</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.089986</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>133242439971076.5</v>
+        <v>0.0001574393338711574</v>
       </c>
       <c r="C143" t="n">
-        <v>4665739612225.484</v>
+        <v>3.922542971695363e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>2976073422856.771</v>
+        <v>3.724197798652694e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>4857895031959.296</v>
+        <v>6.04681443695387e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>3.146104288429509</v>
+        <v>3.848078977184843</v>
       </c>
       <c r="G143" t="n">
-        <v>0.6774724628930204</v>
+        <v>0.5714897710430752</v>
       </c>
       <c r="H143" t="n">
-        <v>0.6292208576859019</v>
+        <v>0.7696157954369686</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093717</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>129903669153037</v>
+        <v>0.0001537718026645955</v>
       </c>
       <c r="C144" t="n">
-        <v>-1875058113145.859</v>
+        <v>-1.827877609227675e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>3288463567598.781</v>
+        <v>4.507219480546386e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>5155259406363.04</v>
+        <v>7.094266244241807e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>3.067570290562379</v>
+        <v>3.900700453902718</v>
       </c>
       <c r="G144" t="n">
-        <v>0.6895691326428095</v>
+        <v>0.5637995399394864</v>
       </c>
       <c r="H144" t="n">
-        <v>0.6135140581124758</v>
+        <v>0.7801400907805436</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>133402192994475.4</v>
+        <v>0.0001577669221110672</v>
       </c>
       <c r="C145" t="n">
-        <v>8151769854620.438</v>
+        <v>6.703665977217784e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>3227764092001.472</v>
+        <v>4.67814766481396e-06</v>
       </c>
       <c r="E145" t="n">
-        <v>5235151866799.146</v>
+        <v>7.478163684850015e-06</v>
       </c>
       <c r="F145" t="n">
-        <v>0.6634133919777956</v>
+        <v>0.3459489518955825</v>
       </c>
       <c r="G145" t="n">
-        <v>0.9849161346304909</v>
+        <v>0.9966885540576098</v>
       </c>
       <c r="H145" t="n">
-        <v>0.1326826783955591</v>
+        <v>0.0691897903791165</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.098893</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>127999059567452.2</v>
+        <v>0.0001508810456783407</v>
       </c>
       <c r="C146" t="n">
-        <v>6550759352574.469</v>
+        <v>1.065917505156021e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>3326405912760.396</v>
+        <v>4.926828218340331e-06</v>
       </c>
       <c r="E146" t="n">
-        <v>5418522383222.581</v>
+        <v>7.981713564827369e-06</v>
       </c>
       <c r="F146" t="n">
-        <v>4.752987195753686</v>
+        <v>3.30818241140446</v>
       </c>
       <c r="G146" t="n">
-        <v>0.4467634962657341</v>
+        <v>0.6525891940004871</v>
       </c>
       <c r="H146" t="n">
-        <v>0.9505974391507372</v>
+        <v>0.661636482280892</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.099991</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>126587858656826.3</v>
+        <v>0.000149582900152205</v>
       </c>
       <c r="C147" t="n">
-        <v>20359332990751.55</v>
+        <v>2.329670340662663e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>3358117542799.66</v>
+        <v>5.151620746549114e-06</v>
       </c>
       <c r="E147" t="n">
-        <v>5558317419448.8</v>
+        <v>8.391916394827202e-06</v>
       </c>
       <c r="F147" t="n">
-        <v>2.307355707103731</v>
+        <v>2.027075904914467</v>
       </c>
       <c r="G147" t="n">
-        <v>0.8051859131411043</v>
+        <v>0.8453860285328738</v>
       </c>
       <c r="H147" t="n">
-        <v>0.4614711414207461</v>
+        <v>0.4054151809828935</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.100430999999999</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>127271618758638.6</v>
+        <v>0.0001504004589750558</v>
       </c>
       <c r="C148" t="n">
-        <v>6119448495029.609</v>
+        <v>5.418865473498459e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>3400525099248.108</v>
+        <v>5.176620163667045e-06</v>
       </c>
       <c r="E148" t="n">
-        <v>5440762175293.448</v>
+        <v>7.982101591008127e-06</v>
       </c>
       <c r="F148" t="n">
-        <v>1.814508295017699</v>
+        <v>1.362821234464098</v>
       </c>
       <c r="G148" t="n">
-        <v>0.8741695425022242</v>
+        <v>0.9283366187832366</v>
       </c>
       <c r="H148" t="n">
-        <v>0.3629016590035398</v>
+        <v>0.2725642468928195</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100713</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>127730177780344.5</v>
+        <v>0.0001495756355110746</v>
       </c>
       <c r="C149" t="n">
-        <v>5069621203145.031</v>
+        <v>8.455726739307824e-06</v>
       </c>
       <c r="D149" t="n">
-        <v>3414255887783.109</v>
+        <v>5.383388913825932e-06</v>
       </c>
       <c r="E149" t="n">
-        <v>5542222029721.501</v>
+        <v>8.316696876117469e-06</v>
       </c>
       <c r="F149" t="n">
-        <v>3.968723802593469</v>
+        <v>1.406869511998776</v>
       </c>
       <c r="G149" t="n">
-        <v>0.5539277148736063</v>
+        <v>0.9235603496009315</v>
       </c>
       <c r="H149" t="n">
-        <v>0.7937447605186938</v>
+        <v>0.2813739023997552</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.102879</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>123981268531876.6</v>
+        <v>0.0001456798598272886</v>
       </c>
       <c r="C150" t="n">
-        <v>1126197486463.156</v>
+        <v>4.911126851881451e-07</v>
       </c>
       <c r="D150" t="n">
-        <v>3342988648079.234</v>
+        <v>5.68869790750859e-06</v>
       </c>
       <c r="E150" t="n">
-        <v>5234306383166.084</v>
+        <v>8.758052061035272e-06</v>
       </c>
       <c r="F150" t="n">
-        <v>1.889773740871047</v>
+        <v>0.8128340976804489</v>
       </c>
       <c r="G150" t="n">
-        <v>0.864177063790099</v>
+        <v>0.976207531919193</v>
       </c>
       <c r="H150" t="n">
-        <v>0.3779547481742094</v>
+        <v>0.1625668195360898</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.104856</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>122250790120516.4</v>
+        <v>0.0001430631904105626</v>
       </c>
       <c r="C151" t="n">
-        <v>8726004549577.688</v>
+        <v>1.59773428573296e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>3241060828609.941</v>
+        <v>5.195864441818638e-06</v>
       </c>
       <c r="E151" t="n">
-        <v>5272743152527.771</v>
+        <v>8.41273622635612e-06</v>
       </c>
       <c r="F151" t="n">
-        <v>8.043554188776699</v>
+        <v>4.105642125902481</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1538515497739703</v>
+        <v>0.5343086066455657</v>
       </c>
       <c r="H151" t="n">
-        <v>1.60871083775534</v>
+        <v>0.8211284251804962</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.106897</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>122760037856188.6</v>
+        <v>0.0001403559283634538</v>
       </c>
       <c r="C152" t="n">
-        <v>-2932116960627.125</v>
+        <v>7.417724286692159e-07</v>
       </c>
       <c r="D152" t="n">
-        <v>3351653387055.791</v>
+        <v>5.469936645555686e-06</v>
       </c>
       <c r="E152" t="n">
-        <v>5275115428487.854</v>
+        <v>8.644753189979253e-06</v>
       </c>
       <c r="F152" t="n">
-        <v>2.442755445247596</v>
+        <v>0.7907431662279945</v>
       </c>
       <c r="G152" t="n">
-        <v>0.7850904484281555</v>
+        <v>0.9776200124846168</v>
       </c>
       <c r="H152" t="n">
-        <v>0.4885510890495192</v>
+        <v>0.1581486332455989</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.108781</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>110825398310744.8</v>
+        <v>0.0001319600140714684</v>
       </c>
       <c r="C153" t="n">
-        <v>16476982128325.47</v>
+        <v>1.78120498670985e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>2974660219703.016</v>
+        <v>5.046041789079733e-06</v>
       </c>
       <c r="E153" t="n">
-        <v>4940537675307.102</v>
+        <v>8.180098333847304e-06</v>
       </c>
       <c r="F153" t="n">
-        <v>4.180913266083746</v>
+        <v>2.112708434087274</v>
       </c>
       <c r="G153" t="n">
-        <v>0.5236739115843614</v>
+        <v>0.8333401624171066</v>
       </c>
       <c r="H153" t="n">
-        <v>0.8361826532167491</v>
+        <v>0.4225416868174547</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110037</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>112755510617532.6</v>
+        <v>0.0001339895621895832</v>
       </c>
       <c r="C154" t="n">
-        <v>4518161083317.25</v>
+        <v>6.504123864117819e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>3124568564838.836</v>
+        <v>4.970390570851216e-06</v>
       </c>
       <c r="E154" t="n">
-        <v>5062399777771.273</v>
+        <v>8.020271643321265e-06</v>
       </c>
       <c r="F154" t="n">
-        <v>9.687880930389532</v>
+        <v>4.53166479973211</v>
       </c>
       <c r="G154" t="n">
-        <v>0.08457776029331075</v>
+        <v>0.475658008129227</v>
       </c>
       <c r="H154" t="n">
-        <v>1.937576186077906</v>
+        <v>0.906332959946422</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>112541471481515.5</v>
+        <v>0.0001348721945530597</v>
       </c>
       <c r="C155" t="n">
-        <v>-586451126624.6875</v>
+        <v>-1.75915744350018e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>3116991143797.164</v>
+        <v>5.454705843443516e-06</v>
       </c>
       <c r="E155" t="n">
-        <v>4861344026412.212</v>
+        <v>8.189879288767394e-06</v>
       </c>
       <c r="F155" t="n">
-        <v>4.409668876236149</v>
+        <v>1.944256846236072</v>
       </c>
       <c r="G155" t="n">
-        <v>0.4920596261272434</v>
+        <v>0.8568031711624726</v>
       </c>
       <c r="H155" t="n">
-        <v>0.8819337752472298</v>
+        <v>0.3888513692472143</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.113839</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>112396980980567.8</v>
+        <v>0.0001337333659624224</v>
       </c>
       <c r="C156" t="n">
-        <v>-2578280779470.703</v>
+        <v>-2.837311206008717e-06</v>
       </c>
       <c r="D156" t="n">
-        <v>3043348450749.763</v>
+        <v>4.802289246369802e-06</v>
       </c>
       <c r="E156" t="n">
-        <v>4755076584160.508</v>
+        <v>7.761432762755375e-06</v>
       </c>
       <c r="F156" t="n">
-        <v>2.786623383795945</v>
+        <v>1.714730808514544</v>
       </c>
       <c r="G156" t="n">
-        <v>0.7328412112407228</v>
+        <v>0.8870387269543822</v>
       </c>
       <c r="H156" t="n">
-        <v>0.5573246767591891</v>
+        <v>0.3429461617029088</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.118804</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>99787710721899.7</v>
+        <v>0.0001184943368878641</v>
       </c>
       <c r="C157" t="n">
-        <v>8118429645739.703</v>
+        <v>7.286596196087559e-06</v>
       </c>
       <c r="D157" t="n">
-        <v>2584178868709.248</v>
+        <v>4.008959006154741e-06</v>
       </c>
       <c r="E157" t="n">
-        <v>4228809781724.047</v>
+        <v>6.287729231990173e-06</v>
       </c>
       <c r="F157" t="n">
-        <v>6.022375774230257</v>
+        <v>2.742700105988597</v>
       </c>
       <c r="G157" t="n">
-        <v>0.3040477442408995</v>
+        <v>0.7395802988125573</v>
       </c>
       <c r="H157" t="n">
-        <v>1.204475154846051</v>
+        <v>0.5485400211977194</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123773</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>86266894156659.31</v>
+        <v>0.0001041830847966033</v>
       </c>
       <c r="C158" t="n">
-        <v>3796739860744.484</v>
+        <v>3.849819334629395e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>2403145988503.659</v>
+        <v>3.916800501960249e-06</v>
       </c>
       <c r="E158" t="n">
-        <v>3798705813794.717</v>
+        <v>6.224802962523837e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>6.797115848724236</v>
+        <v>3.237100150129709</v>
       </c>
       <c r="G158" t="n">
-        <v>0.2361715994342879</v>
+        <v>0.6634845137657638</v>
       </c>
       <c r="H158" t="n">
-        <v>1.359423169744847</v>
+        <v>0.6474200300259418</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.128523</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>81489863918100.52</v>
+        <v>9.764844761126719e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>1633315316692.867</v>
+        <v>3.956416288069094e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>2115193389591.522</v>
+        <v>3.154299780566813e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>3333840414721.433</v>
+        <v>5.002349195262872e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>1.182147774708274</v>
+        <v>1.202923584419763</v>
       </c>
       <c r="G159" t="n">
-        <v>0.9465785362915834</v>
+        <v>0.9445965791579612</v>
       </c>
       <c r="H159" t="n">
-        <v>0.2364295549416549</v>
+        <v>0.2405847168839526</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.129939</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>80139309052464.39</v>
+        <v>9.56001865448171e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>6619199867643.289</v>
+        <v>8.643668631024346e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>2229782072915.645</v>
+        <v>3.422834995433132e-06</v>
       </c>
       <c r="E160" t="n">
-        <v>3620706903091.799</v>
+        <v>5.470822408434136e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>1.508595324431302</v>
+        <v>1.692808306803676</v>
       </c>
       <c r="G160" t="n">
-        <v>0.9120757899885448</v>
+        <v>0.8898045418476919</v>
       </c>
       <c r="H160" t="n">
-        <v>0.3017190648862604</v>
+        <v>0.3385616613607353</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.133811</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>98371726159897.39</v>
+        <v>0.0001186479381962602</v>
       </c>
       <c r="C161" t="n">
-        <v>665965724704.5</v>
+        <v>-7.934017731912315e-07</v>
       </c>
       <c r="D161" t="n">
-        <v>2454305854711.416</v>
+        <v>3.374038013844516e-06</v>
       </c>
       <c r="E161" t="n">
-        <v>3858948083629.96</v>
+        <v>5.26164629515194e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>2.104743048797113</v>
+        <v>2.415033687920207</v>
       </c>
       <c r="G161" t="n">
-        <v>0.8344702742843328</v>
+        <v>0.7892332245681134</v>
       </c>
       <c r="H161" t="n">
-        <v>0.4209486097594225</v>
+        <v>0.4830067375840413</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.138881</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>171472793477780.2</v>
+        <v>0.0002027427124107526</v>
       </c>
       <c r="C162" t="n">
-        <v>7375524767757.469</v>
+        <v>8.127243812546404e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>4016546736409.28</v>
+        <v>5.185420304773031e-06</v>
       </c>
       <c r="E162" t="n">
-        <v>6407023523277.695</v>
+        <v>8.19319269021984e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>4.483070590244824</v>
+        <v>3.757837009473985</v>
       </c>
       <c r="G162" t="n">
-        <v>0.4821517256855514</v>
+        <v>0.5847809706975295</v>
       </c>
       <c r="H162" t="n">
-        <v>0.8966141180489648</v>
+        <v>0.7515674018947969</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.141653</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>210751720791306.7</v>
+        <v>0.0002467820782600951</v>
       </c>
       <c r="C163" t="n">
-        <v>5368303625547.469</v>
+        <v>7.237442121483818e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>4782799913211.852</v>
+        <v>5.952894761183258e-06</v>
       </c>
       <c r="E163" t="n">
-        <v>7687020111091.591</v>
+        <v>9.532434370954176e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>0.7526289828892782</v>
+        <v>0.686997178178924</v>
       </c>
       <c r="G163" t="n">
-        <v>0.9799559192620524</v>
+        <v>0.9836746714613132</v>
       </c>
       <c r="H163" t="n">
-        <v>0.1505257965778556</v>
+        <v>0.1373994356357848</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144741000000001</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>224667584092456.3</v>
+        <v>0.0002636934046146828</v>
       </c>
       <c r="C164" t="n">
-        <v>10120654392319.81</v>
+        <v>1.380532265264875e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>5049492559969.068</v>
+        <v>6.214958381544485e-06</v>
       </c>
       <c r="E164" t="n">
-        <v>8190625219152.196</v>
+        <v>1.009948527873931e-05</v>
       </c>
       <c r="F164" t="n">
-        <v>0.5974872598104888</v>
+        <v>0.5728286319570849</v>
       </c>
       <c r="G164" t="n">
-        <v>0.9881180005931095</v>
+        <v>0.9892134708510508</v>
       </c>
       <c r="H164" t="n">
-        <v>0.1194974519620978</v>
+        <v>0.114565726391417</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.147988</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>229511532868687.1</v>
+        <v>0.0002679824019335363</v>
       </c>
       <c r="C165" t="n">
-        <v>3837953786509.312</v>
+        <v>6.845946027401984e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>5206741162244.677</v>
+        <v>6.403373980134784e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>8366466149176.023</v>
+        <v>1.026032342615185e-05</v>
       </c>
       <c r="F165" t="n">
-        <v>0.7620154300132049</v>
+        <v>0.6675374383966556</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9793925930180856</v>
+        <v>0.9847026807109536</v>
       </c>
       <c r="H165" t="n">
-        <v>0.152403086002641</v>
+        <v>0.1335074876793311</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.150005999999999</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>234832383636764.5</v>
+        <v>0.0002765955041391463</v>
       </c>
       <c r="C166" t="n">
-        <v>16661234866826.28</v>
+        <v>1.892908504108794e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>5404430161918.751</v>
+        <v>6.752437642333622e-06</v>
       </c>
       <c r="E166" t="n">
-        <v>8909094216554.484</v>
+        <v>1.105811698154125e-05</v>
       </c>
       <c r="F166" t="n">
-        <v>3.819499486076352</v>
+        <v>3.00417518098103</v>
       </c>
       <c r="G166" t="n">
-        <v>0.5756853081318311</v>
+        <v>0.6993421054094762</v>
       </c>
       <c r="H166" t="n">
-        <v>0.7638998972152703</v>
+        <v>0.6008350361962059</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150983</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>235610925701845.9</v>
+        <v>0.0002763613174235056</v>
       </c>
       <c r="C167" t="n">
-        <v>8023589334753.375</v>
+        <v>7.564071402406527e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>5214051587177.271</v>
+        <v>6.397619076929887e-06</v>
       </c>
       <c r="E167" t="n">
-        <v>8423379620139.331</v>
+        <v>1.028034416469206e-05</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7180720614882609</v>
+        <v>0.738930677690586</v>
       </c>
       <c r="G167" t="n">
-        <v>0.9819621340302629</v>
+        <v>0.9807639468062009</v>
       </c>
       <c r="H167" t="n">
-        <v>0.1436144122976522</v>
+        <v>0.1477861355381172</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>227898881345898.1</v>
+        <v>0.0002662953256912336</v>
       </c>
       <c r="C168" t="n">
-        <v>8775035946070.25</v>
+        <v>1.087096141943894e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>5008478878753.779</v>
+        <v>6.09909691209244e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>8127504372826.749</v>
+        <v>9.850480761401151e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>1.174657837655836</v>
+        <v>1.108615766089181</v>
       </c>
       <c r="G168" t="n">
-        <v>0.9472853748341354</v>
+        <v>0.953338220617914</v>
       </c>
       <c r="H168" t="n">
-        <v>0.2349315675311671</v>
+        <v>0.2217231532178362</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.159375</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>209319403881854.1</v>
+        <v>0.000245905748477857</v>
       </c>
       <c r="C169" t="n">
-        <v>13900583690750.81</v>
+        <v>1.547306915567677e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>4538680515119.617</v>
+        <v>5.522547237965975e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>7428718834280.707</v>
+        <v>9.012953256648638e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>1.707336438673151</v>
+        <v>1.363185205593851</v>
       </c>
       <c r="G169" t="n">
-        <v>0.8879741998282391</v>
+        <v>0.9282976579101234</v>
       </c>
       <c r="H169" t="n">
-        <v>0.3414672877346303</v>
+        <v>0.2726370411187703</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.170048</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>132181291553520.4</v>
+        <v>0.0001557793495424304</v>
       </c>
       <c r="C170" t="n">
-        <v>6944629710640.672</v>
+        <v>9.928085870656374e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>3046800709245.828</v>
+        <v>3.838938839606731e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>4997814040371.439</v>
+        <v>6.299732598533373e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>7.298734531569182</v>
+        <v>7.385498332990445</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1993540739647625</v>
+        <v>0.1935122686697167</v>
       </c>
       <c r="H170" t="n">
-        <v>1.459746906313836</v>
+        <v>1.477099666598089</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.189844</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>86411377636725.75</v>
+        <v>0.0001025240095392113</v>
       </c>
       <c r="C171" t="n">
-        <v>4937408235827.922</v>
+        <v>6.550229149102847e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>1943396468761.93</v>
+        <v>2.473748660449217e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>3221816658985.715</v>
+        <v>4.08793709584803e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>7.830715667402795</v>
+        <v>7.84886291620471</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1658153045761452</v>
+        <v>0.1647641465802649</v>
       </c>
       <c r="H171" t="n">
-        <v>1.566143133480559</v>
+        <v>1.569772583240942</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210028</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>78606607655648.69</v>
+        <v>9.445869699676481e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>5846791379017.672</v>
+        <v>5.763912535741353e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>1812745848395.794</v>
+        <v>2.394297379963139e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>2988108485208.44</v>
+        <v>3.910796877304914e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>5.131343806090578</v>
+        <v>3.850529919207973</v>
       </c>
       <c r="G172" t="n">
-        <v>0.4000621697567778</v>
+        <v>0.5711305767801929</v>
       </c>
       <c r="H172" t="n">
-        <v>1.026268761218116</v>
+        <v>0.7701059838415947</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.230028</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>91015292803685.16</v>
+        <v>0.0001075579244029617</v>
       </c>
       <c r="C173" t="n">
-        <v>8538170642647.367</v>
+        <v>1.375601558019396e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>2235558325000.546</v>
+        <v>3.006694391734879e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>3684718936672.303</v>
+        <v>4.962544288500951e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>1.800396457457194</v>
+        <v>1.929104500942737</v>
       </c>
       <c r="G173" t="n">
-        <v>0.8760166327500859</v>
+        <v>0.8588652700329371</v>
       </c>
       <c r="H173" t="n">
-        <v>0.3600792914914388</v>
+        <v>0.3858209001885474</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.239501000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>126883963232677.6</v>
+        <v>0.0001505236052504295</v>
       </c>
       <c r="C174" t="n">
-        <v>6559134522258.453</v>
+        <v>7.733143121570925e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>2855845898929.722</v>
+        <v>3.705620610451001e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>4605953977783.096</v>
+        <v>5.921500707460833e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>1.880195733564814</v>
+        <v>1.963021181965736</v>
       </c>
       <c r="G174" t="n">
-        <v>0.8654614804842842</v>
+        <v>0.8542377473814144</v>
       </c>
       <c r="H174" t="n">
-        <v>0.3760391467129628</v>
+        <v>0.3926042363931472</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.243064</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>142678213974950.7</v>
+        <v>0.0001690719000153769</v>
       </c>
       <c r="C175" t="n">
-        <v>4744541231641.328</v>
+        <v>8.246518884256365e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>3464439529869.809</v>
+        <v>4.675189718582468e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>5628948807128.614</v>
+        <v>7.536882958352024e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>4.275951027357663</v>
+        <v>4.29423919378107</v>
       </c>
       <c r="G175" t="n">
-        <v>0.5104075625573755</v>
+        <v>0.5078759179680182</v>
       </c>
       <c r="H175" t="n">
-        <v>0.8551902054715326</v>
+        <v>0.858847838756214</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.250129</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>216071754510913.8</v>
+        <v>0.0002535578409037515</v>
       </c>
       <c r="C176" t="n">
-        <v>7641990499258.469</v>
+        <v>9.267878928547325e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>5269563634470.609</v>
+        <v>6.963648752291965e-06</v>
       </c>
       <c r="E176" t="n">
-        <v>8502348833326.958</v>
+        <v>1.105618482178954e-05</v>
       </c>
       <c r="F176" t="n">
-        <v>1.664831388436111</v>
+        <v>2.074281440286913</v>
       </c>
       <c r="G176" t="n">
-        <v>0.8933002759089483</v>
+        <v>0.8387742739958188</v>
       </c>
       <c r="H176" t="n">
-        <v>0.3329662776872222</v>
+        <v>0.4148562880573826</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>289526434943788.4</v>
+        <v>0.0003360049500520737</v>
       </c>
       <c r="C177" t="n">
-        <v>33280754686716.22</v>
+        <v>4.391347515087001e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>6778154387226.392</v>
+        <v>8.718359009945331e-06</v>
       </c>
       <c r="E177" t="n">
-        <v>11236298037201.94</v>
+        <v>1.434465825075397e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>6.8313522254052</v>
+        <v>7.124251265683596</v>
       </c>
       <c r="G177" t="n">
-        <v>0.233488041156376</v>
+        <v>0.2115623869414007</v>
       </c>
       <c r="H177" t="n">
-        <v>1.36627044508104</v>
+        <v>1.424850253136719</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>299575266274749.9</v>
+        <v>0.0003524651168596023</v>
       </c>
       <c r="C178" t="n">
-        <v>1882980067097.562</v>
+        <v>9.280576897832639e-08</v>
       </c>
       <c r="D178" t="n">
-        <v>7435966451045.857</v>
+        <v>9.949893694852138e-06</v>
       </c>
       <c r="E178" t="n">
-        <v>11770833375365.96</v>
+        <v>1.552859091836625e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>2.107439472872736</v>
+        <v>1.437994232775504</v>
       </c>
       <c r="G178" t="n">
-        <v>0.8340879245072764</v>
+        <v>0.9201124332133112</v>
       </c>
       <c r="H178" t="n">
-        <v>0.4214878945745473</v>
+        <v>0.2875988465551007</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.269983</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>289331324287486.8</v>
+        <v>0.0003382067554223426</v>
       </c>
       <c r="C179" t="n">
-        <v>15659351109921.12</v>
+        <v>1.865040154260368e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>7212042628787.427</v>
+        <v>9.887448165447299e-06</v>
       </c>
       <c r="E179" t="n">
-        <v>11658284094951.52</v>
+        <v>1.570990242573011e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>3.040552516826613</v>
+        <v>2.979831221498046</v>
       </c>
       <c r="G179" t="n">
-        <v>0.6937337191477546</v>
+        <v>0.7030954295445206</v>
       </c>
       <c r="H179" t="n">
-        <v>0.6081105033653227</v>
+        <v>0.5959662442996091</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>262190410536115.6</v>
+        <v>0.0003024291314700919</v>
       </c>
       <c r="C180" t="n">
-        <v>5601709880740.344</v>
+        <v>2.408652125775767e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>6774084597052.892</v>
+        <v>6.230636441168953e-06</v>
       </c>
       <c r="E180" t="n">
-        <v>10879137574963.47</v>
+        <v>9.9302000806732e-06</v>
       </c>
       <c r="F180" t="n">
-        <v>1.682311644594481</v>
+        <v>3.136116076459321</v>
       </c>
       <c r="G180" t="n">
-        <v>0.8911206122315329</v>
+        <v>0.9945043494872382</v>
       </c>
       <c r="H180" t="n">
-        <v>0.3364623289188963</v>
+        <v>0.2613430063716101</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.275024</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>258335438355310.9</v>
+        <v>0.0002685436684057416</v>
       </c>
       <c r="C181" t="n">
-        <v>29223246127442.25</v>
+        <v>3.717051851993922e-06</v>
       </c>
       <c r="D181" t="n">
-        <v>6025907849721.972</v>
+        <v>1.010047491752143e-05</v>
       </c>
       <c r="E181" t="n">
-        <v>9959781849359.471</v>
+        <v>1.523733182681382e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>1.815950516808101</v>
+        <v>3.103190249658147</v>
       </c>
       <c r="G181" t="n">
-        <v>0.8739802880647523</v>
+        <v>0.6840805545443022</v>
       </c>
       <c r="H181" t="n">
-        <v>0.3631901033616202</v>
+        <v>0.6206380499316294</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279812000000001</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>232530631101276.2</v>
+        <v>0.000231026624687053</v>
       </c>
       <c r="C182" t="n">
-        <v>-992868043692.125</v>
+        <v>1.723545022007256e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>6505640994584.692</v>
+        <v>1.053811761806041e-05</v>
       </c>
       <c r="E182" t="n">
-        <v>10217102638127.19</v>
+        <v>1.616443823462373e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>4.367886387708339</v>
+        <v>3.363196617198063</v>
       </c>
       <c r="G182" t="n">
-        <v>0.4977519008974958</v>
+        <v>0.6441810707516709</v>
       </c>
       <c r="H182" t="n">
-        <v>0.8735772775416677</v>
+        <v>0.6726393234396126</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.284953</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>198961793756322.5</v>
+        <v>0.0002133957131536648</v>
       </c>
       <c r="C183" t="n">
-        <v>6826814324479.344</v>
+        <v>4.483480394922902e-06</v>
       </c>
       <c r="D183" t="n">
-        <v>6043468718237.031</v>
+        <v>9.227076243576656e-06</v>
       </c>
       <c r="E183" t="n">
-        <v>9678931468041.066</v>
+        <v>1.388912144198837e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>6.644076456203709</v>
+        <v>1.961692315492215</v>
       </c>
       <c r="G183" t="n">
-        <v>0.2484845809033031</v>
+        <v>0.8544198502288224</v>
       </c>
       <c r="H183" t="n">
-        <v>1.328815291240742</v>
+        <v>0.3923384630984429</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.290161</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>181797779551108.5</v>
+        <v>0.0002133956522256194</v>
       </c>
       <c r="C184" t="n">
-        <v>2779475618957.656</v>
+        <v>2.794938620193416e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>5061272416772.34</v>
+        <v>1.011418222578262e-05</v>
       </c>
       <c r="E184" t="n">
-        <v>7982341371477.058</v>
+        <v>1.60221602393602e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>6.645153710194924</v>
+        <v>1.018864169309378</v>
       </c>
       <c r="G184" t="n">
-        <v>0.2483960791585027</v>
+        <v>0.9610299418479991</v>
       </c>
       <c r="H184" t="n">
-        <v>1.329030742038985</v>
+        <v>0.2037728338618757</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.292942</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>179044269008831.7</v>
+        <v>0.0002069350130999984</v>
       </c>
       <c r="C185" t="n">
-        <v>25101972164137.59</v>
+        <v>1.193552762441904e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>4993355137648.13</v>
+        <v>7.920488786368958e-06</v>
       </c>
       <c r="E185" t="n">
-        <v>8157481700191.916</v>
+        <v>1.271916289153677e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>3.578769386622628</v>
+        <v>10.76539576818789</v>
       </c>
       <c r="G185" t="n">
-        <v>0.6115037681025465</v>
+        <v>0.05623510048361036</v>
       </c>
       <c r="H185" t="n">
-        <v>0.7157538773245256</v>
+        <v>2.153079153637578</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.297674</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>177717165883053.5</v>
+        <v>0.0002020071209429322</v>
       </c>
       <c r="C186" t="n">
-        <v>14454827935435.27</v>
+        <v>1.243988539806801e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>4502947340934.064</v>
+        <v>8.155183747431606e-06</v>
       </c>
       <c r="E186" t="n">
-        <v>7358494138887.817</v>
+        <v>1.234538992712998e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>6.794134838422977</v>
+        <v>2.535579301311639</v>
       </c>
       <c r="G186" t="n">
-        <v>0.2364064789497468</v>
+        <v>0.7711274839503066</v>
       </c>
       <c r="H186" t="n">
-        <v>1.358826967684595</v>
+        <v>0.5071158602623278</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.299721</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>173681597381905.2</v>
+        <v>0.0001999129325760854</v>
       </c>
       <c r="C187" t="n">
-        <v>11699075911008.89</v>
+        <v>1.566515427042374e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>4597841001248.874</v>
+        <v>8.406520131057103e-06</v>
       </c>
       <c r="E187" t="n">
-        <v>7313177562833.599</v>
+        <v>1.316635289116092e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>4.28165457170631</v>
+        <v>9.513572800939594</v>
       </c>
       <c r="G187" t="n">
-        <v>0.5096172720175355</v>
+        <v>0.09025121112399959</v>
       </c>
       <c r="H187" t="n">
-        <v>0.8563309143412621</v>
+        <v>1.902714560187919</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.302376000000001</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>167094335237337.8</v>
+        <v>0.00021869353796511</v>
       </c>
       <c r="C188" t="n">
-        <v>6245873199851.25</v>
+        <v>1.052925877066595e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>4555074444844.087</v>
+        <v>6.995204223740046e-06</v>
       </c>
       <c r="E188" t="n">
-        <v>7488046848736.239</v>
+        <v>1.115849260909204e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>23.1938346273293</v>
+        <v>4.737659342959486</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0003099446313795095</v>
+        <v>0.4487279185066789</v>
       </c>
       <c r="H188" t="n">
-        <v>4.638766925465861</v>
+        <v>0.9475318685918971</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.308233</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>185276790166980.1</v>
+        <v>0.0002529739937949252</v>
       </c>
       <c r="C189" t="n">
-        <v>7376703158327.312</v>
+        <v>1.883015229130113e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>4434387018435.131</v>
+        <v>7.55387755467529e-06</v>
       </c>
       <c r="E189" t="n">
-        <v>7153491909331.4</v>
+        <v>1.225014940933877e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>9.148230571775681</v>
+        <v>3.158617216461225</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1032958129181953</v>
+        <v>0.6755468243962167</v>
       </c>
       <c r="H189" t="n">
-        <v>1.829646114355136</v>
+        <v>0.6317234432922449</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312876</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>214721790689886.5</v>
+        <v>0.0002845133904364849</v>
       </c>
       <c r="C190" t="n">
-        <v>15574553726707.72</v>
+        <v>8.062826963538803e-06</v>
       </c>
       <c r="D190" t="n">
-        <v>5145223984253.592</v>
+        <v>7.946189360603857e-06</v>
       </c>
       <c r="E190" t="n">
-        <v>8421508254920.591</v>
+        <v>1.268753550495193e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>4.143185209272181</v>
+        <v>6.985523402397074</v>
       </c>
       <c r="G190" t="n">
-        <v>0.5289905219282943</v>
+        <v>0.2217191793592422</v>
       </c>
       <c r="H190" t="n">
-        <v>0.8286370418544362</v>
+        <v>1.397104680479415</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.317521</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>243688371069478</v>
+        <v>0.0003231624893504197</v>
       </c>
       <c r="C191" t="n">
-        <v>3342648635731.656</v>
+        <v>2.013108581880161e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>5759907080507.825</v>
+        <v>8.297406728381386e-06</v>
       </c>
       <c r="E191" t="n">
-        <v>9279104266919.26</v>
+        <v>1.363913799841042e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>10.0188575217829</v>
+        <v>6.047135845981291</v>
       </c>
       <c r="G191" t="n">
-        <v>0.07470268654101525</v>
+        <v>0.3016593834508045</v>
       </c>
       <c r="H191" t="n">
-        <v>2.00377150435658</v>
+        <v>1.209427169196258</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.322808999999999</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>276151009174053.2</v>
+        <v>0.0003731057327907027</v>
       </c>
       <c r="C192" t="n">
-        <v>14684982120978.75</v>
+        <v>3.172008343942041e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>6328846017813.722</v>
+        <v>9.118384599014189e-06</v>
       </c>
       <c r="E192" t="n">
-        <v>10394291819697.12</v>
+        <v>1.513748862443159e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>7.096323920608969</v>
+        <v>5.030225515376155</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2135745846044178</v>
+        <v>0.4122025796199791</v>
       </c>
       <c r="H192" t="n">
-        <v>1.419264784121794</v>
+        <v>1.006045103075231</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.327683</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>320965594627656</v>
+        <v>0.0004113219604340855</v>
       </c>
       <c r="C193" t="n">
-        <v>27308137479930.62</v>
+        <v>3.449446110260476e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>7254663959622.54</v>
+        <v>6.907176990518094e-06</v>
       </c>
       <c r="E193" t="n">
-        <v>12063349011325.67</v>
+        <v>1.138462428575506e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>4.551349755933004</v>
+        <v>8.252949549674589</v>
       </c>
       <c r="G193" t="n">
-        <v>0.4730425534284902</v>
+        <v>0.7650639714393761</v>
       </c>
       <c r="H193" t="n">
-        <v>0.9102699511866008</v>
+        <v>0.6877457958062158</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>361487307332753.8</v>
+        <v>0.0004043346783961974</v>
       </c>
       <c r="C194" t="n">
-        <v>30365546035415.75</v>
+        <v>2.329051797480853e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>8165448992391.9</v>
+        <v>9.193309396629591e-06</v>
       </c>
       <c r="E194" t="n">
-        <v>13415591952017.03</v>
+        <v>1.518337192057821e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>1.083396630312168</v>
+        <v>4.511298266942193</v>
       </c>
       <c r="G194" t="n">
-        <v>0.9555627498450031</v>
+        <v>0.4783731934421419</v>
       </c>
       <c r="H194" t="n">
-        <v>0.2166793260624336</v>
+        <v>0.9022596533884386</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.332912</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>347187584632371.2</v>
+        <v>0.0003639395780424492</v>
       </c>
       <c r="C195" t="n">
-        <v>29696897655905.97</v>
+        <v>2.816847768781809e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>7681297815364.916</v>
+        <v>8.288993915362557e-06</v>
       </c>
       <c r="E195" t="n">
-        <v>12836956775033.13</v>
+        <v>1.358065594002045e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>5.454822467634203</v>
+        <v>0.5638625029965161</v>
       </c>
       <c r="G195" t="n">
-        <v>0.3629251963443846</v>
+        <v>0.9895979720852874</v>
       </c>
       <c r="H195" t="n">
-        <v>1.090964493526841</v>
+        <v>0.1127725005993032</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.337469</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>349877351295285.5</v>
+        <v>0.0003598759800596315</v>
       </c>
       <c r="C196" t="n">
-        <v>18612072003711.12</v>
+        <v>2.848944164850935e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>7649590739344.468</v>
+        <v>8.067133341179978e-06</v>
       </c>
       <c r="E196" t="n">
-        <v>12651742858372.35</v>
+        <v>1.340418759158398e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>4.562821274254333</v>
+        <v>3.455834008255548</v>
       </c>
       <c r="G196" t="n">
-        <v>0.4715224195683598</v>
+        <v>0.6300807895929705</v>
       </c>
       <c r="H196" t="n">
-        <v>0.9125642548508666</v>
+        <v>0.6911668016511097</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.342735</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>313193160914548.9</v>
+        <v>0.0003181662713824261</v>
       </c>
       <c r="C197" t="n">
-        <v>23500856289245.5</v>
+        <v>2.196323227523659e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>6847001959139.839</v>
+        <v>7.148536591370204e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>11231423693245.09</v>
+        <v>1.164656297711445e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6594122879520943</v>
+        <v>1.925344155502799</v>
       </c>
       <c r="G197" t="n">
-        <v>0.9851217490297032</v>
+        <v>0.8593756850327645</v>
       </c>
       <c r="H197" t="n">
-        <v>0.1318824575904189</v>
+        <v>0.3850688311005599</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.342928</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>309632936013103</v>
+        <v>0.0003073090437380566</v>
       </c>
       <c r="C198" t="n">
-        <v>24872014457813.34</v>
+        <v>2.355553536889586e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>6694216751150.377</v>
+        <v>6.821054120072523e-06</v>
       </c>
       <c r="E198" t="n">
-        <v>11143804469398.79</v>
+        <v>1.127735425836719e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>3.437702152986585</v>
+        <v>2.677953149074906</v>
       </c>
       <c r="G198" t="n">
-        <v>0.632834335005874</v>
+        <v>0.7494882851066017</v>
       </c>
       <c r="H198" t="n">
-        <v>0.687540430597317</v>
+        <v>0.5355906298149813</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.346943</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>273132115207794.2</v>
+        <v>0.0002988000375451887</v>
       </c>
       <c r="C199" t="n">
-        <v>19811834564259.72</v>
+        <v>1.864653427294702e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>5921133368590.018</v>
+        <v>6.613328316330182e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>9678335671450.322</v>
+        <v>1.080769978895961e-05</v>
       </c>
       <c r="F199" t="n">
-        <v>2.333610725338821</v>
+        <v>1.120091377296499</v>
       </c>
       <c r="G199" t="n">
-        <v>0.8013179792099512</v>
+        <v>0.9523099221826683</v>
       </c>
       <c r="H199" t="n">
-        <v>0.4667221450677642</v>
+        <v>0.2240182754592998</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.348261</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>263404393393684.4</v>
+        <v>0.0003787513755336046</v>
       </c>
       <c r="C200" t="n">
-        <v>19621373827516.47</v>
+        <v>2.193605567725774e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>5654383544967.763</v>
+        <v>8.825679002940677e-06</v>
       </c>
       <c r="E200" t="n">
-        <v>9346439624261.279</v>
+        <v>1.437185757130459e-05</v>
       </c>
       <c r="F200" t="n">
-        <v>2.869763635017425</v>
+        <v>1.169275894786789</v>
       </c>
       <c r="G200" t="n">
-        <v>0.7200560542327885</v>
+        <v>0.9477907469426714</v>
       </c>
       <c r="H200" t="n">
-        <v>0.573952727003485</v>
+        <v>0.2338551789573578</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.348582</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>255868196953370.1</v>
+        <v>0.0003343670536816429</v>
       </c>
       <c r="C201" t="n">
-        <v>15296448065775.56</v>
+        <v>2.180640672899055e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>5490587866281</v>
+        <v>7.270728904446079e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>8970790916669.674</v>
+        <v>1.205376204664052e-05</v>
       </c>
       <c r="F201" t="n">
-        <v>1.383988906068722</v>
+        <v>3.288815615024041</v>
       </c>
       <c r="G201" t="n">
-        <v>0.9260566697241922</v>
+        <v>0.655554436755597</v>
       </c>
       <c r="H201" t="n">
-        <v>0.2767977812137444</v>
+        <v>0.6577631230048081</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.352053</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>326828012275266.5</v>
+        <v>0.0003518246050967128</v>
       </c>
       <c r="C202" t="n">
-        <v>19930594677878.72</v>
+        <v>1.325204224318432e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>7252445580396.005</v>
+        <v>8.42375984569659e-06</v>
       </c>
       <c r="E202" t="n">
-        <v>11871458878111.85</v>
+        <v>1.362150290241404e-05</v>
       </c>
       <c r="F202" t="n">
-        <v>1.048306174020317</v>
+        <v>1.549437941163101</v>
       </c>
       <c r="G202" t="n">
-        <v>0.9585762071997083</v>
+        <v>0.907295144288198</v>
       </c>
       <c r="H202" t="n">
-        <v>0.2096612348040633</v>
+        <v>0.3098875882326201</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.353596</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>286745268847423.6</v>
+        <v>0.0003201508323028275</v>
       </c>
       <c r="C203" t="n">
-        <v>19657586925347.41</v>
+        <v>1.572555756659973e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>6086367278796.856</v>
+        <v>7.822205975134901e-06</v>
       </c>
       <c r="E203" t="n">
-        <v>10113456196969.09</v>
+        <v>1.263905818504977e-05</v>
       </c>
       <c r="F203" t="n">
-        <v>3.512295015395013</v>
+        <v>0.6153727891702936</v>
       </c>
       <c r="G203" t="n">
-        <v>0.6215280575153648</v>
+        <v>0.9872885777725953</v>
       </c>
       <c r="H203" t="n">
-        <v>0.7024590030790027</v>
+        <v>0.1230745578340587</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.357905000000001</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>302368660192748.4</v>
+        <v>0.0003014336334915375</v>
       </c>
       <c r="C204" t="n">
-        <v>10950638859676.78</v>
+        <v>2.093180447697076e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>6847989303012.667</v>
+        <v>7.33284337024221e-06</v>
       </c>
       <c r="E204" t="n">
-        <v>11099405732888.17</v>
+        <v>1.201465553246608e-05</v>
       </c>
       <c r="F204" t="n">
-        <v>2.018460701338452</v>
+        <v>1.664149876061242</v>
       </c>
       <c r="G204" t="n">
-        <v>0.8465847950237249</v>
+        <v>0.8933849489267522</v>
       </c>
       <c r="H204" t="n">
-        <v>0.4036921402676905</v>
+        <v>0.3328299752122484</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359834999999999</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>274810267713574.4</v>
+        <v>0.000287495593435333</v>
       </c>
       <c r="C205" t="n">
-        <v>16682171122412.41</v>
+        <v>1.905190648877268e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>6226025893061.57</v>
+        <v>7.032112549808753e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>10152110495072.89</v>
+        <v>1.15031563846391e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>0.7354930523280521</v>
+        <v>2.543159021075657</v>
       </c>
       <c r="G205" t="n">
-        <v>0.9809640952517209</v>
+        <v>0.769981671645973</v>
       </c>
       <c r="H205" t="n">
-        <v>0.1470986104656104</v>
+        <v>0.5086318042151313</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.361894</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>258618122757903.2</v>
+        <v>0.0002667148057704817</v>
       </c>
       <c r="C206" t="n">
-        <v>16952179494902.03</v>
+        <v>1.638584667788048e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>5898023221051.326</v>
+        <v>6.735500739642757e-06</v>
       </c>
       <c r="E206" t="n">
-        <v>9667548185547.381</v>
+        <v>1.093319987157979e-05</v>
       </c>
       <c r="F206" t="n">
-        <v>1.72533425424443</v>
+        <v>0.8068833364871209</v>
       </c>
       <c r="G206" t="n">
-        <v>0.8856927434049885</v>
+        <v>0.976592226745118</v>
       </c>
       <c r="H206" t="n">
-        <v>0.3450668508488859</v>
+        <v>0.1613766672974242</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.363857</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>245538437318283.8</v>
+        <v>0.0002490532691609703</v>
       </c>
       <c r="C207" t="n">
-        <v>16967829007989.09</v>
+        <v>1.371045500196859e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>5612505422311.983</v>
+        <v>5.843231743619922e-06</v>
       </c>
       <c r="E207" t="n">
-        <v>9209523346411.301</v>
+        <v>9.468050927606402e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>2.664114903771545</v>
+        <v>1.228120085060806</v>
       </c>
       <c r="G207" t="n">
-        <v>0.7516011930801689</v>
+        <v>0.9421513447346687</v>
       </c>
       <c r="H207" t="n">
-        <v>0.532822980754309</v>
+        <v>0.2456240170121613</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.366045</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>230808551576963.4</v>
+        <v>0.0002544171083103951</v>
       </c>
       <c r="C208" t="n">
-        <v>10609130799325.16</v>
+        <v>5.659542852733774e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>5365429102117.18</v>
+        <v>6.335239737818997e-06</v>
       </c>
       <c r="E208" t="n">
-        <v>8726112531333.537</v>
+        <v>1.007306401105609e-05</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9616542693956178</v>
+        <v>1.601506002237215</v>
       </c>
       <c r="G208" t="n">
-        <v>0.9655989473163663</v>
+        <v>0.9010671640383119</v>
       </c>
       <c r="H208" t="n">
-        <v>0.1923308538791236</v>
+        <v>0.3203012004474431</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368041000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>212867081013560.4</v>
+        <v>0.0001327709155257498</v>
       </c>
       <c r="C209" t="n">
-        <v>11296015339214.59</v>
+        <v>8.058864833122213e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>4697323367727.807</v>
+        <v>3.242049132764698e-06</v>
       </c>
       <c r="E209" t="n">
-        <v>7631949059075.848</v>
+        <v>5.242432573807297e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>1.274999489864702</v>
+        <v>3.208035325379925</v>
       </c>
       <c r="G209" t="n">
-        <v>0.9374830650442828</v>
+        <v>0.6679481183951019</v>
       </c>
       <c r="H209" t="n">
-        <v>0.2549998979729404</v>
+        <v>0.6416070650759851</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.369651</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>215948240739179.9</v>
+        <v>5.565613880113765e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>6649053137104.25</v>
+        <v>3.993835288134125e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>4953222342866.618</v>
+        <v>1.648162779360666e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>7927735343780.328</v>
+        <v>2.662221458441293e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>2.022953019645426</v>
+        <v>3.411651940918745</v>
       </c>
       <c r="G210" t="n">
-        <v>0.8459600205551903</v>
+        <v>0.6367959185001205</v>
       </c>
       <c r="H210" t="n">
-        <v>0.4045906039290852</v>
+        <v>0.6823303881837489</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.374804</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>111322835988733.2</v>
+        <v>3.363538757359062e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>7115898929717.531</v>
+        <v>1.659353236292618e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>2481701495352.275</v>
+        <v>1.072673992922789e-06</v>
       </c>
       <c r="E211" t="n">
-        <v>4036986351032.56</v>
+        <v>1.743810043911845e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>4.797396455441494</v>
+        <v>1.183725738534801</v>
       </c>
       <c r="G211" t="n">
-        <v>0.4411033489634351</v>
+        <v>0.9464290997977118</v>
       </c>
       <c r="H211" t="n">
-        <v>0.9594792910882989</v>
+        <v>0.2367451477069603</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.380088</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>46352850624770.13</v>
+        <v>4.874187733672559e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>2673926573739.617</v>
+        <v>4.907875118007593e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>1120502748401.101</v>
+        <v>1.355318208740087e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>1831886009274.002</v>
+        <v>2.2650792477206e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>4.711739643667888</v>
+        <v>3.40904916666987</v>
       </c>
       <c r="G212" t="n">
-        <v>0.4520623683206553</v>
+        <v>0.6371920830565037</v>
       </c>
       <c r="H212" t="n">
-        <v>0.9423479287335776</v>
+        <v>0.681809833333974</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382924</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>28847737624472.24</v>
+        <v>3.020181177556057e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>966830544254.1602</v>
+        <v>1.908272091781597e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>722323311733.2937</v>
+        <v>9.367335402056032e-07</v>
       </c>
       <c r="E213" t="n">
-        <v>1174874037570.861</v>
+        <v>1.510115636302752e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>4.219912021755146</v>
+        <v>0.8154662682186646</v>
       </c>
       <c r="G213" t="n">
-        <v>0.5182079358086409</v>
+        <v>0.9760363849950681</v>
       </c>
       <c r="H213" t="n">
-        <v>0.8439824043510292</v>
+        <v>0.1630932536437329</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.383343</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>40882687056169.05</v>
+        <v>2.43680305594534e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>3356759874069.203</v>
+        <v>2.626748155874043e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>952543404683.9988</v>
+        <v>7.995331473215678e-07</v>
       </c>
       <c r="E214" t="n">
-        <v>1597097937854.25</v>
+        <v>1.311724828250154e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>5.70616917892593</v>
+        <v>3.345453829746196</v>
       </c>
       <c r="G214" t="n">
-        <v>0.3358676788611112</v>
+        <v>0.646890234165148</v>
       </c>
       <c r="H214" t="n">
-        <v>1.141233835785186</v>
+        <v>0.6690907659492391</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383858999999999</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>25245603470275.03</v>
+        <v>2.059640859477008e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>1462313432642</v>
+        <v>2.169481728690178e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>614334566606.3798</v>
+        <v>6.510777415615934e-07</v>
       </c>
       <c r="E215" t="n">
-        <v>1000348364140.503</v>
+        <v>1.078416424557184e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>1.119472518081413</v>
+        <v>2.151989821287674</v>
       </c>
       <c r="G215" t="n">
-        <v>0.9523656309183515</v>
+        <v>0.8277397332186605</v>
       </c>
       <c r="H215" t="n">
-        <v>0.2238945036162826</v>
+        <v>0.4303979642575348</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.385955</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>20576214178428.93</v>
+        <v>2.0905891822657e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>1632530519777.191</v>
+        <v>2.62565266248973e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>504673495604.0317</v>
+        <v>6.966352287733827e-07</v>
       </c>
       <c r="E216" t="n">
-        <v>834196253387.0543</v>
+        <v>1.149358626270015e-06</v>
       </c>
       <c r="F216" t="n">
-        <v>4.564409569924078</v>
+        <v>9.104862299516697</v>
       </c>
       <c r="G216" t="n">
-        <v>0.4713121835020295</v>
+        <v>0.1049539463543533</v>
       </c>
       <c r="H216" t="n">
-        <v>0.9128819139848157</v>
+        <v>1.820972459903339</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.389858</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>17522906636911.18</v>
+        <v>3.095465940967992e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>1650413707296.729</v>
+        <v>4.737335178598905e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>416001914640.6283</v>
+        <v>8.812487060536766e-07</v>
       </c>
       <c r="E217" t="n">
-        <v>695693702500.2323</v>
+        <v>1.492377596315492e-06</v>
       </c>
       <c r="F217" t="n">
-        <v>4.10824113527677</v>
+        <v>6.022994698925638</v>
       </c>
       <c r="G217" t="n">
-        <v>0.5339395751779568</v>
+        <v>0.3039878614007646</v>
       </c>
       <c r="H217" t="n">
-        <v>0.821648227055354</v>
+        <v>1.204598939785128</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.393084</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>17901848409931.45</v>
+        <v>5.737914398157598e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>1894822388964.348</v>
+        <v>5.030152276377093e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>434449587130.2624</v>
+        <v>1.43723128378094e-06</v>
       </c>
       <c r="E218" t="n">
-        <v>730538843859.4749</v>
+        <v>2.383144400523614e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>19.23315369626523</v>
+        <v>2.935064125087689</v>
       </c>
       <c r="G218" t="n">
-        <v>0.001739071902471644</v>
+        <v>0.7099964850737648</v>
       </c>
       <c r="H218" t="n">
-        <v>3.846630739253046</v>
+        <v>0.5870128250175378</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.403415</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>25682684616828.03</v>
+        <v>6.440725995665743e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>3799666517407.711</v>
+        <v>6.218645441343784e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>588773404194.9762</v>
+        <v>1.590051441655096e-06</v>
       </c>
       <c r="E219" t="n">
-        <v>1003028481286.286</v>
+        <v>2.65610767246608e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>6.991935995345346</v>
+        <v>3.87349409713453</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2212407294068982</v>
+        <v>0.5677698434667502</v>
       </c>
       <c r="H219" t="n">
-        <v>1.398387199069069</v>
+        <v>0.774698819426906</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.414078</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>48024039614402.98</v>
+        <v>5.631561984340224e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>3874250567859.059</v>
+        <v>5.971850545186888e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>1064313066121.355</v>
+        <v>1.34683743221254e-06</v>
       </c>
       <c r="E220" t="n">
-        <v>1781034614522.904</v>
+        <v>2.263378003148355e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>2.56664969874623</v>
+        <v>4.904952833523985</v>
       </c>
       <c r="G220" t="n">
-        <v>0.7664257377702905</v>
+        <v>0.4275897684942553</v>
       </c>
       <c r="H220" t="n">
-        <v>0.513329939749246</v>
+        <v>0.9809905667047969</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.424364</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>53848837834262.18</v>
+        <v>5.022953602438964e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>4336024677172.406</v>
+        <v>5.314628319981869e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>1193270937980.079</v>
+        <v>1.29969567839957e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>2002379988007.745</v>
+        <v>2.147401706143848e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>5.295827547123217</v>
+        <v>1.68924395225705</v>
       </c>
       <c r="G221" t="n">
-        <v>0.3808535634999392</v>
+        <v>0.8902520422610718</v>
       </c>
       <c r="H221" t="n">
-        <v>1.059165509424643</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="B222" t="n">
-        <v>47218919694754.19</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4344679199790.438</v>
-      </c>
-      <c r="D222" t="n">
-        <v>1027452835487.73</v>
-      </c>
-      <c r="E222" t="n">
-        <v>1723778615514.24</v>
-      </c>
-      <c r="F222" t="n">
-        <v>4.837274425781154</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0.4360606823853986</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0.9674548851562308</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="B223" t="n">
-        <v>42078003043984.05</v>
-      </c>
-      <c r="C223" t="n">
-        <v>4122349817251.812</v>
-      </c>
-      <c r="D223" t="n">
-        <v>939082845445.2832</v>
-      </c>
-      <c r="E223" t="n">
-        <v>1570960657609.562</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1.707422692384878</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.8879633027777993</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0.3414845384769755</v>
+        <v>0.33784879045141</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/a2/p1_a2Fit.xlsx
+++ b/legendre_out/DATA/p1/a2/p1_a2Fit.xlsx
@@ -408,25 +408,25 @@
         <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>3.177537737076758e-06</v>
+        <v>-1.566635044242268e-15</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.465195381230528e-07</v>
+        <v>1.024249759881807e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.635526716954721e-07</v>
+        <v>2.867471659360947e-15</v>
       </c>
       <c r="E2" t="n">
-        <v>2.502421936305506e-07</v>
+        <v>1.049529952954762e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>37.92758419015591</v>
+        <v>34.61853700770322</v>
       </c>
       <c r="G2" t="n">
-        <v>3.901757120362532e-07</v>
+        <v>1.792783835358972e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>7.585516838031182</v>
+        <v>6.923707401540645</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +434,25 @@
         <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>4.086652328341328e-06</v>
+        <v>3.20901115907421e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>1.350849278111631e-06</v>
+        <v>-3.208997256167606e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>1.926856440717898e-07</v>
+        <v>1.114335293356556e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>3.051337391498105e-07</v>
+        <v>1.114335293494412e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>62.65586129868567</v>
+        <v>2.621956877884992</v>
       </c>
       <c r="G3" t="n">
-        <v>3.430342827867061e-12</v>
+        <v>0.7580264272089328</v>
       </c>
       <c r="H3" t="n">
-        <v>12.53117225973713</v>
+        <v>0.5243913755769984</v>
       </c>
     </row>
     <row r="4">
@@ -460,25 +460,25 @@
         <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>5.057113525241184e-06</v>
+        <v>1.032823437074518e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.332856040050711e-06</v>
+        <v>-7.99051541113351e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>2.724084327201627e-07</v>
+        <v>6.525741825232153e-08</v>
       </c>
       <c r="E4" t="n">
-        <v>3.538574921809752e-07</v>
+        <v>1.088000396122111e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>81.09987725815697</v>
+        <v>14.46500922770984</v>
       </c>
       <c r="G4" t="n">
-        <v>4.939675156215646e-16</v>
+        <v>0.01291041308403877</v>
       </c>
       <c r="H4" t="n">
-        <v>16.21997545163139</v>
+        <v>2.893001845541969</v>
       </c>
     </row>
     <row r="5">
@@ -486,25 +486,25 @@
         <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>5.687180102642371e-06</v>
+        <v>4.803159289208265e-16</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.665912864612019e-07</v>
+        <v>4.803159289208264e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>2.760671318295484e-07</v>
+        <v>4.329509165e-16</v>
       </c>
       <c r="E5" t="n">
-        <v>4.185622410420184e-07</v>
+        <v>4.329509165e-16</v>
       </c>
       <c r="F5" t="n">
-        <v>37.09093097814159</v>
+        <v>7.384615337511157</v>
       </c>
       <c r="G5" t="n">
-        <v>5.743265545717633e-07</v>
+        <v>0.1935709680260453</v>
       </c>
       <c r="H5" t="n">
-        <v>7.418186195628318</v>
+        <v>1.476923067502231</v>
       </c>
     </row>
     <row r="6">
@@ -512,25 +512,25 @@
         <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>6.936464012605375e-06</v>
+        <v>1.066905792350067e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>1.478187308172231e-06</v>
+        <v>-1.186078859832101e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>3.358571873455102e-07</v>
+        <v>5.075683539373108e-08</v>
       </c>
       <c r="E6" t="n">
-        <v>5.442880663989535e-07</v>
+        <v>5.642663736212484e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>39.97128035496069</v>
+        <v>42.39922656323044</v>
       </c>
       <c r="G6" t="n">
-        <v>1.513415191101664e-07</v>
+        <v>4.890266967723956e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>7.994256070992138</v>
+        <v>8.479845312646088</v>
       </c>
     </row>
     <row r="7">
@@ -538,25 +538,25 @@
         <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>5.745376323688465e-06</v>
+        <v>9.418219485520145e-16</v>
       </c>
       <c r="C7" t="n">
-        <v>3.040719814708369e-07</v>
+        <v>-3.762758128278503e-16</v>
       </c>
       <c r="D7" t="n">
-        <v>3.000542153856422e-07</v>
+        <v>8.489468176550466e-16</v>
       </c>
       <c r="E7" t="n">
-        <v>4.573494716537888e-07</v>
+        <v>3.391704284996578e-16</v>
       </c>
       <c r="F7" t="n">
-        <v>33.34906165989081</v>
+        <v>21.37646420766502</v>
       </c>
       <c r="G7" t="n">
-        <v>3.20804866608041e-06</v>
+        <v>0.0006875550714456457</v>
       </c>
       <c r="H7" t="n">
-        <v>6.669812331978162</v>
+        <v>4.275292841533004</v>
       </c>
     </row>
     <row r="8">
@@ -564,25 +564,25 @@
         <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>5.424141148776783e-06</v>
+        <v>4.920653848996027e-07</v>
       </c>
       <c r="C8" t="n">
-        <v>1.097290991179804e-06</v>
+        <v>2.736787487085266e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>2.626854559381527e-07</v>
+        <v>1.493585810498265e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>4.109409639493653e-07</v>
+        <v>2.389015916375468e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>34.21792044500734</v>
+        <v>6.679887578937039</v>
       </c>
       <c r="G8" t="n">
-        <v>2.154591890381575e-06</v>
+        <v>0.2455565079939691</v>
       </c>
       <c r="H8" t="n">
-        <v>6.843584089001469</v>
+        <v>1.335977515787408</v>
       </c>
     </row>
     <row r="9">
@@ -590,25 +590,25 @@
         <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>6.273626443413819e-06</v>
+        <v>1.255446796673026e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.472915076619036e-07</v>
+        <v>-6.685548432112759e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>2.521560000228895e-07</v>
+        <v>1.49527574199146e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>3.785425670594252e-07</v>
+        <v>1.93896148115778e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>95.84377731209035</v>
+        <v>25.78896336513731</v>
       </c>
       <c r="G9" t="n">
-        <v>3.967111529718153e-19</v>
+        <v>9.805048833376749e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>19.16875546241807</v>
+        <v>5.157792673027462</v>
       </c>
     </row>
     <row r="10">
@@ -616,25 +616,25 @@
         <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>5.571409209604622e-06</v>
+        <v>2.32173694268126e-16</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.355165958302276e-07</v>
+        <v>2.088446615620405e-16</v>
       </c>
       <c r="D10" t="n">
-        <v>2.949613983573253e-07</v>
+        <v>2.092785386996025e-16</v>
       </c>
       <c r="E10" t="n">
-        <v>4.700690361103591e-07</v>
+        <v>1.88250032910456e-16</v>
       </c>
       <c r="F10" t="n">
-        <v>48.68402890855265</v>
+        <v>17.34645823641023</v>
       </c>
       <c r="G10" t="n">
-        <v>2.574976867871238e-09</v>
+        <v>0.003887507107640482</v>
       </c>
       <c r="H10" t="n">
-        <v>9.73680578171053</v>
+        <v>3.469291647282046</v>
       </c>
     </row>
     <row r="11">
@@ -642,25 +642,25 @@
         <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>5.450425172344745e-06</v>
+        <v>2.662805607123175e-07</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.15624725105906e-07</v>
+        <v>5.325611027728883e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>2.83672736910595e-07</v>
+        <v>7.08622725779664e-08</v>
       </c>
       <c r="E11" t="n">
-        <v>4.059597681964407e-07</v>
+        <v>1.417245451559326e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>46.56971486351822</v>
+        <v>14.79686886315853</v>
       </c>
       <c r="G11" t="n">
-        <v>6.952717071335127e-09</v>
+        <v>0.01126647927324953</v>
       </c>
       <c r="H11" t="n">
-        <v>9.313942972703645</v>
+        <v>2.959373772631706</v>
       </c>
     </row>
     <row r="12">
@@ -668,25 +668,25 @@
         <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>5.756287471489706e-06</v>
+        <v>3.772845177928629e-07</v>
       </c>
       <c r="C12" t="n">
-        <v>9.987311225566297e-07</v>
+        <v>2.388294201105721e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>2.384196525930386e-07</v>
+        <v>1.111905939094812e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>3.659779602391754e-07</v>
+        <v>1.892037779672563e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>53.65543196839839</v>
+        <v>7.401310634775458</v>
       </c>
       <c r="G12" t="n">
-        <v>2.46694241303933e-10</v>
+        <v>0.1924637081643652</v>
       </c>
       <c r="H12" t="n">
-        <v>10.73108639367968</v>
+        <v>1.480262126955092</v>
       </c>
     </row>
     <row r="13">
@@ -694,25 +694,25 @@
         <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>4.484965212739771e-06</v>
+        <v>3.289619629562928e-07</v>
       </c>
       <c r="C13" t="n">
-        <v>2.108182591982979e-06</v>
+        <v>1.925529168101491e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>2.18230206190067e-07</v>
+        <v>9.619057725979135e-08</v>
       </c>
       <c r="E13" t="n">
-        <v>3.815371934297293e-07</v>
+        <v>1.913328175088773e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>29.9652676882941</v>
+        <v>5.835646735713757</v>
       </c>
       <c r="G13" t="n">
-        <v>1.498256459629514e-05</v>
+        <v>0.3225411634213865</v>
       </c>
       <c r="H13" t="n">
-        <v>5.99305353765882</v>
+        <v>1.167129347142752</v>
       </c>
     </row>
     <row r="14">
@@ -720,25 +720,25 @@
         <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>7.524794500830174e-06</v>
+        <v>2.149233776834537e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>8.260014173755437e-07</v>
+        <v>-1.864025957289424e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>2.820426938746444e-07</v>
+        <v>1.440900867242315e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>4.423864135276334e-07</v>
+        <v>1.670394564755532e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>2.004223689356683</v>
+        <v>71.64954097620696</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8485602996990276</v>
+        <v>4.647215117681655e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4008447378713367</v>
+        <v>14.32990819524139</v>
       </c>
     </row>
     <row r="15">
@@ -746,25 +746,25 @@
         <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>7.492300260253148e-06</v>
+        <v>8.0268133995687e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>4.097411487060209e-07</v>
+        <v>5.465843491058005e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>3.006641462663641e-07</v>
+        <v>7.322004614581988e-08</v>
       </c>
       <c r="E15" t="n">
-        <v>4.790686874158703e-07</v>
+        <v>1.14676909944782e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>34.92352844186595</v>
+        <v>166.8021267828019</v>
       </c>
       <c r="G15" t="n">
-        <v>1.558459064874928e-06</v>
+        <v>3.509836090324652e-34</v>
       </c>
       <c r="H15" t="n">
-        <v>6.98470568837319</v>
+        <v>33.36042535656038</v>
       </c>
     </row>
     <row r="16">
@@ -772,25 +772,25 @@
         <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>6.46845851582539e-06</v>
+        <v>1.143950047685764e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>1.736531827168096e-07</v>
+        <v>8.563771868816912e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>3.469167037719537e-07</v>
+        <v>1.095072561562043e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>5.361510330861907e-07</v>
+        <v>1.834350195174907e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>13.84191606968657</v>
+        <v>13.54556555477124</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0166453896530106</v>
+        <v>0.01876887447156671</v>
       </c>
       <c r="H16" t="n">
-        <v>2.768383213937314</v>
+        <v>2.709113110954248</v>
       </c>
     </row>
     <row r="17">
@@ -798,25 +798,25 @@
         <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>5.329764971548386e-06</v>
+        <v>1.547014346977797e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>8.445581260053429e-07</v>
+        <v>1.247605484888487e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>2.992295566362187e-07</v>
+        <v>1.589405472989242e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>5.543296408604375e-07</v>
+        <v>2.50675026842956e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>15.3799840875194</v>
+        <v>10.42319313739077</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008856323061103843</v>
+        <v>0.06409473293863811</v>
       </c>
       <c r="H17" t="n">
-        <v>3.07599681750388</v>
+        <v>2.084638627478155</v>
       </c>
     </row>
     <row r="18">
@@ -824,25 +824,25 @@
         <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>5.732084407679209e-06</v>
+        <v>1.058262725672776e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.032861064503444e-06</v>
+        <v>2.116525430695404e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>3.380346375878408e-07</v>
+        <v>8.930432609990139e-08</v>
       </c>
       <c r="E18" t="n">
-        <v>5.417498683206387e-07</v>
+        <v>1.786086521998027e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>18.97132365901278</v>
+        <v>10.98063764031298</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001945919986005404</v>
+        <v>0.05176523639909738</v>
       </c>
       <c r="H18" t="n">
-        <v>3.794264731802556</v>
+        <v>2.196127528062597</v>
       </c>
     </row>
     <row r="19">
@@ -850,25 +850,25 @@
         <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>6.290539510149996e-06</v>
+        <v>2.115326272373914e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>7.938878529876308e-07</v>
+        <v>-5.00533670301842e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>3.485953804703187e-07</v>
+        <v>2.026428302802754e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>5.54875934368595e-07</v>
+        <v>2.863294526407257e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>2.641487330758896</v>
+        <v>35.26003448343183</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7550521015871622</v>
+        <v>1.335136750784372e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5282974661517791</v>
+        <v>7.052006896686366</v>
       </c>
     </row>
     <row r="20">
@@ -876,25 +876,25 @@
         <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>6.360452299649951e-06</v>
+        <v>1.830228742818672e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>6.758952822331935e-07</v>
+        <v>1.348348929772e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>3.919122095021331e-07</v>
+        <v>1.98423171143972e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>6.130935321256509e-07</v>
+        <v>3.206449734972465e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>6.241484531224692</v>
+        <v>6.031317154557375</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2834255621276424</v>
+        <v>0.3031835417351494</v>
       </c>
       <c r="H20" t="n">
-        <v>1.248296906244938</v>
+        <v>1.206263430911475</v>
       </c>
     </row>
     <row r="21">
@@ -902,25 +902,25 @@
         <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>7.385339041534512e-06</v>
+        <v>3.622811915312811e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>7.171393671237749e-07</v>
+        <v>7.715694590512677e-07</v>
       </c>
       <c r="D21" t="n">
-        <v>4.632705930537646e-07</v>
+        <v>2.905695418658772e-07</v>
       </c>
       <c r="E21" t="n">
-        <v>7.66861459453921e-07</v>
+        <v>4.50117296563276e-07</v>
       </c>
       <c r="F21" t="n">
-        <v>19.42284656534617</v>
+        <v>12.30658434504857</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001602861007437641</v>
+        <v>0.03081998100587194</v>
       </c>
       <c r="H21" t="n">
-        <v>3.884569313069234</v>
+        <v>2.461316869009715</v>
       </c>
     </row>
     <row r="22">
@@ -928,25 +928,25 @@
         <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>1.176137789086252e-05</v>
+        <v>6.311023774830787e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>-5.074526536288287e-07</v>
+        <v>1.569472209930461e-07</v>
       </c>
       <c r="D22" t="n">
-        <v>9.754615372605521e-07</v>
+        <v>6.553598458695331e-07</v>
       </c>
       <c r="E22" t="n">
-        <v>1.467313618024282e-06</v>
+        <v>9.849529189098548e-07</v>
       </c>
       <c r="F22" t="n">
-        <v>8.485594634550518</v>
+        <v>41.15348928683713</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1314265270802455</v>
+        <v>8.736162190426086e-08</v>
       </c>
       <c r="H22" t="n">
-        <v>1.697118926910103</v>
+        <v>8.230697857367426</v>
       </c>
     </row>
     <row r="23">
@@ -954,25 +954,25 @@
         <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>1.458256087558589e-05</v>
+        <v>1.144109965338576e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>1.212026521423469e-06</v>
+        <v>2.067293986185345e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>1.351565991789715e-06</v>
+        <v>1.057082674895542e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>2.274754264580862e-06</v>
+        <v>1.601557628037546e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>5.69366728743787</v>
+        <v>6.439953084878751</v>
       </c>
       <c r="G23" t="n">
-        <v>0.337176396586927</v>
+        <v>0.2657309305437588</v>
       </c>
       <c r="H23" t="n">
-        <v>1.138733457487574</v>
+        <v>1.28799061697575</v>
       </c>
     </row>
     <row r="24">
@@ -980,25 +980,25 @@
         <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>2.24143482477571e-05</v>
+        <v>1.713844844502933e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>2.075795617478807e-06</v>
+        <v>-8.636172916138598e-07</v>
       </c>
       <c r="D24" t="n">
-        <v>2.024852165509423e-06</v>
+        <v>1.874510809393215e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>2.911123396634232e-06</v>
+        <v>2.619650587308514e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>4.691070385714468</v>
+        <v>5.8103564418751</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4547326544305901</v>
+        <v>0.3251116449552521</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9382140771428936</v>
+        <v>1.16207128837502</v>
       </c>
     </row>
     <row r="25">
@@ -1006,25 +1006,25 @@
         <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>2.14140938554574e-05</v>
+        <v>1.636398147222889e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.39529384068447e-06</v>
+        <v>-2.567029875490261e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>1.763550950145553e-06</v>
+        <v>1.409288030602144e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>2.702847423080929e-06</v>
+        <v>2.04362163571045e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>3.949670534090648</v>
+        <v>38.77757400652104</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5566847336278578</v>
+        <v>2.632651350629968e-07</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7899341068181297</v>
+        <v>7.755514801304207</v>
       </c>
     </row>
     <row r="26">
@@ -1032,25 +1032,25 @@
         <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>1.979056263244733e-05</v>
+        <v>1.600432418205654e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.964279454765589e-06</v>
+        <v>1.446065034792689e-07</v>
       </c>
       <c r="D26" t="n">
-        <v>1.717834572766727e-06</v>
+        <v>1.625529791564155e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>2.497935423607244e-06</v>
+        <v>2.271249547164664e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>11.91108846905089</v>
+        <v>21.45840366918679</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03602659433855211</v>
+        <v>0.0006634161175181533</v>
       </c>
       <c r="H26" t="n">
-        <v>2.382217693810178</v>
+        <v>4.291680733837358</v>
       </c>
     </row>
     <row r="27">
@@ -1058,25 +1058,25 @@
         <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>2.26062267535961e-05</v>
+        <v>1.815333188615819e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>7.042101798325416e-08</v>
+        <v>1.167654655225779e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>1.819228484219135e-06</v>
+        <v>1.559445505817134e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>3.049703516801626e-06</v>
+        <v>2.499595891369031e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>2.181252979687415</v>
+        <v>9.21022129169204</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8235392010567222</v>
+        <v>0.100967251833509</v>
       </c>
       <c r="H27" t="n">
-        <v>0.436250595937483</v>
+        <v>1.842044258338408</v>
       </c>
     </row>
     <row r="28">
@@ -1084,25 +1084,25 @@
         <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>2.082438061077571e-05</v>
+        <v>1.7951710600115e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>4.456125571239504e-06</v>
+        <v>7.717898348733775e-07</v>
       </c>
       <c r="D28" t="n">
-        <v>1.820936598636307e-06</v>
+        <v>1.525798109178638e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>2.972073532918069e-06</v>
+        <v>2.224823844678285e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>3.465391035650387</v>
+        <v>12.68936210215582</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6286307547317216</v>
+        <v>0.02647035674522089</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6930782071300773</v>
+        <v>2.537872420431165</v>
       </c>
     </row>
     <row r="29">
@@ -1110,25 +1110,25 @@
         <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>2.285629456503213e-05</v>
+        <v>1.961969470117726e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>3.636359880021847e-06</v>
+        <v>1.946752799195605e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>1.945750995712117e-06</v>
+        <v>1.506307572494218e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>3.248054151570825e-06</v>
+        <v>2.279744140463624e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>12.15298295774144</v>
+        <v>15.37584801535226</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03275063675016435</v>
+        <v>0.008871509332381494</v>
       </c>
       <c r="H29" t="n">
-        <v>2.430596591548288</v>
+        <v>3.075169603070453</v>
       </c>
     </row>
     <row r="30">
@@ -1136,25 +1136,25 @@
         <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>2.082221146404516e-05</v>
+        <v>1.41561185683551e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>4.417780976251478e-07</v>
+        <v>3.745340529822094e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>1.77964133729005e-06</v>
+        <v>1.258723609845452e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>2.703809686409742e-06</v>
+        <v>1.95916128084831e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>8.598390944543686</v>
+        <v>19.19846304776372</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1261956823123007</v>
+        <v>0.001765183487561188</v>
       </c>
       <c r="H30" t="n">
-        <v>1.719678188908737</v>
+        <v>3.839692609552745</v>
       </c>
     </row>
     <row r="31">
@@ -1162,25 +1162,25 @@
         <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>2.075108862374785e-05</v>
+        <v>1.912272179160202e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.381826140319358e-06</v>
+        <v>-3.913738738641787e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>1.677291251784671e-06</v>
+        <v>1.579630932225893e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>2.452884944939988e-06</v>
+        <v>2.275838538900175e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>7.196897740722342</v>
+        <v>13.3258110182775</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2064037919944331</v>
+        <v>0.0205095524066777</v>
       </c>
       <c r="H31" t="n">
-        <v>1.439379548144468</v>
+        <v>2.6651622036555</v>
       </c>
     </row>
     <row r="32">
@@ -1188,25 +1188,25 @@
         <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>1.949152246786613e-05</v>
+        <v>1.646463312507376e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>3.741701254563837e-06</v>
+        <v>5.782847113599658e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>1.730833680060775e-06</v>
+        <v>1.383489510107718e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>2.672110971457697e-06</v>
+        <v>2.197545756421884e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>3.216068564693786</v>
+        <v>5.946266555885053</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6667139768565429</v>
+        <v>0.3114825856447623</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6432137129387573</v>
+        <v>1.189253311177011</v>
       </c>
     </row>
     <row r="33">
@@ -1214,25 +1214,25 @@
         <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>2.084918605684775e-05</v>
+        <v>1.485542251456939e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>1.324340728179022e-06</v>
+        <v>4.294211891342044e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>1.689278211507252e-06</v>
+        <v>1.382487947462655e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>2.55979049314356e-06</v>
+        <v>2.019149496814848e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>2.545755969926277</v>
+        <v>11.29919517012376</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7695889154404886</v>
+        <v>0.04576013503925328</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5091511939852554</v>
+        <v>2.259839034024752</v>
       </c>
     </row>
     <row r="34">
@@ -1240,25 +1240,25 @@
         <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>2.082809716905188e-05</v>
+        <v>1.797236991862193e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.368874863497235e-07</v>
+        <v>-1.077707825999927e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>1.737528663631698e-06</v>
+        <v>1.502411834436616e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>2.52326710284265e-06</v>
+        <v>2.181606424975412e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>2.847418350002979</v>
+        <v>1.296039333766839</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7234953216145936</v>
+        <v>0.9353387006831544</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5694836700005959</v>
+        <v>0.2592078667533678</v>
       </c>
     </row>
     <row r="35">
@@ -1266,25 +1266,25 @@
         <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>2.017426536954648e-05</v>
+        <v>1.543536972957171e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>6.423127881006307e-06</v>
+        <v>5.465517089599872e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>1.506356550666292e-06</v>
+        <v>1.202318525477417e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>2.497252253454436e-06</v>
+        <v>2.026935198636541e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>4.618327311942052</v>
+        <v>8.969847285721883</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4642094000841797</v>
+        <v>0.110272909237022</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9236654623884103</v>
+        <v>1.793969457144377</v>
       </c>
     </row>
     <row r="36">
@@ -1292,25 +1292,25 @@
         <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>1.902944241985904e-05</v>
+        <v>1.543125831105802e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>1.616722335587243e-06</v>
+        <v>1.248115181002501e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>1.461835513535531e-06</v>
+        <v>1.281530805090584e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>2.358497522293048e-06</v>
+        <v>1.847734252478389e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>5.959485021355659</v>
+        <v>4.802536776384743</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3101811892761007</v>
+        <v>0.4404512149529733</v>
       </c>
       <c r="H36" t="n">
-        <v>1.191897004271132</v>
+        <v>0.9605073552769486</v>
       </c>
     </row>
     <row r="37">
@@ -1318,25 +1318,25 @@
         <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>1.505616449959521e-05</v>
+        <v>9.900313436969806e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>1.884183469889603e-06</v>
+        <v>3.570441095518893e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>1.09245189989874e-06</v>
+        <v>8.141492363223126e-07</v>
       </c>
       <c r="E37" t="n">
-        <v>1.819689640356186e-06</v>
+        <v>1.330725838974738e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>5.936590594713204</v>
+        <v>19.21789208939046</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3124379179376831</v>
+        <v>0.001750512212545354</v>
       </c>
       <c r="H37" t="n">
-        <v>1.187318118942641</v>
+        <v>3.843578417878093</v>
       </c>
     </row>
     <row r="38">
@@ -1344,25 +1344,25 @@
         <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>1.50779787914965e-05</v>
+        <v>9.809830485738193e-06</v>
       </c>
       <c r="C38" t="n">
-        <v>2.60107138334821e-06</v>
+        <v>2.580842853561139e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>1.022970204490315e-06</v>
+        <v>6.92821320151419e-07</v>
       </c>
       <c r="E38" t="n">
-        <v>1.546066173830476e-06</v>
+        <v>1.045621079004742e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>4.243915690384171</v>
+        <v>19.08837628964102</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5148588784036926</v>
+        <v>0.001850621374851891</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8487831380768343</v>
+        <v>3.817675257928204</v>
       </c>
     </row>
     <row r="39">
@@ -1370,25 +1370,25 @@
         <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>1.308002582154385e-05</v>
+        <v>8.388678098824892e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>2.408274091151908e-06</v>
+        <v>8.680251694978175e-07</v>
       </c>
       <c r="D39" t="n">
-        <v>7.466946241144993e-07</v>
+        <v>5.46533951196486e-07</v>
       </c>
       <c r="E39" t="n">
-        <v>1.142303114436633e-06</v>
+        <v>8.33000988742631e-07</v>
       </c>
       <c r="F39" t="n">
-        <v>13.06205467863906</v>
+        <v>10.29504468854618</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02280413664298931</v>
+        <v>0.06729411156657172</v>
       </c>
       <c r="H39" t="n">
-        <v>2.612410935727812</v>
+        <v>2.059008937709236</v>
       </c>
     </row>
     <row r="40">
@@ -1396,25 +1396,25 @@
         <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>1.210494570838873e-05</v>
+        <v>1.029398282103703e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>2.127530380359913e-06</v>
+        <v>3.99992101096904e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>9.086068031718264e-07</v>
+        <v>7.289014132497996e-07</v>
       </c>
       <c r="E40" t="n">
-        <v>1.398240000241268e-06</v>
+        <v>1.207144293727983e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>8.789558442926493</v>
+        <v>14.79573728282878</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1177581472066808</v>
+        <v>0.01127172405768596</v>
       </c>
       <c r="H40" t="n">
-        <v>1.757911688585299</v>
+        <v>2.959147456565756</v>
       </c>
     </row>
     <row r="41">
@@ -1422,25 +1422,25 @@
         <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>1.959006457699651e-05</v>
+        <v>1.317742082078145e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>7.321177258082879e-07</v>
+        <v>2.847275622073003e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>8.049106618050738e-07</v>
+        <v>5.720562189859345e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>1.26564559382054e-06</v>
+        <v>8.923884748482009e-07</v>
       </c>
       <c r="F41" t="n">
-        <v>5.851360648672992</v>
+        <v>36.263614435623</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3209519489815286</v>
+        <v>8.411850617694925e-07</v>
       </c>
       <c r="H41" t="n">
-        <v>1.170272129734598</v>
+        <v>7.2527228871246</v>
       </c>
     </row>
     <row r="42">
@@ -1448,25 +1448,25 @@
         <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>1.892101561084357e-05</v>
+        <v>1.179273494020081e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>3.453252062181561e-06</v>
+        <v>6.301314060168754e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>6.868398547616646e-07</v>
+        <v>4.590193556225569e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>1.080356222752198e-06</v>
+        <v>7.442830154586468e-07</v>
       </c>
       <c r="F42" t="n">
-        <v>11.45429900630437</v>
+        <v>73.80548029824598</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04308057668301122</v>
+        <v>1.651298903629903e-14</v>
       </c>
       <c r="H42" t="n">
-        <v>2.290859801260874</v>
+        <v>14.7610960596492</v>
       </c>
     </row>
     <row r="43">
@@ -1474,25 +1474,25 @@
         <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>1.865011493967537e-05</v>
+        <v>1.159111377510448e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>3.068832989552549e-06</v>
+        <v>3.143205226969132e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>6.029255463608045e-07</v>
+        <v>4.114391341027236e-07</v>
       </c>
       <c r="E43" t="n">
-        <v>9.943138046099584e-07</v>
+        <v>6.62942859602777e-07</v>
       </c>
       <c r="F43" t="n">
-        <v>3.445441692712202</v>
+        <v>39.41328073836949</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6316585951526634</v>
+        <v>1.960726869945583e-07</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6890883385424404</v>
+        <v>7.882656147673899</v>
       </c>
     </row>
     <row r="44">
@@ -1500,25 +1500,25 @@
         <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>1.726949069886227e-05</v>
+        <v>9.190478538870512e-06</v>
       </c>
       <c r="C44" t="n">
-        <v>1.559816761878166e-06</v>
+        <v>3.377193644157463e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>5.519982670973528e-07</v>
+        <v>3.355138159433163e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>8.874784850588881e-07</v>
+        <v>5.325451157116794e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>1.140128712860591</v>
+        <v>65.83708920752044</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9504906149477221</v>
+        <v>7.513072005884635e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2280257425721182</v>
+        <v>13.16741784150409</v>
       </c>
     </row>
     <row r="45">
@@ -1526,25 +1526,25 @@
         <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>1.781439576225285e-05</v>
+        <v>9.361665810858104e-06</v>
       </c>
       <c r="C45" t="n">
-        <v>1.287269551394836e-06</v>
+        <v>3.442852156323136e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>5.804341485496566e-07</v>
+        <v>3.384165934949436e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>9.349820744972946e-07</v>
+        <v>5.424295849339494e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>3.926470709590119</v>
+        <v>69.26034958932159</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5600502893609399</v>
+        <v>1.460575561175957e-13</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7852941419180237</v>
+        <v>13.85206991786432</v>
       </c>
     </row>
     <row r="46">
@@ -1552,25 +1552,25 @@
         <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>1.66330528067149e-05</v>
+        <v>1.089857907478709e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>8.150006394898918e-07</v>
+        <v>3.109903496388491e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>5.162710667902072e-07</v>
+        <v>3.476775728611849e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>8.174280384641804e-07</v>
+        <v>5.607456669528284e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>1.43295088496631</v>
+        <v>40.09988970134964</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9206751514227943</v>
+        <v>1.425679251169589e-07</v>
       </c>
       <c r="H46" t="n">
-        <v>0.286590176993262</v>
+        <v>8.019977940269928</v>
       </c>
     </row>
     <row r="47">
@@ -1578,25 +1578,25 @@
         <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>1.17124942400392e-05</v>
+        <v>6.124866062122655e-06</v>
       </c>
       <c r="C47" t="n">
-        <v>1.840321171727081e-06</v>
+        <v>2.447390939621222e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>4.250740912816362e-07</v>
+        <v>2.597396794427676e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>7.066749055502673e-07</v>
+        <v>4.469527942611108e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>0.470997101808063</v>
+        <v>63.66140575373895</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9931468045721357</v>
+        <v>2.12341591087455e-12</v>
       </c>
       <c r="H47" t="n">
-        <v>0.09419942036161259</v>
+        <v>12.73228115074779</v>
       </c>
     </row>
     <row r="48">
@@ -1604,25 +1604,25 @@
         <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>1.514442192132711e-05</v>
+        <v>8.777462857049022e-06</v>
       </c>
       <c r="C48" t="n">
-        <v>2.011191152101148e-06</v>
+        <v>2.303522689702944e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>4.970323993024989e-07</v>
+        <v>3.195894204116497e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>8.381287936922587e-07</v>
+        <v>4.960038655899068e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>5.014687673526443</v>
+        <v>79.54643338700522</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4140903150242786</v>
+        <v>1.04408272233442e-15</v>
       </c>
       <c r="H48" t="n">
-        <v>1.002937534705289</v>
+        <v>15.90928667740105</v>
       </c>
     </row>
     <row r="49">
@@ -1630,25 +1630,25 @@
         <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>2.262532689375689e-05</v>
+        <v>1.554890613214892e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>1.250105892092437e-06</v>
+        <v>5.112105935265295e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>7.014371820161348e-07</v>
+        <v>4.741388436351698e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>1.130298107784538e-06</v>
+        <v>7.91941845401523e-07</v>
       </c>
       <c r="F49" t="n">
-        <v>6.687617449195876</v>
+        <v>61.15098471826425</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2449282569996923</v>
+        <v>7.027212132008487e-12</v>
       </c>
       <c r="H49" t="n">
-        <v>1.337523489839175</v>
+        <v>12.23019694365285</v>
       </c>
     </row>
     <row r="50">
@@ -1656,25 +1656,25 @@
         <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>3.340065805501652e-05</v>
+        <v>2.707278763005128e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>3.976137268795157e-06</v>
+        <v>3.463118144998874e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>9.584951206630026e-07</v>
+        <v>7.600553473563909e-07</v>
       </c>
       <c r="E50" t="n">
-        <v>1.585065009697806e-06</v>
+        <v>1.221773712644297e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>6.872136833994159</v>
+        <v>24.82709884521645</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2303246649159539</v>
+        <v>0.0001504622471862161</v>
       </c>
       <c r="H50" t="n">
-        <v>1.374427366798832</v>
+        <v>4.965419769043291</v>
       </c>
     </row>
     <row r="51">
@@ -1682,25 +1682,25 @@
         <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>4.547173250813102e-05</v>
+        <v>4.001101610106482e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1.015251914844307e-06</v>
+        <v>3.736530969852917e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>1.214942094828335e-06</v>
+        <v>1.025173352669074e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>1.939261858323544e-06</v>
+        <v>1.633018405246803e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>1.075492151057303</v>
+        <v>16.51581836440358</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9562499188369064</v>
+        <v>0.005515776627801067</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2150984302114606</v>
+        <v>3.303163672880715</v>
       </c>
     </row>
     <row r="52">
@@ -1708,25 +1708,25 @@
         <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>9.361333110162844e-05</v>
+        <v>8.50072635571759e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>8.492306496835628e-06</v>
+        <v>1.213626438837113e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>2.551561496272055e-06</v>
+        <v>2.243940964457246e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>4.152501724155848e-06</v>
+        <v>3.678905564689125e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>2.694262377289409</v>
+        <v>10.03852729725105</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7469958406149828</v>
+        <v>0.07415092357356669</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5388524754578817</v>
+        <v>2.00770545945021</v>
       </c>
     </row>
     <row r="53">
@@ -1734,25 +1734,25 @@
         <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001581287032801616</v>
+        <v>0.0001528797526568908</v>
       </c>
       <c r="C53" t="n">
-        <v>3.74650316451884e-06</v>
+        <v>6.614526091720319e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>4.08399948112515e-06</v>
+        <v>3.831131641420678e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>6.489460122055041e-06</v>
+        <v>6.093786094432937e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9993393239792052</v>
+        <v>2.714786517327243</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9626190437274197</v>
+        <v>0.7438559928969236</v>
       </c>
       <c r="H53" t="n">
-        <v>0.199867864795841</v>
+        <v>0.5429573034654487</v>
       </c>
     </row>
     <row r="54">
@@ -1760,25 +1760,25 @@
         <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004272179422904253</v>
+        <v>0.0004173906666003938</v>
       </c>
       <c r="C54" t="n">
-        <v>3.88002628991435e-05</v>
+        <v>4.258313988496641e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>1.072934052778356e-05</v>
+        <v>1.038307762547989e-05</v>
       </c>
       <c r="E54" t="n">
-        <v>1.749705451501437e-05</v>
+        <v>1.699287931466176e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>2.943787339500343</v>
+        <v>3.649915097540914</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7086519545396466</v>
+        <v>0.6008346838924382</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5887574679000687</v>
+        <v>0.7299830195081829</v>
       </c>
     </row>
     <row r="55">
@@ -1786,25 +1786,25 @@
         <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006913753125220038</v>
+        <v>0.0006765361420598698</v>
       </c>
       <c r="C55" t="n">
-        <v>4.763184249989018e-05</v>
+        <v>4.489235914563895e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>1.679560193448126e-05</v>
+        <v>1.631917425889344e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>2.732448964059582e-05</v>
+        <v>2.65845504104732e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>1.524667428478037</v>
+        <v>2.484354989207968</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9102057652499133</v>
+        <v>0.7788493756751802</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3049334856956075</v>
+        <v>0.4968709978415936</v>
       </c>
     </row>
     <row r="56">
@@ -1812,25 +1812,25 @@
         <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>0.000767351050692764</v>
+        <v>0.0007610522123908744</v>
       </c>
       <c r="C56" t="n">
-        <v>3.203805018615576e-05</v>
+        <v>3.453537418331989e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>1.81689829858025e-05</v>
+        <v>1.787448727502979e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>2.945636496943225e-05</v>
+        <v>2.896426431136596e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>2.195251442103544</v>
+        <v>3.030312592646567</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8215215721487586</v>
+        <v>0.6953123490331538</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4390502884207088</v>
+        <v>0.6060625185293135</v>
       </c>
     </row>
     <row r="57">
@@ -1838,25 +1838,25 @@
         <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0006175843293701239</v>
+        <v>0.0006086251947318991</v>
       </c>
       <c r="C57" t="n">
-        <v>5.788021443603789e-05</v>
+        <v>5.660280894713307e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>1.4717354550708e-05</v>
+        <v>1.438263351398966e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>2.431789798799642e-05</v>
+        <v>2.373624120906827e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>2.171161556361973</v>
+        <v>2.225789821159056</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8249904225399322</v>
+        <v>0.8171021696891829</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4342323112723946</v>
+        <v>0.4451579642318112</v>
       </c>
     </row>
     <row r="58">
@@ -1864,25 +1864,25 @@
         <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0003181751939462293</v>
+        <v>0.0003145293608558451</v>
       </c>
       <c r="C58" t="n">
-        <v>2.17941876189844e-05</v>
+        <v>2.16677888169893e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>7.588321873614544e-06</v>
+        <v>7.405855711597123e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>1.232567327789047e-05</v>
+        <v>1.20009333137185e-05</v>
       </c>
       <c r="F58" t="n">
-        <v>3.107550525611415</v>
+        <v>4.514413130425923</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6834088933882279</v>
+        <v>0.4779573299203573</v>
       </c>
       <c r="H58" t="n">
-        <v>0.621510105122283</v>
+        <v>0.9028826260851845</v>
       </c>
     </row>
     <row r="59">
@@ -1890,25 +1890,25 @@
         <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0002461895419286007</v>
+        <v>0.0002379819936841254</v>
       </c>
       <c r="C59" t="n">
-        <v>1.717589787789483e-05</v>
+        <v>2.407218854909846e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>5.903798083752104e-06</v>
+        <v>5.60360362923465e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>9.609543550289626e-06</v>
+        <v>9.06544260445495e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>1.955262833460198</v>
+        <v>6.179947771747501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8553000159715307</v>
+        <v>0.2891009819439398</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3910525666920396</v>
+        <v>1.2359895543495</v>
       </c>
     </row>
     <row r="60">
@@ -1916,25 +1916,25 @@
         <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0003130726172463961</v>
+        <v>0.0003086987790943723</v>
       </c>
       <c r="C60" t="n">
-        <v>2.130330944875953e-05</v>
+        <v>2.250455254627416e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>7.407370391601618e-06</v>
+        <v>7.195144535942711e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>1.218366230456925e-05</v>
+        <v>1.183374651675521e-05</v>
       </c>
       <c r="F60" t="n">
-        <v>6.596862926382191</v>
+        <v>7.363132378037909</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2523891525152661</v>
+        <v>0.1950038506531856</v>
       </c>
       <c r="H60" t="n">
-        <v>1.319372585276438</v>
+        <v>1.472626475607582</v>
       </c>
     </row>
     <row r="61">
@@ -1942,25 +1942,25 @@
         <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>0.000139998271296228</v>
+        <v>0.0001328778444766834</v>
       </c>
       <c r="C61" t="n">
-        <v>1.121153433286372e-05</v>
+        <v>1.612011198100593e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>3.360900630176302e-06</v>
+        <v>3.123264860082812e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>5.541957170474072e-06</v>
+        <v>5.173441996434222e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>2.754364342385998</v>
+        <v>6.292649196380514</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7377919192395006</v>
+        <v>0.2787752664148457</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5508728684771995</v>
+        <v>1.258529839276103</v>
       </c>
     </row>
     <row r="62">
@@ -1968,25 +1968,25 @@
         <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>9.913917682767162e-05</v>
+        <v>9.38456751233185e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>6.384858417290821e-06</v>
+        <v>9.883673458367767e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>2.366002448356977e-06</v>
+        <v>2.163086689254142e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>3.852530972753164e-06</v>
+        <v>3.536026208427738e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>1.103557631150576</v>
+        <v>8.355235048999369</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9537882895900125</v>
+        <v>0.1377141648376001</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2207115262301153</v>
+        <v>1.671047009799874</v>
       </c>
     </row>
     <row r="63">
@@ -1994,25 +1994,25 @@
         <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>5.837883176038202e-05</v>
+        <v>4.93734284711351e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>3.243245813386955e-06</v>
+        <v>9.873868202476575e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>1.442123264167725e-06</v>
+        <v>1.189362261163926e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>2.366385532544868e-06</v>
+        <v>1.983235808447533e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>3.977255681123122</v>
+        <v>24.13577460032418</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5526952181479979</v>
+        <v>0.0002044494942791508</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7954511362246245</v>
+        <v>4.827154920064835</v>
       </c>
     </row>
     <row r="64">
@@ -2020,25 +2020,25 @@
         <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>3.199415096110318e-05</v>
+        <v>2.478123935151505e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.716175511774272e-07</v>
+        <v>5.136533632892767e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>8.600591013667672e-07</v>
+        <v>6.476729312482875e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>1.382973719374929e-06</v>
+        <v>1.047412209787819e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>5.496230508218059</v>
+        <v>49.49357205487499</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3583593963707098</v>
+        <v>1.759131646942136e-09</v>
       </c>
       <c r="H64" t="n">
-        <v>1.099246101643612</v>
+        <v>9.898714410974998</v>
       </c>
     </row>
     <row r="65">
@@ -2046,25 +2046,25 @@
         <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>2.433235456798411e-05</v>
+        <v>1.892706528568135e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>2.063666019674575e-06</v>
+        <v>4.139826527244469e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>9.381557382908705e-07</v>
+        <v>7.068311251101354e-07</v>
       </c>
       <c r="E65" t="n">
-        <v>1.488979507105878e-06</v>
+        <v>1.141964871427725e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>4.434823835269965</v>
+        <v>21.798757666426</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4886508565324864</v>
+        <v>0.0005717820342632351</v>
       </c>
       <c r="H65" t="n">
-        <v>0.886964767053993</v>
+        <v>4.3597515332852</v>
       </c>
     </row>
     <row r="66">
@@ -2072,25 +2072,25 @@
         <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>2.446376629709947e-05</v>
+        <v>1.86837858426946e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>1.605804842959893e-06</v>
+        <v>5.289117852531668e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>1.410553130668995e-06</v>
+        <v>1.120525829923106e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>2.272647180567413e-06</v>
+        <v>1.805503380863276e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>1.051643381772546</v>
+        <v>6.203755873763527</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9582937574927723</v>
+        <v>0.2868944960347775</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2103286763545092</v>
+        <v>1.240751174752706</v>
       </c>
     </row>
     <row r="67">
@@ -2098,25 +2098,25 @@
         <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>2.976022979156664e-05</v>
+        <v>2.444653491701827e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>-8.159704801905112e-07</v>
+        <v>3.974382759058399e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>2.08249751025099e-06</v>
+        <v>1.641622115233393e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>3.044715984377271e-06</v>
+        <v>2.493215641049166e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>1.235694691972933</v>
+        <v>10.33111748056364</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9414074521683575</v>
+        <v>0.06637874142494843</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2471389383945866</v>
+        <v>2.066223496112728</v>
       </c>
     </row>
     <row r="68">
@@ -2124,25 +2124,25 @@
         <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>3.81166188205675e-05</v>
+        <v>3.544983199035934e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>6.649217933223592e-06</v>
+        <v>2.522312389404818e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>3.086784288281921e-06</v>
+        <v>2.812339253850674e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>5.081189029159887e-06</v>
+        <v>4.250645602683475e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>4.131642523719122</v>
+        <v>3.415177681401954</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5306226752484593</v>
+        <v>0.6362593698337622</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8263285047438244</v>
+        <v>0.6830355362803908</v>
       </c>
     </row>
     <row r="69">
@@ -2150,25 +2150,25 @@
         <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>3.619382009575469e-05</v>
+        <v>3.115070291959113e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>8.421169019477802e-06</v>
+        <v>8.014398877564274e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>2.780015780355608e-06</v>
+        <v>2.368689014061987e-06</v>
       </c>
       <c r="E69" t="n">
-        <v>4.217951932158437e-06</v>
+        <v>3.698711955808956e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>1.749043749815826</v>
+        <v>3.628376548932981</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8826640715540421</v>
+        <v>0.6040577786398579</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3498087499631652</v>
+        <v>0.7256753097865962</v>
       </c>
     </row>
     <row r="70">
@@ -2176,25 +2176,25 @@
         <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>7.543749255097207e-05</v>
+        <v>6.495516618107235e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>1.29894273286619e-05</v>
+        <v>1.277140664429373e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>5.552730780303054e-06</v>
+        <v>4.416910893836477e-06</v>
       </c>
       <c r="E70" t="n">
-        <v>8.892311543795516e-06</v>
+        <v>7.065029576361559e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>1.294911120506455</v>
+        <v>2.881792874076865</v>
       </c>
       <c r="G70" t="n">
-        <v>0.935454449030239</v>
+        <v>0.71820383549764</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2589822241012909</v>
+        <v>0.5763585748153731</v>
       </c>
     </row>
     <row r="71">
@@ -2202,25 +2202,25 @@
         <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0001176055596030266</v>
+        <v>0.0001033609460978158</v>
       </c>
       <c r="C71" t="n">
-        <v>9.484373528250518e-06</v>
+        <v>1.688867211708748e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>7.495180669451109e-06</v>
+        <v>6.467477902944513e-06</v>
       </c>
       <c r="E71" t="n">
-        <v>1.108413910023259e-05</v>
+        <v>9.877341570351963e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>3.125935905741334</v>
+        <v>3.668115603463758</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6805773721300128</v>
+        <v>0.5981159111468212</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6251871811482668</v>
+        <v>0.7336231206927517</v>
       </c>
     </row>
     <row r="72">
@@ -2228,25 +2228,25 @@
         <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0002743847682601192</v>
+        <v>0.0002714233067442219</v>
       </c>
       <c r="C72" t="n">
-        <v>1.703486018181971e-05</v>
+        <v>2.187513028377157e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>8.123608755578459e-06</v>
+        <v>7.775919169648488e-06</v>
       </c>
       <c r="E72" t="n">
-        <v>1.304464891220642e-05</v>
+        <v>1.257841402071328e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>2.734231966040953</v>
+        <v>4.162143369054591</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7408780375708309</v>
+        <v>0.5263154516773014</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5468463932081906</v>
+        <v>0.8324286738109181</v>
       </c>
     </row>
     <row r="73">
@@ -2254,25 +2254,25 @@
         <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0007010223201968353</v>
+        <v>0.0006974602808904805</v>
       </c>
       <c r="C73" t="n">
-        <v>4.468175144618856e-05</v>
+        <v>4.412410110263818e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>1.908466528723224e-05</v>
+        <v>1.870803445120613e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>3.077242582744047e-05</v>
+        <v>3.031566426031131e-05</v>
       </c>
       <c r="F73" t="n">
-        <v>3.0238508771763</v>
+        <v>4.096446006770494</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6963085576472466</v>
+        <v>0.5356153928490316</v>
       </c>
       <c r="H73" t="n">
-        <v>0.6047701754352601</v>
+        <v>0.8192892013540988</v>
       </c>
     </row>
     <row r="74">
@@ -2280,25 +2280,25 @@
         <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0006951436298440706</v>
+        <v>0.000685884876738472</v>
       </c>
       <c r="C74" t="n">
-        <v>3.371436288490215e-05</v>
+        <v>2.832081060799628e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>1.908829087927524e-05</v>
+        <v>1.860645875747705e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>3.06119482250736e-05</v>
+        <v>2.98113516558463e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>2.599749173224339</v>
+        <v>3.890937055254044</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7614033775609187</v>
+        <v>0.5652229220654309</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5199498346448677</v>
+        <v>0.7781874110508087</v>
       </c>
     </row>
     <row r="75">
@@ -2306,25 +2306,25 @@
         <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0003689608239047183</v>
+        <v>0.0003666325009874116</v>
       </c>
       <c r="C75" t="n">
-        <v>1.508567805885073e-05</v>
+        <v>1.452804384903734e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>1.160093745595447e-05</v>
+        <v>1.117408917221184e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>1.817706627185597e-05</v>
+        <v>1.764380868191034e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>1.577550374345701</v>
+        <v>2.933863456561204</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9039507502425939</v>
+        <v>0.7101815373151407</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3155100748691402</v>
+        <v>0.5867726913122407</v>
       </c>
     </row>
     <row r="76">
@@ -2332,25 +2332,25 @@
         <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0001971341609276278</v>
+        <v>0.0001889932128361947</v>
       </c>
       <c r="C76" t="n">
-        <v>1.491496402863365e-05</v>
+        <v>2.105582797682967e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>6.236150711650533e-06</v>
+        <v>5.743866217899055e-06</v>
       </c>
       <c r="E76" t="n">
-        <v>9.796320314762078e-06</v>
+        <v>9.102905067219053e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>2.90981621942022</v>
+        <v>5.135894045581987</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7138872121697597</v>
+        <v>0.3995217797408636</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5819632438840439</v>
+        <v>1.027178809116397</v>
       </c>
     </row>
     <row r="77">
@@ -2358,25 +2358,25 @@
         <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>9.869139269365036e-05</v>
+        <v>9.393017250472431e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>8.0407711239922e-06</v>
+        <v>4.376315121336076e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>3.952684057466804e-06</v>
+        <v>3.617311558807448e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>6.197880602772485e-06</v>
+        <v>5.587057639590807e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>2.446974481235388</v>
+        <v>4.233991301220808</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7844587808325695</v>
+        <v>0.5162421370968137</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4893948962470777</v>
+        <v>0.8467982602441616</v>
       </c>
     </row>
     <row r="78">
@@ -2384,25 +2384,25 @@
         <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0001021914435008412</v>
+        <v>9.662923679983317e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.206113425639419e-05</v>
+        <v>-8.0405046206002e-06</v>
       </c>
       <c r="D78" t="n">
-        <v>5.717345315894957e-06</v>
+        <v>5.683534563705094e-06</v>
       </c>
       <c r="E78" t="n">
-        <v>8.245273890433674e-06</v>
+        <v>8.147937948475983e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>1.627193965469974</v>
+        <v>3.201044269740934</v>
       </c>
       <c r="G78" t="n">
-        <v>0.8979413819064392</v>
+        <v>0.6690224119494954</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3254387930939948</v>
+        <v>0.6402088539481868</v>
       </c>
     </row>
     <row r="79">
@@ -2410,25 +2410,25 @@
         <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>6.896229655302492e-05</v>
+        <v>7.105732843395537e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>4.079283912607162e-06</v>
+        <v>-1.744869124749901e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>5.686611375211894e-06</v>
+        <v>5.511883456729267e-06</v>
       </c>
       <c r="E79" t="n">
-        <v>9.289866256912987e-06</v>
+        <v>8.021471146323756e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>3.893270015402283</v>
+        <v>3.700684645000735</v>
       </c>
       <c r="G79" t="n">
-        <v>0.564882660296439</v>
+        <v>0.5932620796602291</v>
       </c>
       <c r="H79" t="n">
-        <v>0.7786540030804566</v>
+        <v>0.740136929000147</v>
       </c>
     </row>
     <row r="80">
@@ -2436,25 +2436,25 @@
         <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>6.578723237767296e-05</v>
+        <v>5.085934743480903e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.692707285039449e-07</v>
+        <v>4.274256913776664e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>4.415579284294522e-06</v>
+        <v>3.637012970715279e-06</v>
       </c>
       <c r="E80" t="n">
-        <v>6.931074311369502e-06</v>
+        <v>5.804798555866221e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>1.416083593086857</v>
+        <v>15.54618831734964</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9225458487075813</v>
+        <v>0.008266547618759187</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2832167186173715</v>
+        <v>3.109237663469928</v>
       </c>
     </row>
     <row r="81">
@@ -2462,25 +2462,25 @@
         <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>3.966954047036456e-05</v>
+        <v>3.829264859125374e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>8.435850151568125e-06</v>
+        <v>9.150227091787688e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>2.53996297400135e-06</v>
+        <v>2.358218564362162e-06</v>
       </c>
       <c r="E81" t="n">
-        <v>3.919710896402061e-06</v>
+        <v>3.598587330571516e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>2.336281709263078</v>
+        <v>7.548294071593857</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8009236597177709</v>
+        <v>0.1829500268236726</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4672563418526156</v>
+        <v>1.509658814318771</v>
       </c>
     </row>
     <row r="82">
@@ -2488,25 +2488,25 @@
         <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>4.814828798579417e-05</v>
+        <v>4.589434061611742e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>3.552817718360298e-06</v>
+        <v>4.643395086370483e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>2.47549571979519e-06</v>
+        <v>2.115809566661288e-06</v>
       </c>
       <c r="E82" t="n">
-        <v>3.924982015452646e-06</v>
+        <v>3.325835498503841e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>1.968165810650825</v>
+        <v>8.565832373010874</v>
       </c>
       <c r="G82" t="n">
-        <v>0.8535321449828733</v>
+        <v>0.1276859530179251</v>
       </c>
       <c r="H82" t="n">
-        <v>0.393633162130165</v>
+        <v>1.713166474602175</v>
       </c>
     </row>
     <row r="83">
@@ -2514,25 +2514,25 @@
         <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0001032758257205198</v>
+        <v>0.0001006892755769103</v>
       </c>
       <c r="C83" t="n">
-        <v>8.826988820455882e-07</v>
+        <v>6.587295041120627e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>3.337604136271387e-06</v>
+        <v>3.091798411339944e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>5.266701402948182e-06</v>
+        <v>4.893900104156374e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>4.881372802257467</v>
+        <v>3.766509515273631</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4305286402083892</v>
+        <v>0.5834982091740886</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9762745604514933</v>
+        <v>0.7533019030547261</v>
       </c>
     </row>
     <row r="84">
@@ -2540,25 +2540,25 @@
         <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>6.884774177193118e-05</v>
+        <v>6.70737010208644e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>3.159659499015519e-06</v>
+        <v>7.10543190427046e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>2.076461116253849e-06</v>
+        <v>1.886075555167315e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>3.302397949489104e-06</v>
+        <v>3.041312146079685e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>2.279100374135161</v>
+        <v>6.625810041826</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8093315206887004</v>
+        <v>0.2499892415495288</v>
       </c>
       <c r="H84" t="n">
-        <v>0.4558200748270321</v>
+        <v>1.3251620083652</v>
       </c>
     </row>
     <row r="85">
@@ -2566,25 +2566,25 @@
         <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>3.130181624216683e-05</v>
+        <v>2.74525498421695e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>2.838813707899112e-06</v>
+        <v>4.682336081595005e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>1.139913579482366e-06</v>
+        <v>8.999496092863016e-07</v>
       </c>
       <c r="E85" t="n">
-        <v>1.809678302520263e-06</v>
+        <v>1.407689411559452e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>2.832477651942287</v>
+        <v>22.41658097857681</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7257937853803199</v>
+        <v>0.0004362268726275963</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5664955303884573</v>
+        <v>4.483316195715362</v>
       </c>
     </row>
     <row r="86">
@@ -2592,25 +2592,25 @@
         <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>2.791123468057774e-05</v>
+        <v>2.36400931857788e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.120467927823048e-06</v>
+        <v>3.145046701187508e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>9.618503778389918e-07</v>
+        <v>7.567245545287164e-07</v>
       </c>
       <c r="E86" t="n">
-        <v>1.462470714982173e-06</v>
+        <v>1.188260642486589e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>3.104848231423339</v>
+        <v>24.58501730460666</v>
       </c>
       <c r="G86" t="n">
-        <v>0.6838251515726004</v>
+        <v>0.0001675350702958658</v>
       </c>
       <c r="H86" t="n">
-        <v>0.6209696462846678</v>
+        <v>4.917003460921332</v>
       </c>
     </row>
     <row r="87">
@@ -2618,25 +2618,25 @@
         <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>2.538637188882379e-05</v>
+        <v>2.332235561663193e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>2.48903797338509e-06</v>
+        <v>3.10626771235497e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>7.663029052046408e-07</v>
+        <v>6.532933186123272e-07</v>
       </c>
       <c r="E87" t="n">
-        <v>1.261983474640407e-06</v>
+        <v>1.061716292797974e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>2.702233153670232</v>
+        <v>10.1945818507569</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7457768653743279</v>
+        <v>0.0699058976916265</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5404466307340463</v>
+        <v>2.038916370151379</v>
       </c>
     </row>
     <row r="88">
@@ -2644,25 +2644,25 @@
         <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>3.099979777729475e-05</v>
+        <v>2.768257324987863e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>2.775789662028339e-06</v>
+        <v>4.933060427821911e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>9.1189599214255e-07</v>
+        <v>7.639469533016582e-07</v>
       </c>
       <c r="E88" t="n">
-        <v>1.4915219124231e-06</v>
+        <v>1.250107670047914e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>1.865727089329654</v>
+        <v>11.92271821808992</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8673947847710972</v>
+        <v>0.03586220187095174</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3731454178659307</v>
+        <v>2.384543643617985</v>
       </c>
     </row>
     <row r="89">
@@ -2670,25 +2670,25 @@
         <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>5.792680867392211e-05</v>
+        <v>5.627844218909218e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>2.443985503670596e-06</v>
+        <v>4.203808269821495e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>1.607644097764771e-06</v>
+        <v>1.438100884786299e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>2.566210596925706e-06</v>
+        <v>2.321473032662848e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>6.754104191423103</v>
+        <v>7.516662237405374</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2395795561773779</v>
+        <v>0.1849621951999053</v>
       </c>
       <c r="H89" t="n">
-        <v>1.350820838284621</v>
+        <v>1.503332447481075</v>
       </c>
     </row>
     <row r="90">
@@ -2696,25 +2696,25 @@
         <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001312489298042764</v>
+        <v>0.0001285236337619164</v>
       </c>
       <c r="C90" t="n">
-        <v>7.67554752459879e-06</v>
+        <v>1.333413235218706e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>3.327666115671847e-06</v>
+        <v>3.114752390348654e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>5.405460633487462e-06</v>
+        <v>5.107420080630054e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>1.895707020653167</v>
+        <v>4.36740354075177</v>
       </c>
       <c r="G90" t="n">
-        <v>0.8633795895806238</v>
+        <v>0.4978179014009377</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3791414041306335</v>
+        <v>0.8734807081503539</v>
       </c>
     </row>
     <row r="91">
@@ -2722,25 +2722,25 @@
         <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001477268983810188</v>
+        <v>0.0001447908814435115</v>
       </c>
       <c r="C91" t="n">
-        <v>3.266523348615399e-07</v>
+        <v>7.228013347400068e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>3.650189489020278e-06</v>
+        <v>3.478796762470504e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>5.813001359310624e-06</v>
+        <v>5.597503554536751e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>1.760353258403718</v>
+        <v>2.505681331543608</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8812102619632934</v>
+        <v>0.7756392092697717</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3520706516807437</v>
+        <v>0.5011362663087215</v>
       </c>
     </row>
     <row r="92">
@@ -2748,25 +2748,25 @@
         <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001726272506565172</v>
+        <v>0.0001724848222050196</v>
       </c>
       <c r="C92" t="n">
-        <v>1.112766931994131e-05</v>
+        <v>1.421679226011428e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>4.250497875480685e-06</v>
+        <v>4.145276154929077e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>6.906443580808725e-06</v>
+        <v>6.777493946650607e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>4.425653311699727</v>
+        <v>4.177730014375193</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4898919641868212</v>
+        <v>0.5241214087718953</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8851306623399454</v>
+        <v>0.8355460028750386</v>
       </c>
     </row>
     <row r="93">
@@ -2774,25 +2774,25 @@
         <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001771469344718427</v>
+        <v>0.0001754627872802476</v>
       </c>
       <c r="C93" t="n">
-        <v>9.087217038190903e-06</v>
+        <v>1.250956790919624e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>4.607772274457628e-06</v>
+        <v>4.41160788442106e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>7.406248165311452e-06</v>
+        <v>7.108976565582519e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>1.138818951449057</v>
+        <v>2.44092662146051</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9506104555332654</v>
+        <v>0.7853641628599303</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2277637902898115</v>
+        <v>0.488185324292102</v>
       </c>
     </row>
     <row r="94">
@@ -2800,25 +2800,25 @@
         <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001562768079998509</v>
+        <v>0.0001530559004706965</v>
       </c>
       <c r="C94" t="n">
-        <v>7.873044193001266e-06</v>
+        <v>7.432802812954033e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>5.085434374362792e-06</v>
+        <v>4.824888646872873e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>8.050119072592482e-06</v>
+        <v>7.490887942767615e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>1.220609228283402</v>
+        <v>1.925656628266817</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9428849738801931</v>
+        <v>0.8593332915302556</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2441218456566804</v>
+        <v>0.3851313256533633</v>
       </c>
     </row>
     <row r="95">
@@ -2826,25 +2826,25 @@
         <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001402729923928114</v>
+        <v>0.0001375868743930825</v>
       </c>
       <c r="C95" t="n">
-        <v>8.105479261970148e-06</v>
+        <v>1.216189332728483e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>4.895948453608251e-06</v>
+        <v>4.528299543505321e-06</v>
       </c>
       <c r="E95" t="n">
-        <v>7.846184238231973e-06</v>
+        <v>7.196683540813364e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7760191879213306</v>
+        <v>2.404810162262404</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9785376325055697</v>
+        <v>0.7907575777602235</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1552038375842661</v>
+        <v>0.4809620324524809</v>
       </c>
     </row>
     <row r="96">
@@ -2852,25 +2852,25 @@
         <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0001063437859297791</v>
+        <v>0.0001069765576989601</v>
       </c>
       <c r="C96" t="n">
-        <v>2.219647999009933e-06</v>
+        <v>7.202090768886212e-07</v>
       </c>
       <c r="D96" t="n">
-        <v>3.739749415332167e-06</v>
+        <v>3.688297364706587e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>5.850556089393626e-06</v>
+        <v>5.770431492865177e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7800419148647423</v>
+        <v>1.002877883907499</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9782888286959844</v>
+        <v>0.9623333181805991</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1560083829729484</v>
+        <v>0.2005755767814997</v>
       </c>
     </row>
     <row r="97">
@@ -2878,25 +2878,25 @@
         <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>9.845608445866628e-05</v>
+        <v>9.678366592669864e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>2.389146067119697e-06</v>
+        <v>6.066478969787937e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>3.172276035295672e-06</v>
+        <v>3.01994081229148e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>5.128633462904689e-06</v>
+        <v>4.845954036637937e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4377777641623656</v>
+        <v>1.77712855415853</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9942249116225669</v>
+        <v>0.8790431752254109</v>
       </c>
       <c r="H97" t="n">
-        <v>0.08755555283247313</v>
+        <v>0.3554257108317059</v>
       </c>
     </row>
     <row r="98">
@@ -2904,25 +2904,25 @@
         <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>9.144689275894814e-05</v>
+        <v>9.19768451785519e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>8.802368837205828e-06</v>
+        <v>1.014530075241943e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>2.561058066025469e-06</v>
+        <v>2.417033072735881e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>4.169008893878902e-06</v>
+        <v>3.959358112521262e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>1.943024065998444</v>
+        <v>4.054145588785264</v>
       </c>
       <c r="G98" t="n">
-        <v>0.8569712612869131</v>
+        <v>0.5416469656694286</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3886048131996888</v>
+        <v>0.8108291177570528</v>
       </c>
     </row>
     <row r="99">
@@ -2930,25 +2930,25 @@
         <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>9.166628645315461e-05</v>
+        <v>8.905047722241634e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>2.112385505762589e-06</v>
+        <v>8.289175644679819e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>2.317572182080704e-06</v>
+        <v>2.166704381341093e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>3.73948937577811e-06</v>
+        <v>3.51873491047582e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>1.201597330796032</v>
+        <v>3.696902952292378</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9447240308728</v>
+        <v>0.5938249162645649</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2403194661592065</v>
+        <v>0.7393805904584757</v>
       </c>
     </row>
     <row r="100">
@@ -2956,25 +2956,25 @@
         <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>8.965116794552268e-05</v>
+        <v>8.510355416306438e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>9.092436140943023e-06</v>
+        <v>1.447814814561806e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>2.106999343362467e-06</v>
+        <v>1.937135505447933e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>3.492050684703355e-06</v>
+        <v>3.247692650903776e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>2.351137763721627</v>
+        <v>11.16619503089403</v>
       </c>
       <c r="G100" t="n">
-        <v>0.7987277376911746</v>
+        <v>0.04818259882238967</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4702275527443255</v>
+        <v>2.233239006178806</v>
       </c>
     </row>
     <row r="101">
@@ -2982,25 +2982,25 @@
         <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>8.992953226798282e-05</v>
+        <v>8.595549878208577e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>5.229764356911139e-06</v>
+        <v>9.805919871044528e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>2.000879751391456e-06</v>
+        <v>1.875493232256222e-06</v>
       </c>
       <c r="E101" t="n">
-        <v>3.29076788958112e-06</v>
+        <v>3.116154625817657e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>2.454295594696386</v>
+        <v>5.574584156770333</v>
       </c>
       <c r="G101" t="n">
-        <v>0.7833619616450799</v>
+        <v>0.3498367519251033</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4908591189392773</v>
+        <v>1.114916831354067</v>
       </c>
     </row>
     <row r="102">
@@ -3008,25 +3008,25 @@
         <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0001052409185845982</v>
+        <v>0.0001034314546859425</v>
       </c>
       <c r="C102" t="n">
-        <v>7.179630185294065e-06</v>
+        <v>1.072244392070473e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>2.285730502800596e-06</v>
+        <v>2.204962716897983e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>3.784829166213422e-06</v>
+        <v>3.68612935900819e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>3.002781759188756</v>
+        <v>4.193406696638219</v>
       </c>
       <c r="G102" t="n">
-        <v>0.6995569434216179</v>
+        <v>0.5219195487120288</v>
       </c>
       <c r="H102" t="n">
-        <v>0.6005563518377512</v>
+        <v>0.8386813393276438</v>
       </c>
     </row>
     <row r="103">
@@ -3034,25 +3034,25 @@
         <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001414496941432173</v>
+        <v>0.0001388307898823571</v>
       </c>
       <c r="C103" t="n">
-        <v>1.154466650021787e-05</v>
+        <v>1.688439556463686e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>3.039140303225341e-06</v>
+        <v>2.93110557793952e-06</v>
       </c>
       <c r="E103" t="n">
-        <v>5.058846082156059e-06</v>
+        <v>4.92161124191341e-06</v>
       </c>
       <c r="F103" t="n">
-        <v>1.432696571256496</v>
+        <v>2.44756791779879</v>
       </c>
       <c r="G103" t="n">
-        <v>0.9207034858222307</v>
+        <v>0.7843699081947407</v>
       </c>
       <c r="H103" t="n">
-        <v>0.2865393142512992</v>
+        <v>0.4895135835597579</v>
       </c>
     </row>
     <row r="104">
@@ -3060,25 +3060,25 @@
         <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0002304310084154655</v>
+        <v>0.0002298845086827771</v>
       </c>
       <c r="C104" t="n">
-        <v>1.418508162183077e-05</v>
+        <v>1.829517274600333e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>4.823659763900664e-06</v>
+        <v>4.779239542631503e-06</v>
       </c>
       <c r="E104" t="n">
-        <v>8.011946034756534e-06</v>
+        <v>7.954847653153125e-06</v>
       </c>
       <c r="F104" t="n">
-        <v>2.866058824525298</v>
+        <v>2.675371548053053</v>
       </c>
       <c r="G104" t="n">
-        <v>0.720626407993925</v>
+        <v>0.7498825957061078</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5732117649050595</v>
+        <v>0.5350743096106105</v>
       </c>
     </row>
     <row r="105">
@@ -3086,25 +3086,25 @@
         <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003452994941894157</v>
+        <v>0.0003470107940623673</v>
       </c>
       <c r="C105" t="n">
-        <v>2.19686597481764e-05</v>
+        <v>2.383559444915355e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>7.309430945243065e-06</v>
+        <v>7.306530789871235e-06</v>
       </c>
       <c r="E105" t="n">
-        <v>1.203188229906075e-05</v>
+        <v>1.205114693117691e-05</v>
       </c>
       <c r="F105" t="n">
-        <v>1.810593009712768</v>
+        <v>1.835473267262138</v>
       </c>
       <c r="G105" t="n">
-        <v>0.8746828729008075</v>
+        <v>0.8714097295745266</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3621186019425536</v>
+        <v>0.3670946534524275</v>
       </c>
     </row>
     <row r="106">
@@ -3112,25 +3112,25 @@
         <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004586658772327083</v>
+        <v>0.000460428327739634</v>
       </c>
       <c r="C106" t="n">
-        <v>3.505570191405399e-05</v>
+        <v>3.573438621454753e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>9.588052911462071e-06</v>
+        <v>9.593548299247184e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>1.592061935741277e-05</v>
+        <v>1.59372917052745e-05</v>
       </c>
       <c r="F106" t="n">
-        <v>2.083859520699678</v>
+        <v>2.344803031103046</v>
       </c>
       <c r="G106" t="n">
-        <v>0.8374240488401243</v>
+        <v>0.7996646534594104</v>
       </c>
       <c r="H106" t="n">
-        <v>0.4167719041399355</v>
+        <v>0.4689606062206092</v>
       </c>
     </row>
     <row r="107">
@@ -3138,25 +3138,25 @@
         <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>0.000608617253608369</v>
+        <v>0.0006102422961564636</v>
       </c>
       <c r="C107" t="n">
-        <v>2.404913175123568e-05</v>
+        <v>3.147080252803808e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>1.280624068039921e-05</v>
+        <v>1.278622999342415e-05</v>
       </c>
       <c r="E107" t="n">
-        <v>2.096085004817073e-05</v>
+        <v>2.102986639460919e-05</v>
       </c>
       <c r="F107" t="n">
-        <v>1.151566834052625</v>
+        <v>1.133054692517665</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9494386166062094</v>
+        <v>0.9511363489300647</v>
       </c>
       <c r="H107" t="n">
-        <v>0.2303133668105251</v>
+        <v>0.2266109385035331</v>
       </c>
     </row>
     <row r="108">
@@ -3164,25 +3164,25 @@
         <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0007578812488395411</v>
+        <v>0.0007610090762464794</v>
       </c>
       <c r="C108" t="n">
-        <v>5.618837059479984e-05</v>
+        <v>5.673267051616536e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>1.564014285687076e-05</v>
+        <v>1.568545868465517e-05</v>
       </c>
       <c r="E108" t="n">
-        <v>2.602836963125442e-05</v>
+        <v>2.608777318252639e-05</v>
       </c>
       <c r="F108" t="n">
-        <v>2.316510431044196</v>
+        <v>2.333674245655503</v>
       </c>
       <c r="G108" t="n">
-        <v>0.8038389160118902</v>
+        <v>0.801308603397253</v>
       </c>
       <c r="H108" t="n">
-        <v>0.4633020862088392</v>
+        <v>0.4667348491311006</v>
       </c>
     </row>
     <row r="109">
@@ -3190,25 +3190,25 @@
         <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0008175717120288745</v>
+        <v>0.000818824871011734</v>
       </c>
       <c r="C109" t="n">
-        <v>7.492775930881593e-05</v>
+        <v>7.949924569652131e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>1.692163431323303e-05</v>
+        <v>1.691058949980227e-05</v>
       </c>
       <c r="E109" t="n">
-        <v>2.830244643031168e-05</v>
+        <v>2.833788840220655e-05</v>
       </c>
       <c r="F109" t="n">
-        <v>1.340590255115574</v>
+        <v>1.388294689077083</v>
       </c>
       <c r="G109" t="n">
-        <v>0.9307000744219845</v>
+        <v>0.9255894131455473</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2681180510231148</v>
+        <v>0.2776589378154167</v>
       </c>
     </row>
     <row r="110">
@@ -3216,25 +3216,25 @@
         <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001018516371014274</v>
+        <v>0.001018899353889561</v>
       </c>
       <c r="C110" t="n">
-        <v>8.22415921644049e-05</v>
+        <v>8.955889752026601e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>2.092916868961035e-05</v>
+        <v>2.09015721002296e-05</v>
       </c>
       <c r="E110" t="n">
-        <v>3.485800355826531e-05</v>
+        <v>3.487411664612046e-05</v>
       </c>
       <c r="F110" t="n">
-        <v>1.697292555349854</v>
+        <v>1.702633062941227</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8892406747386901</v>
+        <v>0.8885678715330657</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3394585110699708</v>
+        <v>0.3405266125882455</v>
       </c>
     </row>
     <row r="111">
@@ -3242,25 +3242,25 @@
         <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>0.001246629364634174</v>
+        <v>0.001253002331510718</v>
       </c>
       <c r="C111" t="n">
-        <v>6.835974947429636e-05</v>
+        <v>7.397952101894083e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>2.569280743313992e-05</v>
+        <v>2.57944545815682e-05</v>
       </c>
       <c r="E111" t="n">
-        <v>4.233825412040103e-05</v>
+        <v>4.256652080079406e-05</v>
       </c>
       <c r="F111" t="n">
-        <v>1.960713822583104</v>
+        <v>1.929582625809024</v>
       </c>
       <c r="G111" t="n">
-        <v>0.8545538982783809</v>
+        <v>0.858800332936647</v>
       </c>
       <c r="H111" t="n">
-        <v>0.3921427645166208</v>
+        <v>0.3859165251618047</v>
       </c>
     </row>
     <row r="112">
@@ -3268,25 +3268,25 @@
         <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001264342265715598</v>
+        <v>0.001267358356613143</v>
       </c>
       <c r="C112" t="n">
-        <v>7.562274748080221e-05</v>
+        <v>8.18543271805766e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>2.614390969547209e-05</v>
+        <v>2.616633606502276e-05</v>
       </c>
       <c r="E112" t="n">
-        <v>4.327079835419764e-05</v>
+        <v>4.333488733399634e-05</v>
       </c>
       <c r="F112" t="n">
-        <v>2.849990690533768</v>
+        <v>2.788764127526953</v>
       </c>
       <c r="G112" t="n">
-        <v>0.723099499522463</v>
+        <v>0.7325124496585219</v>
       </c>
       <c r="H112" t="n">
-        <v>0.5699981381067537</v>
+        <v>0.5577528255053905</v>
       </c>
     </row>
     <row r="113">
@@ -3294,25 +3294,25 @@
         <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001414970985570081</v>
+        <v>0.001428534635388311</v>
       </c>
       <c r="C113" t="n">
-        <v>5.602816447673221e-05</v>
+        <v>6.393991199792797e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>2.924419761780366e-05</v>
+        <v>2.946856328503047e-05</v>
       </c>
       <c r="E113" t="n">
-        <v>4.80170201450063e-05</v>
+        <v>4.835491244501366e-05</v>
       </c>
       <c r="F113" t="n">
-        <v>2.364753572985781</v>
+        <v>1.489668056801598</v>
       </c>
       <c r="G113" t="n">
-        <v>0.7967111796716624</v>
+        <v>0.9142590295822921</v>
       </c>
       <c r="H113" t="n">
-        <v>0.4729507145971562</v>
+        <v>0.2979336113603197</v>
       </c>
     </row>
     <row r="114">
@@ -3320,25 +3320,25 @@
         <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001446015268400338</v>
+        <v>0.001448544432705253</v>
       </c>
       <c r="C114" t="n">
-        <v>6.209546392288716e-05</v>
+        <v>7.025308869640194e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>2.984786840384687e-05</v>
+        <v>2.985744806977617e-05</v>
       </c>
       <c r="E114" t="n">
-        <v>4.897219317986375e-05</v>
+        <v>4.903494655641651e-05</v>
       </c>
       <c r="F114" t="n">
-        <v>1.716859355517637</v>
+        <v>1.808193578609808</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8867689592318244</v>
+        <v>0.8749971348224767</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3433718711035274</v>
+        <v>0.3616387157219616</v>
       </c>
     </row>
     <row r="115">
@@ -3346,25 +3346,25 @@
         <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001439008046959806</v>
+        <v>0.001445410297029775</v>
       </c>
       <c r="C115" t="n">
-        <v>6.166315006448015e-05</v>
+        <v>8.22979545820697e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>2.973722428989679e-05</v>
+        <v>2.976813229577102e-05</v>
       </c>
       <c r="E115" t="n">
-        <v>4.888541296615259e-05</v>
+        <v>4.901423369348786e-05</v>
       </c>
       <c r="F115" t="n">
-        <v>2.413388128925734</v>
+        <v>2.096779872110343</v>
       </c>
       <c r="G115" t="n">
-        <v>0.7894787100596454</v>
+        <v>0.8355981607434673</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4826776257851469</v>
+        <v>0.4193559744220686</v>
       </c>
     </row>
     <row r="116">
@@ -3372,25 +3372,25 @@
         <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001413002488891537</v>
+        <v>0.001420049435525616</v>
       </c>
       <c r="C116" t="n">
-        <v>7.214670414099208e-05</v>
+        <v>7.385327730876756e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>2.917343522319618e-05</v>
+        <v>2.92967835536424e-05</v>
       </c>
       <c r="E116" t="n">
-        <v>4.799844010065118e-05</v>
+        <v>4.825454291218761e-05</v>
       </c>
       <c r="F116" t="n">
-        <v>2.126709790073643</v>
+        <v>2.13570530434233</v>
       </c>
       <c r="G116" t="n">
-        <v>0.8313491072549491</v>
+        <v>0.8300668736210852</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4253419580147287</v>
+        <v>0.4271410608684659</v>
       </c>
     </row>
     <row r="117">
@@ -3398,25 +3398,25 @@
         <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>0.00141763545867094</v>
+        <v>0.001419494813919698</v>
       </c>
       <c r="C117" t="n">
-        <v>7.533391958805969e-05</v>
+        <v>8.203949158166763e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>2.938902992102372e-05</v>
+        <v>2.938131919717908e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>4.875691413039731e-05</v>
+        <v>4.878795706811958e-05</v>
       </c>
       <c r="F117" t="n">
-        <v>4.268464756839721</v>
+        <v>4.252932826880186</v>
       </c>
       <c r="G117" t="n">
-        <v>0.5114458908239005</v>
+        <v>0.5136038152541288</v>
       </c>
       <c r="H117" t="n">
-        <v>0.8536929513679443</v>
+        <v>0.8505865653760372</v>
       </c>
     </row>
     <row r="118">
@@ -3424,25 +3424,25 @@
         <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001342995890678363</v>
+        <v>0.001354618170009659</v>
       </c>
       <c r="C118" t="n">
-        <v>7.21976146312313e-05</v>
+        <v>8.321706705035519e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>2.766379119169025e-05</v>
+        <v>2.784534636287493e-05</v>
       </c>
       <c r="E118" t="n">
-        <v>4.565077103421471e-05</v>
+        <v>4.599407899627377e-05</v>
       </c>
       <c r="F118" t="n">
-        <v>2.245156658729446</v>
+        <v>1.51889109164301</v>
       </c>
       <c r="G118" t="n">
-        <v>0.8142872043653502</v>
+        <v>0.9108795456856933</v>
       </c>
       <c r="H118" t="n">
-        <v>0.4490313317458893</v>
+        <v>0.3037782183286019</v>
       </c>
     </row>
     <row r="119">
@@ -3450,25 +3450,25 @@
         <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001309635345879587</v>
+        <v>0.001314145160903004</v>
       </c>
       <c r="C119" t="n">
-        <v>5.694609071401398e-05</v>
+        <v>6.311781835202006e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>2.708438106966547e-05</v>
+        <v>2.714087079428754e-05</v>
       </c>
       <c r="E119" t="n">
-        <v>4.440117764033751e-05</v>
+        <v>4.454833052172861e-05</v>
       </c>
       <c r="F119" t="n">
-        <v>1.630346929568728</v>
+        <v>1.744101654963944</v>
       </c>
       <c r="G119" t="n">
-        <v>0.8975553576639366</v>
+        <v>0.8832975273087693</v>
       </c>
       <c r="H119" t="n">
-        <v>0.3260693859137455</v>
+        <v>0.3488203309927888</v>
       </c>
     </row>
     <row r="120">
@@ -3476,25 +3476,25 @@
         <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001078941715976119</v>
+        <v>0.001086696334602949</v>
       </c>
       <c r="C120" t="n">
-        <v>3.551733092231862e-05</v>
+        <v>4.416633909682657e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>2.235156263130824e-05</v>
+        <v>2.24622526595492e-05</v>
       </c>
       <c r="E120" t="n">
-        <v>3.650762550638149e-05</v>
+        <v>3.672286730609193e-05</v>
       </c>
       <c r="F120" t="n">
-        <v>1.835721789862417</v>
+        <v>1.447914736927539</v>
       </c>
       <c r="G120" t="n">
-        <v>0.8713769029704383</v>
+        <v>0.9190010415032144</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3671443579724835</v>
+        <v>0.2895829473855078</v>
       </c>
     </row>
     <row r="121">
@@ -3502,25 +3502,25 @@
         <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001005448153998003</v>
+        <v>0.001004808463457651</v>
       </c>
       <c r="C121" t="n">
-        <v>6.170384509839445e-05</v>
+        <v>6.792043352419328e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>2.087075301129484e-05</v>
+        <v>2.081354328620275e-05</v>
       </c>
       <c r="E121" t="n">
-        <v>3.470171940473344e-05</v>
+        <v>3.462654661305177e-05</v>
       </c>
       <c r="F121" t="n">
-        <v>4.490608920591106</v>
+        <v>4.316257224330097</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4811409148392072</v>
+        <v>0.5048371936975318</v>
       </c>
       <c r="H121" t="n">
-        <v>0.8981217841182213</v>
+        <v>0.8632514448660193</v>
       </c>
     </row>
     <row r="122">
@@ -3528,25 +3528,25 @@
         <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0008428311155447613</v>
+        <v>0.0008452723229525952</v>
       </c>
       <c r="C122" t="n">
-        <v>5.736582223956775e-05</v>
+        <v>6.136562273497184e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>1.737505358114602e-05</v>
+        <v>1.739947106733034e-05</v>
       </c>
       <c r="E122" t="n">
-        <v>2.876269157675542e-05</v>
+        <v>2.883692038522442e-05</v>
       </c>
       <c r="F122" t="n">
-        <v>2.109269475260121</v>
+        <v>1.907538873072388</v>
       </c>
       <c r="G122" t="n">
-        <v>0.8338283078597593</v>
+        <v>0.8617851974087551</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4218538950520243</v>
+        <v>0.3815077746144775</v>
       </c>
     </row>
     <row r="123">
@@ -3554,25 +3554,25 @@
         <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0006541260285636291</v>
+        <v>0.0006582014691262904</v>
       </c>
       <c r="C123" t="n">
-        <v>3.199157179840722e-05</v>
+        <v>3.472450221578998e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>1.351474990465858e-05</v>
+        <v>1.357801414112023e-05</v>
       </c>
       <c r="E123" t="n">
-        <v>2.215675700670031e-05</v>
+        <v>2.229681923846564e-05</v>
       </c>
       <c r="F123" t="n">
-        <v>1.265436753746134</v>
+        <v>1.122087250871445</v>
       </c>
       <c r="G123" t="n">
-        <v>0.938447700693207</v>
+        <v>0.9521300596634475</v>
       </c>
       <c r="H123" t="n">
-        <v>0.2530873507492268</v>
+        <v>0.224417450174289</v>
       </c>
     </row>
     <row r="124">
@@ -3580,25 +3580,25 @@
         <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0006007714611011588</v>
+        <v>0.000603835677101408</v>
       </c>
       <c r="C124" t="n">
-        <v>2.806638689208422e-05</v>
+        <v>2.996777704124959e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>1.259002331773193e-05</v>
+        <v>1.262202335126442e-05</v>
       </c>
       <c r="E124" t="n">
-        <v>2.070565884229697e-05</v>
+        <v>2.07887915633356e-05</v>
       </c>
       <c r="F124" t="n">
-        <v>3.38853499181444</v>
+        <v>3.20549846633827</v>
       </c>
       <c r="G124" t="n">
-        <v>0.6403166546136289</v>
+        <v>0.6683379218056129</v>
       </c>
       <c r="H124" t="n">
-        <v>0.6777069983628879</v>
+        <v>0.641099693267654</v>
       </c>
     </row>
     <row r="125">
@@ -3606,25 +3606,25 @@
         <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0005174344581737637</v>
+        <v>0.0005187682074360015</v>
       </c>
       <c r="C125" t="n">
-        <v>3.906019978591329e-05</v>
+        <v>3.872026873970509e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>1.07398627019711e-05</v>
+        <v>1.075400125563222e-05</v>
       </c>
       <c r="E125" t="n">
-        <v>1.782383539224576e-05</v>
+        <v>1.785210277482765e-05</v>
       </c>
       <c r="F125" t="n">
-        <v>2.095561923765342</v>
+        <v>1.97186147427004</v>
       </c>
       <c r="G125" t="n">
-        <v>0.8357704983180434</v>
+        <v>0.8530246847778535</v>
       </c>
       <c r="H125" t="n">
-        <v>0.4191123847530684</v>
+        <v>0.394372294854008</v>
       </c>
     </row>
     <row r="126">
@@ -3632,25 +3632,25 @@
         <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0004909802323675153</v>
+        <v>0.0004934668326847623</v>
       </c>
       <c r="C126" t="n">
-        <v>2.236730137158613e-05</v>
+        <v>2.265463097168326e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>1.029737323540322e-05</v>
+        <v>1.032131427332416e-05</v>
       </c>
       <c r="E126" t="n">
-        <v>1.68098262465533e-05</v>
+        <v>1.687422892139458e-05</v>
       </c>
       <c r="F126" t="n">
-        <v>1.456279024608142</v>
+        <v>1.308033093758715</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9180593865630626</v>
+        <v>0.9341029126301807</v>
       </c>
       <c r="H126" t="n">
-        <v>0.2912558049216284</v>
+        <v>0.261606618751743</v>
       </c>
     </row>
     <row r="127">
@@ -3658,25 +3658,25 @@
         <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0004933911752232976</v>
+        <v>0.0004947813282142465</v>
       </c>
       <c r="C127" t="n">
-        <v>2.038885672784566e-05</v>
+        <v>2.41321448242071e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>1.033867309212039e-05</v>
+        <v>1.033153482597847e-05</v>
       </c>
       <c r="E127" t="n">
-        <v>1.684559964008774e-05</v>
+        <v>1.68938561974579e-05</v>
       </c>
       <c r="F127" t="n">
-        <v>1.096345188981824</v>
+        <v>1.044709051150337</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9544266699649252</v>
+        <v>0.958879674089817</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2192690377963649</v>
+        <v>0.2089418102300675</v>
       </c>
     </row>
     <row r="128">
@@ -3684,25 +3684,25 @@
         <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0004858905681672529</v>
+        <v>0.0004875809967366179</v>
       </c>
       <c r="C128" t="n">
-        <v>2.541971021371308e-05</v>
+        <v>2.532833311386302e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>1.030837663911291e-05</v>
+        <v>1.030127652098014e-05</v>
       </c>
       <c r="E128" t="n">
-        <v>1.669077478357539e-05</v>
+        <v>1.668893955855763e-05</v>
       </c>
       <c r="F128" t="n">
-        <v>2.289769591652791</v>
+        <v>2.218857800547016</v>
       </c>
       <c r="G128" t="n">
-        <v>0.8077682640255569</v>
+        <v>0.8181074517767557</v>
       </c>
       <c r="H128" t="n">
-        <v>0.4579539183305583</v>
+        <v>0.4437715601094032</v>
       </c>
     </row>
     <row r="129">
@@ -3710,25 +3710,25 @@
         <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0004716068443970297</v>
+        <v>0.0004728671304648867</v>
       </c>
       <c r="C129" t="n">
-        <v>1.782390003010023e-05</v>
+        <v>1.727655597204037e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>1.045054224177607e-05</v>
+        <v>1.038507282963221e-05</v>
       </c>
       <c r="E129" t="n">
-        <v>1.682169241272497e-05</v>
+        <v>1.673298444974663e-05</v>
       </c>
       <c r="F129" t="n">
-        <v>1.508424435798973</v>
+        <v>1.363777646132816</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9120955941047016</v>
+        <v>0.9282342225826655</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3016848871597945</v>
+        <v>0.2727555292265632</v>
       </c>
     </row>
     <row r="130">
@@ -3736,25 +3736,25 @@
         <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0004765404214570711</v>
+        <v>0.0004775425689439235</v>
       </c>
       <c r="C130" t="n">
-        <v>1.583093863951002e-05</v>
+        <v>1.964257101579807e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>1.070097076834476e-05</v>
+        <v>1.060732723349643e-05</v>
       </c>
       <c r="E130" t="n">
-        <v>1.718287615350781e-05</v>
+        <v>1.712621417649351e-05</v>
       </c>
       <c r="F130" t="n">
-        <v>1.668242830190678</v>
+        <v>1.386301096448139</v>
       </c>
       <c r="G130" t="n">
-        <v>0.8928760812074255</v>
+        <v>0.9258059001737198</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3336485660381355</v>
+        <v>0.2772602192896277</v>
       </c>
     </row>
     <row r="131">
@@ -3762,25 +3762,25 @@
         <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0004866330839291203</v>
+        <v>0.0004868882052766499</v>
       </c>
       <c r="C131" t="n">
-        <v>1.654575713691938e-05</v>
+        <v>1.734519740749491e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>1.115889017338142e-05</v>
+        <v>1.103039186549341e-05</v>
       </c>
       <c r="E131" t="n">
-        <v>1.818064865137087e-05</v>
+        <v>1.800198091854815e-05</v>
       </c>
       <c r="F131" t="n">
-        <v>4.698547678008272</v>
+        <v>4.406377045414758</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4537655013885135</v>
+        <v>0.4925067234365529</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9397095356016545</v>
+        <v>0.8812754090829517</v>
       </c>
     </row>
     <row r="132">
@@ -3788,25 +3788,25 @@
         <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0005361592236288238</v>
+        <v>0.000538033935617688</v>
       </c>
       <c r="C132" t="n">
-        <v>2.601882555490259e-05</v>
+        <v>2.845072958152889e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>1.193505479317288e-05</v>
+        <v>1.186175236987524e-05</v>
       </c>
       <c r="E132" t="n">
-        <v>1.93419418841929e-05</v>
+        <v>1.926503099148569e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9244767855037406</v>
+        <v>0.901151496547932</v>
       </c>
       <c r="G132" t="n">
-        <v>0.9684243808583644</v>
+        <v>0.9701382176248297</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1848953571007481</v>
+        <v>0.1802302993095864</v>
       </c>
     </row>
     <row r="133">
@@ -3814,25 +3814,25 @@
         <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.000585774281874676</v>
+        <v>0.0005853060718588502</v>
       </c>
       <c r="C133" t="n">
-        <v>8.273049034831256e-06</v>
+        <v>1.033791819588328e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>1.300795061399956e-05</v>
+        <v>1.28790037946247e-05</v>
       </c>
       <c r="E133" t="n">
-        <v>2.078069353119985e-05</v>
+        <v>2.059625430587482e-05</v>
       </c>
       <c r="F133" t="n">
-        <v>1.194047672282838</v>
+        <v>1.309247320238532</v>
       </c>
       <c r="G133" t="n">
-        <v>0.9454471343900297</v>
+        <v>0.9339772658749664</v>
       </c>
       <c r="H133" t="n">
-        <v>0.2388095344565677</v>
+        <v>0.2618494640477064</v>
       </c>
     </row>
     <row r="134">
@@ -3840,25 +3840,25 @@
         <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0006151606518712827</v>
+        <v>0.0006144032601013561</v>
       </c>
       <c r="C134" t="n">
-        <v>7.815531762867293e-06</v>
+        <v>1.035574490095074e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>1.362753545979558e-05</v>
+        <v>1.352729069413431e-05</v>
       </c>
       <c r="E134" t="n">
-        <v>2.174389718402621e-05</v>
+        <v>2.160832328076486e-05</v>
       </c>
       <c r="F134" t="n">
-        <v>1.779857652609949</v>
+        <v>1.818095515088973</v>
       </c>
       <c r="G134" t="n">
-        <v>0.8786894293589865</v>
+        <v>0.8736986477385764</v>
       </c>
       <c r="H134" t="n">
-        <v>0.3559715305219897</v>
+        <v>0.3636191030177947</v>
       </c>
     </row>
     <row r="135">
@@ -3866,25 +3866,25 @@
         <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0006231663360301027</v>
+        <v>0.0006236099118334791</v>
       </c>
       <c r="C135" t="n">
-        <v>2.534876785492213e-05</v>
+        <v>3.018266587991779e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>1.391827491587379e-05</v>
+        <v>1.381680816625909e-05</v>
       </c>
       <c r="E135" t="n">
-        <v>2.246321898994124e-05</v>
+        <v>2.238610134534777e-05</v>
       </c>
       <c r="F135" t="n">
-        <v>2.002061148678447</v>
+        <v>1.730862864697662</v>
       </c>
       <c r="G135" t="n">
-        <v>0.8488597632446612</v>
+        <v>0.8849888522195578</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4004122297356894</v>
+        <v>0.3461725729395325</v>
       </c>
     </row>
     <row r="136">
@@ -3892,25 +3892,25 @@
         <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0006064136930527521</v>
+        <v>0.0006082560547777198</v>
       </c>
       <c r="C136" t="n">
-        <v>1.563224452632032e-05</v>
+        <v>1.525685015851526e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>1.34071397972239e-05</v>
+        <v>1.337404703927293e-05</v>
       </c>
       <c r="E136" t="n">
-        <v>2.144538614200103e-05</v>
+        <v>2.139332223195859e-05</v>
       </c>
       <c r="F136" t="n">
-        <v>1.958854943550013</v>
+        <v>2.059274723861191</v>
       </c>
       <c r="G136" t="n">
-        <v>0.8548084585274399</v>
+        <v>0.8408839651235762</v>
       </c>
       <c r="H136" t="n">
-        <v>0.3917709887100027</v>
+        <v>0.4118549447722383</v>
       </c>
     </row>
     <row r="137">
@@ -3918,25 +3918,25 @@
         <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0005809233637688084</v>
+        <v>0.0005803361396379042</v>
       </c>
       <c r="C137" t="n">
-        <v>3.459908564561659e-05</v>
+        <v>4.063563463396758e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>1.287083949921624e-05</v>
+        <v>1.274453905934291e-05</v>
       </c>
       <c r="E137" t="n">
-        <v>2.112763244213375e-05</v>
+        <v>2.100662970714955e-05</v>
       </c>
       <c r="F137" t="n">
-        <v>2.349341920936066</v>
+        <v>2.418614318886403</v>
       </c>
       <c r="G137" t="n">
-        <v>0.7989934289643205</v>
+        <v>0.7886988950184431</v>
       </c>
       <c r="H137" t="n">
-        <v>0.4698683841872133</v>
+        <v>0.4837228637772806</v>
       </c>
     </row>
     <row r="138">
@@ -3944,25 +3944,25 @@
         <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0004971436103394033</v>
+        <v>0.000499503043230852</v>
       </c>
       <c r="C138" t="n">
-        <v>1.76420053838642e-05</v>
+        <v>1.953953485740132e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>1.087395602319971e-05</v>
+        <v>1.083956202330053e-05</v>
       </c>
       <c r="E138" t="n">
-        <v>1.749122938007461e-05</v>
+        <v>1.747060756661616e-05</v>
       </c>
       <c r="F138" t="n">
-        <v>1.677405470882708</v>
+        <v>1.768059187514371</v>
       </c>
       <c r="G138" t="n">
-        <v>0.8917338995594453</v>
+        <v>0.8802163568035009</v>
       </c>
       <c r="H138" t="n">
-        <v>0.3354810941765416</v>
+        <v>0.3536118375028742</v>
       </c>
     </row>
     <row r="139">
@@ -3970,25 +3970,25 @@
         <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0003132331991588573</v>
+        <v>0.000315205357135154</v>
       </c>
       <c r="C139" t="n">
-        <v>8.012748650204767e-06</v>
+        <v>6.792634085471696e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>6.937350472743052e-06</v>
+        <v>6.909090726825104e-06</v>
       </c>
       <c r="E139" t="n">
-        <v>1.116415769375004e-05</v>
+        <v>1.111413653490883e-05</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9111627782724211</v>
+        <v>0.8948850118333503</v>
       </c>
       <c r="G139" t="n">
-        <v>0.9694082336053261</v>
+        <v>0.9705908420728875</v>
       </c>
       <c r="H139" t="n">
-        <v>0.1822325556544842</v>
+        <v>0.1789770023666701</v>
       </c>
     </row>
     <row r="140">
@@ -3996,25 +3996,25 @@
         <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002658136341954502</v>
+        <v>0.0002687745238899534</v>
       </c>
       <c r="C140" t="n">
-        <v>1.078113093296991e-05</v>
+        <v>1.407300524074938e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>6.050922461032496e-06</v>
+        <v>6.016701897080438e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>9.909469558121436e-06</v>
+        <v>9.930316656474149e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>3.6858814612148</v>
+        <v>5.411063057827079</v>
       </c>
       <c r="G140" t="n">
-        <v>0.595466407602613</v>
+        <v>0.3677967154105268</v>
       </c>
       <c r="H140" t="n">
-        <v>0.7371762922429601</v>
+        <v>1.082212611565416</v>
       </c>
     </row>
     <row r="141">
@@ -4022,25 +4022,25 @@
         <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0002131242434901576</v>
+        <v>0.0002143498560296346</v>
       </c>
       <c r="C141" t="n">
-        <v>7.883894449117182e-06</v>
+        <v>7.184748283266056e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>4.705630350899677e-06</v>
+        <v>4.676603172241685e-06</v>
       </c>
       <c r="E141" t="n">
-        <v>7.580960013054868e-06</v>
+        <v>7.542261885459205e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>1.160791007995284</v>
+        <v>0.9546032252883593</v>
       </c>
       <c r="G141" t="n">
-        <v>0.9485831716807158</v>
+        <v>0.9661436036849509</v>
       </c>
       <c r="H141" t="n">
-        <v>0.2321582015990567</v>
+        <v>0.1909206450576719</v>
       </c>
     </row>
     <row r="142">
@@ -4048,25 +4048,25 @@
         <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001656976543765294</v>
+        <v>0.0001664786730985035</v>
       </c>
       <c r="C142" t="n">
-        <v>1.390968574491167e-05</v>
+        <v>1.394217429296465e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>3.783512706670128e-06</v>
+        <v>3.714948882007934e-06</v>
       </c>
       <c r="E142" t="n">
-        <v>6.220400309770993e-06</v>
+        <v>6.111730098750102e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>1.279450492629929</v>
+        <v>1.562046555352769</v>
       </c>
       <c r="G142" t="n">
-        <v>0.9370319350144056</v>
+        <v>0.9058005052003901</v>
       </c>
       <c r="H142" t="n">
-        <v>0.2558900985259858</v>
+        <v>0.3124093110705538</v>
       </c>
     </row>
     <row r="143">
@@ -4074,25 +4074,25 @@
         <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0001574393338711574</v>
+        <v>0.0001573709207842642</v>
       </c>
       <c r="C143" t="n">
-        <v>3.922542971695363e-06</v>
+        <v>8.711923212222875e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>3.724197798652694e-06</v>
+        <v>3.614260323221774e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>6.04681443695387e-06</v>
+        <v>5.92356164721633e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>3.848078977184843</v>
+        <v>2.685015592168297</v>
       </c>
       <c r="G143" t="n">
-        <v>0.5714897710430752</v>
+        <v>0.7484092649448334</v>
       </c>
       <c r="H143" t="n">
-        <v>0.7696157954369686</v>
+        <v>0.5370031184336594</v>
       </c>
     </row>
     <row r="144">
@@ -4100,25 +4100,25 @@
         <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0001537718026645955</v>
+        <v>0.0001534483560510412</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.827877609227675e-06</v>
+        <v>-7.268060479369667e-07</v>
       </c>
       <c r="D144" t="n">
-        <v>4.507219480546386e-06</v>
+        <v>4.369066577339215e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>7.094266244241807e-06</v>
+        <v>6.859408025540651e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>3.900700453902718</v>
+        <v>0.9943619842858734</v>
       </c>
       <c r="G144" t="n">
-        <v>0.5637995399394864</v>
+        <v>0.9630192350306533</v>
       </c>
       <c r="H144" t="n">
-        <v>0.7801400907805436</v>
+        <v>0.1988723968571747</v>
       </c>
     </row>
     <row r="145">
@@ -4126,25 +4126,25 @@
         <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0001577669221110672</v>
+        <v>0.0001567913665688887</v>
       </c>
       <c r="C145" t="n">
-        <v>6.703665977217784e-06</v>
+        <v>7.01964680840391e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>4.67814766481396e-06</v>
+        <v>4.429548672729205e-06</v>
       </c>
       <c r="E145" t="n">
-        <v>7.478163684850015e-06</v>
+        <v>7.115438579796311e-06</v>
       </c>
       <c r="F145" t="n">
-        <v>0.3459489518955825</v>
+        <v>0.5078128625086891</v>
       </c>
       <c r="G145" t="n">
-        <v>0.9966885540576098</v>
+        <v>0.9918344233905795</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0691897903791165</v>
+        <v>0.1015625725017378</v>
       </c>
     </row>
     <row r="146">
@@ -4152,25 +4152,25 @@
         <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0001508810456783407</v>
+        <v>0.0001499796880980906</v>
       </c>
       <c r="C146" t="n">
-        <v>1.065917505156021e-05</v>
+        <v>1.121337774939542e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>4.926828218340331e-06</v>
+        <v>4.686298917864016e-06</v>
       </c>
       <c r="E146" t="n">
-        <v>7.981713564827369e-06</v>
+        <v>7.577118533285299e-06</v>
       </c>
       <c r="F146" t="n">
-        <v>3.30818241140446</v>
+        <v>4.309449347239269</v>
       </c>
       <c r="G146" t="n">
-        <v>0.6525891940004871</v>
+        <v>0.5057756699867981</v>
       </c>
       <c r="H146" t="n">
-        <v>0.661636482280892</v>
+        <v>0.8618898694478538</v>
       </c>
     </row>
     <row r="147">
@@ -4178,25 +4178,25 @@
         <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.000149582900152205</v>
+        <v>0.0001498961562467074</v>
       </c>
       <c r="C147" t="n">
-        <v>2.329670340662663e-05</v>
+        <v>2.146350523750756e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>5.151620746549114e-06</v>
+        <v>4.864129923429185e-06</v>
       </c>
       <c r="E147" t="n">
-        <v>8.391916394827202e-06</v>
+        <v>7.79837296928505e-06</v>
       </c>
       <c r="F147" t="n">
-        <v>2.027075904914467</v>
+        <v>1.523331043861101</v>
       </c>
       <c r="G147" t="n">
-        <v>0.8453860285328738</v>
+        <v>0.910361815748401</v>
       </c>
       <c r="H147" t="n">
-        <v>0.4054151809828935</v>
+        <v>0.3046662087722202</v>
       </c>
     </row>
     <row r="148">
@@ -4204,25 +4204,25 @@
         <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0001504004589750558</v>
+        <v>0.000149150188245813</v>
       </c>
       <c r="C148" t="n">
-        <v>5.418865473498459e-06</v>
+        <v>8.412732602403695e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>5.176620163667045e-06</v>
+        <v>4.832588758615819e-06</v>
       </c>
       <c r="E148" t="n">
-        <v>7.982101591008127e-06</v>
+        <v>7.598990717178895e-06</v>
       </c>
       <c r="F148" t="n">
-        <v>1.362821234464098</v>
+        <v>1.832746184967937</v>
       </c>
       <c r="G148" t="n">
-        <v>0.9283366187832366</v>
+        <v>0.8717697715306666</v>
       </c>
       <c r="H148" t="n">
-        <v>0.2725642468928195</v>
+        <v>0.3665492369935873</v>
       </c>
     </row>
     <row r="149">
@@ -4230,25 +4230,25 @@
         <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0001495756355110746</v>
+        <v>0.0001500239423685466</v>
       </c>
       <c r="C149" t="n">
-        <v>8.455726739307824e-06</v>
+        <v>7.94220203037893e-06</v>
       </c>
       <c r="D149" t="n">
-        <v>5.383388913825932e-06</v>
+        <v>4.924674947771118e-06</v>
       </c>
       <c r="E149" t="n">
-        <v>8.316696876117469e-06</v>
+        <v>7.749301133443764e-06</v>
       </c>
       <c r="F149" t="n">
-        <v>1.406869511998776</v>
+        <v>1.408045980797594</v>
       </c>
       <c r="G149" t="n">
-        <v>0.9235603496009315</v>
+        <v>0.9234311096763268</v>
       </c>
       <c r="H149" t="n">
-        <v>0.2813739023997552</v>
+        <v>0.2816091961595188</v>
       </c>
     </row>
     <row r="150">
@@ -4256,25 +4256,25 @@
         <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0001456798598272886</v>
+        <v>0.0001469910590010956</v>
       </c>
       <c r="C150" t="n">
-        <v>4.911126851881451e-07</v>
+        <v>3.178595585737632e-07</v>
       </c>
       <c r="D150" t="n">
-        <v>5.68869790750859e-06</v>
+        <v>5.229717241391833e-06</v>
       </c>
       <c r="E150" t="n">
-        <v>8.758052061035272e-06</v>
+        <v>8.014488004747404e-06</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8128340976804489</v>
+        <v>0.7000278319277271</v>
       </c>
       <c r="G150" t="n">
-        <v>0.976207531919193</v>
+        <v>0.982967147671149</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1625668195360898</v>
+        <v>0.1400055663855454</v>
       </c>
     </row>
     <row r="151">
@@ -4282,25 +4282,25 @@
         <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0001430631904105626</v>
+        <v>0.0001420405846707104</v>
       </c>
       <c r="C151" t="n">
-        <v>1.59773428573296e-05</v>
+        <v>1.713576717460324e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>5.195864441818638e-06</v>
+        <v>5.085065581599762e-06</v>
       </c>
       <c r="E151" t="n">
-        <v>8.41273622635612e-06</v>
+        <v>8.113093582856938e-06</v>
       </c>
       <c r="F151" t="n">
-        <v>4.105642125902481</v>
+        <v>3.620875976246632</v>
       </c>
       <c r="G151" t="n">
-        <v>0.5343086066455657</v>
+        <v>0.6051816080245062</v>
       </c>
       <c r="H151" t="n">
-        <v>0.8211284251804962</v>
+        <v>0.7241751952493265</v>
       </c>
     </row>
     <row r="152">
@@ -4308,25 +4308,25 @@
         <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001403559283634538</v>
+        <v>0.0001404374873023181</v>
       </c>
       <c r="C152" t="n">
-        <v>7.417724286692159e-07</v>
+        <v>-2.649999438845182e-06</v>
       </c>
       <c r="D152" t="n">
-        <v>5.469936645555686e-06</v>
+        <v>5.196802284726927e-06</v>
       </c>
       <c r="E152" t="n">
-        <v>8.644753189979253e-06</v>
+        <v>8.120461331444869e-06</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7907431662279945</v>
+        <v>0.5065880124777132</v>
       </c>
       <c r="G152" t="n">
-        <v>0.9776200124846168</v>
+        <v>0.9918800800348357</v>
       </c>
       <c r="H152" t="n">
-        <v>0.1581486332455989</v>
+        <v>0.1013176024955426</v>
       </c>
     </row>
     <row r="153">
@@ -4334,25 +4334,25 @@
         <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001319600140714684</v>
+        <v>0.0001315281199348967</v>
       </c>
       <c r="C153" t="n">
-        <v>1.78120498670985e-05</v>
+        <v>1.748881233424213e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>5.046041789079733e-06</v>
+        <v>4.749387646353298e-06</v>
       </c>
       <c r="E153" t="n">
-        <v>8.180098333847304e-06</v>
+        <v>7.649345857178028e-06</v>
       </c>
       <c r="F153" t="n">
-        <v>2.112708434087274</v>
+        <v>2.376044950882848</v>
       </c>
       <c r="G153" t="n">
-        <v>0.8333401624171066</v>
+        <v>0.795036075679786</v>
       </c>
       <c r="H153" t="n">
-        <v>0.4225416868174547</v>
+        <v>0.4752089901765696</v>
       </c>
     </row>
     <row r="154">
@@ -4360,25 +4360,25 @@
         <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001339895621895832</v>
+        <v>0.0001326248094957149</v>
       </c>
       <c r="C154" t="n">
-        <v>6.504123864117819e-06</v>
+        <v>9.977305348936582e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>4.970390570851216e-06</v>
+        <v>4.752492613459371e-06</v>
       </c>
       <c r="E154" t="n">
-        <v>8.020271643321265e-06</v>
+        <v>7.671579906502038e-06</v>
       </c>
       <c r="F154" t="n">
-        <v>4.53166479973211</v>
+        <v>4.954158986385225</v>
       </c>
       <c r="G154" t="n">
-        <v>0.475658008129227</v>
+        <v>0.4215002994619578</v>
       </c>
       <c r="H154" t="n">
-        <v>0.906332959946422</v>
+        <v>0.990831797277045</v>
       </c>
     </row>
     <row r="155">
@@ -4386,25 +4386,25 @@
         <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001348721945530597</v>
+        <v>0.0001351767888728112</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.75915744350018e-06</v>
+        <v>-2.534990214267434e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>5.454705843443516e-06</v>
+        <v>5.149224385649198e-06</v>
       </c>
       <c r="E155" t="n">
-        <v>8.189879288767394e-06</v>
+        <v>7.823882262433999e-06</v>
       </c>
       <c r="F155" t="n">
-        <v>1.944256846236072</v>
+        <v>1.916782344066826</v>
       </c>
       <c r="G155" t="n">
-        <v>0.8568031711624726</v>
+        <v>0.860535831833891</v>
       </c>
       <c r="H155" t="n">
-        <v>0.3888513692472143</v>
+        <v>0.3833564688133653</v>
       </c>
     </row>
     <row r="156">
@@ -4412,25 +4412,25 @@
         <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001337333659624224</v>
+        <v>0.0001317666489579038</v>
       </c>
       <c r="C156" t="n">
-        <v>-2.837311206008717e-06</v>
+        <v>-3.985469794937134e-06</v>
       </c>
       <c r="D156" t="n">
-        <v>4.802289246369802e-06</v>
+        <v>4.678915878788026e-06</v>
       </c>
       <c r="E156" t="n">
-        <v>7.761432762755375e-06</v>
+        <v>7.391841247394716e-06</v>
       </c>
       <c r="F156" t="n">
-        <v>1.714730808514544</v>
+        <v>0.6229412899361008</v>
       </c>
       <c r="G156" t="n">
-        <v>0.8870387269543822</v>
+        <v>0.9869287858361256</v>
       </c>
       <c r="H156" t="n">
-        <v>0.3429461617029088</v>
+        <v>0.1245882579872201</v>
       </c>
     </row>
     <row r="157">
@@ -4438,25 +4438,25 @@
         <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001184943368878641</v>
+        <v>0.0001176120589007147</v>
       </c>
       <c r="C157" t="n">
-        <v>7.286596196087559e-06</v>
+        <v>7.729839328921977e-06</v>
       </c>
       <c r="D157" t="n">
-        <v>4.008959006154741e-06</v>
+        <v>3.799679048405194e-06</v>
       </c>
       <c r="E157" t="n">
-        <v>6.287729231990173e-06</v>
+        <v>6.064188319740602e-06</v>
       </c>
       <c r="F157" t="n">
-        <v>2.742700105988597</v>
+        <v>3.822534850693367</v>
       </c>
       <c r="G157" t="n">
-        <v>0.7395802988125573</v>
+        <v>0.5752390924685811</v>
       </c>
       <c r="H157" t="n">
-        <v>0.5485400211977194</v>
+        <v>0.7645069701386735</v>
       </c>
     </row>
     <row r="158">
@@ -4464,25 +4464,25 @@
         <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0001041830847966033</v>
+        <v>0.0001041114017966294</v>
       </c>
       <c r="C158" t="n">
-        <v>3.849819334629395e-06</v>
+        <v>2.19124400224085e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>3.916800501960249e-06</v>
+        <v>3.683713083294239e-06</v>
       </c>
       <c r="E158" t="n">
-        <v>6.224802962523837e-06</v>
+        <v>5.679150334641373e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>3.237100150129709</v>
+        <v>3.220019759219658</v>
       </c>
       <c r="G158" t="n">
-        <v>0.6634845137657638</v>
+        <v>0.6661070787667802</v>
       </c>
       <c r="H158" t="n">
-        <v>0.6474200300259418</v>
+        <v>0.6440039518439317</v>
       </c>
     </row>
     <row r="159">
@@ -4490,25 +4490,25 @@
         <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>9.764844761126719e-05</v>
+        <v>9.754025098949901e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>3.956416288069094e-06</v>
+        <v>3.121494289250954e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>3.154299780566813e-06</v>
+        <v>2.955185366265218e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>5.002349195262872e-06</v>
+        <v>4.688447778307326e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>1.202923584419763</v>
+        <v>1.546167874194998</v>
       </c>
       <c r="G159" t="n">
-        <v>0.9445965791579612</v>
+        <v>0.9076813491490417</v>
       </c>
       <c r="H159" t="n">
-        <v>0.2405847168839526</v>
+        <v>0.3092335748389995</v>
       </c>
     </row>
     <row r="160">
@@ -4516,25 +4516,25 @@
         <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>9.56001865448171e-05</v>
+        <v>9.616156947650643e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>8.643668631024346e-06</v>
+        <v>8.783577506071366e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>3.422834995433132e-06</v>
+        <v>3.177219611171873e-06</v>
       </c>
       <c r="E160" t="n">
-        <v>5.470822408434136e-06</v>
+        <v>5.091404512573428e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>1.692808306803676</v>
+        <v>1.667204544140032</v>
       </c>
       <c r="G160" t="n">
-        <v>0.8898045418476919</v>
+        <v>0.8930052478501103</v>
       </c>
       <c r="H160" t="n">
-        <v>0.3385616613607353</v>
+        <v>0.3334409088280065</v>
       </c>
     </row>
     <row r="161">
@@ -4542,25 +4542,25 @@
         <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001186479381962602</v>
+        <v>0.0001181963788265275</v>
       </c>
       <c r="C161" t="n">
-        <v>-7.934017731912315e-07</v>
+        <v>1.413481428268285e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>3.374038013844516e-06</v>
+        <v>3.263717549503861e-06</v>
       </c>
       <c r="E161" t="n">
-        <v>5.26164629515194e-06</v>
+        <v>5.136259919891101e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>2.415033687920207</v>
+        <v>1.975096282394632</v>
       </c>
       <c r="G161" t="n">
-        <v>0.7892332245681134</v>
+        <v>0.8525801041788994</v>
       </c>
       <c r="H161" t="n">
-        <v>0.4830067375840413</v>
+        <v>0.3950192564789264</v>
       </c>
     </row>
     <row r="162">
@@ -4568,25 +4568,25 @@
         <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0002027427124107526</v>
+        <v>0.0002007635805923903</v>
       </c>
       <c r="C162" t="n">
-        <v>8.127243812546404e-06</v>
+        <v>1.143727060921474e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>5.185420304773031e-06</v>
+        <v>4.976635793629373e-06</v>
       </c>
       <c r="E162" t="n">
-        <v>8.19319269021984e-06</v>
+        <v>7.903783777499175e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>3.757837009473985</v>
+        <v>6.133848605273618</v>
       </c>
       <c r="G162" t="n">
-        <v>0.5847809706975295</v>
+        <v>0.2934119260648459</v>
       </c>
       <c r="H162" t="n">
-        <v>0.7515674018947969</v>
+        <v>1.226769721054724</v>
       </c>
     </row>
     <row r="163">
@@ -4594,25 +4594,25 @@
         <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002467820782600951</v>
+        <v>0.0002464845383960551</v>
       </c>
       <c r="C163" t="n">
-        <v>7.237442121483818e-06</v>
+        <v>9.192497655747113e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>5.952894761183258e-06</v>
+        <v>5.799363147164432e-06</v>
       </c>
       <c r="E163" t="n">
-        <v>9.532434370954176e-06</v>
+        <v>9.323917124201123e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>0.686997178178924</v>
+        <v>0.9338301364603085</v>
       </c>
       <c r="G163" t="n">
-        <v>0.9836746714613132</v>
+        <v>0.9677243401112485</v>
       </c>
       <c r="H163" t="n">
-        <v>0.1373994356357848</v>
+        <v>0.1867660272920617</v>
       </c>
     </row>
     <row r="164">
@@ -4620,25 +4620,25 @@
         <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0002636934046146828</v>
+        <v>0.0002629747621977199</v>
       </c>
       <c r="C164" t="n">
-        <v>1.380532265264875e-05</v>
+        <v>1.500078961919006e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>6.214958381544485e-06</v>
+        <v>6.116586378343968e-06</v>
       </c>
       <c r="E164" t="n">
-        <v>1.009948527873931e-05</v>
+        <v>9.980459772974741e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>0.5728286319570849</v>
+        <v>0.5504567702217014</v>
       </c>
       <c r="G164" t="n">
-        <v>0.9892134708510508</v>
+        <v>0.990159101552504</v>
       </c>
       <c r="H164" t="n">
-        <v>0.114565726391417</v>
+        <v>0.1100913540443403</v>
       </c>
     </row>
     <row r="165">
@@ -4646,25 +4646,25 @@
         <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0002679824019335363</v>
+        <v>0.0002671594402797052</v>
       </c>
       <c r="C165" t="n">
-        <v>6.845946027401984e-06</v>
+        <v>8.677687144930025e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>6.403373980134784e-06</v>
+        <v>6.264289987774239e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>1.026032342615185e-05</v>
+        <v>1.007406021533756e-05</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6675374383966556</v>
+        <v>1.27841763964954</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9847026807109536</v>
+        <v>0.9371367401438431</v>
       </c>
       <c r="H165" t="n">
-        <v>0.1335074876793311</v>
+        <v>0.2556835279299079</v>
       </c>
     </row>
     <row r="166">
@@ -4672,25 +4672,25 @@
         <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002765955041391463</v>
+        <v>0.0002760329004646371</v>
       </c>
       <c r="C166" t="n">
-        <v>1.892908504108794e-05</v>
+        <v>2.428011648242744e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>6.752437642333622e-06</v>
+        <v>6.589272309350726e-06</v>
       </c>
       <c r="E166" t="n">
-        <v>1.105811698154125e-05</v>
+        <v>1.087022866628162e-05</v>
       </c>
       <c r="F166" t="n">
-        <v>3.00417518098103</v>
+        <v>3.07302235368527</v>
       </c>
       <c r="G166" t="n">
-        <v>0.6993421054094762</v>
+        <v>0.6887288726921457</v>
       </c>
       <c r="H166" t="n">
-        <v>0.6008350361962059</v>
+        <v>0.6146044707370539</v>
       </c>
     </row>
     <row r="167">
@@ -4698,25 +4698,25 @@
         <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002763613174235056</v>
+        <v>0.0002772683501459009</v>
       </c>
       <c r="C167" t="n">
-        <v>7.564071402406527e-06</v>
+        <v>7.810360738435347e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>6.397619076929887e-06</v>
+        <v>6.313488997427062e-06</v>
       </c>
       <c r="E167" t="n">
-        <v>1.028034416469206e-05</v>
+        <v>1.015136928349619e-05</v>
       </c>
       <c r="F167" t="n">
-        <v>0.738930677690586</v>
+        <v>0.674173866168549</v>
       </c>
       <c r="G167" t="n">
-        <v>0.9807639468062009</v>
+        <v>0.9843559501681232</v>
       </c>
       <c r="H167" t="n">
-        <v>0.1477861355381172</v>
+        <v>0.1348347732337098</v>
       </c>
     </row>
     <row r="168">
@@ -4724,25 +4724,25 @@
         <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002662953256912336</v>
+        <v>0.0002675701655424309</v>
       </c>
       <c r="C168" t="n">
-        <v>1.087096141943894e-05</v>
+        <v>1.189957662972341e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>6.09909691209244e-06</v>
+        <v>6.031301460883416e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>9.850480761401151e-06</v>
+        <v>9.767902403277577e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>1.108615766089181</v>
+        <v>1.163872033686664</v>
       </c>
       <c r="G168" t="n">
-        <v>0.953338220617914</v>
+        <v>0.9482960394216929</v>
       </c>
       <c r="H168" t="n">
-        <v>0.2217231532178362</v>
+        <v>0.2327744067373328</v>
       </c>
     </row>
     <row r="169">
@@ -4750,25 +4750,25 @@
         <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.000245905748477857</v>
+        <v>0.0002475287421094064</v>
       </c>
       <c r="C169" t="n">
-        <v>1.547306915567677e-05</v>
+        <v>1.702672942211384e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>5.522547237965975e-06</v>
+        <v>5.48885694713387e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>9.012953256648638e-06</v>
+        <v>8.988449424111563e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>1.363185205593851</v>
+        <v>1.269871199455746</v>
       </c>
       <c r="G169" t="n">
-        <v>0.9282976579101234</v>
+        <v>0.9380011595205571</v>
       </c>
       <c r="H169" t="n">
-        <v>0.2726370411187703</v>
+        <v>0.2539742398911492</v>
       </c>
     </row>
     <row r="170">
@@ -4776,25 +4776,25 @@
         <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001557793495424304</v>
+        <v>0.0001558287305026198</v>
       </c>
       <c r="C170" t="n">
-        <v>9.928085870656374e-06</v>
+        <v>1.214030753287058e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>3.838938839606731e-06</v>
+        <v>3.754382275440571e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>6.299732598533373e-06</v>
+        <v>6.177986656426088e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>7.385498332990445</v>
+        <v>7.884734919212834</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1935122686697167</v>
+        <v>0.1627035665056218</v>
       </c>
       <c r="H170" t="n">
-        <v>1.477099666598089</v>
+        <v>1.576946983842567</v>
       </c>
     </row>
     <row r="171">
@@ -4802,25 +4802,25 @@
         <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001025240095392113</v>
+        <v>0.0001030932042977022</v>
       </c>
       <c r="C171" t="n">
-        <v>6.550229149102847e-06</v>
+        <v>8.508364044716038e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>2.473748660449217e-06</v>
+        <v>2.408455941610128e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>4.08793709584803e-06</v>
+        <v>3.988403971278237e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>7.84886291620471</v>
+        <v>8.203389543381311</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1647641465802649</v>
+        <v>0.1453769315959777</v>
       </c>
       <c r="H171" t="n">
-        <v>1.569772583240942</v>
+        <v>1.640677908676262</v>
       </c>
     </row>
     <row r="172">
@@ -4828,25 +4828,25 @@
         <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>9.445869699676481e-05</v>
+        <v>9.410343111621432e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>5.763912535741353e-06</v>
+        <v>7.730964610299631e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>2.394297379963139e-06</v>
+        <v>2.294480353931533e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>3.910796877304914e-06</v>
+        <v>3.759050970320958e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>3.850529919207973</v>
+        <v>4.18871489604108</v>
       </c>
       <c r="G172" t="n">
-        <v>0.5711305767801929</v>
+        <v>0.5225780202142279</v>
       </c>
       <c r="H172" t="n">
-        <v>0.7701059838415947</v>
+        <v>0.8377429792082159</v>
       </c>
     </row>
     <row r="173">
@@ -4854,25 +4854,25 @@
         <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001075579244029617</v>
+        <v>0.0001080459159737158</v>
       </c>
       <c r="C173" t="n">
-        <v>1.375601558019396e-05</v>
+        <v>1.364644055738988e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>3.006694391734879e-06</v>
+        <v>2.933902126100538e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>4.962544288500951e-06</v>
+        <v>4.825106723661327e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>1.929104500942737</v>
+        <v>2.582353984159762</v>
       </c>
       <c r="G173" t="n">
-        <v>0.8588652700329371</v>
+        <v>0.7640445159709208</v>
       </c>
       <c r="H173" t="n">
-        <v>0.3858209001885474</v>
+        <v>0.5164707968319525</v>
       </c>
     </row>
     <row r="174">
@@ -4880,25 +4880,25 @@
         <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001505236052504295</v>
+        <v>0.000150100679366629</v>
       </c>
       <c r="C174" t="n">
-        <v>7.733143121570925e-06</v>
+        <v>9.336728548649178e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>3.705620610451001e-06</v>
+        <v>3.609155983055333e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>5.921500707460833e-06</v>
+        <v>5.779416700049619e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>1.963021181965736</v>
+        <v>2.778330489294614</v>
       </c>
       <c r="G174" t="n">
-        <v>0.8542377473814144</v>
+        <v>0.7341145233887097</v>
       </c>
       <c r="H174" t="n">
-        <v>0.3926042363931472</v>
+        <v>0.5556660978589228</v>
       </c>
     </row>
     <row r="175">
@@ -4906,25 +4906,25 @@
         <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001690719000153769</v>
+        <v>0.000168590170693595</v>
       </c>
       <c r="C175" t="n">
-        <v>8.246518884256365e-06</v>
+        <v>9.449772611490705e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>4.675189718582468e-06</v>
+        <v>4.510633735512168e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>7.536882958352024e-06</v>
+        <v>7.297798367507222e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>4.29423919378107</v>
+        <v>3.816924771416871</v>
       </c>
       <c r="G175" t="n">
-        <v>0.5078759179680182</v>
+        <v>0.5760639195925059</v>
       </c>
       <c r="H175" t="n">
-        <v>0.858847838756214</v>
+        <v>0.7633849542833742</v>
       </c>
     </row>
     <row r="176">
@@ -4932,25 +4932,25 @@
         <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002535578409037515</v>
+        <v>0.0002511955358634433</v>
       </c>
       <c r="C176" t="n">
-        <v>9.267878928547325e-06</v>
+        <v>1.761824752002556e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>6.963648752291965e-06</v>
+        <v>6.682796198164267e-06</v>
       </c>
       <c r="E176" t="n">
-        <v>1.105618482178954e-05</v>
+        <v>1.070830377054662e-05</v>
       </c>
       <c r="F176" t="n">
-        <v>2.074281440286913</v>
+        <v>2.75817090965567</v>
       </c>
       <c r="G176" t="n">
-        <v>0.8387742739958188</v>
+        <v>0.7372080865141081</v>
       </c>
       <c r="H176" t="n">
-        <v>0.4148562880573826</v>
+        <v>0.551634181931134</v>
       </c>
     </row>
     <row r="177">
@@ -4958,25 +4958,25 @@
         <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003360049500520737</v>
+        <v>0.000342090158580357</v>
       </c>
       <c r="C177" t="n">
-        <v>4.391347515087001e-05</v>
+        <v>3.705408889543107e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>8.718359009945331e-06</v>
+        <v>8.716024993290556e-06</v>
       </c>
       <c r="E177" t="n">
-        <v>1.434465825075397e-05</v>
+        <v>1.427683796661666e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>7.124251265683596</v>
+        <v>6.084192247468032</v>
       </c>
       <c r="G177" t="n">
-        <v>0.2115623869414007</v>
+        <v>0.2981126549501193</v>
       </c>
       <c r="H177" t="n">
-        <v>1.424850253136719</v>
+        <v>1.216838449493606</v>
       </c>
     </row>
     <row r="178">
@@ -4984,25 +4984,25 @@
         <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003524651168596023</v>
+        <v>0.0003520966205880282</v>
       </c>
       <c r="C178" t="n">
-        <v>9.280576897832639e-08</v>
+        <v>3.595730288359091e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>9.949893694852138e-06</v>
+        <v>9.628667269504845e-06</v>
       </c>
       <c r="E178" t="n">
-        <v>1.552859091836625e-05</v>
+        <v>1.505992882913756e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>1.437994232775504</v>
+        <v>2.00838437672504</v>
       </c>
       <c r="G178" t="n">
-        <v>0.9201124332133112</v>
+        <v>0.8479836852353742</v>
       </c>
       <c r="H178" t="n">
-        <v>0.2875988465551007</v>
+        <v>0.4016768753450079</v>
       </c>
     </row>
     <row r="179">
@@ -5010,25 +5010,25 @@
         <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003382067554223426</v>
+        <v>0.0003374917793599814</v>
       </c>
       <c r="C179" t="n">
-        <v>1.865040154260368e-05</v>
+        <v>2.084468525316785e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>9.887448165447299e-06</v>
+        <v>9.549945323740576e-06</v>
       </c>
       <c r="E179" t="n">
-        <v>1.570990242573011e-05</v>
+        <v>1.514716646295187e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>2.979831221498046</v>
+        <v>2.325978255420147</v>
       </c>
       <c r="G179" t="n">
-        <v>0.7030954295445206</v>
+        <v>0.8024439357249725</v>
       </c>
       <c r="H179" t="n">
-        <v>0.5959662442996091</v>
+        <v>0.4651956510840295</v>
       </c>
     </row>
     <row r="180">
@@ -5036,25 +5036,25 @@
         <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0003024291314700919</v>
+        <v>0.0003018645566638295</v>
       </c>
       <c r="C180" t="n">
-        <v>2.408652125775767e-05</v>
+        <v>2.648343466766961e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>6.230636441168953e-06</v>
+        <v>6.001025323069229e-06</v>
       </c>
       <c r="E180" t="n">
-        <v>9.9302000806732e-06</v>
+        <v>9.622993137017981e-06</v>
       </c>
       <c r="F180" t="n">
-        <v>3.136116076459321</v>
+        <v>2.783281188540962</v>
       </c>
       <c r="G180" t="n">
-        <v>0.9945043494872382</v>
+        <v>0.9968902515545963</v>
       </c>
       <c r="H180" t="n">
-        <v>0.2613430063716101</v>
+        <v>0.2319400990450801</v>
       </c>
     </row>
     <row r="181">
@@ -5062,25 +5062,25 @@
         <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0002685436684057416</v>
+        <v>0.0002681868840455312</v>
       </c>
       <c r="C181" t="n">
-        <v>3.717051851993922e-06</v>
+        <v>8.590821035817185e-07</v>
       </c>
       <c r="D181" t="n">
-        <v>1.010047491752143e-05</v>
+        <v>9.942391678487518e-06</v>
       </c>
       <c r="E181" t="n">
-        <v>1.523733182681382e-05</v>
+        <v>1.501113762998914e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>3.103190249658147</v>
+        <v>2.683082528941105</v>
       </c>
       <c r="G181" t="n">
-        <v>0.6840805545443022</v>
+        <v>0.7487046487516451</v>
       </c>
       <c r="H181" t="n">
-        <v>0.6206380499316294</v>
+        <v>0.5366165057882211</v>
       </c>
     </row>
     <row r="182">
@@ -5088,25 +5088,25 @@
         <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.000231026624687053</v>
+        <v>0.000235481965669222</v>
       </c>
       <c r="C182" t="n">
-        <v>1.723545022007256e-05</v>
+        <v>6.690946402289929e-06</v>
       </c>
       <c r="D182" t="n">
-        <v>1.053811761806041e-05</v>
+        <v>9.727344225846497e-06</v>
       </c>
       <c r="E182" t="n">
-        <v>1.616443823462373e-05</v>
+        <v>1.547615638454851e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>3.363196617198063</v>
+        <v>3.833269592301566</v>
       </c>
       <c r="G182" t="n">
-        <v>0.6441810707516709</v>
+        <v>0.5736621964202513</v>
       </c>
       <c r="H182" t="n">
-        <v>0.6726393234396126</v>
+        <v>0.7666539184603133</v>
       </c>
     </row>
     <row r="183">
@@ -5114,25 +5114,25 @@
         <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0002133957131536648</v>
+        <v>0.0002105101119527888</v>
       </c>
       <c r="C183" t="n">
-        <v>4.483480394922902e-06</v>
+        <v>8.34038238905875e-06</v>
       </c>
       <c r="D183" t="n">
-        <v>9.227076243576656e-06</v>
+        <v>8.282320754163962e-06</v>
       </c>
       <c r="E183" t="n">
-        <v>1.388912144198837e-05</v>
+        <v>1.267802075947094e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>1.961692315492215</v>
+        <v>2.673016641870657</v>
       </c>
       <c r="G183" t="n">
-        <v>0.8544198502288224</v>
+        <v>0.7502422273672393</v>
       </c>
       <c r="H183" t="n">
-        <v>0.3923384630984429</v>
+        <v>0.5346033283741314</v>
       </c>
     </row>
     <row r="184">
@@ -5140,25 +5140,25 @@
         <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0002133956522256194</v>
+        <v>0.0002086544540164764</v>
       </c>
       <c r="C184" t="n">
-        <v>2.794938620193416e-05</v>
+        <v>2.66621888598531e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>1.011418222578262e-05</v>
+        <v>9.055783043478009e-06</v>
       </c>
       <c r="E184" t="n">
-        <v>1.60221602393602e-05</v>
+        <v>1.43221453072493e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>1.018864169309378</v>
+        <v>1.139344231466884</v>
       </c>
       <c r="G184" t="n">
-        <v>0.9610299418479991</v>
+        <v>0.9505624088388311</v>
       </c>
       <c r="H184" t="n">
-        <v>0.2037728338618757</v>
+        <v>0.2278688462933768</v>
       </c>
     </row>
     <row r="185">
@@ -5166,25 +5166,25 @@
         <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0002069350130999984</v>
+        <v>0.0001931188638252516</v>
       </c>
       <c r="C185" t="n">
-        <v>1.193552762441904e-05</v>
+        <v>8.724729915981464e-06</v>
       </c>
       <c r="D185" t="n">
-        <v>7.920488786368958e-06</v>
+        <v>7.449368625288344e-06</v>
       </c>
       <c r="E185" t="n">
-        <v>1.271916289153677e-05</v>
+        <v>1.202040200735912e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>10.76539576818789</v>
+        <v>22.05091370929874</v>
       </c>
       <c r="G185" t="n">
-        <v>0.05623510048361036</v>
+        <v>0.000512057079201164</v>
       </c>
       <c r="H185" t="n">
-        <v>2.153079153637578</v>
+        <v>4.410182741859748</v>
       </c>
     </row>
     <row r="186">
@@ -5192,25 +5192,25 @@
         <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0002020071209429322</v>
+        <v>0.0002017207594882335</v>
       </c>
       <c r="C186" t="n">
-        <v>1.243988539806801e-05</v>
+        <v>8.756949357003853e-06</v>
       </c>
       <c r="D186" t="n">
-        <v>8.155183747431606e-06</v>
+        <v>7.91009143920232e-06</v>
       </c>
       <c r="E186" t="n">
-        <v>1.234538992712998e-05</v>
+        <v>1.197756440810239e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>2.535579301311639</v>
+        <v>1.659383866254017</v>
       </c>
       <c r="G186" t="n">
-        <v>0.7711274839503066</v>
+        <v>0.8939764433304075</v>
       </c>
       <c r="H186" t="n">
-        <v>0.5071158602623278</v>
+        <v>0.3318767732508034</v>
       </c>
     </row>
     <row r="187">
@@ -5218,25 +5218,25 @@
         <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0001999129325760854</v>
+        <v>0.0002009663343273814</v>
       </c>
       <c r="C187" t="n">
-        <v>1.566515427042374e-05</v>
+        <v>1.7975153603734e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>8.406520131057103e-06</v>
+        <v>8.165898601599561e-06</v>
       </c>
       <c r="E187" t="n">
-        <v>1.316635289116092e-05</v>
+        <v>1.299072406942119e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>9.513572800939594</v>
+        <v>10.56132778048453</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09025121112399959</v>
+        <v>0.06080569476074912</v>
       </c>
       <c r="H187" t="n">
-        <v>1.902714560187919</v>
+        <v>2.112265556096906</v>
       </c>
     </row>
     <row r="188">
@@ -5244,25 +5244,25 @@
         <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.00021869353796511</v>
+        <v>0.0002126547785485451</v>
       </c>
       <c r="C188" t="n">
-        <v>1.052925877066595e-05</v>
+        <v>2.721915531799749e-07</v>
       </c>
       <c r="D188" t="n">
-        <v>6.995204223740046e-06</v>
+        <v>6.819967865381265e-06</v>
       </c>
       <c r="E188" t="n">
-        <v>1.115849260909204e-05</v>
+        <v>1.093747375264952e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>4.737659342959486</v>
+        <v>19.54219016958454</v>
       </c>
       <c r="G188" t="n">
-        <v>0.4487279185066789</v>
+        <v>0.001522596122009033</v>
       </c>
       <c r="H188" t="n">
-        <v>0.9475318685918971</v>
+        <v>3.908438033916908</v>
       </c>
     </row>
     <row r="189">
@@ -5270,25 +5270,25 @@
         <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002529739937949252</v>
+        <v>0.0002501781223028899</v>
       </c>
       <c r="C189" t="n">
-        <v>1.883015229130113e-05</v>
+        <v>2.018555349014677e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>7.55387755467529e-06</v>
+        <v>7.292337733901493e-06</v>
       </c>
       <c r="E189" t="n">
-        <v>1.225014940933877e-05</v>
+        <v>1.183073858359913e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>3.158617216461225</v>
+        <v>3.303763065766805</v>
       </c>
       <c r="G189" t="n">
-        <v>0.6755468243962167</v>
+        <v>0.6532656082930944</v>
       </c>
       <c r="H189" t="n">
-        <v>0.6317234432922449</v>
+        <v>0.6607526131533611</v>
       </c>
     </row>
     <row r="190">
@@ -5296,25 +5296,25 @@
         <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002845133904364849</v>
+        <v>0.0002832661741479668</v>
       </c>
       <c r="C190" t="n">
-        <v>8.062826963538803e-06</v>
+        <v>6.172865594518488e-06</v>
       </c>
       <c r="D190" t="n">
-        <v>7.946189360603857e-06</v>
+        <v>7.761910245936111e-06</v>
       </c>
       <c r="E190" t="n">
-        <v>1.268753550495193e-05</v>
+        <v>1.239980518184314e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>6.985523402397074</v>
+        <v>7.426423975650517</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2217191793592422</v>
+        <v>0.1908084704031204</v>
       </c>
       <c r="H190" t="n">
-        <v>1.397104680479415</v>
+        <v>1.485284795130103</v>
       </c>
     </row>
     <row r="191">
@@ -5322,25 +5322,25 @@
         <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0003231624893504197</v>
+        <v>0.0003215704653301767</v>
       </c>
       <c r="C191" t="n">
-        <v>2.013108581880161e-05</v>
+        <v>1.900447631284646e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>8.297406728381386e-06</v>
+        <v>8.108031338819175e-06</v>
       </c>
       <c r="E191" t="n">
-        <v>1.363913799841042e-05</v>
+        <v>1.330852335244859e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>6.047135845981291</v>
+        <v>5.824596347187028</v>
       </c>
       <c r="G191" t="n">
-        <v>0.3016593834508045</v>
+        <v>0.3236623760932994</v>
       </c>
       <c r="H191" t="n">
-        <v>1.209427169196258</v>
+        <v>1.164919269437406</v>
       </c>
     </row>
     <row r="192">
@@ -5348,25 +5348,25 @@
         <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0003731057327907027</v>
+        <v>0.0003722145356761492</v>
       </c>
       <c r="C192" t="n">
-        <v>3.172008343942041e-05</v>
+        <v>3.097781344227508e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>9.118384599014189e-06</v>
+        <v>8.998113140223538e-06</v>
       </c>
       <c r="E192" t="n">
-        <v>1.513748862443159e-05</v>
+        <v>1.490509431058019e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>5.030225515376155</v>
+        <v>4.118649137704393</v>
       </c>
       <c r="G192" t="n">
-        <v>0.4122025796199791</v>
+        <v>0.5324630482908731</v>
       </c>
       <c r="H192" t="n">
-        <v>1.006045103075231</v>
+        <v>0.8237298275408786</v>
       </c>
     </row>
     <row r="193">
@@ -5374,25 +5374,25 @@
         <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004113219604340855</v>
+        <v>0.0004121309965484945</v>
       </c>
       <c r="C193" t="n">
-        <v>3.449446110260476e-05</v>
+        <v>3.293107769826155e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>6.907176990518094e-06</v>
+        <v>6.836737737508044e-06</v>
       </c>
       <c r="E193" t="n">
-        <v>1.138462428575506e-05</v>
+        <v>1.126886393268235e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>8.252949549674589</v>
+        <v>7.778500763113694</v>
       </c>
       <c r="G193" t="n">
-        <v>0.7650639714393761</v>
+        <v>0.8021914202800813</v>
       </c>
       <c r="H193" t="n">
-        <v>0.6877457958062158</v>
+        <v>0.6482083969261412</v>
       </c>
     </row>
     <row r="194">
@@ -5400,25 +5400,25 @@
         <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0004043346783961974</v>
+        <v>0.0004028782097839206</v>
       </c>
       <c r="C194" t="n">
-        <v>2.329051797480853e-05</v>
+        <v>2.839308323382531e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>9.193309396629591e-06</v>
+        <v>9.080438596546222e-06</v>
       </c>
       <c r="E194" t="n">
-        <v>1.518337192057821e-05</v>
+        <v>1.504382677863365e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>4.511298266942193</v>
+        <v>3.712690747696793</v>
       </c>
       <c r="G194" t="n">
-        <v>0.4783731934421419</v>
+        <v>0.5914765272912664</v>
       </c>
       <c r="H194" t="n">
-        <v>0.9022596533884386</v>
+        <v>0.7425381495393586</v>
       </c>
     </row>
     <row r="195">
@@ -5426,25 +5426,25 @@
         <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003639395780424492</v>
+        <v>0.0003651959475423923</v>
       </c>
       <c r="C195" t="n">
-        <v>2.816847768781809e-05</v>
+        <v>2.769824364514545e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>8.288993915362557e-06</v>
+        <v>8.222151682605399e-06</v>
       </c>
       <c r="E195" t="n">
-        <v>1.358065594002045e-05</v>
+        <v>1.348971612343163e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>0.5638625029965161</v>
+        <v>0.5716670121238761</v>
       </c>
       <c r="G195" t="n">
-        <v>0.9895979720852874</v>
+        <v>0.989263701294764</v>
       </c>
       <c r="H195" t="n">
-        <v>0.1127725005993032</v>
+        <v>0.1143334024247752</v>
       </c>
     </row>
     <row r="196">
@@ -5452,25 +5452,25 @@
         <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003598759800596315</v>
+        <v>0.0003614631807089755</v>
       </c>
       <c r="C196" t="n">
-        <v>2.848944164850935e-05</v>
+        <v>2.946245029575241e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>8.067133341179978e-06</v>
+        <v>8.028424332384272e-06</v>
       </c>
       <c r="E196" t="n">
-        <v>1.340418759158398e-05</v>
+        <v>1.335864900182425e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>3.455834008255548</v>
+        <v>3.473585482275054</v>
       </c>
       <c r="G196" t="n">
-        <v>0.6300807895929705</v>
+        <v>0.627388196856363</v>
       </c>
       <c r="H196" t="n">
-        <v>0.6911668016511097</v>
+        <v>0.6947170964550107</v>
       </c>
     </row>
     <row r="197">
@@ -5478,25 +5478,25 @@
         <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003181662713824261</v>
+        <v>0.0003204131422644551</v>
       </c>
       <c r="C197" t="n">
-        <v>2.196323227523659e-05</v>
+        <v>2.117387482310313e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>7.148536591370204e-06</v>
+        <v>7.130315212914793e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>1.164656297711445e-05</v>
+        <v>1.162816156890608e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>1.925344155502799</v>
+        <v>1.994187999404569</v>
       </c>
       <c r="G197" t="n">
-        <v>0.8593756850327645</v>
+        <v>0.8499486520905085</v>
       </c>
       <c r="H197" t="n">
-        <v>0.3850688311005599</v>
+        <v>0.3988375998809137</v>
       </c>
     </row>
     <row r="198">
@@ -5504,25 +5504,25 @@
         <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003073090437380566</v>
+        <v>0.0003078608012616532</v>
       </c>
       <c r="C198" t="n">
-        <v>2.355553536889586e-05</v>
+        <v>2.407796584844176e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>6.821054120072523e-06</v>
+        <v>6.758575338404623e-06</v>
       </c>
       <c r="E198" t="n">
-        <v>1.127735425836719e-05</v>
+        <v>1.118107364242175e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>2.677953149074906</v>
+        <v>2.930102397360153</v>
       </c>
       <c r="G198" t="n">
-        <v>0.7494882851066017</v>
+        <v>0.7107611916505887</v>
       </c>
       <c r="H198" t="n">
-        <v>0.5355906298149813</v>
+        <v>0.5860204794720306</v>
       </c>
     </row>
     <row r="199">
@@ -5530,25 +5530,25 @@
         <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002988000375451887</v>
+        <v>0.0002998959719269831</v>
       </c>
       <c r="C199" t="n">
-        <v>1.864653427294702e-05</v>
+        <v>1.77867446878657e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>6.613328316330182e-06</v>
+        <v>6.574776649203928e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>1.080769978895961e-05</v>
+        <v>1.073859787354701e-05</v>
       </c>
       <c r="F199" t="n">
-        <v>1.120091377296499</v>
+        <v>1.179434942124529</v>
       </c>
       <c r="G199" t="n">
-        <v>0.9523099221826683</v>
+        <v>0.9468350236138362</v>
       </c>
       <c r="H199" t="n">
-        <v>0.2240182754592998</v>
+        <v>0.2358869884249058</v>
       </c>
     </row>
     <row r="200">
@@ -5556,25 +5556,25 @@
         <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0003787513755336046</v>
+        <v>0.0003806387019110024</v>
       </c>
       <c r="C200" t="n">
-        <v>2.193605567725774e-05</v>
+        <v>2.255781723339449e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>8.825679002940677e-06</v>
+        <v>8.691494803883159e-06</v>
       </c>
       <c r="E200" t="n">
-        <v>1.437185757130459e-05</v>
+        <v>1.418270716272416e-05</v>
       </c>
       <c r="F200" t="n">
-        <v>1.169275894786789</v>
+        <v>1.028231635468664</v>
       </c>
       <c r="G200" t="n">
-        <v>0.9477907469426714</v>
+        <v>0.96025670630908</v>
       </c>
       <c r="H200" t="n">
-        <v>0.2338551789573578</v>
+        <v>0.2056463270937328</v>
       </c>
     </row>
     <row r="201">
@@ -5582,25 +5582,25 @@
         <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0003343670536816429</v>
+        <v>0.0003350791968718691</v>
       </c>
       <c r="C201" t="n">
-        <v>2.180640672899055e-05</v>
+        <v>2.313257088174339e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>7.270728904446079e-06</v>
+        <v>7.23162065652701e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>1.205376204664052e-05</v>
+        <v>1.200450005157522e-05</v>
       </c>
       <c r="F201" t="n">
-        <v>3.288815615024041</v>
+        <v>3.336875589297186</v>
       </c>
       <c r="G201" t="n">
-        <v>0.655554436755597</v>
+        <v>0.6482009513128432</v>
       </c>
       <c r="H201" t="n">
-        <v>0.6577631230048081</v>
+        <v>0.6673751178594372</v>
       </c>
     </row>
     <row r="202">
@@ -5608,25 +5608,25 @@
         <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003518246050967128</v>
+        <v>0.0003538547175332991</v>
       </c>
       <c r="C202" t="n">
-        <v>1.325204224318432e-05</v>
+        <v>1.307823332809591e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>8.42375984569659e-06</v>
+        <v>8.342064603073578e-06</v>
       </c>
       <c r="E202" t="n">
-        <v>1.362150290241404e-05</v>
+        <v>1.351876080301142e-05</v>
       </c>
       <c r="F202" t="n">
-        <v>1.549437941163101</v>
+        <v>2.069885248812096</v>
       </c>
       <c r="G202" t="n">
-        <v>0.907295144288198</v>
+        <v>0.8393930435757753</v>
       </c>
       <c r="H202" t="n">
-        <v>0.3098875882326201</v>
+        <v>0.4139770497624192</v>
       </c>
     </row>
     <row r="203">
@@ -5634,25 +5634,25 @@
         <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003201508323028275</v>
+        <v>0.0003213830312040935</v>
       </c>
       <c r="C203" t="n">
-        <v>1.572555756659973e-05</v>
+        <v>1.92721093890663e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>7.822205975134901e-06</v>
+        <v>7.639997343397987e-06</v>
       </c>
       <c r="E203" t="n">
-        <v>1.263905818504977e-05</v>
+        <v>1.241643466086516e-05</v>
       </c>
       <c r="F203" t="n">
-        <v>0.6153727891702936</v>
+        <v>0.7482413317214764</v>
       </c>
       <c r="G203" t="n">
-        <v>0.9872885777725953</v>
+        <v>0.9802165559767094</v>
       </c>
       <c r="H203" t="n">
-        <v>0.1230745578340587</v>
+        <v>0.1496482663442953</v>
       </c>
     </row>
     <row r="204">
@@ -5660,25 +5660,25 @@
         <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003014336334915375</v>
+        <v>0.0003029164358881298</v>
       </c>
       <c r="C204" t="n">
-        <v>2.093180447697076e-05</v>
+        <v>2.038178224428162e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>7.33284337024221e-06</v>
+        <v>7.255234475247669e-06</v>
       </c>
       <c r="E204" t="n">
-        <v>1.201465553246608e-05</v>
+        <v>1.190690802151963e-05</v>
       </c>
       <c r="F204" t="n">
-        <v>1.664149876061242</v>
+        <v>1.437512116144184</v>
       </c>
       <c r="G204" t="n">
-        <v>0.8933849489267522</v>
+        <v>0.9201662928339838</v>
       </c>
       <c r="H204" t="n">
-        <v>0.3328299752122484</v>
+        <v>0.2875024232288368</v>
       </c>
     </row>
     <row r="205">
@@ -5686,25 +5686,25 @@
         <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.000287495593435333</v>
+        <v>0.0002877394177720181</v>
       </c>
       <c r="C205" t="n">
-        <v>1.905190648877268e-05</v>
+        <v>2.004275743212609e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>7.032112549808753e-06</v>
+        <v>6.903005717039494e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>1.15031563846391e-05</v>
+        <v>1.133783204426894e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>2.543159021075657</v>
+        <v>1.98604565732894</v>
       </c>
       <c r="G205" t="n">
-        <v>0.769981671645973</v>
+        <v>0.8510724992639875</v>
       </c>
       <c r="H205" t="n">
-        <v>0.5086318042151313</v>
+        <v>0.397209131465788</v>
       </c>
     </row>
     <row r="206">
@@ -5712,25 +5712,25 @@
         <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002667148057704817</v>
+        <v>0.0002685396005652207</v>
       </c>
       <c r="C206" t="n">
-        <v>1.638584667788048e-05</v>
+        <v>1.492329394903186e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>6.735500739642757e-06</v>
+        <v>6.61654086041781e-06</v>
       </c>
       <c r="E206" t="n">
-        <v>1.093319987157979e-05</v>
+        <v>1.076076462817061e-05</v>
       </c>
       <c r="F206" t="n">
-        <v>0.8068833364871209</v>
+        <v>0.8518099566250157</v>
       </c>
       <c r="G206" t="n">
-        <v>0.976592226745118</v>
+        <v>0.9736117258101419</v>
       </c>
       <c r="H206" t="n">
-        <v>0.1613766672974242</v>
+        <v>0.1703619913250031</v>
       </c>
     </row>
     <row r="207">
@@ -5738,25 +5738,25 @@
         <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002490532691609703</v>
+        <v>0.0002502506907400741</v>
       </c>
       <c r="C207" t="n">
-        <v>1.371045500196859e-05</v>
+        <v>1.322593818543985e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>5.843231743619922e-06</v>
+        <v>5.772108844468095e-06</v>
       </c>
       <c r="E207" t="n">
-        <v>9.468050927606402e-06</v>
+        <v>9.370489059675647e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>1.228120085060806</v>
+        <v>1.118612958323223</v>
       </c>
       <c r="G207" t="n">
-        <v>0.9421513447346687</v>
+        <v>0.9524429591086252</v>
       </c>
       <c r="H207" t="n">
-        <v>0.2456240170121613</v>
+        <v>0.2237225916646445</v>
       </c>
     </row>
     <row r="208">
@@ -5764,25 +5764,25 @@
         <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002544171083103951</v>
+        <v>0.0002551189626218301</v>
       </c>
       <c r="C208" t="n">
-        <v>5.659542852733774e-06</v>
+        <v>9.115732043846761e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>6.335239737818997e-06</v>
+        <v>6.114001172411564e-06</v>
       </c>
       <c r="E208" t="n">
-        <v>1.007306401105609e-05</v>
+        <v>9.744876268449579e-06</v>
       </c>
       <c r="F208" t="n">
-        <v>1.601506002237215</v>
+        <v>2.627768569380208</v>
       </c>
       <c r="G208" t="n">
-        <v>0.9010671640383119</v>
+        <v>0.7571417813919471</v>
       </c>
       <c r="H208" t="n">
-        <v>0.3203012004474431</v>
+        <v>0.5255537138760416</v>
       </c>
     </row>
     <row r="209">
@@ -5790,25 +5790,25 @@
         <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0001327709155257498</v>
+        <v>0.0001334464596864754</v>
       </c>
       <c r="C209" t="n">
-        <v>8.058864833122213e-06</v>
+        <v>7.552806985878916e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>3.242049132764698e-06</v>
+        <v>3.176204856526237e-06</v>
       </c>
       <c r="E209" t="n">
-        <v>5.242432573807297e-06</v>
+        <v>5.142586039289163e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>3.208035325379925</v>
+        <v>3.168626918104528</v>
       </c>
       <c r="G209" t="n">
-        <v>0.6679481183951019</v>
+        <v>0.6740068455176277</v>
       </c>
       <c r="H209" t="n">
-        <v>0.6416070650759851</v>
+        <v>0.6337253836209056</v>
       </c>
     </row>
     <row r="210">
@@ -5816,25 +5816,25 @@
         <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>5.565613880113765e-05</v>
+        <v>5.750881501967455e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>3.993835288134125e-06</v>
+        <v>2.723343165384415e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>1.648162779360666e-06</v>
+        <v>1.581252042225814e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>2.662221458441293e-06</v>
+        <v>2.568006484699009e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>3.411651940918745</v>
+        <v>5.265932209290191</v>
       </c>
       <c r="G210" t="n">
-        <v>0.6367959185001205</v>
+        <v>0.3842948679731292</v>
       </c>
       <c r="H210" t="n">
-        <v>0.6823303881837489</v>
+        <v>1.053186441858038</v>
       </c>
     </row>
     <row r="211">
@@ -5842,25 +5842,25 @@
         <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>3.363538757359062e-05</v>
+        <v>3.445785181665553e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>1.659353236292618e-06</v>
+        <v>2.00065770295791e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>1.072673992922789e-06</v>
+        <v>1.013170455907848e-06</v>
       </c>
       <c r="E211" t="n">
-        <v>1.743810043911845e-06</v>
+        <v>1.673229082299673e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>1.183725738534801</v>
+        <v>2.441016774927536</v>
       </c>
       <c r="G211" t="n">
-        <v>0.9464290997977118</v>
+        <v>0.7853506712091721</v>
       </c>
       <c r="H211" t="n">
-        <v>0.2367451477069603</v>
+        <v>0.4882033549855072</v>
       </c>
     </row>
     <row r="212">
@@ -5868,25 +5868,25 @@
         <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>4.874187733672559e-05</v>
+        <v>4.964930044082619e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>4.907875118007593e-06</v>
+        <v>4.939343582773446e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>1.355318208740087e-06</v>
+        <v>1.310773826398455e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>2.2650792477206e-06</v>
+        <v>2.202937942533238e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>3.40904916666987</v>
+        <v>3.454545896169342</v>
       </c>
       <c r="G212" t="n">
-        <v>0.6371920830565037</v>
+        <v>0.6302762979786344</v>
       </c>
       <c r="H212" t="n">
-        <v>0.681809833333974</v>
+        <v>0.6909091792338684</v>
       </c>
     </row>
     <row r="213">
@@ -5894,25 +5894,25 @@
         <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>3.020181177556057e-05</v>
+        <v>3.124121290956358e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>1.908272091781597e-06</v>
+        <v>1.453763044803305e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>9.367335402056032e-07</v>
+        <v>8.943628926003181e-07</v>
       </c>
       <c r="E213" t="n">
-        <v>1.510115636302752e-06</v>
+        <v>1.450935641409779e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>0.8154662682186646</v>
+        <v>0.9498203186002102</v>
       </c>
       <c r="G213" t="n">
-        <v>0.9760363849950681</v>
+        <v>0.9665107259069871</v>
       </c>
       <c r="H213" t="n">
-        <v>0.1630932536437329</v>
+        <v>0.189964063720042</v>
       </c>
     </row>
     <row r="214">
@@ -5920,25 +5920,25 @@
         <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>2.43680305594534e-05</v>
+        <v>2.540243769025849e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>2.626748155874043e-06</v>
+        <v>2.059147198494603e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>7.995331473215678e-07</v>
+        <v>7.600011021132793e-07</v>
       </c>
       <c r="E214" t="n">
-        <v>1.311724828250154e-06</v>
+        <v>1.25410038719327e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>3.345453829746196</v>
+        <v>5.250192268896773</v>
       </c>
       <c r="G214" t="n">
-        <v>0.646890234165148</v>
+        <v>0.3861156448681313</v>
       </c>
       <c r="H214" t="n">
-        <v>0.6690907659492391</v>
+        <v>1.050038453779355</v>
       </c>
     </row>
     <row r="215">
@@ -5946,25 +5946,25 @@
         <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>2.059640859477008e-05</v>
+        <v>2.136723954369957e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>2.169481728690178e-06</v>
+        <v>1.831934544679924e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>6.510777415615934e-07</v>
+        <v>6.17061559216828e-07</v>
       </c>
       <c r="E215" t="n">
-        <v>1.078416424557184e-06</v>
+        <v>1.022492145250668e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>2.151989821287674</v>
+        <v>5.131741942546462</v>
       </c>
       <c r="G215" t="n">
-        <v>0.8277397332186605</v>
+        <v>0.4000148663605323</v>
       </c>
       <c r="H215" t="n">
-        <v>0.4303979642575348</v>
+        <v>1.026348388509292</v>
       </c>
     </row>
     <row r="216">
@@ -5972,25 +5972,25 @@
         <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>2.0905891822657e-05</v>
+        <v>1.794521564520685e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>2.62565266248973e-06</v>
+        <v>9.65586987891683e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>6.966352287733827e-07</v>
+        <v>4.924828028521542e-07</v>
       </c>
       <c r="E216" t="n">
-        <v>1.149358626270015e-06</v>
+        <v>8.72203407002161e-07</v>
       </c>
       <c r="F216" t="n">
-        <v>9.104862299516697</v>
+        <v>48.45057460962483</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1049539463543533</v>
+        <v>2.873836640866496e-09</v>
       </c>
       <c r="H216" t="n">
-        <v>1.820972459903339</v>
+        <v>9.690114921924966</v>
       </c>
     </row>
     <row r="217">
@@ -5998,25 +5998,25 @@
         <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>3.095465940967992e-05</v>
+        <v>3.051822327747017e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>4.737335178598905e-06</v>
+        <v>9.966499557033968e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>8.812487060536766e-07</v>
+        <v>7.351021453220193e-07</v>
       </c>
       <c r="E217" t="n">
-        <v>1.492377596315492e-06</v>
+        <v>1.298329004324131e-06</v>
       </c>
       <c r="F217" t="n">
-        <v>6.022994698925638</v>
+        <v>24.61670998471328</v>
       </c>
       <c r="G217" t="n">
-        <v>0.3039878614007646</v>
+        <v>0.0001651953329795267</v>
       </c>
       <c r="H217" t="n">
-        <v>1.204598939785128</v>
+        <v>4.923341996942656</v>
       </c>
     </row>
     <row r="218">
@@ -6024,25 +6024,25 @@
         <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>5.737914398157598e-05</v>
+        <v>5.60901290441057e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>5.030152276377093e-06</v>
+        <v>1.213675824023728e-05</v>
       </c>
       <c r="D218" t="n">
-        <v>1.43723128378094e-06</v>
+        <v>1.276276701556909e-06</v>
       </c>
       <c r="E218" t="n">
-        <v>2.383144400523614e-06</v>
+        <v>2.179708889010731e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>2.935064125087689</v>
+        <v>12.77497717757622</v>
       </c>
       <c r="G218" t="n">
-        <v>0.7099964850737648</v>
+        <v>0.02558124710834445</v>
       </c>
       <c r="H218" t="n">
-        <v>0.5870128250175378</v>
+        <v>2.554995435515244</v>
       </c>
     </row>
     <row r="219">
@@ -6050,25 +6050,25 @@
         <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>6.440725995665743e-05</v>
+        <v>6.514436345550022e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>6.218645441343784e-06</v>
+        <v>6.203807554227172e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>1.590051441655096e-06</v>
+        <v>1.546174159476625e-06</v>
       </c>
       <c r="E219" t="n">
-        <v>2.65610767246608e-06</v>
+        <v>2.599560428940276e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>3.87349409713453</v>
+        <v>4.068843984776684</v>
       </c>
       <c r="G219" t="n">
-        <v>0.5677698434667502</v>
+        <v>0.5395473252286158</v>
       </c>
       <c r="H219" t="n">
-        <v>0.774698819426906</v>
+        <v>0.8137687969553369</v>
       </c>
     </row>
     <row r="220">
@@ -6076,25 +6076,25 @@
         <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>5.631561984340224e-05</v>
+        <v>5.734741360394054e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>5.971850545186888e-06</v>
+        <v>5.409099545497979e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>1.34683743221254e-06</v>
+        <v>1.333202594568767e-06</v>
       </c>
       <c r="E220" t="n">
-        <v>2.263378003148355e-06</v>
+        <v>2.242257307286493e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>4.904952833523985</v>
+        <v>4.711410105360994</v>
       </c>
       <c r="G220" t="n">
-        <v>0.4275897684942553</v>
+        <v>0.4521048633739525</v>
       </c>
       <c r="H220" t="n">
-        <v>0.9809905667047969</v>
+        <v>0.9422820210721987</v>
       </c>
     </row>
     <row r="221">
@@ -6102,25 +6102,25 @@
         <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>5.022953602438964e-05</v>
+        <v>5.132511335314085e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>5.314628319981869e-06</v>
+        <v>5.023257546975773e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>1.29969567839957e-06</v>
+        <v>1.244209693413005e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>2.147401706143848e-06</v>
+        <v>2.076598785191403e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>1.68924395225705</v>
+        <v>1.981947562891514</v>
       </c>
       <c r="G221" t="n">
-        <v>0.8902520422610718</v>
+        <v>0.8516372576339853</v>
       </c>
       <c r="H221" t="n">
-        <v>0.33784879045141</v>
+        <v>0.3963895125783027</v>
       </c>
     </row>
   </sheetData>
